--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -58,12 +58,27 @@
   <si>
     <t>traverse &amp; parseInt(num,2)</t>
   </si>
+  <si>
+    <t>Stone game</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>minimax+dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game/</t>
+  </si>
+  <si>
+    <t>greedy wont work -&gt; try all possibilities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +114,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -151,17 +173,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -447,25 +471,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" customWidth="1"/>
     <col min="4" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="7" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -484,1223 +508,1233 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="B126" s="4"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -1710,8 +1744,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -65,13 +65,22 @@
     <t>recursive</t>
   </si>
   <si>
-    <t>minimax+dp</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/stone-game/</t>
   </si>
   <si>
     <t>greedy wont work -&gt; try all possibilities</t>
+  </si>
+  <si>
+    <t>direct return true( only if even length piles)</t>
+  </si>
+  <si>
+    <t>dp(given in leetcode)</t>
+  </si>
+  <si>
+    <t>minimax+memoization (check my submission)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game/discuss/261718/Step-by-Step-Recursive-TopDown-BottomUp-and-BottomUp-using-O(n)-space-in-Java</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,12 +489,14 @@
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="5" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="7" width="75.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -508,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -525,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -533,18 +544,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
@@ -553,7 +571,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
@@ -562,7 +580,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
@@ -571,7 +589,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="1"/>
@@ -580,7 +598,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
@@ -589,7 +607,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="1"/>
@@ -598,7 +616,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
@@ -607,7 +625,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
@@ -616,7 +634,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -625,7 +643,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
@@ -634,7 +652,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="1"/>
@@ -643,7 +661,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="1"/>
@@ -652,7 +670,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/stone-game/discuss/261718/Step-by-Step-Recursive-TopDown-BottomUp-and-BottomUp-using-O(n)-space-in-Java</t>
+  </si>
+  <si>
+    <t>xor operation in an array</t>
+  </si>
+  <si>
+    <t>o(n)</t>
+  </si>
+  <si>
+    <t>o(1) by modulo</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/xor-operation-in-an-array/</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -563,13 +575,21 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1763,8 +1783,9 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/xor-operation-in-an-array/</t>
+  </si>
+  <si>
+    <t>longest uncommon subsequence 1</t>
+  </si>
+  <si>
+    <t>brute force</t>
+  </si>
+  <si>
+    <t>o(1) [if both equals return -1 else max(stra,strb)</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>leetcode.com/longest-uncommon-subsequence-i</t>
   </si>
 </sst>
 </file>
@@ -202,11 +217,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -492,14 +507,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
@@ -512,7 +527,7 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -544,12 +559,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -567,7 +582,7 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
@@ -575,10 +590,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -587,22 +602,32 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -611,7 +636,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -620,7 +645,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -629,7 +654,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -638,7 +663,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -647,7 +672,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -656,7 +681,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -665,7 +690,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -674,7 +699,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -683,7 +708,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -692,7 +717,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -701,7 +726,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -710,7 +735,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -719,7 +744,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -728,7 +753,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -737,7 +762,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -746,7 +771,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -755,7 +780,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -764,7 +789,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -773,7 +798,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -782,7 +807,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -791,7 +816,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -800,7 +825,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -809,7 +834,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -818,7 +843,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -827,7 +852,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -836,7 +861,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -845,7 +870,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -854,7 +879,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -863,7 +888,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -872,7 +897,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -881,7 +906,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -890,7 +915,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -899,7 +924,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -908,7 +933,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -917,7 +942,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -926,7 +951,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -935,7 +960,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -944,7 +969,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -953,7 +978,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -962,7 +987,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -971,7 +996,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -980,7 +1005,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -989,7 +1014,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -998,7 +1023,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1007,7 +1032,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1016,7 +1041,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1025,7 +1050,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1034,7 +1059,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1043,7 +1068,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1052,7 +1077,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1061,7 +1086,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1070,7 +1095,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1079,7 +1104,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1088,7 +1113,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1097,7 +1122,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1106,7 +1131,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1115,7 +1140,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1124,7 +1149,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1133,7 +1158,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1142,7 +1167,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1151,7 +1176,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1160,7 +1185,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1169,7 +1194,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1178,7 +1203,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1187,7 +1212,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1196,7 +1221,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1205,7 +1230,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1214,7 +1239,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1223,7 +1248,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1232,7 +1257,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1241,7 +1266,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1250,7 +1275,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1259,7 +1284,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1268,7 +1293,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1277,7 +1302,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1286,7 +1311,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1295,7 +1320,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1304,7 +1329,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1313,7 +1338,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1322,7 +1347,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1331,7 +1356,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1340,7 +1365,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1349,7 +1374,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1358,7 +1383,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1367,7 +1392,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1376,7 +1401,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1385,7 +1410,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1394,7 +1419,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1403,7 +1428,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1412,7 +1437,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1421,7 +1446,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1430,7 +1455,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1439,7 +1464,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1448,7 +1473,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1457,7 +1482,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1466,7 +1491,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1475,7 +1500,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1484,7 +1509,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1493,7 +1518,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1502,7 +1527,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1511,7 +1536,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1520,7 +1545,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1529,7 +1554,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1538,7 +1563,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -1547,7 +1572,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -1556,7 +1581,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -1565,7 +1590,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1574,7 +1599,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -1583,7 +1608,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -1592,7 +1617,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -1601,7 +1626,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -1610,7 +1635,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -1619,7 +1644,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -1628,7 +1653,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -1637,7 +1662,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -1646,7 +1671,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1655,7 +1680,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -1664,7 +1689,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -1673,7 +1698,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-      <c r="B125" s="9"/>
+      <c r="B125" s="8"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -1682,7 +1707,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="B126" s="9"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -1691,7 +1716,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -1700,7 +1725,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="B128" s="9"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -1709,7 +1734,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="B129" s="9"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -1718,7 +1743,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -1727,7 +1752,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -1736,7 +1761,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -1745,7 +1770,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -1754,7 +1779,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -1763,7 +1788,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -1772,7 +1797,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="9"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B808F3A-AEDC-0849-9DB7-7D0760CB25B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -108,12 +109,36 @@
   </si>
   <si>
     <t>leetcode.com/longest-uncommon-subsequence-i</t>
+  </si>
+  <si>
+    <t>binary tree inorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack </t>
+  </si>
+  <si>
+    <t>morris -O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leetcode </t>
+  </si>
+  <si>
+    <t>minimum falling path sum</t>
+  </si>
+  <si>
+    <t>memoization</t>
+  </si>
+  <si>
+    <t>dp(bottom up)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -222,6 +247,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -504,26 +530,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="75.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -546,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -589,7 +615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -606,7 +632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -625,25 +651,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1"/>
@@ -652,7 +698,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
@@ -661,7 +707,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1"/>
@@ -670,7 +716,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="1"/>
@@ -679,7 +725,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
@@ -688,7 +734,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="1"/>
@@ -697,7 +743,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
@@ -706,7 +752,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
@@ -715,7 +761,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="1"/>
@@ -724,7 +770,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="1"/>
@@ -733,7 +779,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="1"/>
@@ -742,7 +788,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="1"/>
@@ -751,7 +797,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="1"/>
@@ -760,7 +806,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
@@ -769,7 +815,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
@@ -778,7 +824,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
@@ -787,7 +833,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
@@ -796,7 +842,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
@@ -805,7 +851,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
@@ -814,7 +860,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
@@ -823,7 +869,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
@@ -832,7 +878,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
@@ -841,7 +887,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
@@ -850,7 +896,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
@@ -859,7 +905,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
@@ -868,7 +914,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
@@ -877,7 +923,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
@@ -886,7 +932,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="1"/>
@@ -895,7 +941,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="1"/>
@@ -904,7 +950,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="1"/>
@@ -913,7 +959,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
@@ -922,7 +968,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
@@ -931,7 +977,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
@@ -940,7 +986,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
@@ -949,7 +995,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
@@ -958,7 +1004,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
@@ -967,7 +1013,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="1"/>
@@ -976,7 +1022,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="1"/>
@@ -985,7 +1031,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
@@ -994,7 +1040,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
@@ -1003,7 +1049,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
@@ -1012,7 +1058,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
@@ -1021,7 +1067,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
@@ -1030,7 +1076,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
@@ -1039,7 +1085,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="1"/>
@@ -1048,7 +1094,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
@@ -1057,7 +1103,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="1"/>
@@ -1066,7 +1112,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="1"/>
@@ -1075,7 +1121,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="1"/>
@@ -1084,7 +1130,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="1"/>
@@ -1093,7 +1139,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1"/>
@@ -1102,7 +1148,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="1"/>
@@ -1111,7 +1157,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1"/>
@@ -1120,7 +1166,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="1"/>
@@ -1129,7 +1175,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="1"/>
@@ -1138,7 +1184,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
@@ -1147,7 +1193,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
@@ -1156,7 +1202,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="1"/>
@@ -1165,7 +1211,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="1"/>
@@ -1174,7 +1220,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="1"/>
@@ -1183,7 +1229,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="1"/>
@@ -1192,7 +1238,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="1"/>
@@ -1201,7 +1247,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="1"/>
@@ -1210,7 +1256,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="1"/>
@@ -1219,7 +1265,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="1"/>
@@ -1228,7 +1274,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="1"/>
@@ -1237,7 +1283,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="1"/>
@@ -1246,7 +1292,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="1"/>
@@ -1255,7 +1301,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="1"/>
@@ -1264,7 +1310,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="1"/>
@@ -1273,7 +1319,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="1"/>
@@ -1282,7 +1328,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="1"/>
@@ -1291,7 +1337,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="1"/>
@@ -1300,7 +1346,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="1"/>
@@ -1309,7 +1355,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="1"/>
@@ -1318,7 +1364,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="1"/>
@@ -1327,7 +1373,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="1"/>
@@ -1336,7 +1382,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="1"/>
@@ -1345,7 +1391,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="1"/>
@@ -1354,7 +1400,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="1"/>
@@ -1363,7 +1409,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="1"/>
@@ -1372,7 +1418,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="1"/>
@@ -1381,7 +1427,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="1"/>
@@ -1390,7 +1436,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="1"/>
@@ -1399,7 +1445,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="1"/>
@@ -1408,7 +1454,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="1"/>
@@ -1417,7 +1463,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
@@ -1426,7 +1472,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="1"/>
@@ -1435,7 +1481,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="1"/>
@@ -1444,7 +1490,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="1"/>
@@ -1453,7 +1499,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
@@ -1462,7 +1508,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
@@ -1471,7 +1517,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
@@ -1480,7 +1526,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
@@ -1489,7 +1535,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
@@ -1498,7 +1544,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
@@ -1507,7 +1553,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
@@ -1516,7 +1562,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
@@ -1525,7 +1571,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
@@ -1534,7 +1580,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1"/>
@@ -1543,7 +1589,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1"/>
@@ -1552,7 +1598,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1"/>
@@ -1561,7 +1607,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="1"/>
@@ -1570,7 +1616,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="1"/>
@@ -1579,7 +1625,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1"/>
@@ -1588,7 +1634,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="8"/>
       <c r="C113" s="1"/>
@@ -1597,7 +1643,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1"/>
@@ -1606,7 +1652,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1"/>
@@ -1615,7 +1661,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1"/>
@@ -1624,7 +1670,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1"/>
@@ -1633,7 +1679,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1"/>
@@ -1642,7 +1688,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1"/>
@@ -1651,7 +1697,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1"/>
@@ -1660,7 +1706,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="1"/>
@@ -1669,7 +1715,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="1"/>
@@ -1678,7 +1724,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1"/>
@@ -1687,7 +1733,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1"/>
@@ -1696,7 +1742,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1"/>
@@ -1705,7 +1751,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1"/>
@@ -1714,7 +1760,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1"/>
@@ -1723,7 +1769,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1"/>
@@ -1732,7 +1778,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="8"/>
       <c r="C129" s="1"/>
@@ -1741,7 +1787,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1"/>
@@ -1750,7 +1796,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1"/>
@@ -1759,7 +1805,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="1"/>
@@ -1768,7 +1814,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="1"/>
@@ -1777,7 +1823,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1"/>
@@ -1786,7 +1832,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1"/>
@@ -1795,7 +1841,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1"/>
@@ -1806,11 +1852,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B808F3A-AEDC-0849-9DB7-7D0760CB25B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D461CC1-A369-9343-938C-115502D7BF69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -133,13 +133,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
+  </si>
+  <si>
+    <t>LRU cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashmap and doubly linkedlist for both O(1) </t>
+  </si>
+  <si>
+    <t>linked hasmap - ordered hashmap( keep record of insertion time -&gt; just remove and add to for get operation to change the time ) both o(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>hashmap for both opern - need to traverse for second opern,  O(1) and O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +198,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +262,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -247,7 +275,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -534,7 +576,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,18 +727,28 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -1856,8 +1908,9 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{47DDC3E9-2A88-8C4C-9B0C-BF67A9BBC38E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D461CC1-A369-9343-938C-115502D7BF69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA02BF3-E2B4-A74D-87B2-A39A3755D388}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>hashmap for both opern - need to traverse for second opern,  O(1) and O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array of given capacity -&gt; if capacity full then remove the LRU by traversing and then shift items to left side make space for the new item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">techdose video </t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -275,9 +281,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +292,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -576,7 +585,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,22 +740,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA02BF3-E2B4-A74D-87B2-A39A3755D388}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64577F81-824B-7E4B-9E4F-4C68131E2FEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -154,13 +154,195 @@
   </si>
   <si>
     <t xml:space="preserve">techdose video </t>
+  </si>
+  <si>
+    <t>all susbets of a given string</t>
+  </si>
+  <si>
+    <t>bit manipulation</t>
+  </si>
+  <si>
+    <t>middle of a linkedlist</t>
+  </si>
+  <si>
+    <t>two traversal O(n) space O(1)</t>
+  </si>
+  <si>
+    <t>recursive O(n), space O(n)</t>
+  </si>
+  <si>
+    <t>one traversal using hashmap and count as indices</t>
+  </si>
+  <si>
+    <t>fast and slow pointer O(logn)</t>
+  </si>
+  <si>
+    <t>cycle in directed graph</t>
+  </si>
+  <si>
+    <t>dfs using back edge(maintain one stack)</t>
+  </si>
+  <si>
+    <t>union find (disjoint data structure)</t>
+  </si>
+  <si>
+    <t>cycle in un-directed graph</t>
+  </si>
+  <si>
+    <t>dfs using back edge(maintain one stack if visited and already in stack then cycle)</t>
+  </si>
+  <si>
+    <t>bfs*</t>
+  </si>
+  <si>
+    <t>find cycle in a linkedlist / first element of a cycle</t>
+  </si>
+  <si>
+    <t>slow and fast pointer</t>
+  </si>
+  <si>
+    <t>Hashmap O(n)</t>
+  </si>
+  <si>
+    <t>O(1) method</t>
+  </si>
+  <si>
+    <t>clone linkedlist**</t>
+  </si>
+  <si>
+    <t>clone graph**</t>
+  </si>
+  <si>
+    <t>mst algos</t>
+  </si>
+  <si>
+    <t>shortest path algos</t>
+  </si>
+  <si>
+    <t>dial's algo(optimized disjkstra for small range weights)</t>
+  </si>
+  <si>
+    <t>prim's mst - relax neighbours v-1 times</t>
+  </si>
+  <si>
+    <t>krushkal's mst - sorting the edges / uses union find to detect cycle</t>
+  </si>
+  <si>
+    <t>dfs for unWeighted graph</t>
+  </si>
+  <si>
+    <t>dijsktra algo (single source) VlogV</t>
+  </si>
+  <si>
+    <t>string matching algos</t>
+  </si>
+  <si>
+    <t>Z algo O(m+n)</t>
+  </si>
+  <si>
+    <t>KMP O(m+n)</t>
+  </si>
+  <si>
+    <t>Hashing - rabin karp avg- O(m+n) / worst O(mn)</t>
+  </si>
+  <si>
+    <t>Naïve O(mn)</t>
+  </si>
+  <si>
+    <t>sorting algos</t>
+  </si>
+  <si>
+    <t>counting, bucket, radix</t>
+  </si>
+  <si>
+    <t>bubble sort, selection, insertion (comparison based)</t>
+  </si>
+  <si>
+    <t>merge sort, quick sort (divide &amp; conquer)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bellman-ford (work for negative weight cycle as well) single source shortest path (at the end last V'th loop for negative  cycle detection, if any weight has been relaxed then there is negative cycle, bellman ford doesn’t work for that), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>graph must be directed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">floyd- warshal (all pair shortest path) works for negative weights -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>graph must be directed graph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, find shortest path passing via -&gt; k (intermediate vertex )</t>
+    </r>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>cascading</t>
+  </si>
+  <si>
+    <t>pascal's triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP ( edge case 0,1,2 handle them separatly) </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> complexity -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>O(numRows^2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Array problems common approaches</t>
+  </si>
+  <si>
+    <t>String problems common approaches</t>
+  </si>
+  <si>
+    <t>frequency count, string inbuilt  methods, hashing, pattern search, anagram, use of arraylist, stringbuilder to store intermediate results</t>
+  </si>
+  <si>
+    <t>sorting(nlogn), two pointer,hashSet,hashMap ,count sort, 1&lt;=arr[i]&lt;=n (then there must be some unique pattern, mostly by modifing the original array to solve it in O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +393,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -238,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,6 +461,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,7 +479,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -298,6 +509,32 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -584,23 +821,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
     <col min="6" max="6" width="46.5" customWidth="1"/>
     <col min="7" max="7" width="75.5" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -623,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -640,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -666,7 +903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -683,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -702,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -721,7 +958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -740,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="80">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -763,62 +1000,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:8" ht="16">
+      <c r="A11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:8" ht="32">
+      <c r="A12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -826,70 +1107,122 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="1:8" ht="96">
+      <c r="A16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:7" ht="32">
+      <c r="A17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
+      <c r="G20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="64">
+      <c r="A21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:7" ht="48">
+      <c r="A22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
@@ -898,7 +1231,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
@@ -907,7 +1240,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
@@ -916,7 +1249,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
@@ -925,7 +1258,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
@@ -934,7 +1267,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
@@ -943,7 +1276,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
@@ -952,7 +1285,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
@@ -961,7 +1294,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
@@ -970,7 +1303,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
@@ -979,7 +1312,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
@@ -988,7 +1321,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
@@ -997,7 +1330,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="1"/>
@@ -1006,7 +1339,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="1"/>
@@ -1015,7 +1348,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="1"/>
@@ -1024,7 +1357,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
@@ -1033,7 +1366,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
@@ -1042,7 +1375,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
@@ -1051,7 +1384,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
@@ -1060,7 +1393,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
@@ -1069,7 +1402,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
@@ -1078,7 +1411,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="1"/>
@@ -1087,7 +1420,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="1"/>
@@ -1096,7 +1429,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
@@ -1105,7 +1438,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
@@ -1114,7 +1447,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
@@ -1123,7 +1456,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
@@ -1132,7 +1465,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
@@ -1141,7 +1474,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
@@ -1150,7 +1483,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="1"/>
@@ -1159,7 +1492,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
@@ -1168,7 +1501,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="1"/>
@@ -1177,7 +1510,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="1"/>
@@ -1186,7 +1519,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="1"/>
@@ -1195,7 +1528,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="1"/>
@@ -1204,7 +1537,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1"/>
@@ -1213,7 +1546,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="1"/>
@@ -1222,7 +1555,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1"/>
@@ -1231,7 +1564,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="1"/>
@@ -1240,7 +1573,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="1"/>
@@ -1249,7 +1582,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
@@ -1258,7 +1591,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
@@ -1267,7 +1600,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="1"/>
@@ -1276,7 +1609,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="1"/>
@@ -1285,7 +1618,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="1"/>
@@ -1294,7 +1627,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="1"/>
@@ -1303,7 +1636,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="1"/>
@@ -1312,7 +1645,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="1"/>
@@ -1321,7 +1654,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="1"/>
@@ -1330,7 +1663,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="1"/>
@@ -1339,7 +1672,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="1"/>
@@ -1348,7 +1681,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="1"/>
@@ -1357,7 +1690,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="1"/>
@@ -1366,7 +1699,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="1"/>
@@ -1375,7 +1708,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="1"/>
@@ -1384,7 +1717,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="1"/>
@@ -1393,7 +1726,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="1"/>
@@ -1402,7 +1735,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="1"/>
@@ -1411,7 +1744,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="1"/>
@@ -1420,7 +1753,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="1"/>
@@ -1429,7 +1762,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="1"/>
@@ -1438,7 +1771,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="1"/>
@@ -1447,7 +1780,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="1"/>
@@ -1456,7 +1789,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="1"/>
@@ -1465,7 +1798,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="1"/>
@@ -1474,7 +1807,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="1"/>
@@ -1483,7 +1816,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="1"/>
@@ -1492,7 +1825,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="1"/>
@@ -1501,7 +1834,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="1"/>
@@ -1510,7 +1843,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="1"/>
@@ -1519,7 +1852,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="1"/>
@@ -1528,7 +1861,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
@@ -1537,7 +1870,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="1"/>
@@ -1546,7 +1879,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="1"/>
@@ -1555,7 +1888,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="1"/>
@@ -1564,7 +1897,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
@@ -1573,7 +1906,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
@@ -1582,7 +1915,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
@@ -1591,7 +1924,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
@@ -1600,7 +1933,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
@@ -1609,7 +1942,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
@@ -1618,7 +1951,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
@@ -1627,7 +1960,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
@@ -1636,7 +1969,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
@@ -1645,7 +1978,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1"/>
@@ -1654,7 +1987,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1"/>
@@ -1663,7 +1996,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1"/>
@@ -1672,7 +2005,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="1"/>
@@ -1681,7 +2014,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="1"/>
@@ -1690,7 +2023,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1"/>
@@ -1699,7 +2032,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="8"/>
       <c r="C113" s="1"/>
@@ -1708,7 +2041,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1"/>
@@ -1717,7 +2050,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1"/>
@@ -1726,7 +2059,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1"/>
@@ -1735,7 +2068,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1"/>
@@ -1744,7 +2077,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1"/>
@@ -1753,7 +2086,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1"/>
@@ -1762,7 +2095,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1"/>
@@ -1771,7 +2104,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="1"/>
@@ -1780,7 +2113,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="1"/>
@@ -1789,7 +2122,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1"/>
@@ -1798,7 +2131,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1"/>
@@ -1807,7 +2140,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1"/>
@@ -1816,7 +2149,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1"/>
@@ -1825,7 +2158,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1"/>
@@ -1834,7 +2167,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1"/>
@@ -1843,7 +2176,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="8"/>
       <c r="C129" s="1"/>
@@ -1852,7 +2185,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1"/>
@@ -1861,7 +2194,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1"/>
@@ -1870,7 +2203,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="1"/>
@@ -1879,7 +2212,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="1"/>
@@ -1888,7 +2221,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1"/>
@@ -1897,7 +2230,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1"/>
@@ -1906,7 +2239,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1"/>
@@ -1922,8 +2255,9 @@
     <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{47DDC3E9-2A88-8C4C-9B0C-BF67A9BBC38E}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{D00A262F-E6A5-714B-B603-0EC51808A9DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64577F81-824B-7E4B-9E4F-4C68131E2FEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="465" windowWidth="32595" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -154,9 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">techdose video </t>
-  </si>
-  <si>
-    <t>all susbets of a given string</t>
   </si>
   <si>
     <t>bit manipulation</t>
@@ -337,11 +333,20 @@
   <si>
     <t>sorting(nlogn), two pointer,hashSet,hashMap ,count sort, 1&lt;=arr[i]&lt;=n (then there must be some unique pattern, mostly by modifing the original array to solve it in O(n)</t>
   </si>
+  <si>
+    <t>all susbets of a given string / arr</t>
+  </si>
+  <si>
+    <t>longest arithmetic subsequence</t>
+  </si>
+  <si>
+    <t>Brute force approach(exponential) Generate all possible subsequence and then check for the required combination</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -818,26 +823,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -977,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1002,16 +1007,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1019,29 +1024,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1049,18 +1054,18 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1068,13 +1073,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1083,13 +1088,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1098,7 +1103,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
@@ -1107,36 +1112,36 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="32">
-      <c r="A17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1145,63 +1150,63 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="64">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1209,12 +1214,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="60">
       <c r="A22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1222,9 +1227,13 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1233,7 +1242,6 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2250,12 +2258,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{47DDC3E9-2A88-8C4C-9B0C-BF67A9BBC38E}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{D00A262F-E6A5-714B-B603-0EC51808A9DC}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Brute force approach(exponential) Generate all possible subsequence and then check for the required combination</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-sequence/</t>
+  </si>
+  <si>
+    <t>DP(hashmap or double the size of constraint) to store differences, inner loop(left border) wil depend upon upper(right border) loop</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -540,6 +546,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -827,7 +839,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1234,11 +1246,15 @@
       <c r="B23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="29" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
@@ -2264,8 +2280,9 @@
     <hyperlink ref="G7" r:id="rId4"/>
     <hyperlink ref="G8" r:id="rId5"/>
     <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -348,12 +348,106 @@
   <si>
     <t>DP(hashmap or double the size of constraint) to store differences, inner loop(left border) wil depend upon upper(right border) loop</t>
   </si>
+  <si>
+    <t>Find and replace pattern</t>
+  </si>
+  <si>
+    <t>using two hashmap ( mapping b/w word and pattern and then reverse mapping)</t>
+  </si>
+  <si>
+    <t>using one hashmap (mapping and then distinct count of map values)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-and-replace-pattern/</t>
+  </si>
+  <si>
+    <t>distribute coins in a binary tree</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distribute-coins-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>find duplicate subtrees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-subtrees/</t>
+  </si>
+  <si>
+    <r>
+      <t>serialization of each node + map to check count,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Time Complexity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> O(N^2), where N is the number of nodes in the tree. We visit each node once, but each creation of serial may take O(N) work.</t>
+    </r>
+  </si>
+  <si>
+    <t>*unique identifier using hashmap - computeIfAbsentO(N)</t>
+  </si>
+  <si>
+    <t>linkedlist random node</t>
+  </si>
+  <si>
+    <t>[traverse and store the node vals] return list.get(r.nextInt(list.size())) for equal probability</t>
+  </si>
+  <si>
+    <t>random pick index*</t>
+  </si>
+  <si>
+    <t>reservoir sampling* if (_random.Next(++count) == 0) update node which you want to return</t>
+  </si>
+  <si>
+    <t>recursive + memo</t>
+  </si>
+  <si>
+    <t>house rober 3 ( tree problem)</t>
+  </si>
+  <si>
+    <t>dp on tree</t>
+  </si>
+  <si>
+    <t>random pick with weight</t>
+  </si>
+  <si>
+    <t>random pick with blacklist</t>
+  </si>
+  <si>
+    <t>largest sum of averages</t>
+  </si>
+  <si>
+    <t>mcm variation</t>
+  </si>
+  <si>
+    <t>bottom up dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-sum-of-averages/solution/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +515,34 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -553,6 +675,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -838,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1256,43 +1381,74 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
+      <c r="G25" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54.75">
+      <c r="A26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
+      <c r="G26" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
+      <c r="A28" s="32" t="s">
+        <v>107</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1301,16 +1457,18 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1319,22 +1477,36 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="30" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
@@ -2281,8 +2453,12 @@
     <hyperlink ref="G8" r:id="rId5"/>
     <hyperlink ref="G20" r:id="rId6"/>
     <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64577F81-824B-7E4B-9E4F-4C68131E2FEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0980AB-9229-CE46-AED8-A1A575BB99DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -336,6 +336,39 @@
   </si>
   <si>
     <t>sorting(nlogn), two pointer,hashSet,hashMap ,count sort, 1&lt;=arr[i]&lt;=n (then there must be some unique pattern, mostly by modifing the original array to solve it in O(n)</t>
+  </si>
+  <si>
+    <t>implementation ( design)</t>
+  </si>
+  <si>
+    <t>LRU, LFU chache</t>
+  </si>
+  <si>
+    <t>getRandom in O(1)</t>
+  </si>
+  <si>
+    <t>O(1) min/max stack</t>
+  </si>
+  <si>
+    <t>fibonnaci</t>
+  </si>
+  <si>
+    <t>Matrix Exponentiation both (logn)</t>
+  </si>
+  <si>
+    <t>using 3 variables O(n) and O(1) space</t>
+  </si>
+  <si>
+    <t>Math[golden ratio] O(1) both</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/solution/</t>
+  </si>
+  <si>
+    <t>bottom-up -&gt; both O(n)</t>
+  </si>
+  <si>
+    <t>recursion(2^n) and memoization O(n)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -536,6 +569,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -821,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -977,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1223,22 +1257,44 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
@@ -2256,8 +2312,9 @@
     <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{47DDC3E9-2A88-8C4C-9B0C-BF67A9BBC38E}"/>
     <hyperlink ref="G20" r:id="rId6" xr:uid="{D00A262F-E6A5-714B-B603-0EC51808A9DC}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{9E359014-6D49-BF47-B29F-D2B66720BDDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0980AB-9229-CE46-AED8-A1A575BB99DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="465" windowWidth="32595" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -154,9 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">techdose video </t>
-  </si>
-  <si>
-    <t>all susbets of a given string</t>
   </si>
   <si>
     <t>bit manipulation</t>
@@ -338,44 +334,153 @@
     <t>sorting(nlogn), two pointer,hashSet,hashMap ,count sort, 1&lt;=arr[i]&lt;=n (then there must be some unique pattern, mostly by modifing the original array to solve it in O(n)</t>
   </si>
   <si>
+    <t>all susbets of a given string / arr</t>
+  </si>
+  <si>
+    <t>longest arithmetic subsequence</t>
+  </si>
+  <si>
+    <t>Brute force approach(exponential) Generate all possible subsequence and then check for the required combination</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-sequence/</t>
+  </si>
+  <si>
+    <t>DP(hashmap or double the size of constraint) to store differences, inner loop(left border) wil depend upon upper(right border) loop</t>
+  </si>
+  <si>
+    <t>Find and replace pattern</t>
+  </si>
+  <si>
+    <t>using two hashmap ( mapping b/w word and pattern and then reverse mapping)</t>
+  </si>
+  <si>
+    <t>using one hashmap (mapping and then distinct count of map values)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-and-replace-pattern/</t>
+  </si>
+  <si>
+    <t>distribute coins in a binary tree</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distribute-coins-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>find duplicate subtrees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-subtrees/</t>
+  </si>
+  <si>
+    <r>
+      <t>serialization of each node + map to check count,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Time Complexity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> O(N^2), where N is the number of nodes in the tree. We visit each node once, but each creation of serial may take O(N) work.</t>
+    </r>
+  </si>
+  <si>
+    <t>*unique identifier using hashmap - computeIfAbsentO(N)</t>
+  </si>
+  <si>
+    <t>linkedlist random node</t>
+  </si>
+  <si>
+    <t>[traverse and store the node vals] return list.get(r.nextInt(list.size())) for equal probability</t>
+  </si>
+  <si>
+    <t>random pick index*</t>
+  </si>
+  <si>
+    <t>reservoir sampling* if (_random.Next(++count) == 0) update node which you want to return</t>
+  </si>
+  <si>
+    <t>recursive + memo</t>
+  </si>
+  <si>
+    <t>house rober 3 ( tree problem)</t>
+  </si>
+  <si>
+    <t>dp on tree</t>
+  </si>
+  <si>
+    <t>random pick with weight</t>
+  </si>
+  <si>
+    <t>random pick with blacklist</t>
+  </si>
+  <si>
+    <t>largest sum of averages</t>
+  </si>
+  <si>
+    <t>mcm variation</t>
+  </si>
+  <si>
+    <t>bottom up dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-sum-of-averages/solution/</t>
+  </si>
+  <si>
+    <t>fibonnaci</t>
+  </si>
+  <si>
+    <t>recursion(2^n) and memoization O(n)</t>
+  </si>
+  <si>
+    <t>bottom-up -&gt; both O(n)</t>
+  </si>
+  <si>
+    <t>using 3 variables O(n) and O(1) space</t>
+  </si>
+  <si>
+    <t>Matrix Exponentiation both (logn)</t>
+  </si>
+  <si>
+    <t>Math[golden ratio] O(1) both</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fibonacci-number/solution/</t>
+  </si>
+  <si>
     <t>implementation ( design)</t>
   </si>
   <si>
+    <t>O(1) min/max stack</t>
+  </si>
+  <si>
     <t>LRU, LFU chache</t>
   </si>
   <si>
     <t>getRandom in O(1)</t>
-  </si>
-  <si>
-    <t>O(1) min/max stack</t>
-  </si>
-  <si>
-    <t>fibonnaci</t>
-  </si>
-  <si>
-    <t>Matrix Exponentiation both (logn)</t>
-  </si>
-  <si>
-    <t>using 3 variables O(n) and O(1) space</t>
-  </si>
-  <si>
-    <t>Math[golden ratio] O(1) both</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/fibonacci-number/solution/</t>
-  </si>
-  <si>
-    <t>bottom-up -&gt; both O(n)</t>
-  </si>
-  <si>
-    <t>recursion(2^n) and memoization O(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +548,34 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -512,7 +645,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -569,7 +702,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -852,26 +993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1036,16 +1177,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1053,29 +1194,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1083,18 +1224,18 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1102,13 +1243,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1117,13 +1258,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1132,7 +1273,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
@@ -1141,36 +1282,36 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="32">
-      <c r="A17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1179,63 +1320,63 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="64">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1243,12 +1384,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="60">
       <c r="A22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1256,75 +1397,91 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="G23" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
+      <c r="G25" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54.75">
+      <c r="A26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
+      <c r="G26" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
+      <c r="A28" s="32" t="s">
+        <v>107</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1333,16 +1490,18 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1351,37 +1510,73 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="30" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2306,15 +2501,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{2BF62C04-C794-5849-9AE1-1A5E7CDED470}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{47DDC3E9-2A88-8C4C-9B0C-BF67A9BBC38E}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{D00A262F-E6A5-714B-B603-0EC51808A9DC}"/>
-    <hyperlink ref="G24" r:id="rId7" xr:uid="{9E359014-6D49-BF47-B29F-D2B66720BDDD}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -475,12 +475,33 @@
   <si>
     <t>getRandom in O(1)</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>(1-traversal) Maintain two pointers(initially both are at dummy node) and update one with a delay of n steps.</t>
+  </si>
+  <si>
+    <t>1-traversal with hasmap</t>
+  </si>
+  <si>
+    <t>2 traversal</t>
+  </si>
+  <si>
+    <t>remove n'th node from end of the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete without head pointer </t>
+  </si>
+  <si>
+    <t>we can delete datawise only -&gt; (copy the data from the next pointer into the current pointer, now delete the next pointer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +598,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -645,7 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -711,6 +739,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -996,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1581,18 +1615,32 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+    <row r="35" spans="1:7" ht="39">
+      <c r="A35" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>130</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
+      <c r="G35" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2512,8 +2560,9 @@
     <hyperlink ref="G25" r:id="rId9"/>
     <hyperlink ref="G26" r:id="rId10"/>
     <hyperlink ref="G32" r:id="rId11"/>
+    <hyperlink ref="G35" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F96D1-E4FC-8C4B-A1FF-6F23D3A2BA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="465" windowWidth="32595" windowHeight="19905"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -496,11 +497,20 @@
   <si>
     <t>we can delete datawise only -&gt; (copy the data from the next pointer into the current pointer, now delete the next pointer)</t>
   </si>
+  <si>
+    <t xml:space="preserve">rotate linkedlist list </t>
+  </si>
+  <si>
+    <t>brute force with optimization( k% length) to make sure the upper loop wont run more than LENGTH time, O(n*n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1027,26 +1037,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="113" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1245,7 +1255,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1258,7 +1268,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="32">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1316,7 +1326,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="105">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1337,7 +1347,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1388,7 +1398,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1405,7 +1415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="64">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1418,7 +1428,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="60">
+    <row r="22" spans="1:7" ht="48">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1431,7 +1441,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="32">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="54.75">
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1497,7 +1507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1615,7 +1625,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="39">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="48">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1647,14 +1657,22 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:7" ht="32">
+      <c r="A37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2"/>
@@ -2549,20 +2567,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G32" r:id="rId11"/>
-    <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{E6663716-2294-3D4D-8B97-0A846B9DD6AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F96D1-E4FC-8C4B-A1FF-6F23D3A2BA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FF238F-CAC9-CF45-82D5-7C30E5D15C5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -506,12 +506,66 @@
   <si>
     <t>https://leetcode.com/problems/rotate-list/</t>
   </si>
+  <si>
+    <r>
+      <t>eliminate traversal for length calculation ( just put if condition inside inner loop to calculate length and update K (run this for the first time only by keeping track of original K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> if((k+1)==orgK) length++;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and outside the loop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>if((k+1) ==orgK) k = k % (length+1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o(n) , dest = length-k; // this will give the position where the new head lies,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> loop if(dest-- &gt; 1)curr = curr.next; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>now curr.next will give your new head, make pos.next point to old head, curr.next point to null(because curr is now the last element)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +668,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1040,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="113" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="119" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1657,18 +1721,22 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="32">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:7" ht="96">
+      <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="30" t="s">
         <v>138</v>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FF238F-CAC9-CF45-82D5-7C30E5D15C5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8250B49-E0C8-C24B-BE25-FC3F49F1E18B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -559,6 +559,15 @@
       </rPr>
       <t>now curr.next will give your new head, make pos.next point to old head, curr.next point to null(because curr is now the last element)</t>
     </r>
+  </si>
+  <si>
+    <t>lowest common ancestor of binary tree</t>
+  </si>
+  <si>
+    <t>dfs+hasmap, now traverse hasmap to check we can get both the p and q from that node, if got the node then update answer if node.height &gt; ans.height</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="119" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1742,14 +1751,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
+    <row r="38" spans="1:7" ht="48">
+      <c r="A38" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2"/>
@@ -2648,8 +2663,9 @@
     <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G37" r:id="rId13" xr:uid="{E6663716-2294-3D4D-8B97-0A846B9DD6AC}"/>
+    <hyperlink ref="G38" r:id="rId14" xr:uid="{B87FBA28-4E2B-854A-9413-378C66294FA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8250B49-E0C8-C24B-BE25-FC3F49F1E18B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19413866-08D7-A94B-BC42-972F3F085463}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -568,6 +568,10 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>DFS if p or q found then simply return them
+now check whether a node itselft or its left /right subtree is giving the p and q and hence store the root if true, now further propagate the nodes</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1751,14 +1755,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="48">
+    <row r="38" spans="1:7" ht="64">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19413866-08D7-A94B-BC42-972F3F085463}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8063CB30-64BF-B04F-8194-F28B704E2056}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -573,12 +573,26 @@
     <t>DFS if p or q found then simply return them
 now check whether a node itselft or its left /right subtree is giving the p and q and hence store the root if true, now further propagate the nodes</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>Loop and hashSet (if already present return that node)</t>
+  </si>
+  <si>
+    <t>linkedlist cycle II ( find first node of cycle)</t>
+  </si>
+  <si>
+    <t>(floyd-cycle detection) 1. If a loop is found, initialize a slow pointer to head, let fast pointer be at its position.
+2. Move both slow and fast pointers one node at a time.
+3. The point at which they meet is the start of the loop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +704,11 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
@@ -823,7 +842,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -831,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1117,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="200" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1553,7 +1574,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1563,7 +1584,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1580,7 +1601,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1600,7 +1621,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="8"/>
@@ -1658,7 +1679,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1709,15 +1730,15 @@
       <c r="B35" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1751,7 +1772,7 @@
         <v>140</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1768,18 +1789,26 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:7" ht="49">
+      <c r="A39" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2"/>
@@ -2670,8 +2699,9 @@
     <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G37" r:id="rId13" xr:uid="{E6663716-2294-3D4D-8B97-0A846B9DD6AC}"/>
     <hyperlink ref="G38" r:id="rId14" xr:uid="{B87FBA28-4E2B-854A-9413-378C66294FA0}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{974048F4-CD01-D646-9553-C1CADCEC738B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8063CB30-64BF-B04F-8194-F28B704E2056}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990FFA9-8209-F14D-9D2B-2E463C8D4D64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -586,6 +586,18 @@
     <t>(floyd-cycle detection) 1. If a loop is found, initialize a slow pointer to head, let fast pointer be at its position.
 2. Move both slow and fast pointers one node at a time.
 3. The point at which they meet is the start of the loop</t>
+  </si>
+  <si>
+    <t>sort array by parity - II</t>
+  </si>
+  <si>
+    <t>two pointer with extra space</t>
+  </si>
+  <si>
+    <t>two pointer without extra space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-parity-ii/</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="213" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1811,13 +1823,21 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2"/>
@@ -2700,8 +2720,9 @@
     <hyperlink ref="G37" r:id="rId13" xr:uid="{E6663716-2294-3D4D-8B97-0A846B9DD6AC}"/>
     <hyperlink ref="G38" r:id="rId14" xr:uid="{B87FBA28-4E2B-854A-9413-378C66294FA0}"/>
     <hyperlink ref="G39" r:id="rId15" xr:uid="{974048F4-CD01-D646-9553-C1CADCEC738B}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{E24972A3-75EA-2449-A1D4-4A31DF2F2922}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990FFA9-8209-F14D-9D2B-2E463C8D4D64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6DF56-4FD7-3549-887A-AE8B83E01D6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -598,6 +598,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/sort-array-by-parity-ii/</t>
+  </si>
+  <si>
+    <t>Odd-Even linkedlist</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>Use arraylist,dummy node, to store even nodes, carefully handle length of the list(use track variable in case of even length list)</t>
+  </si>
+  <si>
+    <t>the code which is written inside arraylist loop just bring the code to the traversal loop and eliminate arraylist -&gt; O(1) space</t>
+  </si>
+  <si>
+    <t>start from even, dummy node not required</t>
   </si>
 </sst>
 </file>
@@ -791,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -865,6 +880,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -1150,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="213" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1839,14 +1855,24 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+    <row r="41" spans="1:7" ht="48">
+      <c r="A41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="35" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2"/>
@@ -2721,8 +2747,9 @@
     <hyperlink ref="G38" r:id="rId14" xr:uid="{B87FBA28-4E2B-854A-9413-378C66294FA0}"/>
     <hyperlink ref="G39" r:id="rId15" xr:uid="{974048F4-CD01-D646-9553-C1CADCEC738B}"/>
     <hyperlink ref="G40" r:id="rId16" xr:uid="{E24972A3-75EA-2449-A1D4-4A31DF2F2922}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{1323BD6C-8B8A-BE4E-B34A-4F03133B2421}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6DF56-4FD7-3549-887A-AE8B83E01D6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7057B-D4CB-E84C-A208-E8367E78A59F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="161">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -613,6 +613,15 @@
   </si>
   <si>
     <t>start from even, dummy node not required</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Brute force(using backtracking) goto 3 steps in recursion</t>
+  </si>
+  <si>
+    <t>n^2 (sort the array)</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1875,9 +1884,15 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7057B-D4CB-E84C-A208-E8367E78A59F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93073DFF-A7BF-0E45-A47E-4DA9C03D77DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -618,10 +618,13 @@
     <t>3Sum</t>
   </si>
   <si>
-    <t>Brute force(using backtracking) goto 3 steps in recursion</t>
-  </si>
-  <si>
-    <t>n^2 (sort the array)</t>
+    <t>Brute force(using backtracking) goto 3 steps in recursion (n^3)</t>
+  </si>
+  <si>
+    <t>n^3 brute force</t>
+  </si>
+  <si>
+    <t>n^2 (sort the array) [two pointer] fix I, find j, k(using two pointer)(2sum)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -890,6 +893,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -1176,7 +1182,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1874,7 +1880,7 @@
       <c r="C41" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>157</v>
       </c>
       <c r="E41" s="1"/>
@@ -1883,17 +1889,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93073DFF-A7BF-0E45-A47E-4DA9C03D77DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113747D-764F-9745-A533-020FF94B718A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="171">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -625,6 +625,33 @@
   </si>
   <si>
     <t>n^2 (sort the array) [two pointer] fix I, find j, k(using two pointer)(2sum)</t>
+  </si>
+  <si>
+    <t>missing number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorting </t>
+  </si>
+  <si>
+    <t>hashset</t>
+  </si>
+  <si>
+    <t>bit manipulation init missing with nums.length then in loop [missing ^= i ^ nums[i];</t>
+  </si>
+  <si>
+    <t>gauss formula ans = n(n+1)/2 - sumOfAll[i]</t>
+  </si>
+  <si>
+    <t>subarray sum equals k</t>
+  </si>
+  <si>
+    <t>sliding window+ prefix sum (n^2)</t>
+  </si>
+  <si>
+    <t>brute force sliding window (n^3) [sum(I,i+k) is causing extra O(n) memory here]</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1906,19 +1933,37 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    <row r="43" spans="1:7" ht="32">
+      <c r="A43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="1"/>
+      <c r="G43" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32">
+      <c r="A44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2771,8 +2816,9 @@
     <hyperlink ref="G39" r:id="rId15" xr:uid="{974048F4-CD01-D646-9553-C1CADCEC738B}"/>
     <hyperlink ref="G40" r:id="rId16" xr:uid="{E24972A3-75EA-2449-A1D4-4A31DF2F2922}"/>
     <hyperlink ref="G41" r:id="rId17" xr:uid="{1323BD6C-8B8A-BE4E-B34A-4F03133B2421}"/>
+    <hyperlink ref="G43" r:id="rId18" xr:uid="{9ED79414-A51D-E640-B4B7-FF9FAEBE7168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113747D-764F-9745-A533-020FF94B718A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1A1E4-44D5-4E41-BB17-307D81FE879C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -652,6 +652,15 @@
   </si>
   <si>
     <t>brute force sliding window (n^3) [sum(I,i+k) is causing extra O(n) memory here]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashmap </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/solution/</t>
+  </si>
+  <si>
+    <t>cumulative sum[sliding window using n^2](with and without space)</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1218,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1964,10 +1973,16 @@
       <c r="C44" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="35" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2"/>
@@ -2817,8 +2832,9 @@
     <hyperlink ref="G40" r:id="rId16" xr:uid="{E24972A3-75EA-2449-A1D4-4A31DF2F2922}"/>
     <hyperlink ref="G41" r:id="rId17" xr:uid="{1323BD6C-8B8A-BE4E-B34A-4F03133B2421}"/>
     <hyperlink ref="G43" r:id="rId18" xr:uid="{9ED79414-A51D-E640-B4B7-FF9FAEBE7168}"/>
+    <hyperlink ref="G44" r:id="rId19" xr:uid="{26A9202E-922A-2343-B46B-CB7F2915FCAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1A1E4-44D5-4E41-BB17-307D81FE879C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2836F0-634B-AD4A-9B89-98661938584E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -661,6 +661,24 @@
   </si>
   <si>
     <t>cumulative sum[sliding window using n^2](with and without space)</t>
+  </si>
+  <si>
+    <t>If we see say S[0] == 'I', we can always put 0 as the first element; similarly, if we see S[0] == 'D', we can always put N as the first element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/di-string-match/</t>
+  </si>
+  <si>
+    <t>DI String match</t>
+  </si>
+  <si>
+    <t>Letter combination of a phone number</t>
+  </si>
+  <si>
+    <t>recursion, backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="F38" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1984,23 +2002,35 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
+    <row r="45" spans="1:7" ht="48">
+      <c r="A45" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="35" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="35" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2"/>
@@ -2833,8 +2863,10 @@
     <hyperlink ref="G41" r:id="rId17" xr:uid="{1323BD6C-8B8A-BE4E-B34A-4F03133B2421}"/>
     <hyperlink ref="G43" r:id="rId18" xr:uid="{9ED79414-A51D-E640-B4B7-FF9FAEBE7168}"/>
     <hyperlink ref="G44" r:id="rId19" xr:uid="{26A9202E-922A-2343-B46B-CB7F2915FCAC}"/>
+    <hyperlink ref="G45" r:id="rId20" xr:uid="{9D3619D3-CF7A-9E41-BBD5-3E993FA94690}"/>
+    <hyperlink ref="G46" r:id="rId21" xr:uid="{B0191C51-C5BB-5C45-938C-F5833D9A4F57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2836F0-634B-AD4A-9B89-98661938584E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98D354-3D66-974C-B876-30BE1F8B0298}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>you can store count of objects/strings/arrays to map</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1617,7 +1620,9 @@
       <c r="B21" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98D354-3D66-974C-B876-30BE1F8B0298}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -683,11 +682,20 @@
   <si>
     <t>you can store count of objects/strings/arrays to map</t>
   </si>
+  <si>
+    <t>remove outermost paranthesis</t>
+  </si>
+  <si>
+    <t>balanced paranthesis variable, stringbuilder, substring component removing outermost paranthesis</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-outermost-parentheses/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1235,26 +1243,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G44" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1461,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1474,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1524,7 +1532,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1545,7 +1553,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1596,7 +1604,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1628,7 +1636,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="60">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1641,7 +1649,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43">
+    <row r="26" spans="1:7" ht="54.75">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1825,7 +1833,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="39">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1844,7 +1852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1857,7 +1865,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="96">
+    <row r="37" spans="1:7" ht="105">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="64">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49">
+    <row r="39" spans="1:7" ht="45.75">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -1965,7 +1973,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="32">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2037,14 +2045,20 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="35" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2"/>
@@ -2849,29 +2863,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G37" r:id="rId13" xr:uid="{E6663716-2294-3D4D-8B97-0A846B9DD6AC}"/>
-    <hyperlink ref="G38" r:id="rId14" xr:uid="{B87FBA28-4E2B-854A-9413-378C66294FA0}"/>
-    <hyperlink ref="G39" r:id="rId15" xr:uid="{974048F4-CD01-D646-9553-C1CADCEC738B}"/>
-    <hyperlink ref="G40" r:id="rId16" xr:uid="{E24972A3-75EA-2449-A1D4-4A31DF2F2922}"/>
-    <hyperlink ref="G41" r:id="rId17" xr:uid="{1323BD6C-8B8A-BE4E-B34A-4F03133B2421}"/>
-    <hyperlink ref="G43" r:id="rId18" xr:uid="{9ED79414-A51D-E640-B4B7-FF9FAEBE7168}"/>
-    <hyperlink ref="G44" r:id="rId19" xr:uid="{26A9202E-922A-2343-B46B-CB7F2915FCAC}"/>
-    <hyperlink ref="G45" r:id="rId20" xr:uid="{9D3619D3-CF7A-9E41-BBD5-3E993FA94690}"/>
-    <hyperlink ref="G46" r:id="rId21" xr:uid="{B0191C51-C5BB-5C45-938C-F5833D9A4F57}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
+    <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G37" r:id="rId13"/>
+    <hyperlink ref="G38" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+    <hyperlink ref="G41" r:id="rId17"/>
+    <hyperlink ref="G43" r:id="rId18"/>
+    <hyperlink ref="G44" r:id="rId19"/>
+    <hyperlink ref="G45" r:id="rId20"/>
+    <hyperlink ref="G46" r:id="rId21"/>
+    <hyperlink ref="G47" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="189">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -690,6 +690,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-outermost-parentheses/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take xor, loop : [if(num &amp;1)==0 then ans++, left shift num] </t>
+  </si>
+  <si>
+    <t>inbuilt function [ Integer.bitCount(x^y)]</t>
+  </si>
+  <si>
+    <t>hamming distance(count different bits of two nums)</t>
+  </si>
+  <si>
+    <t>take xor, loop[ num &amp; (num-1), count++]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hamming-distance/</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1262,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G44" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2060,14 +2075,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="35" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2"/>
@@ -2885,8 +2910,9 @@
     <hyperlink ref="G45" r:id="rId20"/>
     <hyperlink ref="G46" r:id="rId21"/>
     <hyperlink ref="G47" r:id="rId22"/>
+    <hyperlink ref="G48" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E62E0-EBAC-8A41-8148-4CBA580CFD2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -706,11 +707,23 @@
   <si>
     <t>https://leetcode.com/problems/hamming-distance/</t>
   </si>
+  <si>
+    <t>find all anagram in a string</t>
+  </si>
+  <si>
+    <t>brute force + rolling hash</t>
+  </si>
+  <si>
+    <t>sliding window [maintain two freq arrays and role]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1258,26 +1271,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1476,7 +1489,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1502,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="32">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1547,7 +1560,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="105">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1568,7 +1581,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1619,7 +1632,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="64">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1651,7 +1664,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="60">
+    <row r="22" spans="1:7" ht="48">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1664,7 +1677,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="32">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="54.75">
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1848,7 +1861,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="39">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="48">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1880,7 +1893,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="105">
+    <row r="37" spans="1:7" ht="96">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="64">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -1918,7 +1931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45.75">
+    <row r="39" spans="1:7" ht="49">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -1952,7 +1965,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="48">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -1988,7 +2001,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="32">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="48">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2060,7 +2073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="32">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2075,7 +2088,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2095,13 +2108,23 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="35" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2"/>
@@ -2888,31 +2911,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G32" r:id="rId11"/>
-    <hyperlink ref="G35" r:id="rId12"/>
-    <hyperlink ref="G37" r:id="rId13"/>
-    <hyperlink ref="G38" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G41" r:id="rId17"/>
-    <hyperlink ref="G43" r:id="rId18"/>
-    <hyperlink ref="G44" r:id="rId19"/>
-    <hyperlink ref="G45" r:id="rId20"/>
-    <hyperlink ref="G46" r:id="rId21"/>
-    <hyperlink ref="G47" r:id="rId22"/>
-    <hyperlink ref="G48" r:id="rId23"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G49" r:id="rId24" xr:uid="{382C8B28-4501-4C4B-942A-7C4C8BAC041E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E62E0-EBAC-8A41-8148-4CBA580CFD2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -719,11 +718,38 @@
   <si>
     <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
   </si>
+  <si>
+    <t>partition labels</t>
+  </si>
+  <si>
+    <t>greedy, last occurance of a letter</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-labels/</t>
+  </si>
+  <si>
+    <t>longest common prefix</t>
+  </si>
+  <si>
+    <t>horizontal scan,</t>
+  </si>
+  <si>
+    <t>vertical scan</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>divide and conquer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1271,26 +1297,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1489,7 +1515,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1502,7 +1528,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1560,7 +1586,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1581,7 +1607,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1632,7 +1658,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1649,7 +1675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1664,7 +1690,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="60">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1677,7 +1703,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1694,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1726,7 +1752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43">
+    <row r="26" spans="1:7" ht="54.75">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1743,7 +1769,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1861,7 +1887,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="39">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1880,7 +1906,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1893,7 +1919,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="96">
+    <row r="37" spans="1:7" ht="105">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -1914,7 +1940,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="64">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -1931,7 +1957,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49">
+    <row r="39" spans="1:7" ht="45.75">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -1965,7 +1991,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -1984,7 +2010,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2001,7 +2027,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="32">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2022,7 +2048,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2043,7 +2069,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2073,7 +2099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32">
+    <row r="47" spans="1:7" ht="45">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2088,7 +2114,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2127,22 +2153,40 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="35" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="35" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2"/>
@@ -2911,32 +2955,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G49" r:id="rId24" xr:uid="{382C8B28-4501-4C4B-942A-7C4C8BAC041E}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
+    <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G37" r:id="rId13"/>
+    <hyperlink ref="G38" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+    <hyperlink ref="G41" r:id="rId17"/>
+    <hyperlink ref="G43" r:id="rId18"/>
+    <hyperlink ref="G44" r:id="rId19"/>
+    <hyperlink ref="G45" r:id="rId20"/>
+    <hyperlink ref="G46" r:id="rId21"/>
+    <hyperlink ref="G47" r:id="rId22"/>
+    <hyperlink ref="G48" r:id="rId23"/>
+    <hyperlink ref="G49" r:id="rId24"/>
+    <hyperlink ref="G50" r:id="rId25"/>
+    <hyperlink ref="G51" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -744,6 +744,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>Add string numbers without using inbuilt</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-strings/</t>
+  </si>
+  <si>
+    <t>old school method, (edge case: at the end check carry is 1then add to the answer)</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2188,14 +2197,20 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2"/>
-      <c r="B52" s="8"/>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>204</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="35" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2"/>
@@ -2981,8 +2996,9 @@
     <hyperlink ref="G49" r:id="rId24"/>
     <hyperlink ref="G50" r:id="rId25"/>
     <hyperlink ref="G51" r:id="rId26"/>
+    <hyperlink ref="G52" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="209">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -753,6 +753,18 @@
   </si>
   <si>
     <t>old school method, (edge case: at the end check carry is 1then add to the answer)</t>
+  </si>
+  <si>
+    <t>arranging coins</t>
+  </si>
+  <si>
+    <t>iterative, recusive</t>
+  </si>
+  <si>
+    <t>math -using gauss formula (sum of n natural number)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/arranging-coins/solution/</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2212,14 +2224,24 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="2"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="35" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2"/>
@@ -2997,8 +3019,9 @@
     <hyperlink ref="G50" r:id="rId25"/>
     <hyperlink ref="G51" r:id="rId26"/>
     <hyperlink ref="G52" r:id="rId27"/>
+    <hyperlink ref="G53" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92224F99-0840-DC40-9E66-5885C7A5A2C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="213">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -766,12 +767,24 @@
   <si>
     <t>https://leetcode.com/problems/arranging-coins/solution/</t>
   </si>
+  <si>
+    <t>count good nodes</t>
+  </si>
+  <si>
+    <t>1.Update the maximum value found while recurse down to the paths from root to leaves; 2. If node value &gt;= current maximum, count it in.3. return the total number after the completion of all recursions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>brute force (maintain path and then check for every node)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +903,13 @@
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF424242"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -958,7 +978,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1035,6 +1055,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1318,26 +1342,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1536,7 +1560,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1549,7 +1573,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="32">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1631,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="105">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1628,7 +1652,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1679,7 +1703,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1696,7 +1720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="64">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1735,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="60">
+    <row r="22" spans="1:7" ht="48">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1748,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1741,7 +1765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="32">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1773,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="54.75">
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1790,7 +1814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1908,7 +1932,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="39">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1927,7 +1951,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="48">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1940,7 +1964,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="105">
+    <row r="37" spans="1:7" ht="96">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -1961,7 +1985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="64">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -1978,7 +2002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45.75">
+    <row r="39" spans="1:7" ht="49">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -2012,7 +2036,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="48">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -2031,7 +2055,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2048,7 +2072,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="32">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="48">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2120,7 +2144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="32">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="32">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2209,7 +2233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32">
       <c r="A52" s="23" t="s">
         <v>202</v>
       </c>
@@ -2224,7 +2248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="7" t="s">
         <v>205</v>
       </c>
@@ -2243,18 +2267,26 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="2"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="1"/>
+    <row r="54" spans="1:7" ht="40">
+      <c r="A54" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="35" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2263,7 +2295,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2992,36 +3024,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G32" r:id="rId11"/>
-    <hyperlink ref="G35" r:id="rId12"/>
-    <hyperlink ref="G37" r:id="rId13"/>
-    <hyperlink ref="G38" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G41" r:id="rId17"/>
-    <hyperlink ref="G43" r:id="rId18"/>
-    <hyperlink ref="G44" r:id="rId19"/>
-    <hyperlink ref="G45" r:id="rId20"/>
-    <hyperlink ref="G46" r:id="rId21"/>
-    <hyperlink ref="G47" r:id="rId22"/>
-    <hyperlink ref="G48" r:id="rId23"/>
-    <hyperlink ref="G49" r:id="rId24"/>
-    <hyperlink ref="G50" r:id="rId25"/>
-    <hyperlink ref="G51" r:id="rId26"/>
-    <hyperlink ref="G52" r:id="rId27"/>
-    <hyperlink ref="G53" r:id="rId28"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G54" r:id="rId29" xr:uid="{C1ABBF86-BB05-034A-950B-F650AC95CF1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92224F99-0840-DC40-9E66-5885C7A5A2C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F096117-33B8-2A49-A88C-DD44BDDE3548}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="216">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -778,6 +778,15 @@
   </si>
   <si>
     <t>brute force (maintain path and then check for every node)</t>
+  </si>
+  <si>
+    <t>path in a zigzag labelled binary tree</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree/discuss/691083/Java-Solution-with-Explanation</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1355,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1720,7 +1729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48">
+    <row r="36" spans="1:7" ht="32">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="32">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2285,13 +2294,19 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="35" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2"/>
@@ -3053,8 +3068,9 @@
     <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G54" r:id="rId29" xr:uid="{C1ABBF86-BB05-034A-950B-F650AC95CF1A}"/>
+    <hyperlink ref="G55" r:id="rId30" xr:uid="{05C28B32-F592-534F-9653-69D6FCA0E306}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F096117-33B8-2A49-A88C-DD44BDDE3548}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAECC49-9DA5-EC4A-8D6D-FBDA41A5EA80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -787,6 +787,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree/discuss/691083/Java-Solution-with-Explanation</t>
+  </si>
+  <si>
+    <t>merge intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/solution/</t>
+  </si>
+  <si>
+    <t>connected component, graph(n^2)</t>
+  </si>
+  <si>
+    <t>sorting - nlogn</t>
+  </si>
+  <si>
+    <t>priorityQueue</t>
   </si>
 </sst>
 </file>
@@ -1354,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="167" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2309,13 +2324,23 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="2"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="35" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2"/>
@@ -3069,8 +3094,9 @@
     <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="G54" r:id="rId29" xr:uid="{C1ABBF86-BB05-034A-950B-F650AC95CF1A}"/>
     <hyperlink ref="G55" r:id="rId30" xr:uid="{05C28B32-F592-534F-9653-69D6FCA0E306}"/>
+    <hyperlink ref="G56" r:id="rId31" xr:uid="{E9CE9448-8B74-E749-A4D5-9ECA775B22DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAECC49-9DA5-EC4A-8D6D-FBDA41A5EA80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -803,11 +802,26 @@
   <si>
     <t>priorityQueue</t>
   </si>
+  <si>
+    <t>the k weakest rows</t>
+  </si>
+  <si>
+    <t>linear count 1 + sorting</t>
+  </si>
+  <si>
+    <t>linear count 1 + heap</t>
+  </si>
+  <si>
+    <t>binary search count 1 + heap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-k-weakest-rows-in-a-matrix/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1366,26 +1380,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="G56" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1598,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1597,7 +1611,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1669,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1676,7 +1690,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1727,7 +1741,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1744,7 +1758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1759,7 +1773,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1772,7 +1786,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1789,7 +1803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43">
+    <row r="26" spans="1:7" ht="51.75">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1838,7 +1852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1956,7 +1970,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="39">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1975,7 +1989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -1988,7 +2002,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="96">
+    <row r="37" spans="1:7" ht="105">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="64">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -2026,7 +2040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49">
+    <row r="39" spans="1:7" ht="45.75">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -2060,7 +2074,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -2079,7 +2093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2096,7 +2110,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="32">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2138,7 +2152,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="23" t="s">
         <v>202</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="7" t="s">
         <v>205</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="40">
+    <row r="54" spans="1:7" ht="48.75">
       <c r="A54" s="23" t="s">
         <v>209</v>
       </c>
@@ -2343,13 +2357,23 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="2"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="35" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2"/>
@@ -3064,39 +3088,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G54" r:id="rId29" xr:uid="{C1ABBF86-BB05-034A-950B-F650AC95CF1A}"/>
-    <hyperlink ref="G55" r:id="rId30" xr:uid="{05C28B32-F592-534F-9653-69D6FCA0E306}"/>
-    <hyperlink ref="G56" r:id="rId31" xr:uid="{E9CE9448-8B74-E749-A4D5-9ECA775B22DF}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
+    <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G37" r:id="rId13"/>
+    <hyperlink ref="G38" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+    <hyperlink ref="G41" r:id="rId17"/>
+    <hyperlink ref="G43" r:id="rId18"/>
+    <hyperlink ref="G44" r:id="rId19"/>
+    <hyperlink ref="G45" r:id="rId20"/>
+    <hyperlink ref="G46" r:id="rId21"/>
+    <hyperlink ref="G47" r:id="rId22"/>
+    <hyperlink ref="G48" r:id="rId23"/>
+    <hyperlink ref="G49" r:id="rId24"/>
+    <hyperlink ref="G50" r:id="rId25"/>
+    <hyperlink ref="G51" r:id="rId26"/>
+    <hyperlink ref="G52" r:id="rId27"/>
+    <hyperlink ref="G53" r:id="rId28"/>
+    <hyperlink ref="G54" r:id="rId29"/>
+    <hyperlink ref="G55" r:id="rId30"/>
+    <hyperlink ref="G56" r:id="rId31"/>
+    <hyperlink ref="G57" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -816,6 +816,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/the-k-weakest-rows-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>maximum diff b/w node anscestor</t>
+  </si>
+  <si>
+    <t>propogate min, max value and check diff with root</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-difference-between-node-and-ancestor/</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1393,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G56" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2376,13 +2385,19 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="35" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2"/>
@@ -3120,8 +3135,9 @@
     <hyperlink ref="G55" r:id="rId30"/>
     <hyperlink ref="G56" r:id="rId31"/>
     <hyperlink ref="G57" r:id="rId32"/>
+    <hyperlink ref="G58" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D558B08-B305-A340-8454-E001682DA571}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -826,11 +827,26 @@
   <si>
     <t>https://leetcode.com/problems/maximum-difference-between-node-and-ancestor/</t>
   </si>
+  <si>
+    <t>leetcode.com/problems/palindrome-number</t>
+  </si>
+  <si>
+    <t>palindrome number</t>
+  </si>
+  <si>
+    <t>convert integer to string then check half by two pointer</t>
+  </si>
+  <si>
+    <t>reverse integer and then compare</t>
+  </si>
+  <si>
+    <t>reverse half of the integers then compare (avoids overfow)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1389,26 +1405,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G56" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1623,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1636,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="32">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1694,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="105">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1699,7 +1715,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1750,7 +1766,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1767,7 +1783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1782,7 +1798,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="48">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1795,7 +1811,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="32">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1844,7 +1860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51.75">
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1861,7 +1877,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1979,7 +1995,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="39">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -1998,7 +2014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -2011,7 +2027,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="105">
+    <row r="37" spans="1:7" ht="96">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -2032,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="64">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -2049,7 +2065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45.75">
+    <row r="39" spans="1:7" ht="49">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -2083,7 +2099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="48">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -2102,7 +2118,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2119,7 +2135,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="32">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2140,7 +2156,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2161,7 +2177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="48">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2191,7 +2207,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2280,7 +2296,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32">
       <c r="A52" s="23" t="s">
         <v>202</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="7" t="s">
         <v>205</v>
       </c>
@@ -2314,7 +2330,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="48.75">
+    <row r="54" spans="1:7" ht="40">
       <c r="A54" s="23" t="s">
         <v>209</v>
       </c>
@@ -2400,13 +2416,23 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2"/>
@@ -3103,39 +3129,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G32" r:id="rId11"/>
-    <hyperlink ref="G35" r:id="rId12"/>
-    <hyperlink ref="G37" r:id="rId13"/>
-    <hyperlink ref="G38" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G41" r:id="rId17"/>
-    <hyperlink ref="G43" r:id="rId18"/>
-    <hyperlink ref="G44" r:id="rId19"/>
-    <hyperlink ref="G45" r:id="rId20"/>
-    <hyperlink ref="G46" r:id="rId21"/>
-    <hyperlink ref="G47" r:id="rId22"/>
-    <hyperlink ref="G48" r:id="rId23"/>
-    <hyperlink ref="G49" r:id="rId24"/>
-    <hyperlink ref="G50" r:id="rId25"/>
-    <hyperlink ref="G51" r:id="rId26"/>
-    <hyperlink ref="G52" r:id="rId27"/>
-    <hyperlink ref="G53" r:id="rId28"/>
-    <hyperlink ref="G54" r:id="rId29"/>
-    <hyperlink ref="G55" r:id="rId30"/>
-    <hyperlink ref="G56" r:id="rId31"/>
-    <hyperlink ref="G57" r:id="rId32"/>
-    <hyperlink ref="G58" r:id="rId33"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G55" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G57" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D558B08-B305-A340-8454-E001682DA571}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="243">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -842,11 +841,38 @@
   <si>
     <t>reverse half of the integers then compare (avoids overfow)</t>
   </si>
+  <si>
+    <t>rotate string</t>
+  </si>
+  <si>
+    <t>stringbuilder</t>
+  </si>
+  <si>
+    <t>simple concatenate &amp; contains method ON^2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-string</t>
+  </si>
+  <si>
+    <t>rolling hash (find match of b in a+a) O(N)</t>
+  </si>
+  <si>
+    <t>kmp (find match of b in a+a) O(N)</t>
+  </si>
+  <si>
+    <t>divide and conquer recursively</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/discuss/735887/Java-Divide-and-Conquer-or-Simple</t>
+  </si>
+  <si>
+    <t>convert sorted array to BST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1405,26 +1431,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.5" customWidth="1"/>
-    <col min="7" max="7" width="75.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1649,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1636,7 +1662,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="32">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -1694,7 +1720,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="96">
+    <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -1715,7 +1741,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -1766,7 +1792,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -1783,7 +1809,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -1798,7 +1824,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="48">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -1811,7 +1837,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="48">
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -1828,7 +1854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -1860,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43">
+    <row r="26" spans="1:7" ht="51.75">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -1877,7 +1903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -1995,7 +2021,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="39">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -2014,7 +2040,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -2027,7 +2053,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="96">
+    <row r="37" spans="1:7" ht="105">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -2048,7 +2074,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="64">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -2065,7 +2091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49">
+    <row r="39" spans="1:7" ht="45.75">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -2099,7 +2125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="48">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -2118,7 +2144,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2135,7 +2161,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="32">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2156,7 +2182,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="32">
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -2177,7 +2203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -2207,7 +2233,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2222,7 +2248,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -2296,7 +2322,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="32">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="23" t="s">
         <v>202</v>
       </c>
@@ -2311,7 +2337,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="7" t="s">
         <v>205</v>
       </c>
@@ -2330,7 +2356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="40">
+    <row r="54" spans="1:7" ht="48.75">
       <c r="A54" s="23" t="s">
         <v>209</v>
       </c>
@@ -2435,22 +2461,40 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="A60" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="35" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="35" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2"/>
@@ -3129,41 +3173,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G55" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G57" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G32" r:id="rId11"/>
+    <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G37" r:id="rId13"/>
+    <hyperlink ref="G38" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+    <hyperlink ref="G41" r:id="rId17"/>
+    <hyperlink ref="G43" r:id="rId18"/>
+    <hyperlink ref="G44" r:id="rId19"/>
+    <hyperlink ref="G45" r:id="rId20"/>
+    <hyperlink ref="G46" r:id="rId21"/>
+    <hyperlink ref="G47" r:id="rId22"/>
+    <hyperlink ref="G48" r:id="rId23"/>
+    <hyperlink ref="G49" r:id="rId24"/>
+    <hyperlink ref="G50" r:id="rId25"/>
+    <hyperlink ref="G51" r:id="rId26"/>
+    <hyperlink ref="G52" r:id="rId27"/>
+    <hyperlink ref="G53" r:id="rId28"/>
+    <hyperlink ref="G54" r:id="rId29"/>
+    <hyperlink ref="G55" r:id="rId30"/>
+    <hyperlink ref="G56" r:id="rId31"/>
+    <hyperlink ref="G57" r:id="rId32"/>
+    <hyperlink ref="G58" r:id="rId33"/>
+    <hyperlink ref="G60" r:id="rId34"/>
+    <hyperlink ref="G61" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -867,6 +867,21 @@
   </si>
   <si>
     <t>convert sorted array to BST</t>
+  </si>
+  <si>
+    <t>segment tree</t>
+  </si>
+  <si>
+    <t>naïve</t>
+  </si>
+  <si>
+    <t>sqrt decomposition</t>
+  </si>
+  <si>
+    <t>segment tree(iterative,recursive)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-mutable/solution/</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2497,13 +2512,23 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="2"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="35" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2"/>
@@ -3208,8 +3233,9 @@
     <hyperlink ref="G58" r:id="rId33"/>
     <hyperlink ref="G60" r:id="rId34"/>
     <hyperlink ref="G61" r:id="rId35"/>
+    <hyperlink ref="G62" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="252">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -869,9 +869,6 @@
     <t>convert sorted array to BST</t>
   </si>
   <si>
-    <t>segment tree</t>
-  </si>
-  <si>
     <t>naïve</t>
   </si>
   <si>
@@ -882,6 +879,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/range-sum-query-mutable/solution/</t>
+  </si>
+  <si>
+    <t>range sum-mutable</t>
+  </si>
+  <si>
+    <t>range sum-immutable</t>
+  </si>
+  <si>
+    <t>prefix sum (preprocessing O(n) , queryO(1)</t>
+  </si>
+  <si>
+    <t>store all possibilites in hashmap(pp-O(n^2)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1462,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G59" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2513,31 +2525,41 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="2"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2"/>
@@ -3234,8 +3256,9 @@
     <hyperlink ref="G60" r:id="rId34"/>
     <hyperlink ref="G61" r:id="rId35"/>
     <hyperlink ref="G62" r:id="rId36"/>
+    <hyperlink ref="G63" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="259">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -894,6 +894,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
+  </si>
+  <si>
+    <t>wiggle subsequence</t>
+  </si>
+  <si>
+    <t>brute force using recursion</t>
+  </si>
+  <si>
+    <t>dp (n^2)</t>
+  </si>
+  <si>
+    <t>dp(n)</t>
+  </si>
+  <si>
+    <t>dp(n) and space O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greedy O(n) and O(1) </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wiggle-subsequence/</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="G62" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2562,13 +2583,27 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="2"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="A64" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2"/>
@@ -3257,8 +3292,9 @@
     <hyperlink ref="G61" r:id="rId35"/>
     <hyperlink ref="G62" r:id="rId36"/>
     <hyperlink ref="G63" r:id="rId37"/>
+    <hyperlink ref="G64" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="264">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -905,16 +905,31 @@
     <t>dp (n^2)</t>
   </si>
   <si>
-    <t>dp(n)</t>
-  </si>
-  <si>
-    <t>dp(n) and space O(1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">greedy O(n) and O(1) </t>
   </si>
   <si>
     <t>https://leetcode.com/problems/wiggle-subsequence/</t>
+  </si>
+  <si>
+    <t>dp(n) &amp; space (n)</t>
+  </si>
+  <si>
+    <t>dp(n) and space O(1)[up,down variables]</t>
+  </si>
+  <si>
+    <t>Longest Increasing subsequence</t>
+  </si>
+  <si>
+    <t>brute force+memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp </t>
+  </si>
+  <si>
+    <t>dp + binary search (nlogn)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/solution/</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1498,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G62" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2593,26 +2608,36 @@
         <v>254</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="2"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="35" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2"/>
@@ -3293,8 +3318,9 @@
     <hyperlink ref="G62" r:id="rId36"/>
     <hyperlink ref="G63" r:id="rId37"/>
     <hyperlink ref="G64" r:id="rId38"/>
+    <hyperlink ref="G65" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="268">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -930,6 +930,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/solution/</t>
+  </si>
+  <si>
+    <t>smallest subtree with all the deepest nodes</t>
+  </si>
+  <si>
+    <t>two pass [get height, getnode]</t>
+  </si>
+  <si>
+    <t>one pass[using pair]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes/</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1510,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G62" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2640,13 +2652,21 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="2"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="35" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2"/>
@@ -3319,8 +3339,9 @@
     <hyperlink ref="G63" r:id="rId37"/>
     <hyperlink ref="G64" r:id="rId38"/>
     <hyperlink ref="G65" r:id="rId39"/>
+    <hyperlink ref="G66" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="272">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -942,6 +942,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-k-digits/</t>
+  </si>
+  <si>
+    <t>remove k digits</t>
+  </si>
+  <si>
+    <t>brute force -allpossibilty recursion</t>
+  </si>
+  <si>
+    <t>stack[keep remove the pick when you encounter dip]</t>
   </si>
 </sst>
 </file>
@@ -1509,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G62" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2669,13 +2681,21 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="2"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="35" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2"/>
@@ -3340,8 +3360,9 @@
     <hyperlink ref="G64" r:id="rId38"/>
     <hyperlink ref="G65" r:id="rId39"/>
     <hyperlink ref="G66" r:id="rId40"/>
+    <hyperlink ref="G67" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="281">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -954,6 +954,33 @@
   </si>
   <si>
     <t>stack[keep remove the pick when you encounter dip]</t>
+  </si>
+  <si>
+    <t>two-sum II</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+  </si>
+  <si>
+    <t>hashmap O(n)</t>
+  </si>
+  <si>
+    <t>two pointer[increase I,decrease j]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>intersection of two arrays II</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>hashmap[key,count] then check common count,key</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1181,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1236,6 +1263,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -1521,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="217" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2698,22 +2726,44 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="2"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="35" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="2"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>280</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="35" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2"/>
@@ -3361,8 +3411,10 @@
     <hyperlink ref="G65" r:id="rId39"/>
     <hyperlink ref="G66" r:id="rId40"/>
     <hyperlink ref="G67" r:id="rId41"/>
+    <hyperlink ref="G68" r:id="rId42"/>
+    <hyperlink ref="G69" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -977,10 +977,22 @@
     <t>intersection of two arrays II</t>
   </si>
   <si>
-    <t>two pointers</t>
-  </si>
-  <si>
     <t>hashmap[key,count] then check common count,key</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">two pointers[start both at 0, incre smaller element, if both equal then incre both] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loop i&lt;n1 &amp;&amp; j&lt;n2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1181,7 +1193,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1263,7 +1275,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -1549,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2746,22 +2763,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:7" ht="45">
+      <c r="A69" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="35" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="40" t="s">
         <v>277</v>
       </c>
     </row>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="286">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -993,6 +993,21 @@
       </rPr>
       <t>loop i&lt;n1 &amp;&amp; j&lt;n2</t>
     </r>
+  </si>
+  <si>
+    <t>Letter tile possibilites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination(subsets) and then  permutation </t>
+  </si>
+  <si>
+    <t>simulate both at the same time using count[26]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-tile-possibilities/</t>
+  </si>
+  <si>
+    <t>count will help to avoid duplicates</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1582,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2783,13 +2798,23 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="2"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="35" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2"/>
@@ -3430,8 +3455,9 @@
     <hyperlink ref="G67" r:id="rId41"/>
     <hyperlink ref="G68" r:id="rId42"/>
     <hyperlink ref="G69" r:id="rId43"/>
+    <hyperlink ref="G70" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1008,6 +1008,24 @@
   </si>
   <si>
     <t>count will help to avoid duplicates</t>
+  </si>
+  <si>
+    <t>palindromic substring</t>
+  </si>
+  <si>
+    <t>n^2 dp</t>
+  </si>
+  <si>
+    <t>n^2 expand around centre</t>
+  </si>
+  <si>
+    <t>O(n) manchester algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   n^3(naïve)</t>
   </si>
 </sst>
 </file>
@@ -1581,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2817,13 +2835,25 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="2"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="A71" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="35" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2"/>
@@ -3456,8 +3486,9 @@
     <hyperlink ref="G68" r:id="rId42"/>
     <hyperlink ref="G69" r:id="rId43"/>
     <hyperlink ref="G70" r:id="rId44"/>
+    <hyperlink ref="G71" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="297">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1026,6 +1026,43 @@
   </si>
   <si>
     <t xml:space="preserve">   n^3(naïve)</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>wildcard matcA72:D72</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">memoization{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skipping all starts if s has finished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} if(p[j]==*) match zero char, match more than one char, match exactly one char recursively</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wildcard-matching/</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1637,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="D72" sqref="A72:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2855,14 +2892,24 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="2"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+    <row r="72" spans="1:7" ht="45">
+      <c r="A72" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="40" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2"/>
@@ -3487,8 +3534,9 @@
     <hyperlink ref="G69" r:id="rId43"/>
     <hyperlink ref="G70" r:id="rId44"/>
     <hyperlink ref="G71" r:id="rId45"/>
+    <hyperlink ref="G72" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="300">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>dp</t>
   </si>
   <si>
-    <t>wildcard matcA72:D72</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">memoization{ </t>
     </r>
@@ -1063,6 +1060,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/wildcard-matching/</t>
+  </si>
+  <si>
+    <t>wildcard matching</t>
+  </si>
+  <si>
+    <t>scramble string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/scramble-string/</t>
+  </si>
+  <si>
+    <t>two cases : no swapping, swapping  [ equal length substring]</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D72" sqref="A72:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2894,13 +2903,13 @@
     </row>
     <row r="72" spans="1:7" ht="45">
       <c r="A72" s="23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>292</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>293</v>
@@ -2908,17 +2917,23 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="2"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="35" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2"/>
@@ -3535,8 +3550,9 @@
     <hyperlink ref="G70" r:id="rId44"/>
     <hyperlink ref="G71" r:id="rId45"/>
     <hyperlink ref="G72" r:id="rId46"/>
+    <hyperlink ref="G73" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="303">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1072,6 +1072,15 @@
   </si>
   <si>
     <t>two cases : no swapping, swapping  [ equal length substring]</t>
+  </si>
+  <si>
+    <t>number of islands</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
   </si>
 </sst>
 </file>
@@ -1645,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2936,13 +2945,23 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="35" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2"/>
@@ -3551,8 +3570,9 @@
     <hyperlink ref="G71" r:id="rId45"/>
     <hyperlink ref="G72" r:id="rId46"/>
     <hyperlink ref="G73" r:id="rId47"/>
+    <hyperlink ref="G74" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="309">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1082,12 +1082,31 @@
   <si>
     <t>https://leetcode.com/problems/number-of-islands/</t>
   </si>
+  <si>
+    <t>find median from datastream</t>
+  </si>
+  <si>
+    <t>simple sorting nlogn + O(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/solution/</t>
+  </si>
+  <si>
+    <t>binary search + insertion sort(inbuilt Arraylist add(pos,val) method) (On)+ O(logn) and O(1) for findmedian</t>
+  </si>
+  <si>
+    <t>two heaps (5logn+ (1)), maxheap for lower half, minheap for higher half</t>
+  </si>
+  <si>
+    <t>Add num to max-heap MAH. Since MAH received a new element, we must do a balancing step for MIH. So remove the largest element from MAH and offer it to MIH.
+The min-heap might end holding more elements than the max-heap , after the previous operation. We fix that by removing the smallest element from MIH and offering it to MAH.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,6 +1232,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1281,7 +1307,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1368,6 +1394,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1654,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2963,14 +2992,26 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="2"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+    <row r="75" spans="1:7" ht="108">
+      <c r="A75" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="35" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2"/>
@@ -3571,8 +3612,9 @@
     <hyperlink ref="G72" r:id="rId46"/>
     <hyperlink ref="G73" r:id="rId47"/>
     <hyperlink ref="G74" r:id="rId48"/>
+    <hyperlink ref="G75" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="316">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1100,6 +1100,28 @@
   <si>
     <t>Add num to max-heap MAH. Since MAH received a new element, we must do a balancing step for MIH. So remove the largest element from MAH and offer it to MIH.
 The min-heap might end holding more elements than the max-heap , after the previous operation. We fix that by removing the smallest element from MIH and offering it to MAH.</t>
+  </si>
+  <si>
+    <t>merge k sorted list</t>
+  </si>
+  <si>
+    <t>extend merge 2 lists (kN) space 0(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>brute force nlogn, traverse and store in arraylist, then sort and store in new linkedlist</t>
+  </si>
+  <si>
+    <t>compare one by one (kN), and optimization using priority queue (nlogk), compare k nodes a time, and push the minium node's next value in the heap, after pushing the node set node.next to null so that it becomes a single node and now attach it to the rootref.next</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/discuss/756159/Java-Two-solutions</t>
+  </si>
+  <si>
+    <t>merge with divide &amp; conquer (nlogk), -&gt; Pair up k lists and merge each pair.
+-&gt; After the first pairing, k lists are merged into k/2 lists with average 2N/k length, then k/4, k/8 and so on.</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="D76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F79" sqref="E79:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2806,7 +2828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>259</v>
       </c>
@@ -2825,7 +2847,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>264</v>
       </c>
@@ -2842,7 +2864,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>269</v>
       </c>
@@ -2859,7 +2881,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>272</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45">
+    <row r="69" spans="1:8" ht="45">
       <c r="A69" s="23" t="s">
         <v>278</v>
       </c>
@@ -2899,7 +2921,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>281</v>
       </c>
@@ -2918,7 +2940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>286</v>
       </c>
@@ -2939,7 +2961,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45">
+    <row r="72" spans="1:8" ht="45">
       <c r="A72" s="23" t="s">
         <v>296</v>
       </c>
@@ -2958,7 +2980,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
         <v>297</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
         <v>300</v>
       </c>
@@ -2992,7 +3014,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="108">
+    <row r="75" spans="1:8" ht="108">
       <c r="A75" s="23" t="s">
         <v>303</v>
       </c>
@@ -3013,16 +3035,31 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+    <row r="76" spans="1:8" ht="90">
+      <c r="A76" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>315</v>
+      </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="G76" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="1"/>
@@ -3031,7 +3068,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="1"/>
@@ -3040,7 +3077,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="1"/>
@@ -3049,7 +3086,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="1"/>
@@ -3613,8 +3650,10 @@
     <hyperlink ref="G73" r:id="rId47"/>
     <hyperlink ref="G74" r:id="rId48"/>
     <hyperlink ref="G75" r:id="rId49"/>
+    <hyperlink ref="G76" r:id="rId50"/>
+    <hyperlink ref="H76" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="319">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1123,12 +1123,21 @@
     <t>merge with divide &amp; conquer (nlogk), -&gt; Pair up k lists and merge each pair.
 -&gt; After the first pairing, k lists are merged into k/2 lists with average 2N/k length, then k/4, k/8 and so on.</t>
   </si>
+  <si>
+    <t>num of good pairs</t>
+  </si>
+  <si>
+    <t>Count how many times each number appears. If a number appears n times, then n * (n – 1) // 2 good pairs can be made with this number.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-pairs/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +1270,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1329,7 +1345,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1419,6 +1435,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1705,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F79" sqref="E79:F79"/>
+    <sheetView tabSelected="1" topLeftCell="E76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3059,14 +3078,20 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="2"/>
-      <c r="B77" s="8"/>
+    <row r="77" spans="1:8" ht="39">
+      <c r="A77" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>317</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="35" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2"/>
@@ -3652,8 +3677,9 @@
     <hyperlink ref="G75" r:id="rId49"/>
     <hyperlink ref="G76" r:id="rId50"/>
     <hyperlink ref="H76" r:id="rId51"/>
+    <hyperlink ref="G77" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1131,6 +1131,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-good-pairs/</t>
+  </si>
+  <si>
+    <t>word ladder</t>
+  </si>
+  <si>
+    <t>bfs[queue, set]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search-ii/</t>
+  </si>
+  <si>
+    <t>word search II</t>
+  </si>
+  <si>
+    <t>dfs,backtracking</t>
+  </si>
+  <si>
+    <t>trie</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1746,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3094,22 +3115,36 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="2"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="35" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="2"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="35" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2"/>
@@ -3678,8 +3713,10 @@
     <hyperlink ref="G76" r:id="rId50"/>
     <hyperlink ref="H76" r:id="rId51"/>
     <hyperlink ref="G77" r:id="rId52"/>
+    <hyperlink ref="G78" r:id="rId53"/>
+    <hyperlink ref="G79" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1148,10 +1148,10 @@
     <t>word search II</t>
   </si>
   <si>
-    <t>dfs,backtracking</t>
-  </si>
-  <si>
     <t>trie</t>
+  </si>
+  <si>
+    <t>dfs,backtracking, hashset to avoid duplicate answers</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3134,10 +3134,10 @@
         <v>323</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1148,10 +1148,10 @@
     <t>word search II</t>
   </si>
   <si>
-    <t>trie</t>
-  </si>
-  <si>
     <t>dfs,backtracking, hashset to avoid duplicate answers</t>
+  </si>
+  <si>
+    <t>trie + backtrcking</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3134,10 +3134,10 @@
         <v>323</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="327">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1148,10 +1148,13 @@
     <t>word search II</t>
   </si>
   <si>
-    <t>dfs,backtracking, hashset to avoid duplicate answers</t>
-  </si>
-  <si>
-    <t>trie + backtrcking</t>
+    <t>dfs+hashmap(a..z, list&lt;starting points(x,y)pairs&gt;) average time complexity improved</t>
+  </si>
+  <si>
+    <t>dfs,backtracking, hashset to avoid duplicate answers(nm*nm*numberOfWords)</t>
+  </si>
+  <si>
+    <t>trie + backtrcking (nm*nm)</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1459,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1745,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3129,18 +3135,20 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="30">
       <c r="A79" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="13"/>
       <c r="F79" s="1"/>
       <c r="G79" s="35" t="s">
         <v>322</v>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="331">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1154,14 +1154,38 @@
     <t>dfs,backtracking, hashset to avoid duplicate answers(nm*nm*numberOfWords)</t>
   </si>
   <si>
-    <t>trie + backtrcking (nm*nm)</t>
+    <t>trie + backtrcking (nm*nm), with the help of trie you need to traverse entire board only once</t>
+  </si>
+  <si>
+    <t>serialize and deserialize binary tree</t>
+  </si>
+  <si>
+    <r>
+      <t>You can store inorder and preorder traversal and later build the tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> ( iff duplicate doesn’t exist)</t>
+    </r>
+  </si>
+  <si>
+    <t>serial-&gt;PreOrder ,deserial-&gt; DFS+Queue(for remaining element and remove used elements(to avoid keeping pointers of processed data)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,6 +1321,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF212121"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1751,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3135,7 +3166,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30">
+    <row r="79" spans="1:8" ht="45">
       <c r="A79" s="7" t="s">
         <v>323</v>
       </c>
@@ -3154,14 +3185,22 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="2"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="1"/>
+    <row r="80" spans="1:8" ht="45">
+      <c r="A80" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>329</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="35" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2"/>
@@ -3723,8 +3762,9 @@
     <hyperlink ref="G77" r:id="rId52"/>
     <hyperlink ref="G78" r:id="rId53"/>
     <hyperlink ref="G79" r:id="rId54"/>
+    <hyperlink ref="G80" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="335">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1179,6 +1179,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>prison cells after n days</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prison-cells-after-n-days/</t>
+  </si>
+  <si>
+    <t>cycle follows 1,7 and 14 days. So you can use that 14 days cycle. Start from loop here N = (N - 1) % 14 + 1 and decrement until &gt;0 [Also, the 14 days magic number only works for a cell size of 8][ it's not 8, then it requires another exhaust-search of the pattern]</t>
+  </si>
+  <si>
+    <t>hashSet or array lookup using modulo,simulate (from 0) until you hit the cycle and record the length of cycle, after that call the function after taking remainder to get the final arrays) [As, after first iteration first and last cell will be fix with 0 so left over only 6 cells - and we have 2 choices 0 or 1 so how many total combinations we have? = 2^6 = 64 with this we can confirm patterns will repeate definitely]</t>
   </si>
 </sst>
 </file>
@@ -1782,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3202,14 +3214,24 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="2"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+    <row r="81" spans="1:7" ht="135">
+      <c r="A81" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="40" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2"/>
@@ -3763,8 +3785,9 @@
     <hyperlink ref="G78" r:id="rId53"/>
     <hyperlink ref="G79" r:id="rId54"/>
     <hyperlink ref="G80" r:id="rId55"/>
+    <hyperlink ref="G81" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="343">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1191,6 +1191,30 @@
   </si>
   <si>
     <t>hashSet or array lookup using modulo,simulate (from 0) until you hit the cycle and record the length of cycle, after that call the function after taking remainder to get the final arrays) [As, after first iteration first and last cell will be fix with 0 so left over only 6 cells - and we have 2 choices 0 or 1 so how many total combinations we have? = 2^6 = 64 with this we can confirm patterns will repeate definitely]</t>
+  </si>
+  <si>
+    <t>merge two sorted array in o(1)</t>
+  </si>
+  <si>
+    <t>using third array[m+n]  compl&gt; m+n</t>
+  </si>
+  <si>
+    <t>linear search *insertion sort [ compl&gt; m*n]</t>
+  </si>
+  <si>
+    <t>using gap method</t>
+  </si>
+  <si>
+    <t>snake and ladder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/snakes-and-ladders/</t>
+  </si>
+  <si>
+    <t>BFS + hashmap(to avoid processing visited cell again] complexity(n*n)</t>
+  </si>
+  <si>
+    <t>we need to find shortest path so you can think of bfs</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3234,22 +3258,38 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="2"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="2"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="1"/>
+    <row r="83" spans="1:7" ht="30">
+      <c r="A83" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="35" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2"/>
@@ -3786,8 +3826,9 @@
     <hyperlink ref="G79" r:id="rId54"/>
     <hyperlink ref="G80" r:id="rId55"/>
     <hyperlink ref="G81" r:id="rId56"/>
+    <hyperlink ref="G83" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="350">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1215,6 +1215,27 @@
   </si>
   <si>
     <t>we need to find shortest path so you can think of bfs</t>
+  </si>
+  <si>
+    <t>median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>merge them into single array then find median [O(m+n)]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>course schedule</t>
+  </si>
+  <si>
+    <t>remember disconnected components can be there, so check if any vertex is remaining to visit by using loop)</t>
+  </si>
+  <si>
+    <t>make adjacency list and find cycle(dfs,bfs)</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1840,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3292,22 +3313,36 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="2"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="1"/>
+      <c r="G84" s="35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45">
+      <c r="A85" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="35" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2"/>
@@ -3827,8 +3862,10 @@
     <hyperlink ref="G80" r:id="rId55"/>
     <hyperlink ref="G81" r:id="rId56"/>
     <hyperlink ref="G83" r:id="rId57"/>
+    <hyperlink ref="G84" r:id="rId58"/>
+    <hyperlink ref="G85" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="356">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1220,9 +1220,6 @@
     <t>median of two sorted arrays</t>
   </si>
   <si>
-    <t>merge them into single array then find median [O(m+n)]</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
   </si>
   <si>
@@ -1236,6 +1233,27 @@
   </si>
   <si>
     <t>make adjacency list and find cycle(dfs,bfs)</t>
+  </si>
+  <si>
+    <t>https://medium.com/@hazemu/finding-the-median-of-2-sorted-arrays-in-logarithmic-time-1d3f2ecbeb46</t>
+  </si>
+  <si>
+    <t>binary search(log(m+n)) -&gt;eliminate elements who cant be a median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge them into single array then find median [O(m+n)] </t>
+  </si>
+  <si>
+    <t>for O(1) space  you can simple use count variable and get m+n/2 if odd else  (m+n)/2 th and (m+n)/2 -1</t>
+  </si>
+  <si>
+    <t>integer to english words</t>
+  </si>
+  <si>
+    <t>make chunks of 1000, using recursion handle corner cases of ==0, &lt;20 and &lt;1000</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-english-words</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1475,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1552,6 +1570,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1839,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="E82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3259,7 +3283,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="135">
+    <row r="81" spans="1:8" ht="135">
       <c r="A81" s="23" t="s">
         <v>331</v>
       </c>
@@ -3278,7 +3302,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
         <v>335</v>
       </c>
@@ -3295,7 +3319,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:8" ht="30">
       <c r="A83" s="7" t="s">
         <v>339</v>
       </c>
@@ -3312,48 +3336,60 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:8" ht="45">
+      <c r="A84" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="B84" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="45">
+        <v>344</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45">
       <c r="A85" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>348</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="35" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="2"/>
-      <c r="B86" s="8"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>354</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="1"/>
@@ -3362,7 +3398,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="1"/>
@@ -3371,7 +3407,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="1"/>
@@ -3380,7 +3416,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="1"/>
@@ -3389,7 +3425,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="1"/>
@@ -3398,7 +3434,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="1"/>
@@ -3407,7 +3443,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="1"/>
@@ -3416,7 +3452,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
@@ -3425,7 +3461,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="1"/>
@@ -3434,7 +3470,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="1"/>
@@ -3864,8 +3900,10 @@
     <hyperlink ref="G83" r:id="rId57"/>
     <hyperlink ref="G84" r:id="rId58"/>
     <hyperlink ref="G85" r:id="rId59"/>
+    <hyperlink ref="H84" r:id="rId60"/>
+    <hyperlink ref="G86" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="368">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1254,6 +1254,42 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/integer-to-english-words</t>
+  </si>
+  <si>
+    <t>restore ip address</t>
+  </si>
+  <si>
+    <t>dfs[ edge case-&gt; leading zeroes, size of s &gt;3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-ip-addresses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/</t>
+  </si>
+  <si>
+    <t>kth largest element in a stream</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>sorting +( binarysearch+insertion sort) if upper bound is known</t>
+  </si>
+  <si>
+    <t>min heap</t>
+  </si>
+  <si>
+    <t>coin change</t>
+  </si>
+  <si>
+    <t>init min with Integer.MIN_VALUE-1 (-1 because you are adding +1 in returned value, so it will cause overflow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change</t>
+  </si>
+  <si>
+    <t>top down[ memo table of size amount+1] [time O(S∗n). where S is the amount, n is denomination count]</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3390,31 +3426,57 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="2"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="2"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="G87" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>363</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="2"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="G88" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45">
+      <c r="A89" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>365</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2"/>
@@ -3902,8 +3964,11 @@
     <hyperlink ref="G85" r:id="rId59"/>
     <hyperlink ref="H84" r:id="rId60"/>
     <hyperlink ref="G86" r:id="rId61"/>
+    <hyperlink ref="G87" r:id="rId62"/>
+    <hyperlink ref="G88" r:id="rId63"/>
+    <hyperlink ref="G89" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="371">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1290,6 +1290,15 @@
   </si>
   <si>
     <t>top down[ memo table of size amount+1] [time O(S∗n). where S is the amount, n is denomination count]</t>
+  </si>
+  <si>
+    <t>concatenated-words</t>
+  </si>
+  <si>
+    <t>sort based on the length and then word break-I</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/concatenated-words/</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3479,13 +3488,19 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="2"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="35" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2"/>
@@ -3967,8 +3982,9 @@
     <hyperlink ref="G87" r:id="rId62"/>
     <hyperlink ref="G88" r:id="rId63"/>
     <hyperlink ref="G89" r:id="rId64"/>
+    <hyperlink ref="G90" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="372">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/concatenated-words/</t>
+  </si>
+  <si>
+    <t>Trie+DFS</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3494,7 +3497,9 @@
       <c r="B90" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="387">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1303,12 +1303,68 @@
   <si>
     <t>Trie+DFS</t>
   </si>
+  <si>
+    <t>integer to roman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gw-GNey94j8</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>similar logic to [Integer to english words question]</t>
+  </si>
+  <si>
+    <t>longest substring without repeating character</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>brute force [2 for loops ,2nd loop will start from i)[and count[266] to accommodate all characters, and 'maxSofar' and 'longest' variable], init maxSofar=0 and longest with 1, [corner case if size is 0 then return 0] complexity n^2</t>
+  </si>
+  <si>
+    <t>The above solution requires at most 2n steps. In fact, it could be optimized to require only n steps. Instead of using a set to tell if a character exists or not, we could define a mapping of the characters to its index. Then we can skip the characters immediately when we found a repeated character. The reason is that if s[j]s[j] have a duplicate in the range [i, j)[i,j) with index j'j′, we don't need to increase ii little by little. We can skip all the elements in the range [i, j'][i,j′] and let ii to be j' + 1j′+1 directly.</t>
+  </si>
+  <si>
+    <t>sliding window + hashset to store window elements : O(n), In the worst case each character will be visited twice by ii and jj</t>
+  </si>
+  <si>
+    <t>serialize and deserialize binary search tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-bst</t>
+  </si>
+  <si>
+    <t>same as serialize and deserial binary tree[preorder+[inorder+queue]]</t>
+  </si>
+  <si>
+    <t>In previous question, it was not necessarily a BST. So you need to mark the null nodes (with a special character like '#') to figure out the structure while decoding. Here its a BST. So you don't need to mark the null nodes. You can figure out the structure just from the values</t>
+  </si>
+  <si>
+    <r>
+      <t>use upper and lower boundaries to check whether we should add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF546E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(val &lt; lower || val &gt; upper) return null;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,6 +1511,30 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF546E7A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1482,7 +1562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1516,6 +1596,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1523,7 +1616,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1624,6 +1717,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1911,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1923,7 +2034,7 @@
     <col min="4" max="4" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1943,7 +2054,7 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1962,7 +2073,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +2094,7 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="50" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -2005,7 +2116,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2133,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="50" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2043,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2062,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
@@ -2083,7 +2194,7 @@
       <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="51" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -2104,8 +2215,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
@@ -2123,8 +2233,7 @@
       <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
@@ -2136,8 +2245,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="19" t="s">
@@ -2153,8 +2261,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
@@ -2168,8 +2275,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
@@ -2183,8 +2289,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
@@ -2194,8 +2299,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="105">
       <c r="A16" s="23" t="s">
@@ -2213,10 +2317,9 @@
       <c r="E16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="23" t="s">
@@ -2230,8 +2333,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
@@ -2249,8 +2351,7 @@
       <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
@@ -2266,8 +2367,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
@@ -2281,7 +2381,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="11" t="s">
         <v>83</v>
       </c>
@@ -2298,8 +2398,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="19" t="s">
@@ -2311,8 +2410,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:7" ht="45">
       <c r="A23" s="23" t="s">
@@ -2326,7 +2424,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="29" t="s">
         <v>92</v>
       </c>
@@ -2343,7 +2441,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="11" t="s">
         <v>97</v>
       </c>
@@ -2358,7 +2456,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="11" t="s">
         <v>100</v>
       </c>
@@ -2375,7 +2473,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="11" t="s">
         <v>102</v>
       </c>
@@ -2392,8 +2490,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="31" t="s">
@@ -2403,8 +2500,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
@@ -2412,8 +2508,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
@@ -2423,8 +2518,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
@@ -2438,8 +2532,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
@@ -2453,7 +2546,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="11" t="s">
         <v>117</v>
       </c>
@@ -2474,7 +2567,7 @@
       <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="50" t="s">
         <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2495,8 +2588,7 @@
         <v>128</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:7" ht="39">
       <c r="A35" s="23" t="s">
@@ -2512,7 +2604,7 @@
         <v>130</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="11" t="s">
         <v>129</v>
       </c>
@@ -2527,8 +2619,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:7" ht="105">
       <c r="A37" s="23" t="s">
@@ -2546,7 +2637,7 @@
       <c r="E37" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="11" t="s">
         <v>138</v>
       </c>
@@ -2563,7 +2654,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="11" t="s">
         <v>143</v>
       </c>
@@ -2580,7 +2671,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="11" t="s">
         <v>145</v>
       </c>
@@ -2597,7 +2688,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="11" t="s">
         <v>152</v>
       </c>
@@ -2616,8 +2707,8 @@
         <v>157</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="35" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2635,8 +2726,7 @@
         <v>161</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:7" ht="45">
       <c r="A43" s="7" t="s">
@@ -2654,8 +2744,8 @@
       <c r="E43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="35" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2675,8 +2765,8 @@
       <c r="E44" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2690,8 +2780,8 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="35" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2705,8 +2795,8 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="35" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2720,8 +2810,8 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="35" t="s">
+      <c r="F47" s="50"/>
+      <c r="G47" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2739,8 +2829,8 @@
         <v>187</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="35" t="s">
+      <c r="F48" s="50"/>
+      <c r="G48" s="11" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2758,8 +2848,8 @@
         <v>191</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="35" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2773,8 +2863,8 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="35" t="s">
+      <c r="F50" s="50"/>
+      <c r="G50" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2794,8 +2884,8 @@
       <c r="E51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="35" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="11" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2809,8 +2899,8 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="35" t="s">
+      <c r="F52" s="50"/>
+      <c r="G52" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2828,8 +2918,8 @@
         <v>207</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="35" t="s">
+      <c r="F53" s="50"/>
+      <c r="G53" s="11" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2845,8 +2935,8 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="35" t="s">
+      <c r="F54" s="50"/>
+      <c r="G54" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2860,8 +2950,8 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="35" t="s">
+      <c r="F55" s="50"/>
+      <c r="G55" s="11" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2879,8 +2969,8 @@
         <v>220</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="35" t="s">
+      <c r="F56" s="50"/>
+      <c r="G56" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2898,8 +2988,8 @@
         <v>224</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="35" t="s">
+      <c r="F57" s="50"/>
+      <c r="G57" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2913,8 +3003,8 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="35" t="s">
+      <c r="F58" s="50"/>
+      <c r="G58" s="11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2932,7 +3022,7 @@
         <v>233</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="1" t="s">
         <v>229</v>
       </c>
@@ -2953,8 +3043,8 @@
       <c r="E60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="35" t="s">
+      <c r="F60" s="50"/>
+      <c r="G60" s="11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2968,8 +3058,8 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="35" t="s">
+      <c r="F61" s="50"/>
+      <c r="G61" s="11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2987,8 +3077,8 @@
         <v>245</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="35" t="s">
+      <c r="F62" s="50"/>
+      <c r="G62" s="11" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3006,8 +3096,8 @@
         <v>250</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="35" t="s">
+      <c r="F63" s="50"/>
+      <c r="G63" s="11" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3027,10 +3117,10 @@
       <c r="E64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G64" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3048,8 +3138,8 @@
         <v>262</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="35" t="s">
+      <c r="F65" s="50"/>
+      <c r="G65" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3065,8 +3155,8 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="35" t="s">
+      <c r="F66" s="50"/>
+      <c r="G66" s="11" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3082,8 +3172,8 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="35" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="11" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3103,8 +3193,8 @@
       <c r="E68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="35" t="s">
+      <c r="F68" s="50"/>
+      <c r="G68" s="11" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3122,8 +3212,8 @@
         <v>279</v>
       </c>
       <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="40" t="s">
+      <c r="F69" s="51"/>
+      <c r="G69" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3141,8 +3231,8 @@
         <v>285</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="35" t="s">
+      <c r="F70" s="50"/>
+      <c r="G70" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3162,8 +3252,8 @@
       <c r="E71" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="35" t="s">
+      <c r="F71" s="50"/>
+      <c r="G71" s="11" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3181,8 +3271,8 @@
         <v>293</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="40" t="s">
+      <c r="F72" s="50"/>
+      <c r="G72" s="14" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3196,8 +3286,8 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="35" t="s">
+      <c r="F73" s="50"/>
+      <c r="G73" s="11" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3215,8 +3305,8 @@
         <v>51</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="35" t="s">
+      <c r="F74" s="50"/>
+      <c r="G74" s="11" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3236,8 +3326,8 @@
       <c r="E75" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="35" t="s">
+      <c r="F75" s="51"/>
+      <c r="G75" s="11" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3257,8 +3347,8 @@
       <c r="E76" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="40" t="s">
+      <c r="F76" s="50"/>
+      <c r="G76" s="14" t="s">
         <v>311</v>
       </c>
       <c r="H76" s="40" t="s">
@@ -3275,8 +3365,8 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="35" t="s">
+      <c r="F77" s="50"/>
+      <c r="G77" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3290,8 +3380,8 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="35" t="s">
+      <c r="F78" s="50"/>
+      <c r="G78" s="11" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3309,8 +3399,8 @@
         <v>326</v>
       </c>
       <c r="E79" s="13"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="35" t="s">
+      <c r="F79" s="50"/>
+      <c r="G79" s="11" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3326,8 +3416,8 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="35" t="s">
+      <c r="F80" s="50"/>
+      <c r="G80" s="11" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3345,8 +3435,8 @@
         <v>333</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="40" t="s">
+      <c r="F81" s="51"/>
+      <c r="G81" s="14" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3364,8 +3454,7 @@
         <v>338</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="50"/>
     </row>
     <row r="83" spans="1:8" ht="30">
       <c r="A83" s="7" t="s">
@@ -3379,8 +3468,8 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="35" t="s">
+      <c r="F83" s="50"/>
+      <c r="G83" s="11" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3397,8 +3486,8 @@
       <c r="D84" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="35" t="s">
+      <c r="F84" s="50"/>
+      <c r="G84" s="11" t="s">
         <v>344</v>
       </c>
       <c r="H84" s="35" t="s">
@@ -3417,8 +3506,8 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="35" t="s">
+      <c r="F85" s="50"/>
+      <c r="G85" s="11" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3432,8 +3521,8 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="35" t="s">
+      <c r="F86" s="50"/>
+      <c r="G86" s="11" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3447,8 +3536,8 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="35" t="s">
+      <c r="F87" s="50"/>
+      <c r="G87" s="11" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3466,8 +3555,8 @@
         <v>363</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="35" t="s">
+      <c r="F88" s="50"/>
+      <c r="G88" s="11" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3485,8 +3574,8 @@
         <v>365</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="35" t="s">
+      <c r="F89" s="50"/>
+      <c r="G89" s="11" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3502,46 +3591,75 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="35" t="s">
+      <c r="F90" s="50"/>
+      <c r="G90" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="2"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="2"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="2"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="F91" s="50"/>
+      <c r="G91" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="120">
+      <c r="A92" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="60">
+      <c r="A93" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="G93" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2"/>
@@ -3549,8 +3667,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="50"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2"/>
@@ -3558,368 +3675,327 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="F96" s="50"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="F97" s="50"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="F98" s="50"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="F99" s="50"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="F100" s="50"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="F101" s="50"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="F102" s="50"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="F103" s="50"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="F104" s="50"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="F105" s="50"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="F106" s="50"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="F107" s="50"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="F108" s="50"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="F109" s="50"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="F110" s="50"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="F111" s="50"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="F112" s="50"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" s="8"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="F113" s="50"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="F114" s="50"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="F115" s="50"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="F116" s="50"/>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="F117" s="50"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="F118" s="50"/>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="F119" s="50"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="F120" s="50"/>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="F121" s="50"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="F122" s="50"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="F123" s="50"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="F124" s="50"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="F125" s="50"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="F126" s="50"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="F127" s="50"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="F128" s="50"/>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2"/>
       <c r="B129" s="8"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="F129" s="50"/>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="F130" s="50"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="F131" s="50"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="F132" s="50"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="F133" s="50"/>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="F134" s="50"/>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="F135" s="50"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3988,8 +4064,12 @@
     <hyperlink ref="G88" r:id="rId63"/>
     <hyperlink ref="G89" r:id="rId64"/>
     <hyperlink ref="G90" r:id="rId65"/>
+    <hyperlink ref="B91" r:id="rId66"/>
+    <hyperlink ref="G91" r:id="rId67"/>
+    <hyperlink ref="G92" r:id="rId68"/>
+    <hyperlink ref="G93" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="391">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1358,6 +1358,18 @@
   </si>
   <si>
     <t xml:space="preserve"> if(val &lt; lower || val &gt; upper) return null;</t>
+  </si>
+  <si>
+    <t>all nodes distance k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/discuss/773252/Easy-DFS-solution-time-complexity-O(N)-space-complexity-O(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashmap to store parents to travese and propogate value upside </t>
+  </si>
+  <si>
+    <t>without hashmap propogate values with some conditions, be patient</t>
   </si>
 </sst>
 </file>
@@ -2022,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3653,13 +3665,22 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.5">
-      <c r="A94" s="2"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="1"/>
+    <row r="94" spans="1:8" ht="30">
+      <c r="A94" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="D94" s="46"/>
       <c r="E94" s="1"/>
       <c r="F94" s="50"/>
+      <c r="G94" s="35" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2"/>
@@ -4068,8 +4089,9 @@
     <hyperlink ref="G91" r:id="rId67"/>
     <hyperlink ref="G92" r:id="rId68"/>
     <hyperlink ref="G93" r:id="rId69"/>
+    <hyperlink ref="G94" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="399">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1370,6 +1370,30 @@
   </si>
   <si>
     <t>without hashmap propogate values with some conditions, be patient</t>
+  </si>
+  <si>
+    <t>course schedule 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>topological sorting + cycle detection(course schedule-1)</t>
+  </si>
+  <si>
+    <t>using node indegree (bfs)</t>
+  </si>
+  <si>
+    <t>game of life</t>
+  </si>
+  <si>
+    <t>m*n space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/game-of-life/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(1) space[ change liveToDead to -1 to remember previous value and [(deadToLive) to 2] in this way we can  differeniate b/w other rules and later we can change these values accordingly [while checking neighbours now check for -1 also because -1 indicates alive </t>
   </si>
 </sst>
 </file>
@@ -2034,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3683,20 +3707,38 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="2"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="1"/>
+      <c r="A95" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="50"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="2"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="1"/>
+      <c r="G95" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="90">
+      <c r="A96" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>398</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="50"/>
+      <c r="G96" s="35" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2"/>
@@ -4090,8 +4132,10 @@
     <hyperlink ref="G92" r:id="rId68"/>
     <hyperlink ref="G93" r:id="rId69"/>
     <hyperlink ref="G94" r:id="rId70"/>
+    <hyperlink ref="G95" r:id="rId71"/>
+    <hyperlink ref="G96" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="405">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1394,6 +1394,24 @@
   </si>
   <si>
     <t xml:space="preserve">O(1) space[ change liveToDead to -1 to remember previous value and [(deadToLive) to 2] in this way we can  differeniate b/w other rules and later we can change these values accordingly [while checking neighbours now check for -1 also because -1 indicates alive </t>
+  </si>
+  <si>
+    <t>two sum 4- bst</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-iv-input-is-a-bst/</t>
+  </si>
+  <si>
+    <t>inorder traversal (sort) + put into arraylist + two pointer (one at 0 other at n-1) and compare [time: O(2n) space O(n]</t>
+  </si>
+  <si>
+    <t>check if exist in hashset if not then store complement(target-val) in hashset and visit left and right subtree O(n)</t>
+  </si>
+  <si>
+    <t>bfs + hashset</t>
+  </si>
+  <si>
+    <t>Tree traversal and binary search(bst fact) complement for each element [nlogn]</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1670,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1771,6 +1789,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2058,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3740,15 +3761,28 @@
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+    <row r="97" spans="1:7" ht="45">
+      <c r="A97" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="F97" s="50"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
@@ -3756,7 +3790,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="50"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
@@ -3764,7 +3798,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="50"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
@@ -3772,7 +3806,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="50"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
@@ -3780,7 +3814,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="50"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
@@ -3788,7 +3822,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="50"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
@@ -3796,7 +3830,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="50"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
@@ -3804,7 +3838,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
@@ -3812,7 +3846,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="50"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
@@ -3820,7 +3854,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="50"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1"/>
@@ -3828,7 +3862,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="50"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1"/>
@@ -3836,7 +3870,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="50"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1"/>
@@ -3844,7 +3878,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="50"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="1"/>
@@ -3852,7 +3886,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="50"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="1"/>
@@ -3860,7 +3894,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="50"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1"/>
@@ -4134,8 +4168,9 @@
     <hyperlink ref="G94" r:id="rId70"/>
     <hyperlink ref="G95" r:id="rId71"/>
     <hyperlink ref="G96" r:id="rId72"/>
+    <hyperlink ref="G97" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="419">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1412,6 +1412,48 @@
   </si>
   <si>
     <t>Tree traversal and binary search(bst fact) complement for each element [nlogn]</t>
+  </si>
+  <si>
+    <t>maximal square</t>
+  </si>
+  <si>
+    <t>brute force(mn)^2</t>
+  </si>
+  <si>
+    <t>dp O(mn), space O(mn)</t>
+  </si>
+  <si>
+    <t>dp space O(n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-square/</t>
+  </si>
+  <si>
+    <t>jump game 2</t>
+  </si>
+  <si>
+    <t>memoization (TLE)</t>
+  </si>
+  <si>
+    <t>bottom-up dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>greedy (https://www.youtube.com/watch?v=vBdo7wtwlXs&amp;t=140s)</t>
+  </si>
+  <si>
+    <t>reorganize string</t>
+  </si>
+  <si>
+    <t>heap + greedy(choose two large counts every time) , check edges cases at each step</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/</t>
+  </si>
+  <si>
+    <t>sort by count[The specific interleaving pattern is that we start writing at index 1 and step by 2; then start from index 0 and step by 2] The exception to this rule is if N is odd, Finally, it is easy to see that if N is the length of the string, and the count of some letter is greater than (N+1) / 2, the task is impossible.</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1712,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1793,6 +1835,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2079,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3783,28 +3828,59 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="2"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="A98" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="50"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="2"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="G98" s="35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45">
+      <c r="A99" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D99" s="55" t="s">
+        <v>414</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="50"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="2"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="1"/>
+      <c r="G99" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="90">
+      <c r="A100" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>416</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="50"/>
+      <c r="G100" s="35" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2"/>
@@ -4169,8 +4245,11 @@
     <hyperlink ref="G95" r:id="rId71"/>
     <hyperlink ref="G96" r:id="rId72"/>
     <hyperlink ref="G97" r:id="rId73"/>
+    <hyperlink ref="G98" r:id="rId74"/>
+    <hyperlink ref="G99" r:id="rId75"/>
+    <hyperlink ref="G100" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="422">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1454,6 +1454,15 @@
   </si>
   <si>
     <t>sort by count[The specific interleaving pattern is that we start writing at index 1 and step by 2; then start from index 0 and step by 2] The exception to this rule is if N is odd, Finally, it is easy to see that if N is the length of the string, and the count of some letter is greater than (N+1) / 2, the task is impossible.</t>
+  </si>
+  <si>
+    <t>container with most water</t>
+  </si>
+  <si>
+    <t>two pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
   </si>
 </sst>
 </file>
@@ -2124,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3883,12 +3892,21 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="2"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="1"/>
+      <c r="A101" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="50"/>
+      <c r="G101" s="35" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2"/>
@@ -4248,8 +4266,9 @@
     <hyperlink ref="G98" r:id="rId74"/>
     <hyperlink ref="G99" r:id="rId75"/>
     <hyperlink ref="G100" r:id="rId76"/>
+    <hyperlink ref="G101" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="430">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1463,6 +1463,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>maximum width of binary tree</t>
+  </si>
+  <si>
+    <t>dfs,bfs</t>
+  </si>
+  <si>
+    <t>get the indexing as complete binary tree(left-&gt;2*I, right-&gt; 2*i+1)</t>
+  </si>
+  <si>
+    <t>so total width of the level is [ last-first+1 ]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/exclusive-time-of-functions</t>
+  </si>
+  <si>
+    <t>exclusive time of functions</t>
+  </si>
+  <si>
+    <t>use stack on the go (O(n)) single pass</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3908,21 +3932,39 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="2"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+    <row r="102" spans="1:7" ht="30">
+      <c r="A102" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="50"/>
+      <c r="G102" s="40" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="2"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>429</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="50"/>
+      <c r="G103" s="35" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2"/>
@@ -4267,8 +4309,10 @@
     <hyperlink ref="G99" r:id="rId75"/>
     <hyperlink ref="G100" r:id="rId76"/>
     <hyperlink ref="G101" r:id="rId77"/>
+    <hyperlink ref="G102" r:id="rId78"/>
+    <hyperlink ref="G103" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1487,6 +1487,21 @@
   </si>
   <si>
     <t>use stack on the go (O(n)) single pass</t>
+  </si>
+  <si>
+    <t>next greater element 2</t>
+  </si>
+  <si>
+    <t>brute force using double length array</t>
+  </si>
+  <si>
+    <t>brute force wth modulo operation</t>
+  </si>
+  <si>
+    <t>stack with module operation [ loop through 2*n-1 to 0] put the indices to the stack, same as NGR-1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-ii/</t>
   </si>
 </sst>
 </file>
@@ -2157,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3966,13 +3981,24 @@
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="2"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+    <row r="104" spans="1:7" ht="45">
+      <c r="A104" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>433</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="50"/>
+      <c r="G104" s="40" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2"/>
@@ -4311,8 +4337,9 @@
     <hyperlink ref="G101" r:id="rId77"/>
     <hyperlink ref="G102" r:id="rId78"/>
     <hyperlink ref="G103" r:id="rId79"/>
+    <hyperlink ref="G104" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="439">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1502,6 +1502,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/next-greater-element-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>find minimum in rotated sorted array</t>
+  </si>
+  <si>
+    <t>linear search</t>
+  </si>
+  <si>
+    <t>binary search (compare mid with end to decide where to go]</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E101" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4000,13 +4012,22 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="2"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="1"/>
+    <row r="105" spans="1:7" ht="30">
+      <c r="A105" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>438</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="50"/>
+      <c r="G105" s="35" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2"/>
@@ -4338,8 +4359,9 @@
     <hyperlink ref="G102" r:id="rId78"/>
     <hyperlink ref="G103" r:id="rId79"/>
     <hyperlink ref="G104" r:id="rId80"/>
+    <hyperlink ref="G105" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="449">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1514,6 +1514,36 @@
   </si>
   <si>
     <t>binary search (compare mid with end to decide where to go]</t>
+  </si>
+  <si>
+    <t>remove comments[google]</t>
+  </si>
+  <si>
+    <t>hint -&gt; you are in inblock if  encounter /*</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-comments/</t>
+  </si>
+  <si>
+    <t>minimum size subarray sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum/</t>
+  </si>
+  <si>
+    <t>window sliding-&gt; when you got the sum&gt;=k so, now try to reduce the left boundry using while loop  O(n)</t>
+  </si>
+  <si>
+    <t>take prefix sum + binarysearch (nlogn) [Since all elements are positive, the cumulative sum must be strictly increasing. Then, a subarray sum can expressed as the difference between two cumulative sum. Hence, given a start index for the cumulative sum array, the other end index can be searched using binary search.]</t>
+  </si>
+  <si>
+    <t>mimimum window substring</t>
+  </si>
+  <si>
+    <t>sliding window + single need map  + count missing variable</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/discuss/308436/Java-or-Beats-100</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1802,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1897,6 +1927,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2184,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:C105"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4030,28 +4066,51 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="2"/>
-      <c r="B106" s="8"/>
+      <c r="A106" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="50"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="2"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="1"/>
+      <c r="G106" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="105">
+      <c r="A107" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>445</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="50"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="2"/>
-      <c r="B108" s="8"/>
+      <c r="G107" s="56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="50"/>
+      <c r="G108" s="57" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2"/>
@@ -4360,8 +4419,11 @@
     <hyperlink ref="G103" r:id="rId79"/>
     <hyperlink ref="G104" r:id="rId80"/>
     <hyperlink ref="G105" r:id="rId81"/>
+    <hyperlink ref="G106" r:id="rId82"/>
+    <hyperlink ref="G107" r:id="rId83"/>
+    <hyperlink ref="G108" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="465">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1544,6 +1544,54 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-window-substring/discuss/308436/Java-or-Beats-100</t>
+  </si>
+  <si>
+    <t>find pivot index</t>
+  </si>
+  <si>
+    <t>prefix sum(sum variable take all sum, and the leftRunningSum) O(n) and O(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index/</t>
+  </si>
+  <si>
+    <t>two sum</t>
+  </si>
+  <si>
+    <t>hashamp two pass</t>
+  </si>
+  <si>
+    <t>hashmap 1 pass on the go check for complements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>leetcode.com/problems/3sum-closest/</t>
+  </si>
+  <si>
+    <t>3 sum closest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 sum </t>
+  </si>
+  <si>
+    <t>sorting + 2 sum using two pointers find( b+c for (-a))</t>
+  </si>
+  <si>
+    <t>sorting + 2 sum using two pointers find min diff (Math.abs(target -a+b+c)+1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/discuss/?currentPage=1&amp;orderBy=hot&amp;query=</t>
+  </si>
+  <si>
+    <t>4 sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n^3 ( upper loop for a  + 3 sum(b + twosum(c+d)) </t>
   </si>
 </sst>
 </file>
@@ -2220,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4112,47 +4160,86 @@
         <v>448</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="2"/>
-      <c r="B109" s="8"/>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>450</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="50"/>
+      <c r="G109" s="35" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="2"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="A110" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="50"/>
+      <c r="G110" s="35" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="2"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="50"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="2"/>
-      <c r="B112" s="8"/>
+      <c r="G111" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30">
+      <c r="A112" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>460</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="50"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2"/>
-      <c r="B113" s="8"/>
+      <c r="G112" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>464</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="50"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1"/>
@@ -4160,7 +4247,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="50"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1"/>
@@ -4168,7 +4255,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="50"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1"/>
@@ -4176,7 +4263,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="50"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1"/>
@@ -4184,7 +4271,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="50"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1"/>
@@ -4192,7 +4279,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="50"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1"/>
@@ -4200,7 +4287,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="50"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1"/>
@@ -4208,7 +4295,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="50"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="1"/>
@@ -4216,7 +4303,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="50"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="1"/>
@@ -4224,7 +4311,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="50"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1"/>
@@ -4232,7 +4319,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="50"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1"/>
@@ -4240,7 +4327,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="50"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1"/>
@@ -4248,7 +4335,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="50"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1"/>
@@ -4256,7 +4343,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="50"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1"/>
@@ -4264,7 +4351,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="50"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1"/>
@@ -4422,8 +4509,12 @@
     <hyperlink ref="G106" r:id="rId82"/>
     <hyperlink ref="G107" r:id="rId83"/>
     <hyperlink ref="G108" r:id="rId84"/>
+    <hyperlink ref="G109" r:id="rId85"/>
+    <hyperlink ref="G110" r:id="rId86"/>
+    <hyperlink ref="G111" r:id="rId87"/>
+    <hyperlink ref="G113" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501AAE7-0389-8D4F-A7AB-4CF7F347A6DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="32565" windowHeight="19905"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="470">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1593,11 +1594,26 @@
   <si>
     <t xml:space="preserve">n^3 ( upper loop for a  + 3 sum(b + twosum(c+d)) </t>
   </si>
+  <si>
+    <t>search suggestion system</t>
+  </si>
+  <si>
+    <t>sorting, brute force</t>
+  </si>
+  <si>
+    <t>sorting + binarysearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorting + trie(store List&lt;String&gt; at every word </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -2265,26 +2281,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="75.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="24">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2497,7 @@
       </c>
       <c r="F10" s="50"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="19" t="s">
         <v>55</v>
       </c>
@@ -2493,7 +2509,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="50"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="32">
       <c r="A12" s="19" t="s">
         <v>49</v>
       </c>
@@ -2547,7 +2563,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="50"/>
     </row>
-    <row r="16" spans="1:8" ht="105">
+    <row r="16" spans="1:8" ht="96">
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
@@ -2567,7 +2583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
@@ -2615,7 +2631,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="50"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="18">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="48">
       <c r="A21" s="23" t="s">
         <v>85</v>
       </c>
@@ -2646,7 +2662,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="50"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="48">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -2658,7 +2674,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="50"/>
     </row>
-    <row r="23" spans="1:7" ht="45">
+    <row r="23" spans="1:7" ht="48">
       <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
@@ -2675,7 +2691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="32">
       <c r="A24" s="23" t="s">
         <v>94</v>
       </c>
@@ -2707,7 +2723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51.75">
+    <row r="26" spans="1:7" ht="43">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -2724,7 +2740,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="32">
       <c r="A27" s="23" t="s">
         <v>105</v>
       </c>
@@ -2836,7 +2852,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="50"/>
     </row>
-    <row r="35" spans="1:7" ht="39">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="23" t="s">
         <v>133</v>
       </c>
@@ -2855,7 +2871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7" ht="32">
       <c r="A36" s="23" t="s">
         <v>134</v>
       </c>
@@ -2867,7 +2883,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="50"/>
     </row>
-    <row r="37" spans="1:7" ht="105">
+    <row r="37" spans="1:7" ht="96">
       <c r="A37" s="23" t="s">
         <v>136</v>
       </c>
@@ -2888,7 +2904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="64">
       <c r="A38" s="23" t="s">
         <v>141</v>
       </c>
@@ -2905,7 +2921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45.75">
+    <row r="39" spans="1:7" ht="49">
       <c r="A39" s="23" t="s">
         <v>147</v>
       </c>
@@ -2939,7 +2955,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="48">
       <c r="A41" s="7" t="s">
         <v>153</v>
       </c>
@@ -2958,7 +2974,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
@@ -2974,7 +2990,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="50"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="32">
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="32">
       <c r="A44" s="7" t="s">
         <v>168</v>
       </c>
@@ -3016,7 +3032,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="48">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="32">
       <c r="A47" s="23" t="s">
         <v>181</v>
       </c>
@@ -3061,7 +3077,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="23" t="s">
         <v>186</v>
       </c>
@@ -3135,7 +3151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="32">
       <c r="A52" s="23" t="s">
         <v>202</v>
       </c>
@@ -3150,7 +3166,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="7" t="s">
         <v>205</v>
       </c>
@@ -3169,7 +3185,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="48.75">
+    <row r="54" spans="1:7" ht="40">
       <c r="A54" s="23" t="s">
         <v>209</v>
       </c>
@@ -3444,7 +3460,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="45">
+    <row r="69" spans="1:8" ht="32">
       <c r="A69" s="23" t="s">
         <v>278</v>
       </c>
@@ -3503,7 +3519,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45">
+    <row r="72" spans="1:8" ht="48">
       <c r="A72" s="23" t="s">
         <v>296</v>
       </c>
@@ -3556,7 +3572,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="108">
+    <row r="75" spans="1:8" ht="91">
       <c r="A75" s="23" t="s">
         <v>303</v>
       </c>
@@ -3577,7 +3593,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="90">
+    <row r="76" spans="1:8" ht="80">
       <c r="A76" s="23" t="s">
         <v>309</v>
       </c>
@@ -3601,7 +3617,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="39">
+    <row r="77" spans="1:8" ht="30">
       <c r="A77" s="7" t="s">
         <v>316</v>
       </c>
@@ -3631,7 +3647,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="45">
+    <row r="79" spans="1:8" ht="32">
       <c r="A79" s="7" t="s">
         <v>323</v>
       </c>
@@ -3650,7 +3666,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="45">
+    <row r="80" spans="1:8" ht="48">
       <c r="A80" s="23" t="s">
         <v>327</v>
       </c>
@@ -3667,7 +3683,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="135">
+    <row r="81" spans="1:8" ht="112">
       <c r="A81" s="23" t="s">
         <v>331</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="16">
       <c r="A82" s="7" t="s">
         <v>335</v>
       </c>
@@ -3702,7 +3718,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="50"/>
     </row>
-    <row r="83" spans="1:8" ht="30">
+    <row r="83" spans="1:8" ht="32">
       <c r="A83" s="7" t="s">
         <v>339</v>
       </c>
@@ -3719,7 +3735,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="45">
+    <row r="84" spans="1:8" ht="32">
       <c r="A84" s="44" t="s">
         <v>343</v>
       </c>
@@ -3740,7 +3756,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45">
+    <row r="85" spans="1:8" ht="32">
       <c r="A85" s="7" t="s">
         <v>346</v>
       </c>
@@ -3757,7 +3773,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30">
+    <row r="86" spans="1:8" ht="32">
       <c r="A86" s="7" t="s">
         <v>353</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="32">
       <c r="A88" s="23" t="s">
         <v>360</v>
       </c>
@@ -3806,7 +3822,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45">
+    <row r="89" spans="1:8" ht="48">
       <c r="A89" s="23" t="s">
         <v>364</v>
       </c>
@@ -3859,7 +3875,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="120">
+    <row r="92" spans="1:8" ht="135">
       <c r="A92" s="23" t="s">
         <v>376</v>
       </c>
@@ -3878,7 +3894,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60">
+    <row r="93" spans="1:8" ht="52">
       <c r="A93" s="23" t="s">
         <v>381</v>
       </c>
@@ -3899,7 +3915,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:8" ht="32">
       <c r="A94" s="44" t="s">
         <v>387</v>
       </c>
@@ -3933,7 +3949,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="90">
+    <row r="96" spans="1:8" ht="80">
       <c r="A96" s="23" t="s">
         <v>395</v>
       </c>
@@ -3950,7 +3966,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="45">
+    <row r="97" spans="1:7" ht="48">
       <c r="A97" s="23" t="s">
         <v>399</v>
       </c>
@@ -3990,7 +4006,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="45">
+    <row r="99" spans="1:7" ht="48">
       <c r="A99" s="7" t="s">
         <v>410</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="90">
+    <row r="100" spans="1:7" ht="80">
       <c r="A100" s="23" t="s">
         <v>415</v>
       </c>
@@ -4043,7 +4059,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30">
+    <row r="102" spans="1:7" ht="32">
       <c r="A102" s="7" t="s">
         <v>422</v>
       </c>
@@ -4077,7 +4093,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="45">
+    <row r="104" spans="1:7" ht="32">
       <c r="A104" s="7" t="s">
         <v>430</v>
       </c>
@@ -4096,7 +4112,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7" ht="32">
       <c r="A105" s="23" t="s">
         <v>436</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="105">
+    <row r="107" spans="1:7" ht="96">
       <c r="A107" s="23" t="s">
         <v>442</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="32">
       <c r="A108" s="7" t="s">
         <v>446</v>
       </c>
@@ -4160,7 +4176,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30">
+    <row r="109" spans="1:7" ht="32">
       <c r="A109" s="7" t="s">
         <v>449</v>
       </c>
@@ -4209,7 +4225,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7" ht="32">
       <c r="A112" s="23" t="s">
         <v>457</v>
       </c>
@@ -4240,12 +4256,23 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="2"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="A114" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="50"/>
+      <c r="G114" s="35" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2"/>
@@ -4425,96 +4452,97 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G32" r:id="rId11"/>
-    <hyperlink ref="G35" r:id="rId12"/>
-    <hyperlink ref="G37" r:id="rId13"/>
-    <hyperlink ref="G38" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G41" r:id="rId17"/>
-    <hyperlink ref="G43" r:id="rId18"/>
-    <hyperlink ref="G44" r:id="rId19"/>
-    <hyperlink ref="G45" r:id="rId20"/>
-    <hyperlink ref="G46" r:id="rId21"/>
-    <hyperlink ref="G47" r:id="rId22"/>
-    <hyperlink ref="G48" r:id="rId23"/>
-    <hyperlink ref="G49" r:id="rId24"/>
-    <hyperlink ref="G50" r:id="rId25"/>
-    <hyperlink ref="G51" r:id="rId26"/>
-    <hyperlink ref="G52" r:id="rId27"/>
-    <hyperlink ref="G53" r:id="rId28"/>
-    <hyperlink ref="G54" r:id="rId29"/>
-    <hyperlink ref="G55" r:id="rId30"/>
-    <hyperlink ref="G56" r:id="rId31"/>
-    <hyperlink ref="G57" r:id="rId32"/>
-    <hyperlink ref="G58" r:id="rId33"/>
-    <hyperlink ref="G60" r:id="rId34"/>
-    <hyperlink ref="G61" r:id="rId35"/>
-    <hyperlink ref="G62" r:id="rId36"/>
-    <hyperlink ref="G63" r:id="rId37"/>
-    <hyperlink ref="G64" r:id="rId38"/>
-    <hyperlink ref="G65" r:id="rId39"/>
-    <hyperlink ref="G66" r:id="rId40"/>
-    <hyperlink ref="G67" r:id="rId41"/>
-    <hyperlink ref="G68" r:id="rId42"/>
-    <hyperlink ref="G69" r:id="rId43"/>
-    <hyperlink ref="G70" r:id="rId44"/>
-    <hyperlink ref="G71" r:id="rId45"/>
-    <hyperlink ref="G72" r:id="rId46"/>
-    <hyperlink ref="G73" r:id="rId47"/>
-    <hyperlink ref="G74" r:id="rId48"/>
-    <hyperlink ref="G75" r:id="rId49"/>
-    <hyperlink ref="G76" r:id="rId50"/>
-    <hyperlink ref="H76" r:id="rId51"/>
-    <hyperlink ref="G77" r:id="rId52"/>
-    <hyperlink ref="G78" r:id="rId53"/>
-    <hyperlink ref="G79" r:id="rId54"/>
-    <hyperlink ref="G80" r:id="rId55"/>
-    <hyperlink ref="G81" r:id="rId56"/>
-    <hyperlink ref="G83" r:id="rId57"/>
-    <hyperlink ref="G84" r:id="rId58"/>
-    <hyperlink ref="G85" r:id="rId59"/>
-    <hyperlink ref="H84" r:id="rId60"/>
-    <hyperlink ref="G86" r:id="rId61"/>
-    <hyperlink ref="G87" r:id="rId62"/>
-    <hyperlink ref="G88" r:id="rId63"/>
-    <hyperlink ref="G89" r:id="rId64"/>
-    <hyperlink ref="G90" r:id="rId65"/>
-    <hyperlink ref="B91" r:id="rId66"/>
-    <hyperlink ref="G91" r:id="rId67"/>
-    <hyperlink ref="G92" r:id="rId68"/>
-    <hyperlink ref="G93" r:id="rId69"/>
-    <hyperlink ref="G94" r:id="rId70"/>
-    <hyperlink ref="G95" r:id="rId71"/>
-    <hyperlink ref="G96" r:id="rId72"/>
-    <hyperlink ref="G97" r:id="rId73"/>
-    <hyperlink ref="G98" r:id="rId74"/>
-    <hyperlink ref="G99" r:id="rId75"/>
-    <hyperlink ref="G100" r:id="rId76"/>
-    <hyperlink ref="G101" r:id="rId77"/>
-    <hyperlink ref="G102" r:id="rId78"/>
-    <hyperlink ref="G103" r:id="rId79"/>
-    <hyperlink ref="G104" r:id="rId80"/>
-    <hyperlink ref="G105" r:id="rId81"/>
-    <hyperlink ref="G106" r:id="rId82"/>
-    <hyperlink ref="G107" r:id="rId83"/>
-    <hyperlink ref="G108" r:id="rId84"/>
-    <hyperlink ref="G109" r:id="rId85"/>
-    <hyperlink ref="G110" r:id="rId86"/>
-    <hyperlink ref="G111" r:id="rId87"/>
-    <hyperlink ref="G113" r:id="rId88"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G55" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G56" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G57" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G61" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G65" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G68" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G69" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G72" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G74" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G75" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G76" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H76" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G77" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G79" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G80" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G81" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G84" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G85" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H84" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G86" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G87" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G88" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G90" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B91" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G91" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G92" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G93" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G94" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G95" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G96" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G97" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G99" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G100" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G101" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G102" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G104" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G113" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G114" r:id="rId89" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501AAE7-0389-8D4F-A7AB-4CF7F347A6DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C3A3E-E5FD-154D-8F0D-69A4E1C807EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="474">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1608,6 +1608,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/search-suggestions-system/</t>
+  </si>
+  <si>
+    <t>best time to buy and sell stock 2</t>
+  </si>
+  <si>
+    <t>vally peek[local maxima and minima]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pairwise check </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2297,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4275,12 +4287,21 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="2"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="1"/>
+      <c r="A115" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="50"/>
+      <c r="G115" s="35" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2"/>
@@ -4541,8 +4562,9 @@
     <hyperlink ref="G111" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="G113" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="G114" r:id="rId89" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
+    <hyperlink ref="G115" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C3A3E-E5FD-154D-8F0D-69A4E1C807EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE1399-F4D9-8649-93C1-5318D2F22A3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="479">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1620,6 +1620,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/score-of-parentheses/</t>
+  </si>
+  <si>
+    <t>count of paranthesis</t>
+  </si>
+  <si>
+    <t>divide and conquer recursively n^2</t>
+  </si>
+  <si>
+    <t>stack O(n) [ maintain depth]</t>
+  </si>
+  <si>
+    <t>count cores + right shifting by BAL O(1) space</t>
   </si>
 </sst>
 </file>
@@ -2296,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4173,7 +4188,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="32">
+    <row r="108" spans="1:7" ht="16">
       <c r="A108" s="7" t="s">
         <v>446</v>
       </c>
@@ -4304,12 +4319,23 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="2"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="A116" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="50"/>
+      <c r="G116" s="35" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2"/>
@@ -4563,8 +4589,9 @@
     <hyperlink ref="G113" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="G114" r:id="rId89" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
     <hyperlink ref="G115" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
+    <hyperlink ref="G116" r:id="rId91" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE1399-F4D9-8649-93C1-5318D2F22A3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AAA76-FA91-8544-9D35-24EA2E66A03A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
     <t>stack O(n) [ maintain depth]</t>
   </si>
   <si>
-    <t>count cores + right shifting by BAL O(1) space</t>
+    <t>layer count using BAL var + right shifting by BAL O(1) space [ using this concept 2(x+y) == 2x+2y]</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2025,6 +2025,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2312,7 +2315,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A116" sqref="A116:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4318,17 +4321,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="31" t="s">
+    <row r="116" spans="1:7" ht="32">
+      <c r="A116" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="13" t="s">
         <v>478</v>
       </c>
       <c r="E116" s="1"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AAA76-FA91-8544-9D35-24EA2E66A03A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8791B15-EF01-7C4C-B4E4-2C38624D83AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="484">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1635,6 +1635,21 @@
   </si>
   <si>
     <t>layer count using BAL var + right shifting by BAL O(1) space [ using this concept 2(x+y) == 2x+2y]</t>
+  </si>
+  <si>
+    <t>swap nodes in pair</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>use arraylist of Pair to store the mapping (don’t use hashmap because it is unorderd]</t>
+  </si>
+  <si>
+    <t>recursive[jump two nodes, if odd length list then handle it by checking head.next == null the return head</t>
+  </si>
+  <si>
+    <t>inplace iterative</t>
   </si>
 </sst>
 </file>
@@ -2314,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:C116"/>
+    <sheetView tabSelected="1" topLeftCell="B107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4191,7 +4206,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16">
+    <row r="108" spans="1:7" ht="32">
       <c r="A108" s="7" t="s">
         <v>446</v>
       </c>
@@ -4340,13 +4355,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="2"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+    <row r="117" spans="1:7" ht="32">
+      <c r="A117" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="50"/>
+      <c r="G117" s="35" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2"/>
@@ -4593,8 +4619,9 @@
     <hyperlink ref="G114" r:id="rId89" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
     <hyperlink ref="G115" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
     <hyperlink ref="G116" r:id="rId91" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
+    <hyperlink ref="G117" r:id="rId92" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8791B15-EF01-7C4C-B4E4-2C38624D83AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF3AEC-2C73-1D4F-B2DA-D87B81C81D5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="487">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1650,6 +1650,15 @@
   </si>
   <si>
     <t>inplace iterative</t>
+  </si>
+  <si>
+    <t>remove duplicates from sorted list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>two pointer to skip the duplicates[ prev.next = curr.next] if(prev==null) head = curr.next [ basically move current to find duplicates]</t>
   </si>
 </sst>
 </file>
@@ -2329,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4374,9 +4383,13 @@
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="2"/>
-      <c r="B118" s="8"/>
+    <row r="118" spans="1:7" ht="48">
+      <c r="A118" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>486</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4389,6 +4402,9 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="50"/>
+      <c r="G119" s="35" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2"/>
@@ -4620,8 +4636,9 @@
     <hyperlink ref="G115" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
     <hyperlink ref="G116" r:id="rId91" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
     <hyperlink ref="G117" r:id="rId92" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
+    <hyperlink ref="G119" r:id="rId93" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF3AEC-2C73-1D4F-B2DA-D87B81C81D5F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098D8E2-412B-7E43-9128-2AF4EA875E26}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="496">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1660,12 +1660,39 @@
   <si>
     <t>two pointer to skip the duplicates[ prev.next = curr.next] if(prev==null) head = curr.next [ basically move current to find duplicates]</t>
   </si>
+  <si>
+    <t>Number of substrings containing all three characters</t>
+  </si>
+  <si>
+    <t>brute force n^2</t>
+  </si>
+  <si>
+    <t>sliding window O(n)[move right pointer to find abc then try to minize the window] count += n-right</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-substrings-containing-all-three-characters/</t>
+  </si>
+  <si>
+    <t>Take three pointers l1, l2, l3 for a, b and c respectively.Now as you iterate over the string of length n, you can count the number of sub-strings ending at that particular index. By taking minimum+1 of them, note we are storing the indices of recent a/b/c in l1/2/l3</t>
+  </si>
+  <si>
+    <t>valid palindrome 2</t>
+  </si>
+  <si>
+    <t>brute force O(n)</t>
+  </si>
+  <si>
+    <t>O(n) for the first time when you encounter mismatch [then you have a two choice to delete left or right and one of them will give you the answer]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/discuss/107717/C%2B%2BJava-Clean-Code-2-liner-Generic-for-%22you-may-delete-at-most-N-character%22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,6 +1863,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1917,7 +1951,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2052,6 +2086,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2339,7 +2376,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4394,25 +4431,45 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="50"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="2"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="G118" s="35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="75">
+      <c r="A119" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D119" s="59" t="s">
+        <v>491</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="50"/>
-      <c r="G119" s="35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="2"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="G119" s="40" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="48">
+      <c r="A120" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="59"/>
       <c r="E120" s="1"/>
       <c r="F120" s="50"/>
+      <c r="G120" s="40" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2"/>
@@ -4636,9 +4693,11 @@
     <hyperlink ref="G115" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
     <hyperlink ref="G116" r:id="rId91" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
     <hyperlink ref="G117" r:id="rId92" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
-    <hyperlink ref="G119" r:id="rId93" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
+    <hyperlink ref="G118" r:id="rId93" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
+    <hyperlink ref="G119" r:id="rId94" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
+    <hyperlink ref="G120" r:id="rId95" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098D8E2-412B-7E43-9128-2AF4EA875E26}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D8F21-46F1-0A41-BF5A-B4D184D20001}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="499">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1686,6 +1686,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-palindrome-ii/discuss/107717/C%2B%2BJava-Clean-Code-2-liner-Generic-for-%22you-may-delete-at-most-N-character%22</t>
+  </si>
+  <si>
+    <t>camelcase matching</t>
+  </si>
+  <si>
+    <t>counting the uppaercase alphabet and checking the subsequence by using for loop simple</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/camelcase-matching</t>
   </si>
 </sst>
 </file>
@@ -2375,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="E109" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4471,13 +4480,20 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="2"/>
-      <c r="B121" s="8"/>
+    <row r="121" spans="1:7" ht="32">
+      <c r="A121" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>497</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="50"/>
+      <c r="G121" s="40" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2"/>
@@ -4696,8 +4712,9 @@
     <hyperlink ref="G118" r:id="rId93" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
     <hyperlink ref="G119" r:id="rId94" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
     <hyperlink ref="G120" r:id="rId95" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
+    <hyperlink ref="G121" r:id="rId96" xr:uid="{CB8091F1-D91B-2144-ADDA-79D3F79EA633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D8F21-46F1-0A41-BF5A-B4D184D20001}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D64DF-E622-A045-BBBD-167118A7801D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="514">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1695,6 +1695,51 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/camelcase-matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count number of teams </t>
+  </si>
+  <si>
+    <t>brute force using LIS/LDS</t>
+  </si>
+  <si>
+    <t>n^2 using  [count += leftsmaller * rightgreater + rightsmaller * leftgreater;] preprocessing fix a number and count leftgreater/smaller and right greater/smaller count</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-teams/</t>
+  </si>
+  <si>
+    <t>balanced bst [ nlogn] [ BIT / Fenwick tree]</t>
+  </si>
+  <si>
+    <t>sliding window maximum</t>
+  </si>
+  <si>
+    <t>brute force nk</t>
+  </si>
+  <si>
+    <t>balanced bst nlogk (add/remove/find) operation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>monotonic (decreasing here) deque concept O(n) amortized + sliding window</t>
+  </si>
+  <si>
+    <t>increasing triplet subsequence</t>
+  </si>
+  <si>
+    <t>n^3</t>
+  </si>
+  <si>
+    <t>n^2 with leftsmaller&gt;=1 &amp;&amp; rightgreater&gt;=1 return true [ for optimization break early]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t>O(n) time and O(1) space by maintaing two variables min and secondmin [variation of LIS with binarysearch]</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +2005,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2087,17 +2132,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2384,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E109" zoomScale="149" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4028,7 +4079,7 @@
       <c r="D94" s="46"/>
       <c r="E94" s="1"/>
       <c r="F94" s="50"/>
-      <c r="G94" s="35" t="s">
+      <c r="G94" s="11" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4045,7 +4096,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="50"/>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="11" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4062,7 +4113,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="50"/>
-      <c r="G96" s="35" t="s">
+      <c r="G96" s="11" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4083,7 +4134,7 @@
         <v>403</v>
       </c>
       <c r="F97" s="50"/>
-      <c r="G97" s="35" t="s">
+      <c r="G97" s="11" t="s">
         <v>400</v>
       </c>
     </row>
@@ -4102,7 +4153,7 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="50"/>
-      <c r="G98" s="35" t="s">
+      <c r="G98" s="11" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4121,7 +4172,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="50"/>
-      <c r="G99" s="40" t="s">
+      <c r="G99" s="14" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4138,7 +4189,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="50"/>
-      <c r="G100" s="35" t="s">
+      <c r="G100" s="11" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4155,7 +4206,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="50"/>
-      <c r="G101" s="35" t="s">
+      <c r="G101" s="11" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4174,7 +4225,7 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
+      <c r="G102" s="14" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4189,7 +4240,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="50"/>
-      <c r="G103" s="35" t="s">
+      <c r="G103" s="11" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4208,7 +4259,7 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="50"/>
-      <c r="G104" s="40" t="s">
+      <c r="G104" s="14" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4225,7 +4276,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="50"/>
-      <c r="G105" s="35" t="s">
+      <c r="G105" s="11" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4240,7 +4291,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="50"/>
-      <c r="G106" s="35" t="s">
+      <c r="G106" s="11" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4257,7 +4308,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="50"/>
-      <c r="G107" s="56" t="s">
+      <c r="G107" s="58" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4272,7 +4323,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="50"/>
-      <c r="G108" s="57" t="s">
+      <c r="G108" s="59" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4287,7 +4338,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="50"/>
-      <c r="G109" s="35" t="s">
+      <c r="G109" s="11" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4306,7 +4357,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="50"/>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="11" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4321,7 +4372,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="50"/>
-      <c r="G111" s="35" t="s">
+      <c r="G111" s="11" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4351,7 +4402,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="50"/>
-      <c r="G113" s="35" t="s">
+      <c r="G113" s="11" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4370,7 +4421,7 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="50"/>
-      <c r="G114" s="35" t="s">
+      <c r="G114" s="11" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4387,12 +4438,12 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="50"/>
-      <c r="G115" s="35" t="s">
+      <c r="G115" s="11" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="32">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="56" t="s">
         <v>475</v>
       </c>
       <c r="B116" s="21" t="s">
@@ -4406,7 +4457,7 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="50"/>
-      <c r="G116" s="35" t="s">
+      <c r="G116" s="11" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4425,7 +4476,7 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="50"/>
-      <c r="G117" s="35" t="s">
+      <c r="G117" s="11" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4440,7 +4491,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="50"/>
-      <c r="G118" s="35" t="s">
+      <c r="G118" s="11" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4454,12 +4505,12 @@
       <c r="C119" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="57" t="s">
         <v>491</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="50"/>
-      <c r="G119" s="40" t="s">
+      <c r="G119" s="14" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4473,10 +4524,10 @@
       <c r="C120" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D120" s="59"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="1"/>
       <c r="F120" s="50"/>
-      <c r="G120" s="40" t="s">
+      <c r="G120" s="14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4491,33 +4542,68 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="50"/>
-      <c r="G121" s="40" t="s">
+      <c r="G121" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="2"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+    <row r="122" spans="1:7" ht="64">
+      <c r="A122" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>503</v>
+      </c>
       <c r="F122" s="50"/>
+      <c r="G122" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="2"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="A123" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="50"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="2"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="50"/>
+      <c r="G123" s="35" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="48">
+      <c r="A124" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="35" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2"/>
@@ -4713,8 +4799,11 @@
     <hyperlink ref="G119" r:id="rId94" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
     <hyperlink ref="G120" r:id="rId95" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
     <hyperlink ref="G121" r:id="rId96" xr:uid="{CB8091F1-D91B-2144-ADDA-79D3F79EA633}"/>
+    <hyperlink ref="G122" r:id="rId97" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
+    <hyperlink ref="G123" r:id="rId98" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
+    <hyperlink ref="G124" r:id="rId99" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D64DF-E622-A045-BBBD-167118A7801D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EA2B5-5139-6C4F-B230-BCEA76E4CCD9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="524">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1740,6 +1740,37 @@
   </si>
   <si>
     <t>O(n) time and O(1) space by maintaing two variables min and secondmin [variation of LIS with binarysearch]</t>
+  </si>
+  <si>
+    <t>friends of appropriate ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n^2 </t>
+  </si>
+  <si>
+    <t>O(n) count sort depending upon constraints count = count[i]*count[j] if(i!=j) else count[i]*count[j]-1)</t>
+  </si>
+  <si>
+    <t>binary search[ The Person with age A can request person with age B if
+B is in range ( 0.5 * A + 7, A ]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/friends-of-appropriate-ages/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/friends-of-appropriate-ages/discuss/231649/Java-I-think-this-is-the-solution-interviewers-would-like-to-see.</t>
+  </si>
+  <si>
+    <t>remove invalid parenthesis</t>
+  </si>
+  <si>
+    <t>bfs 2^n</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-invalid-parentheses</t>
+  </si>
+  <si>
+    <t>dfs 2^n [ left and right bracket precompute]</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4391,7 +4422,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="7" t="s">
         <v>462</v>
       </c>
@@ -4406,7 +4437,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="7" t="s">
         <v>465</v>
       </c>
@@ -4425,7 +4456,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
         <v>470</v>
       </c>
@@ -4442,7 +4473,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="32">
+    <row r="116" spans="1:8" ht="32">
       <c r="A116" s="56" t="s">
         <v>475</v>
       </c>
@@ -4461,7 +4492,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="32">
+    <row r="117" spans="1:8" ht="32">
       <c r="A117" s="23" t="s">
         <v>479</v>
       </c>
@@ -4480,7 +4511,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="48">
+    <row r="118" spans="1:8" ht="48">
       <c r="A118" s="23" t="s">
         <v>484</v>
       </c>
@@ -4495,7 +4526,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:8" ht="75">
       <c r="A119" s="23" t="s">
         <v>487</v>
       </c>
@@ -4514,7 +4545,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="48">
+    <row r="120" spans="1:8" ht="48">
       <c r="A120" s="23" t="s">
         <v>492</v>
       </c>
@@ -4531,7 +4562,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="32">
+    <row r="121" spans="1:8" ht="32">
       <c r="A121" s="23" t="s">
         <v>496</v>
       </c>
@@ -4546,7 +4577,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="64">
+    <row r="122" spans="1:8" ht="64">
       <c r="A122" s="23" t="s">
         <v>499</v>
       </c>
@@ -4567,7 +4598,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
         <v>504</v>
       </c>
@@ -4586,7 +4617,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="48">
+    <row r="124" spans="1:8" ht="48">
       <c r="A124" s="60" t="s">
         <v>509</v>
       </c>
@@ -4605,23 +4636,46 @@
         <v>512</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="2"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+    <row r="125" spans="1:8" ht="64">
+      <c r="A125" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>517</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="50"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="2"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="1"/>
+      <c r="G125" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="H125" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="50"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="G126" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1"/>
@@ -4629,7 +4683,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="50"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1"/>
@@ -4802,8 +4856,11 @@
     <hyperlink ref="G122" r:id="rId97" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
     <hyperlink ref="G123" r:id="rId98" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
     <hyperlink ref="G124" r:id="rId99" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
+    <hyperlink ref="G125" r:id="rId100" xr:uid="{6F533977-18ED-B348-91BA-6F434AA69509}"/>
+    <hyperlink ref="H125" r:id="rId101" xr:uid="{8C46FC61-B774-184E-A704-CA2CA188C5C6}"/>
+    <hyperlink ref="G126" r:id="rId102" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId103"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EA2B5-5139-6C4F-B230-BCEA76E4CCD9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B73796-A25A-1C42-86F9-9CF1890835F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="534">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1771,6 +1771,36 @@
   </si>
   <si>
     <t>dfs 2^n [ left and right bracket precompute]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindrome/</t>
+  </si>
+  <si>
+    <t>longest palindrome</t>
+  </si>
+  <si>
+    <t>a string can be made(permutation) palindrome if at most(&lt;=1) one character has an odd frequency [O(n) and O(1) space]</t>
+  </si>
+  <si>
+    <t>longest valid parenthesis</t>
+  </si>
+  <si>
+    <t>brute force n^3</t>
+  </si>
+  <si>
+    <t>DP (calculate valid parenthesis ending at i) O(n) time | O(n)space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-valid-parentheses/solution/</t>
+  </si>
+  <si>
+    <t>Stack O(n) time  [initially put -1 to the stack]</t>
+  </si>
+  <si>
+    <t>O(1) space and O(n) time [ make use of two counters left and right] Two scan left to right and right to left [ right&gt;left then reset]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-valid-parentheses/discuss/14278/Two-Java-solutions-with-explanation.-Stack-and-DP.-Short-and-easy-to-understand.</t>
   </si>
 </sst>
 </file>
@@ -2466,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="F122" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4675,21 +4705,44 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="2"/>
-      <c r="B127" s="8"/>
+    <row r="127" spans="1:8" ht="32">
+      <c r="A127" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>526</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="50"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="2"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="G127" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="48">
+      <c r="A128" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>532</v>
+      </c>
       <c r="F128" s="50"/>
+      <c r="G128" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="H128" s="35" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2"/>
@@ -4859,8 +4912,11 @@
     <hyperlink ref="G125" r:id="rId100" xr:uid="{6F533977-18ED-B348-91BA-6F434AA69509}"/>
     <hyperlink ref="H125" r:id="rId101" xr:uid="{8C46FC61-B774-184E-A704-CA2CA188C5C6}"/>
     <hyperlink ref="G126" r:id="rId102" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
+    <hyperlink ref="G127" r:id="rId103" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
+    <hyperlink ref="G128" r:id="rId104" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
+    <hyperlink ref="H128" r:id="rId105" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId103"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B73796-A25A-1C42-86F9-9CF1890835F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA20A9A-6820-E54D-864F-34567D25EA22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="544">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1801,6 +1801,36 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-valid-parentheses/discuss/14278/Two-Java-solutions-with-explanation.-Stack-and-DP.-Short-and-easy-to-understand.</t>
+  </si>
+  <si>
+    <t>accounts merge</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/accounts-merge/</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>dfs (emails as vertices) [ graph-&gt; connect every email with the first email in each account]</t>
+  </si>
+  <si>
+    <t>shortest subarray with sum atleast k</t>
+  </si>
+  <si>
+    <t>prefix sum + fenwick(BIT) tree nlogn [find P[i]-p[j] &gt;=k]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/discuss/653554/Java-Code-with-detailed-explanation</t>
+  </si>
+  <si>
+    <t>prefixsum + sliding window + array deque(monotonic increasing of prefix sum) O(n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/discuss/751834/Intuition-for-Deque-questions-on-WHY-to-use-and-WHAT-to-store-in-deque-with-FULL-explanation</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2096,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2211,6 +2241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -2494,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F122" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="F117" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="S130" sqref="S130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4744,23 +4775,47 @@
         <v>533</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="2"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="1"/>
+    <row r="129" spans="1:19" ht="32">
+      <c r="A129" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>536</v>
+      </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="50"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="2"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="G129" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="32">
+      <c r="A130" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D130" s="12"/>
       <c r="E130" s="1"/>
       <c r="F130" s="50"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="H130" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="S130" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1"/>
@@ -4768,7 +4823,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="50"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:19">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="1"/>
@@ -4776,7 +4831,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="50"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:19">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="1"/>
@@ -4784,7 +4839,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="50"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:19">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1"/>
@@ -4792,7 +4847,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="50"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:19">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1"/>
@@ -4800,7 +4855,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="50"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:19">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1"/>
@@ -4915,8 +4970,12 @@
     <hyperlink ref="G127" r:id="rId103" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
     <hyperlink ref="G128" r:id="rId104" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
     <hyperlink ref="H128" r:id="rId105" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
+    <hyperlink ref="G129" r:id="rId106" xr:uid="{A01E41E2-82F2-0B4B-948C-1D6858C60992}"/>
+    <hyperlink ref="G130" r:id="rId107" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
+    <hyperlink ref="H130" r:id="rId108" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
+    <hyperlink ref="S130" r:id="rId109" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA20A9A-6820-E54D-864F-34567D25EA22}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1584418B-3835-584B-A1A4-52355568CAB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="548">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1831,6 +1831,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/discuss/751834/Intuition-for-Deque-questions-on-WHY-to-use-and-WHAT-to-store-in-deque-with-FULL-explanation</t>
+  </si>
+  <si>
+    <t>count number of nice subarrays</t>
+  </si>
+  <si>
+    <t>prefix sum of odd number count + slidingwindow [note : sum[i]==sum[i-1] then count += prevcount]</t>
+  </si>
+  <si>
+    <t>sliding window o(1) space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-nice-subarrays/</t>
   </si>
 </sst>
 </file>
@@ -2527,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F117" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S130" sqref="S130"/>
+    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4815,13 +4827,22 @@
         <v>543</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
-      <c r="A131" s="2"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="1"/>
+    <row r="131" spans="1:19" ht="32">
+      <c r="A131" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>546</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="50"/>
+      <c r="G131" s="35" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="2"/>
@@ -4974,8 +4995,9 @@
     <hyperlink ref="G130" r:id="rId107" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
     <hyperlink ref="H130" r:id="rId108" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
     <hyperlink ref="S130" r:id="rId109" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
+    <hyperlink ref="G131" r:id="rId110" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1584418B-3835-584B-A1A4-52355568CAB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C1A47-7138-9141-81AA-76DEFD094796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2539,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F124" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C1A47-7138-9141-81AA-76DEFD094796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC7CD3-8FA7-6242-B915-DA71313F7069}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,10 +1839,10 @@
     <t>prefix sum of odd number count + slidingwindow [note : sum[i]==sum[i-1] then count += prevcount]</t>
   </si>
   <si>
-    <t>sliding window o(1) space</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/count-number-of-nice-subarrays/</t>
+  </si>
+  <si>
+    <t>two pointer o(1) space</t>
   </si>
 </sst>
 </file>
@@ -2539,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4835,13 +4835,13 @@
         <v>545</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="50"/>
       <c r="G131" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="1:19">

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC7CD3-8FA7-6242-B915-DA71313F7069}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910F9BF-6EDA-2A4A-B99F-DBF1BAD87FF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="557">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1843,6 +1843,53 @@
   </si>
   <si>
     <t>two pointer o(1) space</t>
+  </si>
+  <si>
+    <t>integer break</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-break/discuss/821786/Java-DP</t>
+  </si>
+  <si>
+    <t>dp[ either I can be the max product or my partition max[recur(a)*recur(b)]] note that original number's only parition can be the max product, you cant pick the original number as a candidate because atleast 2 partition is required]  O(n^2) [ note that recursive structure will look like complete binary tree]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(logn) using power function [ breaking the number into 3 and then 2 ] is the most efficient </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/solution/</t>
+  </si>
+  <si>
+    <t>convert sorted linkedlist to binary tree</t>
+  </si>
+  <si>
+    <t>time: O(n), space O(n) [convert to array + dnC] now middle elment will be accessed in O(1) time</t>
+  </si>
+  <si>
+    <t>time: nlogn , space logn because of hight balanced tree [using slow and fast pointer + divideNConquer]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inorder simulation[sudo dnC] [O(n) time, O(logn) space] [hint:elationship between the inorder traversal of a binary search tree and the numbers being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">sorted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in ascending order]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2108,7 +2155,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2254,6 +2301,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -2539,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="177" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4844,21 +4901,41 @@
         <v>546</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
-      <c r="A132" s="2"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="1"/>
+    <row r="132" spans="1:19" ht="96">
+      <c r="A132" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>551</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="50"/>
-    </row>
-    <row r="133" spans="1:19">
-      <c r="A133" s="2"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="50"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="63" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="64">
+      <c r="A133" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D133" s="66" t="s">
+        <v>556</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="14" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="2"/>
@@ -4996,8 +5073,9 @@
     <hyperlink ref="H130" r:id="rId108" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
     <hyperlink ref="S130" r:id="rId109" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
     <hyperlink ref="G131" r:id="rId110" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
+    <hyperlink ref="G133" r:id="rId111" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId111"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId112"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910F9BF-6EDA-2A4A-B99F-DBF1BAD87FF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B6382-6F18-2F45-957A-4A8CB75CE78F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="560">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1890,6 +1890,15 @@
       </rPr>
       <t>in ascending order]</t>
     </r>
+  </si>
+  <si>
+    <t>unique path 3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths-iii/</t>
+  </si>
+  <si>
+    <t>dfs backtracking[ handle 1,2,-1,0] appropriatly</t>
   </si>
 </sst>
 </file>
@@ -2596,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="200" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4938,12 +4947,19 @@
       </c>
     </row>
     <row r="134" spans="1:19">
-      <c r="A134" s="2"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="50"/>
+      <c r="G134" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="2"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B6382-6F18-2F45-957A-4A8CB75CE78F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C5933-6EA4-0246-AA01-53C5378D151C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="563">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1899,6 +1899,15 @@
   </si>
   <si>
     <t>dfs backtracking[ handle 1,2,-1,0] appropriatly</t>
+  </si>
+  <si>
+    <t>roman to integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for loop,maintain previous char,addition, substraction,map, you need only [I,V,X,L,C,D,M][1,5,10,50,100,500,1000] when encounter "IX" like roman then substract I from x, for all other cases just add </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/390496903/</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2173,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2318,6 +2327,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2605,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="200" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4947,7 +4959,7 @@
       </c>
     </row>
     <row r="134" spans="1:19">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>557</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -4961,13 +4973,20 @@
         <v>558</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
-      <c r="A135" s="2"/>
-      <c r="B135" s="8"/>
+    <row r="135" spans="1:19" ht="64">
+      <c r="A135" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>561</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="50"/>
+      <c r="G135" s="11" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="2"/>
@@ -5090,8 +5109,9 @@
     <hyperlink ref="S130" r:id="rId109" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
     <hyperlink ref="G131" r:id="rId110" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
     <hyperlink ref="G133" r:id="rId111" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
+    <hyperlink ref="G135" r:id="rId112" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId112"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C5933-6EA4-0246-AA01-53C5378D151C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801A1EB-C3CD-164C-9CE5-17D93783F34A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="573">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1908,6 +1908,36 @@
   </si>
   <si>
     <t>https://leetcode.com/submissions/detail/390496903/</t>
+  </si>
+  <si>
+    <t>trapping rain water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/solution/</t>
+  </si>
+  <si>
+    <t>stack single pass  O(n)</t>
+  </si>
+  <si>
+    <t>maintain two array only [ find greatest left(on the way) and right (preprocess] and substract with current height O(2*n) [Known as dp solution]</t>
+  </si>
+  <si>
+    <t>graph clone</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/discuss/830011/Java-DFS</t>
+  </si>
+  <si>
+    <t>hashmap [ during dfs create clone and map(org-&gt;copy) and while iterating to children after iteration call add V to the U's clone-&gt; neighbour list [ and finally before returning from the call set the map.get(u).neighbor = listneighbor</t>
+  </si>
+  <si>
+    <t>flatten binary tree to linkedlist</t>
+  </si>
+  <si>
+    <t>global variable prev…. right,left subtree traverse then root.left = null &amp; root.right = prev and prev = root</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2203,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2332,6 +2362,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -2615,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4988,13 +5019,46 @@
         <v>562</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
-      <c r="A136" s="2"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+    <row r="136" spans="1:19" ht="48">
+      <c r="A136" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C136" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="50"/>
+      <c r="G136" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="64">
+      <c r="A137" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="32">
+      <c r="A138" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B801A1EB-C3CD-164C-9CE5-17D93783F34A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C6C08-6347-244E-ABA3-454B9C504FC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="577">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1938,6 +1938,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list/</t>
+  </si>
+  <si>
+    <t>remove zero sum consecutive nodes</t>
+  </si>
+  <si>
+    <t>hashmap + prefix sum ( if u encounter already computed prefix then remove[idxPrefix.next to curr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brute force </t>
   </si>
 </sst>
 </file>
@@ -2646,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5058,6 +5070,20 @@
       </c>
       <c r="G138" s="1" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="32">
+      <c r="A139" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="C139" t="s">
+        <v>576</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C6C08-6347-244E-ABA3-454B9C504FC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054D4EB-64F2-FE4F-B183-198DB4E1885E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="599">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -1951,12 +1951,78 @@
   <si>
     <t xml:space="preserve">brute force </t>
   </si>
+  <si>
+    <t>queries on a permutation with key</t>
+  </si>
+  <si>
+    <t>fenwick/segment tree</t>
+  </si>
+  <si>
+    <t>linkedlist inbuilt functions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/queries-on-a-permutation-with-key/</t>
+  </si>
+  <si>
+    <t>reveal cards in increasing order</t>
+  </si>
+  <si>
+    <t>sort + deque</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reveal-cards-in-increasing-order/</t>
+  </si>
+  <si>
+    <t>We sort the input array and initialize the result array with zeros (empty spaces). Then we insert sorted numbers into the second available empty space, skipping the first available empty space. [firstly put ans[0]=deque[0] after sorting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/</t>
+  </si>
+  <si>
+    <t>count square submatrices with all ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n^3 loop over all submatrices </t>
+  </si>
+  <si>
+    <t>DP n^2 min(dp[i-1][j], dp[i][j-1], dp[i-1][j-1])+1</t>
+  </si>
+  <si>
+    <t>prefix sum on each row</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xu0PfCKy8a8</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
+  </si>
+  <si>
+    <t>range sum query - 2d immutable</t>
+  </si>
+  <si>
+    <t>prefix sum 2d array in place (take care of edge cases)</t>
+  </si>
+  <si>
+    <t>prefix sum 2d dp array extra space(no need to take care of edge case)</t>
+  </si>
+  <si>
+    <t>matrix block sum</t>
+  </si>
+  <si>
+    <t>prefix sum 2d dp array O(mn) total running time of question</t>
+  </si>
+  <si>
+    <t>brute force m^2n^2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/matrix-block-sum/discuss/838172/Java-Prefix-Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2200,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2215,7 +2287,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2375,6 +2447,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -2658,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S139"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="E135" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5085,6 +5166,90 @@
       <c r="G139" s="1" t="s">
         <v>573</v>
       </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" t="s">
+        <v>577</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C140" t="s">
+        <v>578</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="52">
+      <c r="A141" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B141" s="69" t="s">
+        <v>582</v>
+      </c>
+      <c r="C141" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C142" t="s">
+        <v>588</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="32">
+      <c r="A143" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="B143" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="D143" s="71" t="s">
+        <v>594</v>
+      </c>
+      <c r="F143" t="s">
+        <v>590</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="32">
+      <c r="A144" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D144" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="45"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C054D4EB-64F2-FE4F-B183-198DB4E1885E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C0A5C-6230-CF4C-993F-343B330874B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="607">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2016,6 +2016,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/matrix-block-sum/discuss/838172/Java-Prefix-Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reduce-array-size-to-the-half/</t>
+  </si>
+  <si>
+    <t>Reduce array size to half</t>
+  </si>
+  <si>
+    <t>frequency sorting</t>
+  </si>
+  <si>
+    <t>max heap of frquency</t>
+  </si>
+  <si>
+    <t>longest increasing path in a matrix</t>
+  </si>
+  <si>
+    <t>dp (visited matrix is not required because of this condition (prev&gt;=mat[currX][mat[currY] then return false)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>complexity O(mn) no cell is computed more than once</t>
   </si>
 </sst>
 </file>
@@ -2739,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E135" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5246,10 +5270,33 @@
         <v>598</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="45"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="45"/>
+    <row r="145" spans="1:7" ht="16">
+      <c r="A145" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="C145" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="32">
+      <c r="A146" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="C146" t="s">
+        <v>606</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>605</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C0A5C-6230-CF4C-993F-343B330874B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F13CE6-DDA8-A745-B4EA-9995A8824827}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="614">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2040,6 +2040,27 @@
   </si>
   <si>
     <t>complexity O(mn) no cell is computed more than once</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>permutation in string</t>
+  </si>
+  <si>
+    <t>similar to find all anagram in string</t>
+  </si>
+  <si>
+    <t>O(n) sliding window of size s1</t>
+  </si>
+  <si>
+    <t>edit distance</t>
+  </si>
+  <si>
+    <t>dp, memoization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/discuss/846187/JAVA-Memoization</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2332,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2479,6 +2500,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2763,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S146"/>
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="E136" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5296,6 +5320,34 @@
       </c>
       <c r="G146" s="1" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="16">
+      <c r="A147" s="72" t="s">
+        <v>608</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C147" t="s">
+        <v>515</v>
+      </c>
+      <c r="D147" t="s">
+        <v>610</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16">
+      <c r="A148" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F13CE6-DDA8-A745-B4EA-9995A8824827}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35B4B3-76B7-BB4C-BDF2-83B1D13DF437}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="618">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2061,6 +2061,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/edit-distance/discuss/846187/JAVA-Memoization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/frog-jump/</t>
+  </si>
+  <si>
+    <t>frog jump</t>
+  </si>
+  <si>
+    <t>dp iterative mn</t>
+  </si>
+  <si>
+    <t>memoization using hasmap with key string(pos+k)</t>
   </si>
 </sst>
 </file>
@@ -2787,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S148"/>
+  <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E136" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5348,6 +5360,20 @@
       </c>
       <c r="G148" s="1" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="16">
+      <c r="A149" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C149" t="s">
+        <v>617</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35B4B3-76B7-BB4C-BDF2-83B1D13DF437}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A8C46-5D84-8E42-9759-8C60207C77F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="622">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2074,12 +2074,24 @@
   <si>
     <t>memoization using hasmap with key string(pos+k)</t>
   </si>
+  <si>
+    <t>split linkedlist in parts</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-linked-list-in-parts/</t>
+  </si>
+  <si>
+    <t>find len then partsize = len/k and extraPart = len %k, then single while loop to put the roots into bucket</t>
+  </si>
+  <si>
+    <t>If there are N nodes in the list, and k parts, then every part has N/k elements, except the first N%k parts have an extra one</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2263,6 +2275,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2344,7 +2363,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2515,6 +2534,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2799,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S149"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5374,6 +5396,20 @@
       </c>
       <c r="G149" s="1" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="32">
+      <c r="A150" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="C150" s="73" t="s">
+        <v>621</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A8C46-5D84-8E42-9759-8C60207C77F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99F8A5-2F0C-9541-88BB-9FEDF8B22BFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="635">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2086,12 +2086,51 @@
   <si>
     <t>If there are N nodes in the list, and k parts, then every part has N/k elements, except the first N%k parts have an extra one</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/substring-with-concatenation-of-all-words/</t>
+  </si>
+  <si>
+    <t>substring with concatenation of all words</t>
+  </si>
+  <si>
+    <t>hashmap + sliding window(brute force edition)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-completeness-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>check completeness of a binary tree</t>
+  </si>
+  <si>
+    <t>For a complete binary tree,there should not be any node after we met an empty one.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/my-calendar-i/discuss/109475/JavaC%2B%2B-Clean-Code-with-Explanation</t>
+  </si>
+  <si>
+    <t>my calander-1</t>
+  </si>
+  <si>
+    <t>n^2 brute force using arraylist&lt;pair&gt;</t>
+  </si>
+  <si>
+    <t>nlgon using balanced tree (treemap/treeset)</t>
+  </si>
+  <si>
+    <t>spiral matrix</t>
+  </si>
+  <si>
+    <t>4 pointers[left,right,top,bottom] 1 dirction variable [dir=(dir+1)%4] to check for turn</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2282,6 +2321,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF424242"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2363,7 +2409,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2536,6 +2582,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2821,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="E144" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5410,6 +5460,53 @@
       </c>
       <c r="G150" s="1" t="s">
         <v>619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="16">
+      <c r="A151" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30">
+      <c r="A152" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" s="75" t="s">
+        <v>627</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="22">
+      <c r="A153" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="B153" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C153" t="s">
+        <v>631</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="32">
+      <c r="A154" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99F8A5-2F0C-9541-88BB-9FEDF8B22BFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9268BACE-CC5D-AF4B-B59F-2F7C1EAD2C4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="641">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2124,6 +2124,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/spiral-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/</t>
+  </si>
+  <si>
+    <t>pacific atlantic water flow</t>
+  </si>
+  <si>
+    <t>flow from ocean[water to coordinate] O(m*n) create 2 bool matrix and take their intersection</t>
+  </si>
+  <si>
+    <t>ttps://leetcode.com/problems/largest-number</t>
+  </si>
+  <si>
+    <t>largest number</t>
+  </si>
+  <si>
+    <t>custom comparator, extra care of 0 input ,Arrays.sort(num_str, (a,b) -&gt; (b+a).compareTo(a+b));</t>
   </si>
 </sst>
 </file>
@@ -2871,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S154"/>
+  <dimension ref="A1:S156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E144" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5507,6 +5525,31 @@
       </c>
       <c r="G154" s="1" t="s">
         <v>634</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="32">
+      <c r="A155" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="B155" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="C155" s="71" t="s">
+        <v>637</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="32">
+      <c r="A156" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9268BACE-CC5D-AF4B-B59F-2F7C1EAD2C4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB51F5-2227-8745-90E2-E6DD6545DAF8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="659">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2142,6 +2142,60 @@
   </si>
   <si>
     <t>custom comparator, extra care of 0 input ,Arrays.sort(num_str, (a,b) -&gt; (b+a).compareTo(a+b));</t>
+  </si>
+  <si>
+    <t>n^2 brute force</t>
+  </si>
+  <si>
+    <t>If car starts at A and can not reach B. Any station between A and B can not reach B.(B is the first station that A can not reach.) 2. If the total number of gas is bigger than the total number of cost. There must be a solution.</t>
+  </si>
+  <si>
+    <t>gas station</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/discuss/42568/Share-some-of-my-ideas.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>rotate array</t>
+  </si>
+  <si>
+    <t>O(n) time, O(n) space -&gt; n (Array length)</t>
+  </si>
+  <si>
+    <t>O(n) time, O(k%n) space (number of rotations)</t>
+  </si>
+  <si>
+    <t>O(n^k) time -&gt; simulation [ k=k%n]</t>
+  </si>
+  <si>
+    <t>cyclic replacement O(1) space</t>
+  </si>
+  <si>
+    <t>using reverse O(1) space [ 1) reverse entire  2) reverse 1st k 3) reverse rest n-k</t>
+  </si>
+  <si>
+    <t>gfg for more algos for this problem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotting-oranges/</t>
+  </si>
+  <si>
+    <t>rotten oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfs --&gt; here minute represents bfs level </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+  </si>
+  <si>
+    <t>maximum product subarray</t>
+  </si>
+  <si>
+    <t>max,min keep track, kadens algo modification, when you hit negative number swap(max,min) , I am keeping track of the min number because In future it can become positive and it will turn out to be maximum number</t>
   </si>
 </sst>
 </file>
@@ -2889,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S156"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2904,7 +2958,7 @@
     <col min="5" max="5" width="37.33203125" customWidth="1"/>
     <col min="6" max="6" width="46.5" customWidth="1"/>
     <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
@@ -5396,7 +5450,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16">
+    <row r="145" spans="1:8" ht="16">
       <c r="A145" s="45" t="s">
         <v>600</v>
       </c>
@@ -5410,7 +5464,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="32">
+    <row r="146" spans="1:8" ht="32">
       <c r="A146" s="45" t="s">
         <v>603</v>
       </c>
@@ -5424,7 +5478,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16">
+    <row r="147" spans="1:8" ht="16">
       <c r="A147" s="72" t="s">
         <v>608</v>
       </c>
@@ -5441,7 +5495,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16">
+    <row r="148" spans="1:8" ht="16">
       <c r="A148" s="45" t="s">
         <v>611</v>
       </c>
@@ -5452,7 +5506,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16">
+    <row r="149" spans="1:8" ht="16">
       <c r="A149" s="45" t="s">
         <v>615</v>
       </c>
@@ -5466,7 +5520,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="32">
+    <row r="150" spans="1:8" ht="32">
       <c r="A150" s="36" t="s">
         <v>618</v>
       </c>
@@ -5480,7 +5534,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16">
+    <row r="151" spans="1:8" ht="16">
       <c r="A151" s="45" t="s">
         <v>623</v>
       </c>
@@ -5491,7 +5545,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30">
+    <row r="152" spans="1:8" ht="30">
       <c r="A152" s="45" t="s">
         <v>626</v>
       </c>
@@ -5502,7 +5556,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="22">
+    <row r="153" spans="1:8" ht="22">
       <c r="A153" s="72" t="s">
         <v>629</v>
       </c>
@@ -5516,7 +5570,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="32">
+    <row r="154" spans="1:8" ht="32">
       <c r="A154" s="45" t="s">
         <v>632</v>
       </c>
@@ -5527,7 +5581,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="32">
+    <row r="155" spans="1:8" ht="32">
       <c r="A155" s="45" t="s">
         <v>636</v>
       </c>
@@ -5541,7 +5595,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="32">
+    <row r="156" spans="1:8" ht="32">
       <c r="A156" s="45" t="s">
         <v>639</v>
       </c>
@@ -5550,6 +5604,69 @@
       </c>
       <c r="G156" s="1" t="s">
         <v>638</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="60">
+      <c r="A157" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="B157" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="C157" s="75" t="s">
+        <v>642</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="32">
+      <c r="A158" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="B158" s="69" t="s">
+        <v>649</v>
+      </c>
+      <c r="C158" s="69" t="s">
+        <v>647</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="F158" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="G158" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="H158" s="45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16">
+      <c r="A159" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C159" s="75"/>
+      <c r="G159" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="64">
+      <c r="A160" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB51F5-2227-8745-90E2-E6DD6545DAF8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF12A70-E5D9-784B-8A28-14E03F69885B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="667">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2197,12 +2197,36 @@
   <si>
     <t>max,min keep track, kadens algo modification, when you hit negative number swap(max,min) , I am keeping track of the min number because In future it can become positive and it will turn out to be maximum number</t>
   </si>
+  <si>
+    <t>min stack</t>
+  </si>
+  <si>
+    <t>2 stacks, consider each element having a min value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>O(1) using a trick getmin [ 2*x = new_number ] but integer overflow will occur if number is too large</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>memoization  dp[list.size()+1][ list.get(lastRow).size()+1)]</t>
+  </si>
+  <si>
+    <t>dp bottom-up   space -&gt; dp[list.size()]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triangle/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2400,6 +2424,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2481,7 +2512,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2659,6 +2690,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2943,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5667,6 +5701,34 @@
       </c>
       <c r="G160" s="1" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="32">
+      <c r="A161" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="B161" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="C161" s="71" t="s">
+        <v>662</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="16">
+      <c r="A162" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C162" t="s">
+        <v>665</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF12A70-E5D9-784B-8A28-14E03F69885B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45445A55-FAB8-EB4C-A607-48EF8C515681}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="675">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2220,6 +2220,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/triangle/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy number </t>
+  </si>
+  <si>
+    <t>using hashet if(seen) then false</t>
+  </si>
+  <si>
+    <t>floyd cycle detection slow fast variables</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/happy-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>palindrome partitioning</t>
+  </si>
+  <si>
+    <t>backtracking dfs</t>
+  </si>
+  <si>
+    <t>dfs + DP (to avoid using is_palindrome() check ), we are eliminating one additional iteration to check if substring is a palindrome or not.</t>
   </si>
 </sst>
 </file>
@@ -2977,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D149" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5729,6 +5753,34 @@
       </c>
       <c r="G162" s="1" t="s">
         <v>666</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="16">
+      <c r="A163" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C163" t="s">
+        <v>669</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="48">
+      <c r="A164" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="B164" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="C164" s="71" t="s">
+        <v>674</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -5845,8 +5897,9 @@
     <hyperlink ref="G131" r:id="rId110" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
     <hyperlink ref="G133" r:id="rId111" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
     <hyperlink ref="G135" r:id="rId112" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
+    <hyperlink ref="G164" r:id="rId113" xr:uid="{69428793-5044-C745-8ED1-A02D17C87A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId113"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45445A55-FAB8-EB4C-A607-48EF8C515681}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B786C3A2-677E-5140-97C9-D9A30F885913}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="681">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2244,6 +2244,24 @@
   </si>
   <si>
     <t>dfs + DP (to avoid using is_palindrome() check ), we are eliminating one additional iteration to check if substring is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>01 matrix</t>
+  </si>
+  <si>
+    <t>determin min distance for every individual cells by dfs mn(mn)</t>
+  </si>
+  <si>
+    <t>only do dfs from 0 cells and on the way update the values of neighbour if u can provide smaller values, if u cant update the values of neighbour return from there</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/</t>
+  </si>
+  <si>
+    <t>BFS-&gt; put all zeroes into queue, update value of neighbors if ( dist(negbr) &gt; (dist+1)) and if the values is being updated then add it to the Queue for further relaxation (m*n) -&gt; Since, the new cells are added to the queue only if their current distance is greater than the calculated distance, cells are not likely to be added multiple times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic programming (m*n) </t>
   </si>
 </sst>
 </file>
@@ -2536,7 +2554,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2717,6 +2735,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3001,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S164"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:B164"/>
+    <sheetView tabSelected="1" topLeftCell="C156" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5781,6 +5802,27 @@
       </c>
       <c r="G164" s="11" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="112">
+      <c r="A165" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="B165" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C165" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="D165" s="71" t="s">
+        <v>679</v>
+      </c>
+      <c r="E165" s="77" t="s">
+        <v>680</v>
+      </c>
+      <c r="F165" s="36"/>
+      <c r="G165" s="12" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B786C3A2-677E-5140-97C9-D9A30F885913}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9C2A8-603E-3647-87D7-CDDA6C5AD435}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="685">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2262,6 +2262,18 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic programming (m*n) </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
+  </si>
+  <si>
+    <t>longest turbulent subarray</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record increasing, decreasing </t>
   </si>
 </sst>
 </file>
@@ -3022,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S165"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C156" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5823,6 +5835,20 @@
       <c r="F165" s="36"/>
       <c r="G165" s="12" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="16">
+      <c r="A166" s="72" t="s">
+        <v>682</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C166" s="71" t="s">
+        <v>684</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9C2A8-603E-3647-87D7-CDDA6C5AD435}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880FAAA-19CE-6B42-A02F-469BB7B565F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="695">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2274,6 +2274,36 @@
   </si>
   <si>
     <t xml:space="preserve">record increasing, decreasing </t>
+  </si>
+  <si>
+    <t>diagonal traversal matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diagonal-traverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treating each diagonal like array, traverse and store and alternately reverse </t>
+  </si>
+  <si>
+    <t>simulation O(m*n) -&gt; use {x,y} array , remember to handle edge cases, of multiple rows single column, single row multiple columns</t>
+  </si>
+  <si>
+    <t>network delay time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>bfs (Queue&lt;int[]&gt; q = new PriorityQueue&lt;&gt;()) to get the min dist vertex</t>
+  </si>
+  <si>
+    <t>dfs (n^n), floyd warshall (n^3)</t>
+  </si>
+  <si>
+    <t>bellman ford if negative weights (n^2)</t>
+  </si>
+  <si>
+    <t>disjktra (if no negative weights) (ElogE)</t>
   </si>
 </sst>
 </file>
@@ -3034,10 +3064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:S168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="B160" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5849,6 +5879,40 @@
       </c>
       <c r="G166" s="1" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="48">
+      <c r="A167" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="B167" s="54" t="s">
+        <v>687</v>
+      </c>
+      <c r="C167" s="54" t="s">
+        <v>688</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="32">
+      <c r="A168" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="B168" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="C168" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="D168" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="E168" s="71" t="s">
+        <v>691</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880FAAA-19CE-6B42-A02F-469BB7B565F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95911EAD-0C32-E94D-B925-32F5E4DB2E7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="720">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2305,12 +2305,87 @@
   <si>
     <t>disjktra (if no negative weights) (ElogE)</t>
   </si>
+  <si>
+    <t>combination sum 4</t>
+  </si>
+  <si>
+    <t>coin change variation</t>
+  </si>
+  <si>
+    <t>I think if there are negative numbers in the array, we must add a requirement that each number is only used one time, or either positive number or negative number should be used only one time, otherwise there would be infinite possible combinations. For example, we are given:{1, -1}, target = 1,it's obvious to see as long as we choose n 1s and (n-1) -1s, it always sums up to 1, n can be any value &gt;= 1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iv/</t>
+  </si>
+  <si>
+    <t>follow up -&gt; What if negative numbers are allowed in the given array? How does it change the problem? What limitation we need to add to the question to allow negative numbers?</t>
+  </si>
+  <si>
+    <t>delete operation fro two strings</t>
+  </si>
+  <si>
+    <t>target on char at a time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-operation-for-two-strings/</t>
+  </si>
+  <si>
+    <t>similar as wildcard matching (memoization)</t>
+  </si>
+  <si>
+    <t>using LIS</t>
+  </si>
+  <si>
+    <t>iterative solution with 1D array space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons</t>
+  </si>
+  <si>
+    <t>minimum nuber of arrows to burst baloon</t>
+  </si>
+  <si>
+    <t>sorting on the end + greedy  nlogn</t>
+  </si>
+  <si>
+    <t>perfect squares</t>
+  </si>
+  <si>
+    <t>unbounded knapsack upto 1 to sqrt(n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-squares/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-increase-to-keep-city-skyline/</t>
+  </si>
+  <si>
+    <t>max increase to keep city skyline</t>
+  </si>
+  <si>
+    <t>maintain two arrays of rowMax[], colMax[] then traverse ans += Math.min(rowMaxes[r], colMaxes[c]) - grid[r][c]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>set matrix to zero</t>
+  </si>
+  <si>
+    <t>extra space / pointer (if possible)</t>
+  </si>
+  <si>
+    <t>extra row and column array to store pointer for every row and column</t>
+  </si>
+  <si>
+    <t>keep the pointer in the first row and first column itself and one xtra varible for first cell (isColsetTobeZero) later handle first row and first colmn separately by using mat[0][0] nad isColsetTobeZero variable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2515,6 +2590,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF424242"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2596,7 +2693,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2780,6 +2877,11 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3064,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S168"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B160" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5913,6 +6015,95 @@
       </c>
       <c r="G168" s="1" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="64">
+      <c r="A169" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="B169" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="C169" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="D169" s="80" t="s">
+        <v>697</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="16">
+      <c r="A170" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="C170" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="D170" s="78" t="s">
+        <v>704</v>
+      </c>
+      <c r="E170" t="s">
+        <v>705</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="16">
+      <c r="A171" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="D171" s="79"/>
+      <c r="G171" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="16">
+      <c r="A172" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D172" s="78"/>
+      <c r="G172" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="32">
+      <c r="A173" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="64">
+      <c r="A174" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>717</v>
+      </c>
+      <c r="C174" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="D174" s="71" t="s">
+        <v>719</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95911EAD-0C32-E94D-B925-32F5E4DB2E7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594566C6-EB28-1A46-950B-D0EFAA72B978}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="724">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2379,6 +2379,18 @@
   </si>
   <si>
     <t>keep the pointer in the first row and first column itself and one xtra varible for first cell (isColsetTobeZero) later handle first row and first colmn separately by using mat[0][0] nad isColsetTobeZero variable</t>
+  </si>
+  <si>
+    <t>kth smallest element in a sorted matrix</t>
+  </si>
+  <si>
+    <t>brute force heap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/discuss/542041/Java-heap</t>
+  </si>
+  <si>
+    <t>heap (Klog(numofrows)) first traverse the first colmn then take min element and add the next item from the next colmn k times</t>
   </si>
 </sst>
 </file>
@@ -3166,9 +3178,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
@@ -6104,6 +6116,20 @@
       </c>
       <c r="G174" s="1" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="48">
+      <c r="A175" s="45" t="s">
+        <v>720</v>
+      </c>
+      <c r="B175" s="69" t="s">
+        <v>721</v>
+      </c>
+      <c r="C175" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594566C6-EB28-1A46-950B-D0EFAA72B978}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B0F33-E371-1847-932A-8042C50920A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="733">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2391,6 +2391,33 @@
   </si>
   <si>
     <t>heap (Klog(numofrows)) first traverse the first colmn then take min element and add the next item from the next colmn k times</t>
+  </si>
+  <si>
+    <t>zigzag conversion</t>
+  </si>
+  <si>
+    <t>2d array extra space simulation</t>
+  </si>
+  <si>
+    <t>O(1) using cycle  concept</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/zigzag-conversion/</t>
+  </si>
+  <si>
+    <t>list&lt;stringbuilder&gt;(len-&gt;Min(numOfRows,strlen) extra space simulation</t>
+  </si>
+  <si>
+    <t>sqrt of x</t>
+  </si>
+  <si>
+    <t>linear i*I &lt;= x [use long to avoid overflow)</t>
+  </si>
+  <si>
+    <t>leetcode.com/problems/sqrtx/</t>
+  </si>
+  <si>
+    <t>newton-raphson method</t>
   </si>
 </sst>
 </file>
@@ -3178,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:S177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6130,6 +6157,40 @@
       </c>
       <c r="G175" s="1" t="s">
         <v>722</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="32">
+      <c r="A176" s="72" t="s">
+        <v>724</v>
+      </c>
+      <c r="B176" s="69" t="s">
+        <v>725</v>
+      </c>
+      <c r="C176" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="16">
+      <c r="A177" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C177" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" t="s">
+        <v>732</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B0F33-E371-1847-932A-8042C50920A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924F4F5-71E1-4B42-9A6F-96E5C892D983}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="744">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2419,12 +2419,45 @@
   <si>
     <t>newton-raphson method</t>
   </si>
+  <si>
+    <t>majority element</t>
+  </si>
+  <si>
+    <t>O(nlogn) sorting return arr[n/2],  O(1) space</t>
+  </si>
+  <si>
+    <t>O(n) hashmap space and time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/solution/</t>
+  </si>
+  <si>
+    <t>divide and conquer nlogn [If we know the majority element in the left and right halves of an array, we can determine which is the global majority element in linear time.]</t>
+  </si>
+  <si>
+    <t>boyer moore voting alogrithm O(n) time and O(1) space [If we had some way of counting instances of the majority element as +1+1 and instances of any other element as -1−1, summing them would make it obvious that the majority element is indeed the majority element.]</t>
+  </si>
+  <si>
+    <t>majority element 2</t>
+  </si>
+  <si>
+    <t>boyer moore voting algo take 2 variables O(n) -&gt; at last check whether they are  &gt; n/3 by running exttra for loop</t>
+  </si>
+  <si>
+    <t>n^2 brute force  [ note atmost 2 majority(&gt;n/3) elements u can have]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element-ii/discuss/63500/JAVA-Easy-Version-To-Understand!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note- &gt; first 2 if else must be to check match condition </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2651,8 +2684,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2674,6 +2712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,7 +2776,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -2921,6 +2965,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3205,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S177"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6192,6 +6239,49 @@
       <c r="G177" s="1" t="s">
         <v>731</v>
       </c>
+    </row>
+    <row r="178" spans="1:7" ht="80">
+      <c r="A178" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="B178" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="D178" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="E178" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="F178" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="32">
+      <c r="A179" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="B179" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="C179" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="D179" t="s">
+        <v>743</v>
+      </c>
+      <c r="G179" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="C180" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924F4F5-71E1-4B42-9A6F-96E5C892D983}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD4B9E-7AFC-3348-AA51-E7121258F382}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="759">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2451,6 +2451,71 @@
   </si>
   <si>
     <t xml:space="preserve">note- &gt; first 2 if else must be to check match condition </t>
+  </si>
+  <si>
+    <t>find triplet in an array that form valid triangle (similar ot 3sum)</t>
+  </si>
+  <si>
+    <t>n^2logn (reduce the condition to a+b &gt; c ) sort and binary search(count all the values before c)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-triangle-number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-triangle-number/discuss/104169/Java-Solution-3-pointers</t>
+  </si>
+  <si>
+    <t>n^2 sort and linear scan (3sum similar [ 3 pointer]</t>
+  </si>
+  <si>
+    <t>isomorphic string</t>
+  </si>
+  <si>
+    <t>if mapping of previous index is not equal then return false</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/isomorphic-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets-ii/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">subset 2 ( generate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subsets from given array)</t>
+    </r>
+  </si>
+  <si>
+    <t>cascading + hashet</t>
+  </si>
+  <si>
+    <t>cascading + sort the array to avoid duplicate [ if(arr[i]==arr[i-1] start adding the new elemnts from the last SIZE of list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>task schedular [ schedule a task given a gap time between any 2 same tasks]</t>
+  </si>
+  <si>
+    <t>greedyli pick max counts, priorityqueue [ note -&gt; take care of last cycle, don’t add an extra ideal time if all the tasks are finished]</t>
   </si>
 </sst>
 </file>
@@ -3252,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="134" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="D175" zoomScale="159" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6223,7 +6288,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16">
+    <row r="177" spans="1:8" ht="16">
       <c r="A177" s="45" t="s">
         <v>729</v>
       </c>
@@ -6240,7 +6305,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="80">
+    <row r="178" spans="1:8" ht="80">
       <c r="A178" s="81" t="s">
         <v>733</v>
       </c>
@@ -6263,7 +6328,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="32">
+    <row r="179" spans="1:8" ht="32">
       <c r="A179" s="45" t="s">
         <v>739</v>
       </c>
@@ -6280,8 +6345,70 @@
         <v>742</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="C180" s="71"/>
+    <row r="180" spans="1:8" ht="32">
+      <c r="A180" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="71" t="s">
+        <v>745</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>748</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H180" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16">
+      <c r="A181" s="36" t="s">
+        <v>749</v>
+      </c>
+      <c r="B181" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="48">
+      <c r="A182" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="B182" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="D182" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="48">
+      <c r="A183" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="B183" s="54" t="s">
+        <v>758</v>
+      </c>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="12" t="s">
+        <v>756</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD4B9E-7AFC-3348-AA51-E7121258F382}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EAC9B4-B737-224F-BFCC-24DD9B8B39B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="32560" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="764">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2516,6 +2516,21 @@
   </si>
   <si>
     <t>greedyli pick max counts, priorityqueue [ note -&gt; take care of last cycle, don’t add an extra ideal time if all the tasks are finished]</t>
+  </si>
+  <si>
+    <t>dfs (TLE because matrix size is 100)</t>
+  </si>
+  <si>
+    <t>a* search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>shortest path from[0,0] to [n-1,[n-1] in binary matrix [0-&gt;empty, 1-&gt;obstacle]</t>
+  </si>
+  <si>
+    <t>bfs (note-&gt; mark all the neighbours as visited] don’t follow mark the popped node visited approach, in this way u can directly return the answer once you hit the dest cell, because if you have visited a neighbor from the min distance then adding it letter as a bigger distance than this. Doesn’t make sense and slow downs the algorithm [n^2 time complexity]</t>
   </si>
 </sst>
 </file>
@@ -3317,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D175" zoomScale="159" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="159" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6408,6 +6423,23 @@
       <c r="F183" s="36"/>
       <c r="G183" s="12" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="112">
+      <c r="A184" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="B184" s="54" t="s">
+        <v>759</v>
+      </c>
+      <c r="C184" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="D184" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A62B4AC-25AB-714A-B1D9-7A515C04D8A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7433231-67DD-F247-A84A-08A4E4E414FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="821">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -318,9 +318,6 @@
     <t>https://leetcode.com/problems/distribute-coins-in-binary-tree/</t>
   </si>
   <si>
-    <t>find duplicate subtrees</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-duplicate-subtrees/</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
-  </si>
-  <si>
-    <t>(1-traversal) Maintain two pointers(initially both are at dummy node) and update one with a delay of n steps.</t>
   </si>
   <si>
     <t>1-traversal with hasmap</t>
@@ -453,9 +447,6 @@
 3. The point at which they meet is the start of the loop</t>
   </si>
   <si>
-    <t>sort array by parity - II</t>
-  </si>
-  <si>
     <t>two pointer with extra space</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
   </si>
   <si>
     <t>DI String match</t>
-  </si>
-  <si>
-    <t>Letter combination of a phone number</t>
   </si>
   <si>
     <t>recursion, backtracking</t>
@@ -1129,9 +1117,6 @@
     <t xml:space="preserve"> if(val &lt; lower || val &gt; upper) return null;</t>
   </si>
   <si>
-    <t>all nodes distance k</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/discuss/773252/Easy-DFS-solution-time-complexity-O(N)-space-complexity-O(N)</t>
   </si>
   <si>
@@ -1139,9 +1124,6 @@
   </si>
   <si>
     <t>without hashmap propogate values with some conditions, be patient</t>
-  </si>
-  <si>
-    <t>course schedule 2</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/course-schedule-ii/</t>
@@ -1568,9 +1550,6 @@
     <t>time: nlogn , space logn because of hight balanced tree [using slow and fast pointer + divideNConquer]</t>
   </si>
   <si>
-    <t>unique path 3</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/unique-paths-iii/</t>
   </si>
   <si>
@@ -1805,9 +1784,6 @@
     <t>n^2 brute force</t>
   </si>
   <si>
-    <t>If car starts at A and can not reach B. Any station between A and B can not reach B.(B is the first station that A can not reach.) 2. If the total number of gas is bigger than the total number of cost. There must be a solution.</t>
-  </si>
-  <si>
     <t>gas station</t>
   </si>
   <si>
@@ -2127,9 +2103,6 @@
   </si>
   <si>
     <t>num of good pairs [A pair (i,j) is called good if nums[i] == nums[j] and i &lt; j]</t>
-  </si>
-  <si>
-    <t>maximal square [2D binary matrix filled with 0's and 1's, find the largest square containing only 1's and return its area]</t>
   </si>
   <si>
     <t>score of paranthesis</t>
@@ -3011,26 +2984,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> [Given a list of non-negative integers nums, arrange them such that they form the largest number]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>rotate array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [rotate the array to the right by k steps]</t>
     </r>
   </si>
   <si>
@@ -3616,12 +3569,407 @@
   <si>
     <t xml:space="preserve">linear search (high comparison) </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>rotate array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> [rotate the array to the right by k steps]</t>
+    </r>
+  </si>
+  <si>
+    <t>1. If car starts at A and can not reach B. Any station between A and B can not reach B.(B is the first station that A can not reach.)                2. If the total number of gas is bigger than the total number of cost. There must be a solution.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>find duplicate subtrees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [ return all duplicate subtrees.Two trees are duplicate if they have the same structure with the same node values.]</t>
+    </r>
+  </si>
+  <si>
+    <t>sort array by parity - II [Given an array A of non-negative integers, half of the integers in A are odd, and half of the integers are even.
+Sort the array so that whenever A[i] is odd, i is odd; and whenever A[i] is even, i is even]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Letter combination of a phone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Given a string containing digits from 2-9 inclusive, return all possible letter combinations that the number could represent. Return the answer in any order.]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">all nodes distance k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Return a list of the values of all nodes that have a distance K from the target node.  The answer can be returned in any order]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>course schedule 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Given the total number of courses numCourses and a list of the prerequisite pairs, return the ordering of courses you should take to finish all courses]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>maximal square</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [2D binary matrix filled with 0's and 1's, find the largest square containing only 1's and return its area]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>unique path 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Return the number of 4-directional walks from the starting square to the ending square, that walk over every non-obstacle square exactly once.]</t>
+    </r>
+  </si>
+  <si>
+    <t>minimum number of swaps required to sort an array of 1st N numbers</t>
+  </si>
+  <si>
+    <t>cycle sort O(n) and O(1) space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-of-swaps-required-to-sort-an-array-of-first-n-number/?ref=rp</t>
+  </si>
+  <si>
+    <t>sorting(to avoid duplicate) + backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(i&gt;start &amp;&amp; arr[i] == arr[i-1]) continue; //avoid duplicates</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>combination sum 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Given a collection of candidate numbers (candidates) and a target number (target), find all unique combinations in candidates where the candidate numbers sum to target.
+Each number in candidates may only be used once in the combination.
+Note: The solution set must not contain duplicate combinations]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>remove duplicates from sorted array 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Given a sorted array nums, remove the duplicates in-place such that duplicates appeared </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>at most twice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and return the new length]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>remove duplicates from sorted array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Given a sorted array nums, remove the duplicates in-place such that each element </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>appears only once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and returns the new length]
+</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n) time and O(1) space [take extra variable put the first element, check curr element with the extra variable -&gt; if equals then skip current [ if not equals then update extra variable and put It to the answer list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n) time and O(1) space [similar to above problem, here use a count variable as well to make sure that we allow 2 duplicates only] </t>
+  </si>
+  <si>
+    <t>this is another wonderful solution -&gt; https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/discuss/27987/Short-and-Simple-Java-solution-(easy-to-understand)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>product of array except itself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [ Given an array nums of n integers where n &gt; 1,  return an array output such that output[i] is equal to the product of all the elements of nums except nums[i]. ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>ans[i] = left[i] * right[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [we can make use of the product of all the numbers to the left and all the numbers to the right of the index. Multiplying these two individual products would give us the desired result as well.] </t>
+    </r>
+  </si>
+  <si>
+    <t>take product of all elements and then divide by arr[i] for each i       O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if output array does not count towards the space complexity. This approach is essentially an extension of the approach above. Basically, we will be using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>the output array as one of Left[] or Right[] and we will be constructing the other one on the fly(take a extra variable for this step to know the sofar right product].</t>
+    </r>
+  </si>
+  <si>
+    <t>(1-traversal) Maintain two pointers(initially both are at dummy node) and update one with a delay of n steps. [forward fast pointer n steps ahead, then move both the pointers simulataneously until fast reaches null, at the end slow.next will be pointing to the node which u want to delete]</t>
+  </si>
+  <si>
+    <t>next permutation</t>
+  </si>
+  <si>
+    <t>permutation of a given array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>backtracking with swapping [note that a simple backtracking will generate subsets not permutation]</t>
+  </si>
+  <si>
+    <t>If you look at the every permutation from RHS, its increasing towards LHS and stops at certain break point</t>
+  </si>
+  <si>
+    <t>now reverse elements from i+1 to n (to make it increasing from RHS) that will form a valid next permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find that position (i) after breakpoint comes(from RHS), now find element(arr[j]) from RHS-&gt;LHS such that arr[j] &gt; arr[i], swap them </t>
+  </si>
+  <si>
+    <t>using split function  store the words in an array then reverse the array O(n) time and space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reverse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Words</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a String [ reverse string word by word]</t>
+    </r>
+  </si>
+  <si>
+    <t>directly swapping the words starting from the middle.[length-&gt;even = mid/2 else (mid+1)/2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step1-&gt; reverse individual words. [Step2 -&gt;] reverse entire string O(n) time and O(1) space   [you need to take care of extra spaces acc to question]                                                               </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3852,6 +4200,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3909,7 +4274,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -4023,10 +4388,22 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4314,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="159" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="159" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4588,7 +4965,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>57</v>
@@ -4625,10 +5002,10 @@
         <v>62</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>65</v>
@@ -4695,7 +5072,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>79</v>
@@ -4716,7 +5093,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4775,7 +5152,7 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -4792,31 +5169,31 @@
     </row>
     <row r="26" spans="1:8" ht="45">
       <c r="A26" s="9" t="s">
-        <v>97</v>
+        <v>782</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -4826,7 +5203,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="13"/>
@@ -4838,7 +5215,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="13"/>
@@ -4850,7 +5227,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="13"/>
@@ -4862,13 +5239,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -4878,90 +5255,90 @@
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" ht="60">
       <c r="A32" s="8" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:8" ht="96" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>124</v>
+        <v>808</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4972,721 +5349,721 @@
     </row>
     <row r="37" spans="1:8" ht="75">
       <c r="A37" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="60">
       <c r="A38" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="60">
       <c r="A39" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="86" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>141</v>
+        <v>783</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="43" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="9" t="s">
+      <c r="C41" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8" ht="50" customHeight="1">
       <c r="A42" s="33" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:8" ht="46" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="45">
       <c r="A44" s="9" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="30">
+    <row r="45" spans="1:8" ht="51" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="60" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>165</v>
+        <v>784</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:8" ht="45" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="29" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8" ht="43" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="31" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="9" t="s">
+      <c r="E51" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="60">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="45">
+    <row r="54" spans="1:8" ht="53" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="9" t="s">
+      <c r="D56" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="24" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="B57" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="28" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" ht="23" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>216</v>
-      </c>
       <c r="D59" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60" s="9" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="36" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="26" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" ht="26" customHeight="1">
+      <c r="A64" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10" t="s">
+      <c r="G64" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" ht="22" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="31" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="39" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="28" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" ht="30">
       <c r="A69" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" ht="29" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="9" t="s">
+      <c r="C70" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H70" s="13"/>
     </row>
     <row r="71" spans="1:8" s="3" customFormat="1" ht="75">
       <c r="A71" s="9" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H71" s="13"/>
     </row>
     <row r="72" spans="1:8" ht="45">
       <c r="A72" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" ht="23" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="26" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>51</v>
@@ -5694,158 +6071,158 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" ht="125" customHeight="1">
+      <c r="A75" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" ht="120">
-      <c r="A75" s="9" t="s">
+      <c r="D75" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="E75" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" ht="84" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" ht="60">
-      <c r="A76" s="9" t="s">
+      <c r="B76" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>291</v>
-      </c>
       <c r="D76" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="53" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="22" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" ht="47" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" ht="30">
-      <c r="A79" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="C79" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:8" ht="30">
+    <row r="80" spans="1:8" ht="76" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="1:8" ht="90">
+    <row r="81" spans="1:8" ht="129" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" ht="36" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="C82" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
@@ -5854,759 +6231,759 @@
     </row>
     <row r="83" spans="1:8" ht="30">
       <c r="A83" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:8" ht="45">
-      <c r="A84" s="9" t="s">
-        <v>319</v>
+      <c r="A84" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H84" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30">
-      <c r="A85" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="C85" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="1:8" ht="30">
+    <row r="86" spans="1:8" ht="40" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="25" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="39" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" ht="28" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="D88" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:8" ht="30">
+    <row r="89" spans="1:8" ht="37" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:8" s="3" customFormat="1" ht="75">
       <c r="A90" s="9" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="31" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" ht="170">
       <c r="A92" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>355</v>
-      </c>
       <c r="D92" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" ht="96" customHeight="1">
+      <c r="A93" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" ht="60">
-      <c r="A93" s="9" t="s">
+      <c r="B93" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>360</v>
-      </c>
       <c r="E93" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:8" ht="57" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>362</v>
+        <v>785</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" spans="1:8" ht="60" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="1:8" ht="99" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="1:8" ht="60">
-      <c r="A96" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="25" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:8" ht="30">
       <c r="A97" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" ht="53" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:8" ht="30">
-      <c r="A98" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>381</v>
-      </c>
       <c r="D98" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="38" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="25" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:8" ht="75">
       <c r="A100" s="9" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="25" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:8" ht="30">
       <c r="A104" s="9" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="25" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="25" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" ht="75">
       <c r="A107" s="9" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="25" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" ht="30">
       <c r="A108" s="9" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="25" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:8" ht="45">
       <c r="A109" s="9" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:8" ht="30">
       <c r="A111" s="9" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:8" ht="30">
       <c r="A112" s="9" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="30">
       <c r="A113" s="9" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
       <c r="G113" s="25" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:13" s="3" customFormat="1" ht="45">
       <c r="A114" s="9" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:13" s="3" customFormat="1" ht="75">
       <c r="A115" s="9" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="25" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:13" ht="30">
       <c r="A116" s="10" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="25" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:13" ht="30">
       <c r="A117" s="9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:13" ht="30">
       <c r="A118" s="9" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="25" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:13" ht="90">
       <c r="A119" s="9" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
       <c r="G119" s="25" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:13" ht="45">
       <c r="A120" s="9" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="25" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:13" ht="30">
       <c r="A121" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
       <c r="G121" s="25" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:13" ht="45">
       <c r="A122" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="25" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="1:13" ht="75">
+    <row r="123" spans="1:13" ht="100" customHeight="1">
       <c r="A123" s="9" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
       <c r="G123" s="25" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="3"/>
@@ -6617,21 +6994,21 @@
     </row>
     <row r="124" spans="1:13" ht="135">
       <c r="A124" s="9" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
       <c r="G124" s="25" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="3"/>
@@ -6642,1180 +7019,1180 @@
     </row>
     <row r="125" spans="1:13" ht="60">
       <c r="A125" s="9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
       <c r="G125" s="25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="3" customFormat="1" ht="45">
       <c r="A126" s="8" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
       <c r="G126" s="25" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:13" s="3" customFormat="1" ht="90">
       <c r="A127" s="9" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
       <c r="G127" s="25" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:13" ht="60">
       <c r="A128" s="10" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="30">
       <c r="A129" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
       <c r="G129" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:19" ht="45">
       <c r="A130" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
       <c r="G130" s="25" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="30">
       <c r="A131" s="9" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
       <c r="G131" s="25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:19" ht="75">
       <c r="A132" s="11" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:19" ht="45">
       <c r="A133" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="25" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" ht="45">
       <c r="A134" s="9" t="s">
-        <v>508</v>
+        <v>788</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="13" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:19" ht="45">
       <c r="A135" s="10" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="25" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:19" ht="45">
       <c r="A136" s="10" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:19" ht="60">
       <c r="A137" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
       <c r="G137" s="13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:19" ht="30">
       <c r="A138" s="13" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="13" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:19" ht="30">
       <c r="A139" s="13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="13" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H139" s="13"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" ht="26" customHeight="1">
       <c r="A140" s="13" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:19" ht="70">
       <c r="A141" s="13" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="13" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="13" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="13" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:19" ht="30">
       <c r="A143" s="13" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H143" s="13"/>
+    </row>
+    <row r="144" spans="1:19" ht="23" customHeight="1">
+      <c r="A144" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="G143" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="H143" s="13"/>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="A144" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>547</v>
-      </c>
       <c r="C144" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>539</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" ht="60">
       <c r="A145" s="13" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
       <c r="G145" s="13" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" ht="30">
       <c r="A146" s="13" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" ht="60">
       <c r="A147" s="14" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="13" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="13" t="s">
-        <v>559</v>
+    <row r="148" spans="1:8" ht="22" customHeight="1">
+      <c r="A148" s="14" t="s">
+        <v>552</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="G148" s="13" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="13" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
       <c r="G149" s="13" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" ht="30">
       <c r="A150" s="13" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" ht="75">
       <c r="A151" s="13" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
       <c r="G151" s="13" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" ht="30">
       <c r="A152" s="13" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
       <c r="G152" s="13" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:8" ht="45">
       <c r="A153" s="14" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
       <c r="G153" s="13" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:8" ht="30">
       <c r="A154" s="13" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
       <c r="G154" s="13" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" ht="30">
       <c r="A155" s="13" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:8" ht="30">
       <c r="A156" s="13" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:8" ht="60">
       <c r="A157" s="13" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>587</v>
+        <v>781</v>
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:8" ht="30">
-      <c r="A158" s="13" t="s">
-        <v>743</v>
+      <c r="A158" s="44" t="s">
+        <v>780</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="60">
       <c r="A159" s="13" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" ht="60">
       <c r="A160" s="15" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H160" s="13"/>
     </row>
     <row r="161" spans="1:8" ht="30">
       <c r="A161" s="16" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
       <c r="G161" s="13" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:8" ht="45">
       <c r="A162" s="13" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" ht="60">
       <c r="A163" s="13" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" ht="30">
       <c r="A164" s="13" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
       <c r="G164" s="25" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H164" s="13"/>
     </row>
     <row r="165" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
       <c r="A165" s="13" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="13" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H165" s="13"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="14" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H166" s="13"/>
     </row>
     <row r="167" spans="1:8" ht="30">
       <c r="A167" s="13" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H167" s="13"/>
     </row>
     <row r="168" spans="1:8" ht="30">
       <c r="A168" s="17" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="13" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:8" ht="153">
       <c r="A169" s="13" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H169" s="13"/>
     </row>
     <row r="170" spans="1:8" s="3" customFormat="1" ht="45">
       <c r="A170" s="13" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D170" s="36" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="13" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H170" s="13"/>
     </row>
     <row r="171" spans="1:8" ht="16">
       <c r="A171" s="13" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="44"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H171" s="13"/>
     </row>
     <row r="172" spans="1:8" ht="45">
       <c r="A172" s="13" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="36"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:8" ht="30">
       <c r="A173" s="13" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:8" ht="60">
       <c r="A174" s="13" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:8" ht="30">
       <c r="A175" s="13" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:8" ht="30">
       <c r="A176" s="14" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="13" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8" ht="75">
       <c r="A178" s="18" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8" ht="30">
       <c r="A179" s="13" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="30">
       <c r="A180" s="14" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="13" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H181" s="13"/>
     </row>
     <row r="182" spans="1:8" ht="30">
       <c r="A182" s="13" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="H182" s="13"/>
     </row>
     <row r="183" spans="1:8" ht="30">
       <c r="A183" s="13" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:8" ht="90">
       <c r="A184" s="13" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H184" s="13"/>
     </row>
     <row r="185" spans="1:8" ht="60">
       <c r="A185" s="31" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H185" s="13"/>
     </row>
     <row r="186" spans="1:8" s="29" customFormat="1" ht="150">
       <c r="A186" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="H186" s="13"/>
     </row>
     <row r="187" spans="1:8" ht="90">
       <c r="A187" s="31" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
       <c r="G187" s="37" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="H187" s="37"/>
     </row>
     <row r="188" spans="1:8" ht="38" customHeight="1">
       <c r="A188" s="24" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="13"/>
@@ -7823,145 +8200,207 @@
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
       <c r="G188" s="37" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="H188" s="37"/>
     </row>
     <row r="189" spans="1:8" ht="27" customHeight="1">
       <c r="A189" s="13" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="D189" s="37"/>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
       <c r="G189" s="37" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="H189" s="37"/>
     </row>
     <row r="190" spans="1:8" ht="50" customHeight="1">
       <c r="A190" s="13" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
       <c r="F190" s="37"/>
       <c r="G190" s="37" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="H190" s="37"/>
     </row>
     <row r="191" spans="1:8" ht="37" customHeight="1">
       <c r="A191" s="13" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D191" s="37" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
       <c r="H191" s="37"/>
     </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="12"/>
-      <c r="B192" s="20"/>
+    <row r="192" spans="1:8" ht="36" customHeight="1">
+      <c r="A192" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="B192" s="45" t="s">
+        <v>790</v>
+      </c>
       <c r="C192" s="12"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="G192" s="37" t="s">
+        <v>791</v>
+      </c>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="12"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="12"/>
+    <row r="193" spans="1:8" ht="144" customHeight="1">
+      <c r="A193" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="B193" s="45" t="s">
+        <v>792</v>
+      </c>
+      <c r="C193" s="47" t="s">
+        <v>793</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="G193" s="46" t="s">
+        <v>794</v>
+      </c>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="12"/>
-      <c r="B194" s="20"/>
+    <row r="194" spans="1:8" ht="70" customHeight="1">
+      <c r="A194" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>798</v>
+      </c>
       <c r="C194" s="12"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="G194" s="46" t="s">
+        <v>799</v>
+      </c>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="12"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="12"/>
+    <row r="195" spans="1:8" ht="65" customHeight="1">
+      <c r="A195" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>802</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="G195" s="46" t="s">
+        <v>800</v>
+      </c>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="12"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="1"/>
+    <row r="196" spans="1:8" ht="90" customHeight="1">
+      <c r="A196" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>807</v>
+      </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="G196" s="46" t="s">
+        <v>803</v>
+      </c>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="12"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="1"/>
+    <row r="197" spans="1:8" ht="45" customHeight="1">
+      <c r="A197" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>814</v>
+      </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="12"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="12"/>
+    <row r="198" spans="1:8" ht="48" customHeight="1">
+      <c r="A198" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="C198" s="13"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="37" t="s">
+        <v>811</v>
+      </c>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="12"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="1"/>
+    <row r="199" spans="1:8" ht="54" customHeight="1">
+      <c r="A199" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>819</v>
+      </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="37" t="s">
+        <v>817</v>
+      </c>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="57" customHeight="1">
       <c r="A200" s="12"/>
       <c r="B200" s="20"/>
       <c r="C200" s="12"/>
@@ -7971,7 +8410,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="63" customHeight="1">
       <c r="A201" s="12"/>
       <c r="B201" s="20"/>
       <c r="C201" s="12"/>
@@ -7981,7 +8420,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="48" customHeight="1">
       <c r="A202" s="12"/>
       <c r="B202" s="20"/>
       <c r="C202" s="12"/>
@@ -7991,7 +8430,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" ht="45" customHeight="1">
       <c r="A203" s="12"/>
       <c r="B203" s="20"/>
       <c r="C203" s="12"/>
@@ -8001,7 +8440,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" ht="55" customHeight="1">
       <c r="A204" s="12"/>
       <c r="B204" s="20"/>
       <c r="C204" s="12"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9377971-C2A9-CA4F-8BB5-D9E4BF8F3CED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0962949-1C14-414F-BBC0-F45BC2F04A94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="1003">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -84,27 +84,9 @@
     <t>https://leetcode.com/problems/stone-game/discuss/261718/Step-by-Step-Recursive-TopDown-BottomUp-and-BottomUp-using-O(n)-space-in-Java</t>
   </si>
   <si>
-    <t>xor operation in an array</t>
-  </si>
-  <si>
-    <t>o(n)</t>
-  </si>
-  <si>
-    <t>o(1) by modulo</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/xor-operation-in-an-array/</t>
-  </si>
-  <si>
-    <t>longest uncommon subsequence 1</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
-    <t>o(1) [if both equals return -1 else max(stra,strb)</t>
-  </si>
-  <si>
     <t>tricky</t>
   </si>
   <si>
@@ -123,18 +105,6 @@
     <t xml:space="preserve">leetcode </t>
   </si>
   <si>
-    <t>minimum falling path sum</t>
-  </si>
-  <si>
-    <t>memoization</t>
-  </si>
-  <si>
-    <t>dp(bottom up)</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
-  </si>
-  <si>
     <t>LRU cache</t>
   </si>
   <si>
@@ -156,9 +126,6 @@
     <t xml:space="preserve">techdose video </t>
   </si>
   <si>
-    <t>bit manipulation</t>
-  </si>
-  <si>
     <t>middle of a linkedlist</t>
   </si>
   <si>
@@ -192,16 +159,10 @@
     <t>bfs*</t>
   </si>
   <si>
-    <t>find cycle in a linkedlist / first element of a cycle</t>
-  </si>
-  <si>
     <t>slow and fast pointer</t>
   </si>
   <si>
     <t>Hashmap O(n)</t>
-  </si>
-  <si>
-    <t>O(1) method</t>
   </si>
   <si>
     <t>clone graph**</t>
@@ -5399,12 +5360,70 @@
 https://ibb.co/n0js4B6
 https://ibb.co/Sw0fgk5</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">longest uncommon subsequence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[Given two strings a and b, find the length of the longest uncommon subsequence between them]</t>
+    </r>
+  </si>
+  <si>
+    <t>o(1) [if both equals return -1 else max( len(stra), len(strb) )</t>
+  </si>
+  <si>
+    <t>find cycle in a linkedlist</t>
+  </si>
+  <si>
+    <t>find starting node of a cycle in linkedlist</t>
+  </si>
+  <si>
+    <t>1. If a loop is found, initialize a slow pointer to head, let fast pointer be at its position. 
+2. Move both slow and fast pointers one node at a time. 
+3. The point at which they meet is the start of the loop</t>
+  </si>
+  <si>
+    <t>note that mathematical proof can be asked</t>
+  </si>
+  <si>
+    <t>O(1) method by creating clone and adjusting the pointers</t>
+  </si>
+  <si>
+    <t>dfs (on the go create clone and while returning link the clone)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bit manipulation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[ suppose this is the set { 1 2 3 ... N }Now you can consider creating all its subset For each element there is 2 possibilities either keep it or leave it This way there are 2^N possible cases.
+For each of this case you can consider the binary representation of the number if(j th bit is set include it) else leave it]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5584,6 +5603,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5641,7 +5678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -5774,6 +5811,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6059,10 +6105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S394"/>
+  <dimension ref="A1:S393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="150" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="181" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6145,187 +6191,181 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>21</v>
+        <v>995</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="E6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="F6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>1002</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="C8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>85</v>
+    <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>996</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>46</v>
+    <row r="10" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>997</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>998</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>48</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>49</v>
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>52</v>
+        <v>666</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>54</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -6333,138 +6373,138 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>679</v>
+        <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>58</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>875</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>817</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
-        <v>80</v>
-      </c>
+      <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>159</v>
-      </c>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -6472,98 +6512,100 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>82</v>
+      <c r="A22" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="31" t="s">
-        <v>88</v>
+      <c r="G23" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>94</v>
+        <v>863</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="23"/>
+        <v>864</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>876</v>
+        <v>86</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>877</v>
+        <v>87</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="24" t="s">
-        <v>97</v>
-      </c>
+      <c r="G26" s="23"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -6571,1751 +6613,1760 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>103</v>
+        <v>865</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>878</v>
+        <v>95</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>117</v>
+      <c r="C31" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>118</v>
+        <v>702</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>715</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="24" t="s">
-        <v>119</v>
-      </c>
+      <c r="G32" s="23"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>123</v>
+        <v>721</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>867</v>
+      </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>880</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="24" t="s">
-        <v>126</v>
+        <v>738</v>
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>750</v>
+        <v>114</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="C35" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="24" t="s">
-        <v>751</v>
+        <v>116</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>127</v>
+        <v>868</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>882</v>
+        <v>124</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="23"/>
+        <v>127</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>137</v>
+    <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>870</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="C41" s="23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>149</v>
+        <v>665</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>885</v>
+        <v>143</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>678</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>156</v>
+        <v>873</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="24" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>886</v>
+        <v>147</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="24" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>160</v>
+        <v>874</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="24" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>24</v>
+        <v>877</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>168</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="24" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>889</v>
+        <v>158</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>890</v>
+        <v>159</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>823</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>162</v>
+      </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H48" s="23"/>
     </row>
-    <row r="49" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>175</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="24" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H49" s="23"/>
     </row>
-    <row r="50" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>177</v>
+        <v>878</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="24" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H50" s="23"/>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>180</v>
+        <v>879</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="24" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H51" s="23"/>
     </row>
-    <row r="52" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>892</v>
+        <v>173</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>185</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H52" s="23"/>
     </row>
-    <row r="53" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+        <v>178</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="24" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>733</v>
+        <v>182</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>196</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="24" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>192</v>
+      </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>893</v>
-      </c>
       <c r="B58" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>210</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>203</v>
+      </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="24" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H59" s="23"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="23" t="s">
+      <c r="D62" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24" t="s">
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="62" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="B63" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>233</v>
-      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="24" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H63" s="23"/>
     </row>
-    <row r="64" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>235</v>
+        <v>881</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="24" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>232</v>
+      </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>245</v>
-      </c>
+      <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="24" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>248</v>
+        <v>883</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="23"/>
+        <v>241</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>242</v>
+      </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>896</v>
+        <v>248</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>253</v>
+        <v>884</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>255</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="24" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H68" s="23"/>
     </row>
-    <row r="69" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>897</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>259</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="24" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="24" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H70" s="23"/>
     </row>
-    <row r="71" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="23"/>
+        <v>259</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>260</v>
+      </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="1:8" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H72" s="23"/>
-    </row>
-    <row r="73" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>280</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>281</v>
+        <v>270</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="24" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H74" s="23"/>
     </row>
-    <row r="75" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>277</v>
+      </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="24" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H75" s="23"/>
     </row>
-    <row r="76" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>290</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H76" s="23"/>
     </row>
-    <row r="77" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>898</v>
+        <v>19</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>283</v>
+      </c>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="24" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H77" s="23"/>
     </row>
-    <row r="78" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="24" t="s">
-        <v>295</v>
-      </c>
+      <c r="G78" s="23"/>
       <c r="H78" s="23"/>
     </row>
-    <row r="79" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>301</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="G79" s="24" t="s">
+        <v>290</v>
+      </c>
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" s="23"/>
+      <c r="D80" s="23" t="s">
+        <v>300</v>
+      </c>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="H80" s="23"/>
-    </row>
-    <row r="81" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>313</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>310</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="24" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H83" s="23"/>
     </row>
-    <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+        <v>311</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>313</v>
+      </c>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
       <c r="G84" s="24" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H84" s="23"/>
     </row>
-    <row r="85" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="24" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H85" s="23"/>
     </row>
-    <row r="86" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>327</v>
+        <v>886</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>328</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="24" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H86" s="23"/>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>899</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="24" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H87" s="23"/>
     </row>
-    <row r="88" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>335</v>
+        <v>325</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="D88" s="23"/>
+        <v>329</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>328</v>
+      </c>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="24" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H88" s="23"/>
     </row>
-    <row r="89" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E89" s="23"/>
+        <v>332</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>887</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>334</v>
+      </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H89" s="23"/>
     </row>
-    <row r="90" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>343</v>
+        <v>888</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>900</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>347</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="24" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H90" s="23"/>
     </row>
-    <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="24" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H91" s="23"/>
     </row>
-    <row r="92" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>902</v>
+        <v>341</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="24" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H92" s="23"/>
     </row>
-    <row r="93" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+        <v>350</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>349</v>
+      </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H93" s="23"/>
     </row>
-    <row r="94" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>358</v>
+        <v>890</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>360</v>
+        <v>351</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>352</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>362</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H94" s="23"/>
     </row>
-    <row r="95" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="24" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H95" s="23"/>
     </row>
-    <row r="96" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>371</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="24" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H96" s="23"/>
     </row>
-    <row r="97" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>905</v>
+        <v>362</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>372</v>
+        <v>19</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="24" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="23"/>
+        <v>367</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="24" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H98" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>381</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="24" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H99" s="23"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>384</v>
+        <v>893</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+        <v>373</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H100" s="23"/>
     </row>
-    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>906</v>
+        <v>378</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D101" s="23"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="24" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>393</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="24" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H102" s="23"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>394</v>
+        <v>894</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="C103" s="23"/>
+        <v>385</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="24" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="H103" s="23"/>
     </row>
-    <row r="104" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>399</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="24" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H104" s="23"/>
     </row>
-    <row r="105" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
       <c r="G105" s="24" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H105" s="23"/>
     </row>
-    <row r="106" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>392</v>
+      </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="24" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H106" s="23"/>
     </row>
-    <row r="107" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>405</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="24" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H107" s="23"/>
     </row>
-    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
-      <c r="G108" s="24" t="s">
-        <v>410</v>
+      <c r="G108" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="H108" s="23"/>
     </row>
-    <row r="109" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
-      <c r="G109" s="23" t="s">
-        <v>407</v>
+      <c r="G109" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="H109" s="23"/>
     </row>
-    <row r="110" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+        <v>400</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>402</v>
+      </c>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
       <c r="G110" s="24" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H110" s="23"/>
     </row>
-    <row r="111" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>415</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D111" s="23"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
       <c r="G111" s="24" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H111" s="23"/>
     </row>
-    <row r="112" spans="1:8" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>915</v>
+        <v>662</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="23"/>
+        <v>409</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>410</v>
+      </c>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="24" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H112" s="23"/>
     </row>
     <row r="113" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="24" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H113" s="23"/>
     </row>
     <row r="114" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>428</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="24" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H114" s="23"/>
     </row>
-    <row r="115" spans="1:19" ht="28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="84" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>429</v>
+        <v>903</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+        <v>419</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>422</v>
+      </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="24" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H115" s="23"/>
     </row>
-    <row r="116" spans="1:19" ht="84" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>435</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="D116" s="32"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="24" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H116" s="23"/>
     </row>
-    <row r="117" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>917</v>
+        <v>426</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="D117" s="32"/>
+        <v>427</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="24" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H117" s="23"/>
     </row>
-    <row r="118" spans="1:19" ht="28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="42" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
+        <v>430</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>433</v>
+      </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:19" ht="42" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>442</v>
+        <v>905</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>446</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="24" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H119" s="23"/>
-    </row>
-    <row r="120" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="1:19" ht="98" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="24" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="3"/>
@@ -8324,1755 +8375,1744 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:19" ht="98" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="56" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>919</v>
+        <v>442</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="H121" s="23"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:19" ht="56" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" s="3" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>455</v>
+        <v>907</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>458</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="H122" s="24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" s="3" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:19" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>463</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="24" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H123" s="23"/>
     </row>
-    <row r="124" spans="1:19" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
+        <v>453</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>457</v>
+      </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="H124" s="23"/>
-    </row>
-    <row r="125" spans="1:19" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>922</v>
+        <v>459</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>470</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>471</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="H126" s="23"/>
-    </row>
-    <row r="127" spans="1:19" ht="28" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>476</v>
+        <v>910</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="1:19" ht="70" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="24" t="s">
-        <v>483</v>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34" t="s">
+        <v>472</v>
       </c>
       <c r="H128" s="23"/>
     </row>
-    <row r="129" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>924</v>
+        <v>476</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="D129" s="23"/>
+        <v>477</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>805</v>
+      </c>
       <c r="E129" s="23"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34" t="s">
-        <v>485</v>
+      <c r="F129" s="23"/>
+      <c r="G129" s="24" t="s">
+        <v>475</v>
       </c>
       <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>489</v>
+        <v>912</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D130" s="35" t="s">
-        <v>818</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
-      <c r="G130" s="24" t="s">
-        <v>488</v>
+      <c r="G130" s="23" t="s">
+        <v>479</v>
       </c>
       <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>925</v>
+        <v>481</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
-      <c r="G131" s="23" t="s">
-        <v>492</v>
+      <c r="G131" s="24" t="s">
+        <v>483</v>
       </c>
       <c r="H131" s="23"/>
     </row>
-    <row r="132" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>494</v>
+        <v>913</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
+        <v>486</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>471</v>
+      </c>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
-      <c r="G132" s="24" t="s">
-        <v>496</v>
+      <c r="G132" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="H132" s="23"/>
     </row>
-    <row r="133" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
-        <v>926</v>
+    <row r="133" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="A133" s="36" t="s">
+        <v>487</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>498</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>484</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H133" s="23"/>
     </row>
-    <row r="134" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A134" s="36" t="s">
-        <v>500</v>
+    <row r="134" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>490</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H134" s="23"/>
     </row>
     <row r="135" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C135" s="23"/>
+        <v>495</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="23" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="H135" s="23"/>
     </row>
-    <row r="136" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
       <c r="G136" s="23" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H136" s="23"/>
     </row>
-    <row r="137" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>511</v>
+        <v>502</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
       <c r="G137" s="23" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H137" s="23"/>
     </row>
-    <row r="138" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>517</v>
+        <v>507</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>508</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
       <c r="G138" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D140" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="H138" s="23"/>
-    </row>
-    <row r="139" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C141" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H139" s="23"/>
-    </row>
-    <row r="140" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="G140" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="H140" s="23"/>
-    </row>
-    <row r="141" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>529</v>
-      </c>
+      <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H141" s="23"/>
     </row>
-    <row r="142" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>927</v>
+        <v>522</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
       <c r="G142" s="23" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H142" s="23"/>
     </row>
-    <row r="143" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>535</v>
+        <v>915</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="D143" s="23"/>
+        <v>443</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>528</v>
+      </c>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="23" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H143" s="23"/>
     </row>
-    <row r="144" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
-        <v>928</v>
+    <row r="144" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="37" t="s">
+        <v>529</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>541</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="23" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H144" s="23"/>
     </row>
-    <row r="145" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="37" t="s">
-        <v>542</v>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>533</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="C145" s="23"/>
+        <v>534</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>535</v>
+      </c>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
       <c r="G145" s="23" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="H145" s="23"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
       <c r="G146" s="23" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H146" s="23"/>
     </row>
-    <row r="147" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>549</v>
+        <v>916</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>552</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
       <c r="G147" s="23" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H147" s="23"/>
     </row>
-    <row r="148" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>554</v>
+        <v>543</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>544</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H148" s="23"/>
     </row>
-    <row r="149" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="C149" s="23"/>
+        <v>546</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>547</v>
+      </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
       <c r="G149" s="23" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H149" s="23"/>
     </row>
-    <row r="150" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>560</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
       <c r="G150" s="23" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="C151" s="23"/>
+        <v>366</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>553</v>
+      </c>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H151" s="23"/>
     </row>
-    <row r="152" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>565</v>
+        <v>918</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>566</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="H152" s="23"/>
     </row>
-    <row r="153" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>931</v>
+        <v>556</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="C153" s="23"/>
+        <v>555</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>689</v>
+      </c>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H153" s="23"/>
     </row>
-    <row r="154" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="G154" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="H155" s="23"/>
+    </row>
+    <row r="156" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A156" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B156" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="B154" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="H154" s="23"/>
-    </row>
-    <row r="155" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="G155" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
-        <v>933</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="C156" s="32"/>
+      <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
       <c r="G156" s="23" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="H156" s="23"/>
     </row>
-    <row r="157" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="C157" s="23"/>
+        <v>570</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>572</v>
+      </c>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
       <c r="G157" s="23" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H157" s="23"/>
     </row>
-    <row r="158" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A158" s="37" t="s">
-        <v>676</v>
+    <row r="158" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
+        <v>921</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
       <c r="G158" s="23" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H158" s="23"/>
     </row>
-    <row r="159" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H159" s="23"/>
     </row>
-    <row r="160" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
-      <c r="G160" s="23" t="s">
-        <v>591</v>
+      <c r="G160" s="24" t="s">
+        <v>579</v>
       </c>
       <c r="H160" s="23"/>
     </row>
-    <row r="161" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
+        <v>583</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="E161" s="34" t="s">
+        <v>586</v>
+      </c>
       <c r="F161" s="23"/>
-      <c r="G161" s="24" t="s">
-        <v>592</v>
+      <c r="G161" s="23" t="s">
+        <v>584</v>
       </c>
       <c r="H161" s="23"/>
     </row>
-    <row r="162" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>937</v>
+        <v>588</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>599</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
       <c r="F162" s="23"/>
       <c r="G162" s="23" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H162" s="23"/>
     </row>
-    <row r="163" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>603</v>
+        <v>593</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H163" s="23"/>
     </row>
-    <row r="164" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>604</v>
+        <v>925</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
+        <v>597</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>596</v>
+      </c>
       <c r="F164" s="23"/>
       <c r="G164" s="23" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H164" s="23"/>
     </row>
-    <row r="165" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>609</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="E165" s="23"/>
       <c r="F165" s="23"/>
       <c r="G165" s="23" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H165" s="23"/>
     </row>
-    <row r="166" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D166" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="E166" s="23"/>
+        <v>606</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>607</v>
+      </c>
       <c r="F166" s="23"/>
       <c r="G166" s="23" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="H166" s="23"/>
     </row>
-    <row r="167" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>940</v>
+        <v>609</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="D167" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="E167" s="23" t="s">
-        <v>620</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C167" s="23"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="23"/>
       <c r="F167" s="23"/>
       <c r="G167" s="23" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H167" s="23"/>
     </row>
-    <row r="168" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>622</v>
+        <v>928</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C168" s="23"/>
-      <c r="D168" s="38"/>
+      <c r="D168" s="32"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
       <c r="G168" s="23" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="H168" s="23"/>
     </row>
-    <row r="169" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>941</v>
+        <v>614</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C169" s="23"/>
-      <c r="D169" s="32"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23"/>
       <c r="G169" s="23" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H169" s="23"/>
     </row>
-    <row r="170" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>627</v>
+        <v>929</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
+        <v>617</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>818</v>
+      </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H170" s="23"/>
     </row>
-    <row r="171" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
-        <v>942</v>
+    <row r="171" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A171" s="37" t="s">
+        <v>620</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="E171" s="23" t="s">
-        <v>831</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
       <c r="F171" s="23"/>
       <c r="G171" s="23" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H171" s="23"/>
     </row>
     <row r="172" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A172" s="37" t="s">
-        <v>633</v>
+      <c r="A172" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="D172" s="23"/>
+        <v>628</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>626</v>
+      </c>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
       <c r="G172" s="23" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H172" s="23"/>
     </row>
-    <row r="173" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>641</v>
+        <v>161</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
       <c r="G173" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="H173" s="23"/>
+    </row>
+    <row r="174" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="H174" s="23"/>
+    </row>
+    <row r="175" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A175" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23" t="s">
         <v>640</v>
-      </c>
-      <c r="H173" s="23"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="H174" s="23"/>
-    </row>
-    <row r="175" spans="1:8" ht="70" x14ac:dyDescent="0.2">
-      <c r="A175" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="E175" s="23" t="s">
-        <v>649</v>
-      </c>
-      <c r="F175" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="G175" s="23" t="s">
-        <v>648</v>
       </c>
       <c r="H175" s="23"/>
     </row>
     <row r="176" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>652</v>
+        <v>130</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
       <c r="G176" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="H176" s="23"/>
-    </row>
-    <row r="177" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+      <c r="H176" s="23" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>945</v>
-      </c>
-      <c r="B177" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>658</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="H177" s="23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+      <c r="H177" s="23"/>
+    </row>
+    <row r="178" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
+        <v>933</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>651</v>
+      </c>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H178" s="23"/>
     </row>
     <row r="179" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>664</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H179" s="23"/>
     </row>
-    <row r="180" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>947</v>
+        <v>657</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
+        <v>654</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>655</v>
+      </c>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
       <c r="G180" s="23" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H180" s="23"/>
     </row>
-    <row r="181" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>670</v>
+        <v>935</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="C181" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>668</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23"/>
       <c r="G181" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="1:8" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D182" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="H181" s="23"/>
-    </row>
-    <row r="182" spans="1:8" ht="56" x14ac:dyDescent="0.2">
-      <c r="A182" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="B182" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
       <c r="G182" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A183" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C183" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="H182" s="23"/>
-    </row>
-    <row r="183" spans="1:8" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.2">
-      <c r="A183" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="B183" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>680</v>
-      </c>
       <c r="D183" s="23" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
       <c r="G183" s="23" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="H183" s="23"/>
     </row>
-    <row r="184" spans="1:8" ht="84" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="B184" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>685</v>
-      </c>
-      <c r="D184" s="23" t="s">
-        <v>686</v>
-      </c>
+    <row r="184" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
       <c r="G184" s="23" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="H184" s="23"/>
     </row>
-    <row r="185" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="27" t="s">
-        <v>689</v>
-      </c>
-      <c r="B185" s="22"/>
-      <c r="C185" s="23"/>
+    <row r="185" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>679</v>
+      </c>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
       <c r="G185" s="23" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H185" s="23"/>
     </row>
-    <row r="186" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
       <c r="G186" s="23" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="H186" s="23"/>
     </row>
-    <row r="187" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="D187" s="23"/>
+        <v>685</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>687</v>
+      </c>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
-      <c r="G187" s="23" t="s">
-        <v>697</v>
-      </c>
+      <c r="G187" s="23"/>
       <c r="H187" s="23"/>
     </row>
-    <row r="188" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="B188" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="D188" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="E188" s="23"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23"/>
-    </row>
-    <row r="189" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="B188" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="40"/>
+      <c r="G188" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="H188" s="40"/>
+    </row>
+    <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>703</v>
+        <v>937</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>704</v>
-      </c>
-      <c r="C189" s="40"/>
+        <v>693</v>
+      </c>
+      <c r="C189" s="41" t="s">
+        <v>694</v>
+      </c>
       <c r="D189" s="40"/>
       <c r="E189" s="40"/>
       <c r="F189" s="40"/>
-      <c r="G189" s="23" t="s">
-        <v>705</v>
+      <c r="G189" s="41" t="s">
+        <v>695</v>
       </c>
       <c r="H189" s="40"/>
     </row>
-    <row r="190" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>950</v>
-      </c>
-      <c r="B190" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="C190" s="41" t="s">
-        <v>707</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C190" s="40"/>
       <c r="D190" s="40"/>
       <c r="E190" s="40"/>
       <c r="F190" s="40"/>
       <c r="G190" s="41" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="H190" s="40"/>
     </row>
-    <row r="191" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="C191" s="40"/>
+        <v>699</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>700</v>
+      </c>
       <c r="D191" s="40"/>
       <c r="E191" s="40"/>
       <c r="F191" s="40"/>
       <c r="G191" s="41" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H191" s="40"/>
     </row>
-    <row r="192" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>712</v>
+        <v>844</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="D192" s="40"/>
+        <v>941</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>942</v>
+      </c>
       <c r="E192" s="40"/>
       <c r="F192" s="40"/>
       <c r="G192" s="41" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="H192" s="40"/>
     </row>
-    <row r="193" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="17" t="s">
-        <v>953</v>
+    <row r="193" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="36" t="s">
+        <v>703</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>857</v>
+        <v>706</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>954</v>
+        <v>708</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>955</v>
+        <v>707</v>
       </c>
       <c r="E193" s="40"/>
       <c r="F193" s="40"/>
-      <c r="G193" s="41" t="s">
-        <v>714</v>
-      </c>
+      <c r="G193" s="40"/>
       <c r="H193" s="40"/>
     </row>
-    <row r="194" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="36" t="s">
-        <v>716</v>
+    <row r="194" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>943</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E194" s="40"/>
       <c r="F194" s="40"/>
-      <c r="G194" s="40"/>
+      <c r="G194" s="23" t="s">
+        <v>710</v>
+      </c>
       <c r="H194" s="40"/>
     </row>
-    <row r="195" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>956</v>
+        <v>713</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>725</v>
-      </c>
-      <c r="D195" s="23" t="s">
-        <v>724</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
       <c r="E195" s="40"/>
       <c r="F195" s="40"/>
-      <c r="G195" s="23" t="s">
-        <v>723</v>
-      </c>
+      <c r="G195" s="40"/>
       <c r="H195" s="40"/>
     </row>
-    <row r="196" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="17" t="s">
-        <v>726</v>
+    <row r="196" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="18" t="s">
+        <v>714</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
+        <v>716</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>719</v>
+      </c>
       <c r="E196" s="40"/>
       <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
+      <c r="G196" s="41" t="s">
+        <v>717</v>
+      </c>
       <c r="H196" s="40"/>
     </row>
-    <row r="197" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
+    <row r="197" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="B197" s="22" t="s">
+      <c r="D197" s="23" t="s">
+        <v>945</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="F197" s="23"/>
+      <c r="G197" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="D198" s="41" t="s">
+        <v>724</v>
+      </c>
+      <c r="E198" s="40"/>
+      <c r="F198" s="40"/>
+      <c r="G198" s="40"/>
+      <c r="H198" s="40"/>
+    </row>
+    <row r="199" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="B199" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="C197" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="D197" s="23" t="s">
+      <c r="C199" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="1:8" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="C200" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="D200" s="43"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="41" t="s">
-        <v>730</v>
-      </c>
-      <c r="H197" s="40"/>
-    </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="17" t="s">
-        <v>957</v>
-      </c>
-      <c r="B198" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="C198" s="22" t="s">
+      <c r="H200" s="43"/>
+    </row>
+    <row r="201" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="B202" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="E202" s="40"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="D198" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="F198" s="23"/>
-      <c r="G198" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="H198" s="23"/>
-    </row>
-    <row r="199" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="B199" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>738</v>
-      </c>
-      <c r="D199" s="41" t="s">
-        <v>737</v>
-      </c>
-      <c r="E199" s="40"/>
-      <c r="F199" s="40"/>
-      <c r="G199" s="40"/>
-      <c r="H199" s="40"/>
-    </row>
-    <row r="200" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="B200" s="22" t="s">
+      <c r="H202" s="40"/>
+    </row>
+    <row r="203" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="B203" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C203" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-    </row>
-    <row r="201" spans="1:8" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="B201" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="C201" s="41" t="s">
-        <v>747</v>
-      </c>
-      <c r="D201" s="43"/>
-      <c r="E201" s="43"/>
-      <c r="F201" s="43"/>
-      <c r="G201" s="44" t="s">
-        <v>745</v>
-      </c>
-      <c r="H201" s="43"/>
-    </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="B202" s="22"/>
-      <c r="C202" s="23"/>
-      <c r="D202" s="23"/>
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="23" t="s">
-        <v>749</v>
-      </c>
-      <c r="H202" s="23"/>
-    </row>
-    <row r="203" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>757</v>
-      </c>
       <c r="D203" s="23" t="s">
-        <v>758</v>
+        <v>950</v>
       </c>
       <c r="E203" s="40"/>
       <c r="F203" s="40"/>
       <c r="G203" s="24" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H203" s="40"/>
     </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>756</v>
-      </c>
-      <c r="D204" s="23" t="s">
-        <v>963</v>
-      </c>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="H204" s="40"/>
-    </row>
-    <row r="205" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23"/>
-      <c r="E205" s="23"/>
-      <c r="F205" s="23"/>
-      <c r="G205" s="23"/>
-      <c r="H205" s="23"/>
-    </row>
-    <row r="206" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="40"/>
+      <c r="F205" s="40"/>
+      <c r="G205" s="44" t="s">
+        <v>748</v>
+      </c>
+      <c r="H205" s="40"/>
+    </row>
+    <row r="206" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17" t="s">
-        <v>965</v>
-      </c>
-      <c r="B206" s="22" t="s">
-        <v>760</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="B206" s="45"/>
       <c r="C206" s="40"/>
       <c r="D206" s="40"/>
       <c r="E206" s="40"/>
       <c r="F206" s="40"/>
-      <c r="G206" s="44" t="s">
-        <v>761</v>
+      <c r="G206" s="24" t="s">
+        <v>749</v>
       </c>
       <c r="H206" s="40"/>
     </row>
-    <row r="207" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="17" t="s">
-        <v>966</v>
+    <row r="207" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
+        <v>750</v>
       </c>
       <c r="B207" s="45"/>
       <c r="C207" s="40"/>
       <c r="D207" s="40"/>
       <c r="E207" s="40"/>
       <c r="F207" s="40"/>
-      <c r="G207" s="24" t="s">
-        <v>762</v>
+      <c r="G207" s="46" t="s">
+        <v>753</v>
       </c>
       <c r="H207" s="40"/>
     </row>
     <row r="208" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="B208" s="45"/>
       <c r="C208" s="40"/>
       <c r="D208" s="40"/>
       <c r="E208" s="40"/>
       <c r="F208" s="40"/>
-      <c r="G208" s="46" t="s">
-        <v>766</v>
+      <c r="G208" s="40" t="s">
+        <v>752</v>
       </c>
       <c r="H208" s="40"/>
     </row>
-    <row r="209" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="B209" s="45"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
-      <c r="E209" s="40"/>
-      <c r="F209" s="40"/>
-      <c r="G209" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="H209" s="40"/>
-    </row>
-    <row r="210" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>955</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H209" s="23"/>
+    </row>
+    <row r="210" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17" t="s">
-        <v>967</v>
-      </c>
-      <c r="B210" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>968</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E210" s="23"/>
-      <c r="F210" s="23"/>
-      <c r="G210" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H210" s="23"/>
-    </row>
-    <row r="211" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+        <v>956</v>
+      </c>
+      <c r="B210" s="39"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="40"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="40"/>
+      <c r="G210" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="H210" s="40"/>
+    </row>
+    <row r="211" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17" t="s">
-        <v>969</v>
-      </c>
-      <c r="B211" s="39"/>
+        <v>957</v>
+      </c>
+      <c r="B211" s="45"/>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
       <c r="E211" s="40"/>
       <c r="F211" s="40"/>
-      <c r="G211" s="44" t="s">
-        <v>767</v>
+      <c r="G211" s="41" t="s">
+        <v>755</v>
       </c>
       <c r="H211" s="40"/>
     </row>
-    <row r="212" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17" t="s">
-        <v>970</v>
-      </c>
-      <c r="B212" s="45"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
+        <v>958</v>
+      </c>
+      <c r="B212" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>759</v>
+      </c>
+      <c r="D212" s="41" t="s">
+        <v>758</v>
+      </c>
       <c r="E212" s="40"/>
       <c r="F212" s="40"/>
-      <c r="G212" s="41" t="s">
-        <v>768</v>
+      <c r="G212" s="40" t="s">
+        <v>756</v>
       </c>
       <c r="H212" s="40"/>
     </row>
-    <row r="213" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="17" t="s">
-        <v>971</v>
-      </c>
-      <c r="B213" s="39" t="s">
-        <v>770</v>
-      </c>
-      <c r="C213" s="41" t="s">
-        <v>772</v>
-      </c>
-      <c r="D213" s="41" t="s">
-        <v>771</v>
-      </c>
+    <row r="213" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="B213" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
       <c r="E213" s="40"/>
       <c r="F213" s="40"/>
-      <c r="G213" s="40" t="s">
-        <v>769</v>
+      <c r="G213" s="41" t="s">
+        <v>761</v>
       </c>
       <c r="H213" s="40"/>
     </row>
-    <row r="214" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="B214" s="22" t="s">
-        <v>773</v>
-      </c>
+    <row r="214" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="B214" s="45"/>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
       <c r="E214" s="40"/>
       <c r="F214" s="40"/>
       <c r="G214" s="41" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="H214" s="40"/>
     </row>
-    <row r="215" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17" t="s">
-        <v>973</v>
-      </c>
-      <c r="B215" s="45"/>
-      <c r="C215" s="40"/>
+        <v>961</v>
+      </c>
+      <c r="B215" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>764</v>
+      </c>
       <c r="D215" s="40"/>
       <c r="E215" s="40"/>
       <c r="F215" s="40"/>
-      <c r="G215" s="41" t="s">
-        <v>775</v>
-      </c>
-      <c r="H215" s="40"/>
-    </row>
-    <row r="216" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="H215" s="41" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="B216" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>777</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="B216" s="45"/>
+      <c r="C216" s="40"/>
       <c r="D216" s="40"/>
       <c r="E216" s="40"/>
       <c r="F216" s="40"/>
-      <c r="G216" s="23" t="s">
-        <v>776</v>
-      </c>
-      <c r="H216" s="41" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G216" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="H216" s="40"/>
+    </row>
+    <row r="217" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="B217" s="45"/>
       <c r="C217" s="40"/>
@@ -10080,43 +10120,43 @@
       <c r="E217" s="40"/>
       <c r="F217" s="40"/>
       <c r="G217" s="41" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="H217" s="40"/>
     </row>
-    <row r="218" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17" t="s">
-        <v>977</v>
-      </c>
-      <c r="B218" s="45"/>
+        <v>965</v>
+      </c>
+      <c r="B218" s="39" t="s">
+        <v>768</v>
+      </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
       <c r="E218" s="40"/>
       <c r="F218" s="40"/>
       <c r="G218" s="41" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="H218" s="40"/>
     </row>
-    <row r="219" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17" t="s">
-        <v>978</v>
-      </c>
-      <c r="B219" s="39" t="s">
-        <v>781</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="B219" s="45"/>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
       <c r="E219" s="40"/>
       <c r="F219" s="40"/>
       <c r="G219" s="41" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="H219" s="40"/>
     </row>
-    <row r="220" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="B220" s="45"/>
       <c r="C220" s="40"/>
@@ -10124,13 +10164,13 @@
       <c r="E220" s="40"/>
       <c r="F220" s="40"/>
       <c r="G220" s="41" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="H220" s="40"/>
     </row>
-    <row r="221" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17" t="s">
-        <v>980</v>
+        <v>772</v>
       </c>
       <c r="B221" s="45"/>
       <c r="C221" s="40"/>
@@ -10138,13 +10178,13 @@
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="41" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H221" s="40"/>
     </row>
-    <row r="222" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B222" s="45"/>
       <c r="C222" s="40"/>
@@ -10152,13 +10192,13 @@
       <c r="E222" s="40"/>
       <c r="F222" s="40"/>
       <c r="G222" s="41" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="H222" s="40"/>
     </row>
-    <row r="223" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B223" s="45"/>
       <c r="C223" s="40"/>
@@ -10166,101 +10206,101 @@
       <c r="E223" s="40"/>
       <c r="F223" s="40"/>
       <c r="G223" s="41" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="H223" s="40"/>
     </row>
-    <row r="224" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17" t="s">
-        <v>787</v>
+        <v>968</v>
       </c>
       <c r="B224" s="45"/>
       <c r="C224" s="40"/>
       <c r="D224" s="40"/>
       <c r="E224" s="40"/>
       <c r="F224" s="40"/>
-      <c r="G224" s="41" t="s">
-        <v>790</v>
+      <c r="G224" s="23" t="s">
+        <v>778</v>
       </c>
       <c r="H224" s="40"/>
     </row>
-    <row r="225" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="B225" s="45"/>
       <c r="C225" s="40"/>
       <c r="D225" s="40"/>
       <c r="E225" s="40"/>
       <c r="F225" s="40"/>
-      <c r="G225" s="23" t="s">
-        <v>791</v>
+      <c r="G225" s="41" t="s">
+        <v>779</v>
       </c>
       <c r="H225" s="40"/>
     </row>
-    <row r="226" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17" t="s">
-        <v>982</v>
-      </c>
-      <c r="B226" s="45"/>
+        <v>970</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>780</v>
+      </c>
       <c r="C226" s="40"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40"/>
       <c r="F226" s="40"/>
       <c r="G226" s="41" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="H226" s="40"/>
     </row>
-    <row r="227" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17" t="s">
-        <v>983</v>
-      </c>
-      <c r="B227" s="22" t="s">
-        <v>793</v>
-      </c>
+        <v>971</v>
+      </c>
+      <c r="B227" s="45"/>
       <c r="C227" s="40"/>
       <c r="D227" s="40"/>
       <c r="E227" s="40"/>
       <c r="F227" s="40"/>
       <c r="G227" s="41" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="H227" s="40"/>
     </row>
-    <row r="228" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="B228" s="45"/>
+        <v>972</v>
+      </c>
+      <c r="B228" s="39" t="s">
+        <v>783</v>
+      </c>
       <c r="C228" s="40"/>
       <c r="D228" s="40"/>
       <c r="E228" s="40"/>
       <c r="F228" s="40"/>
       <c r="G228" s="41" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="H228" s="40"/>
     </row>
-    <row r="229" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="B229" s="39" t="s">
-        <v>796</v>
-      </c>
+    <row r="229" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="47" t="s">
+        <v>785</v>
+      </c>
+      <c r="B229" s="45"/>
       <c r="C229" s="40"/>
       <c r="D229" s="40"/>
       <c r="E229" s="40"/>
       <c r="F229" s="40"/>
       <c r="G229" s="41" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H229" s="40"/>
     </row>
-    <row r="230" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="47" t="s">
-        <v>798</v>
+    <row r="230" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="37" t="s">
+        <v>973</v>
       </c>
       <c r="B230" s="45"/>
       <c r="C230" s="40"/>
@@ -10268,45 +10308,45 @@
       <c r="E230" s="40"/>
       <c r="F230" s="40"/>
       <c r="G230" s="41" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="H230" s="40"/>
     </row>
-    <row r="231" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="37" t="s">
-        <v>986</v>
-      </c>
-      <c r="B231" s="45"/>
-      <c r="C231" s="40"/>
+    <row r="231" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B231" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="C231" s="41" t="s">
+        <v>790</v>
+      </c>
       <c r="D231" s="40"/>
       <c r="E231" s="40"/>
       <c r="F231" s="40"/>
       <c r="G231" s="41" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="H231" s="40"/>
     </row>
-    <row r="232" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17" t="s">
-        <v>987</v>
-      </c>
-      <c r="B232" s="39" t="s">
-        <v>802</v>
-      </c>
-      <c r="C232" s="41" t="s">
-        <v>803</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="B232" s="45"/>
+      <c r="C232" s="40"/>
       <c r="D232" s="40"/>
       <c r="E232" s="40"/>
       <c r="F232" s="40"/>
       <c r="G232" s="41" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="H232" s="40"/>
     </row>
-    <row r="233" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="17" t="s">
-        <v>988</v>
+    <row r="233" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="18" t="s">
+        <v>792</v>
       </c>
       <c r="B233" s="45"/>
       <c r="C233" s="40"/>
@@ -10314,85 +10354,85 @@
       <c r="E233" s="40"/>
       <c r="F233" s="40"/>
       <c r="G233" s="41" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="H233" s="40"/>
     </row>
-    <row r="234" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="18" t="s">
-        <v>805</v>
+    <row r="234" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="17" t="s">
+        <v>976</v>
       </c>
       <c r="B234" s="45"/>
       <c r="C234" s="40"/>
       <c r="D234" s="40"/>
       <c r="E234" s="40"/>
       <c r="F234" s="40"/>
-      <c r="G234" s="41" t="s">
-        <v>806</v>
+      <c r="G234" s="40" t="s">
+        <v>794</v>
       </c>
       <c r="H234" s="40"/>
     </row>
-    <row r="235" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="17" t="s">
-        <v>989</v>
+    <row r="235" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="B235" s="45"/>
       <c r="C235" s="40"/>
       <c r="D235" s="40"/>
       <c r="E235" s="40"/>
       <c r="F235" s="40"/>
-      <c r="G235" s="40" t="s">
-        <v>807</v>
+      <c r="G235" s="41" t="s">
+        <v>796</v>
       </c>
       <c r="H235" s="40"/>
     </row>
-    <row r="236" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="B236" s="45"/>
+    <row r="236" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="B236" s="22" t="s">
+        <v>797</v>
+      </c>
       <c r="C236" s="40"/>
       <c r="D236" s="40"/>
       <c r="E236" s="40"/>
       <c r="F236" s="40"/>
       <c r="G236" s="41" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="H236" s="40"/>
     </row>
-    <row r="237" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="B237" s="22" t="s">
-        <v>810</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="B237" s="45"/>
       <c r="C237" s="40"/>
       <c r="D237" s="40"/>
       <c r="E237" s="40"/>
       <c r="F237" s="40"/>
       <c r="G237" s="41" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="H237" s="40"/>
     </row>
-    <row r="238" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B238" s="45"/>
       <c r="C238" s="40"/>
       <c r="D238" s="40"/>
       <c r="E238" s="40"/>
       <c r="F238" s="40"/>
-      <c r="G238" s="41" t="s">
-        <v>812</v>
+      <c r="G238" s="40" t="s">
+        <v>800</v>
       </c>
       <c r="H238" s="40"/>
     </row>
-    <row r="239" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="17" t="s">
-        <v>992</v>
+    <row r="239" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="48" t="s">
+        <v>801</v>
       </c>
       <c r="B239" s="45"/>
       <c r="C239" s="40"/>
@@ -10400,329 +10440,325 @@
       <c r="E239" s="40"/>
       <c r="F239" s="40"/>
       <c r="G239" s="40" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H239" s="40"/>
     </row>
-    <row r="240" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="48" t="s">
-        <v>814</v>
+    <row r="240" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="18" t="s">
+        <v>803</v>
       </c>
       <c r="B240" s="45"/>
       <c r="C240" s="40"/>
       <c r="D240" s="40"/>
       <c r="E240" s="40"/>
       <c r="F240" s="40"/>
-      <c r="G240" s="40" t="s">
+      <c r="G240" s="40"/>
+      <c r="H240" s="40"/>
+    </row>
+    <row r="241" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="49" t="s">
+        <v>980</v>
+      </c>
+      <c r="B241" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="D241" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="E241" s="51"/>
+      <c r="F241" s="51"/>
+      <c r="G241" s="51" t="s">
+        <v>806</v>
+      </c>
+      <c r="H241" s="51"/>
+    </row>
+    <row r="242" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="49" t="s">
+        <v>981</v>
+      </c>
+      <c r="B242" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C242" s="40"/>
+      <c r="D242" s="51"/>
+      <c r="E242" s="51"/>
+      <c r="F242" s="50" t="s">
+        <v>811</v>
+      </c>
+      <c r="G242" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="H242" s="51"/>
+    </row>
+    <row r="243" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="B243" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="C243" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="D243" s="52" t="s">
         <v>815</v>
       </c>
-      <c r="H240" s="40"/>
-    </row>
-    <row r="241" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="18" t="s">
+      <c r="E243" s="51"/>
+      <c r="F243" s="51"/>
+      <c r="G243" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="B241" s="45"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="40"/>
-      <c r="E241" s="40"/>
-      <c r="F241" s="40"/>
-      <c r="G241" s="40"/>
-      <c r="H241" s="40"/>
-    </row>
-    <row r="242" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="49" t="s">
-        <v>993</v>
-      </c>
-      <c r="B242" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="C242" s="23" t="s">
+      <c r="H243" s="51"/>
+    </row>
+    <row r="244" spans="1:8" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="B244" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="D242" s="50" t="s">
+      <c r="C244" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="E242" s="51"/>
-      <c r="F242" s="51"/>
-      <c r="G242" s="51" t="s">
-        <v>819</v>
-      </c>
-      <c r="H242" s="51"/>
-    </row>
-    <row r="243" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="49" t="s">
-        <v>994</v>
-      </c>
-      <c r="B243" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="C243" s="40"/>
-      <c r="D243" s="51"/>
-      <c r="E243" s="51"/>
-      <c r="F243" s="50" t="s">
-        <v>824</v>
-      </c>
-      <c r="G243" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="H243" s="51"/>
-    </row>
-    <row r="244" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="49" t="s">
-        <v>996</v>
-      </c>
-      <c r="B244" s="39" t="s">
-        <v>830</v>
-      </c>
-      <c r="C244" s="23" t="s">
-        <v>827</v>
-      </c>
       <c r="D244" s="52" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E244" s="51"/>
       <c r="F244" s="51"/>
       <c r="G244" s="52" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="H244" s="51"/>
     </row>
-    <row r="245" spans="1:8" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="B245" s="39" t="s">
-        <v>833</v>
+        <v>984</v>
+      </c>
+      <c r="B245" s="22" t="s">
+        <v>825</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="D245" s="52" t="s">
-        <v>836</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="D245" s="51"/>
       <c r="E245" s="51"/>
       <c r="F245" s="51"/>
       <c r="G245" s="52" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="H245" s="51"/>
     </row>
-    <row r="246" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="49" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="C246" s="23" t="s">
-        <v>998</v>
+        <v>826</v>
+      </c>
+      <c r="C246" s="41" t="s">
+        <v>828</v>
       </c>
       <c r="D246" s="51"/>
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
       <c r="G246" s="52" t="s">
+        <v>827</v>
+      </c>
+      <c r="H246" s="51"/>
+    </row>
+    <row r="247" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="C247" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="D247" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="E247" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="F247" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="G247" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="H247" s="51"/>
+    </row>
+    <row r="248" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="B248" s="39" t="s">
+        <v>836</v>
+      </c>
+      <c r="C248" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="H246" s="51"/>
-    </row>
-    <row r="247" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="B247" s="22" t="s">
+      <c r="D248" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="E248" s="51"/>
+      <c r="F248" s="51"/>
+      <c r="G248" s="52" t="s">
+        <v>835</v>
+      </c>
+      <c r="H248" s="51"/>
+    </row>
+    <row r="249" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="B249" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="C247" s="41" t="s">
+      <c r="C249" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="D249" s="50" t="s">
+        <v>843</v>
+      </c>
+      <c r="E249" s="50"/>
+      <c r="F249" s="50" t="s">
+        <v>842</v>
+      </c>
+      <c r="G249" s="53" t="s">
         <v>841</v>
       </c>
-      <c r="D247" s="51"/>
-      <c r="E247" s="51"/>
-      <c r="F247" s="51"/>
-      <c r="G247" s="52" t="s">
-        <v>840</v>
-      </c>
-      <c r="H247" s="51"/>
-    </row>
-    <row r="248" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B248" s="22" t="s">
-        <v>843</v>
-      </c>
-      <c r="C248" s="23" t="s">
-        <v>844</v>
-      </c>
-      <c r="D248" s="23" t="s">
+      <c r="H249" s="50"/>
+    </row>
+    <row r="250" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="49" t="s">
+        <v>990</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C250" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="E248" s="23" t="s">
+      <c r="D250" s="50"/>
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="53" t="s">
         <v>845</v>
       </c>
-      <c r="F248" s="23" t="s">
-        <v>847</v>
-      </c>
-      <c r="G248" s="50" t="s">
-        <v>842</v>
-      </c>
-      <c r="H248" s="51"/>
-    </row>
-    <row r="249" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B249" s="39" t="s">
+      <c r="H250" s="50"/>
+    </row>
+    <row r="251" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="B251" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="C249" s="23" t="s">
+      <c r="C251" s="40"/>
+      <c r="D251" s="51"/>
+      <c r="E251" s="51"/>
+      <c r="F251" s="51"/>
+      <c r="G251" s="52" t="s">
+        <v>848</v>
+      </c>
+      <c r="H251" s="51"/>
+    </row>
+    <row r="252" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="C252" s="23"/>
+      <c r="D252" s="50"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="50"/>
+      <c r="G252" s="50" t="s">
         <v>850</v>
       </c>
-      <c r="D249" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="E249" s="51"/>
-      <c r="F249" s="51"/>
-      <c r="G249" s="52" t="s">
-        <v>848</v>
-      </c>
-      <c r="H249" s="51"/>
-    </row>
-    <row r="250" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="49" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B250" s="22" t="s">
+      <c r="H252" s="50"/>
+    </row>
+    <row r="253" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C253" s="41"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52" t="s">
         <v>852</v>
       </c>
-      <c r="C250" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="D250" s="50" t="s">
-        <v>856</v>
-      </c>
-      <c r="E250" s="50"/>
-      <c r="F250" s="50" t="s">
+      <c r="H253" s="52"/>
+    </row>
+    <row r="254" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C254" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="G250" s="53" t="s">
+      <c r="D254" s="40"/>
+      <c r="E254" s="40"/>
+      <c r="F254" s="40"/>
+      <c r="G254" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="H254" s="40"/>
+    </row>
+    <row r="255" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="D255" s="50" t="s">
+        <v>993</v>
+      </c>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="H250" s="50"/>
-    </row>
-    <row r="251" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B251" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="C251" s="23" t="s">
-        <v>859</v>
-      </c>
-      <c r="D251" s="50"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="50"/>
-      <c r="G251" s="53" t="s">
-        <v>858</v>
-      </c>
-      <c r="H251" s="50"/>
-    </row>
-    <row r="252" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="17" t="s">
-        <v>869</v>
-      </c>
-      <c r="B252" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="C252" s="40"/>
-      <c r="D252" s="51"/>
-      <c r="E252" s="51"/>
-      <c r="F252" s="51"/>
-      <c r="G252" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="H252" s="51"/>
-    </row>
-    <row r="253" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="B253" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="C253" s="23"/>
-      <c r="D253" s="50"/>
-      <c r="E253" s="50"/>
-      <c r="F253" s="50"/>
-      <c r="G253" s="50" t="s">
-        <v>863</v>
-      </c>
-      <c r="H253" s="50"/>
-    </row>
-    <row r="254" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B254" s="22" t="s">
-        <v>866</v>
-      </c>
-      <c r="C254" s="41"/>
-      <c r="D254" s="52"/>
-      <c r="E254" s="52"/>
-      <c r="F254" s="52"/>
-      <c r="G254" s="52" t="s">
-        <v>865</v>
-      </c>
-      <c r="H254" s="52"/>
-    </row>
-    <row r="255" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="B255" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>868</v>
-      </c>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="H255" s="40"/>
-    </row>
-    <row r="256" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="17" t="s">
-        <v>873</v>
-      </c>
-      <c r="B256" s="22" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D256" s="50" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E256" s="50"/>
-      <c r="F256" s="50"/>
-      <c r="G256" s="50" t="s">
-        <v>867</v>
-      </c>
-      <c r="H256" s="50"/>
-    </row>
-    <row r="257" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="16"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="5"/>
+      <c r="H255" s="50"/>
+    </row>
+    <row r="256" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="16"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="14"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="14"/>
@@ -12084,144 +12120,132 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="14"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="5"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G34" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G41" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G44" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G45" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G46" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G49" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G51" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G53" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G55" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G59" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G60" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G63" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G210" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G67" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G68" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G69" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G70" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G71" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G72" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H73" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G74" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G75" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G76" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G77" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G78" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G80" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G83" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G84" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G85" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G86" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G104" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="G105" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G106" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G107" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G110" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G111" r:id="rId89" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
-    <hyperlink ref="G112" r:id="rId90" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
-    <hyperlink ref="G113" r:id="rId91" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
-    <hyperlink ref="G114" r:id="rId92" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
-    <hyperlink ref="G115" r:id="rId93" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
-    <hyperlink ref="G116" r:id="rId94" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
-    <hyperlink ref="G117" r:id="rId95" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
-    <hyperlink ref="G118" r:id="rId96" xr:uid="{CB8091F1-D91B-2144-ADDA-79D3F79EA633}"/>
-    <hyperlink ref="G119" r:id="rId97" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
-    <hyperlink ref="G120" r:id="rId98" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
-    <hyperlink ref="G121" r:id="rId99" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
-    <hyperlink ref="G122" r:id="rId100" xr:uid="{6F533977-18ED-B348-91BA-6F434AA69509}"/>
-    <hyperlink ref="H122" r:id="rId101" xr:uid="{8C46FC61-B774-184E-A704-CA2CA188C5C6}"/>
-    <hyperlink ref="G123" r:id="rId102" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
-    <hyperlink ref="G124" r:id="rId103" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
-    <hyperlink ref="G125" r:id="rId104" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
-    <hyperlink ref="H125" r:id="rId105" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
-    <hyperlink ref="G126" r:id="rId106" xr:uid="{A01E41E2-82F2-0B4B-948C-1D6858C60992}"/>
-    <hyperlink ref="G127" r:id="rId107" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
-    <hyperlink ref="H127" r:id="rId108" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
-    <hyperlink ref="S127" r:id="rId109" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
-    <hyperlink ref="G128" r:id="rId110" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
-    <hyperlink ref="G130" r:id="rId111" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
-    <hyperlink ref="G132" r:id="rId112" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
-    <hyperlink ref="G161" r:id="rId113" xr:uid="{69428793-5044-C745-8ED1-A02D17C87A08}"/>
-    <hyperlink ref="G198" r:id="rId114" xr:uid="{EC978807-79F6-8645-BA27-5B5EA9BC25E1}"/>
-    <hyperlink ref="G201" r:id="rId115" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{8D4043E3-CB78-2740-A1B6-2580714F5D1E}"/>
-    <hyperlink ref="G35" r:id="rId116" xr:uid="{52F32864-DDFD-044B-A6E1-085054B9B200}"/>
-    <hyperlink ref="G203" r:id="rId117" xr:uid="{23D9C103-F2A2-474D-8B3B-C8B3ADAFAF09}"/>
-    <hyperlink ref="G204" r:id="rId118" xr:uid="{2401B952-575E-1D45-AF80-42C35916F8A5}"/>
-    <hyperlink ref="G206" r:id="rId119" xr:uid="{B267D8D1-4C78-B943-A2F1-AE1E77514E31}"/>
-    <hyperlink ref="G207" r:id="rId120" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
-    <hyperlink ref="G208" r:id="rId121" xr:uid="{66FDCC55-D608-A548-B0F4-23241D9AEAB3}"/>
-    <hyperlink ref="G211" r:id="rId122" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
-    <hyperlink ref="G250" r:id="rId123" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
-    <hyperlink ref="G251" r:id="rId124" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G38" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G46" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G48" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G53" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G54" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G55" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G57" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G60" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G61" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G63" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G65" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G209" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G67" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G68" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G69" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G70" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G71" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G72" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H72" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G74" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G75" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G76" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G77" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G80" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G81" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H80" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G89" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G90" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G91" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G92" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G109" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G110" r:id="rId87" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
+    <hyperlink ref="G111" r:id="rId88" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
+    <hyperlink ref="G112" r:id="rId89" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
+    <hyperlink ref="G113" r:id="rId90" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
+    <hyperlink ref="G114" r:id="rId91" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
+    <hyperlink ref="G115" r:id="rId92" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
+    <hyperlink ref="G116" r:id="rId93" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
+    <hyperlink ref="G117" r:id="rId94" xr:uid="{CB8091F1-D91B-2144-ADDA-79D3F79EA633}"/>
+    <hyperlink ref="G118" r:id="rId95" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
+    <hyperlink ref="G119" r:id="rId96" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
+    <hyperlink ref="G120" r:id="rId97" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
+    <hyperlink ref="G121" r:id="rId98" xr:uid="{6F533977-18ED-B348-91BA-6F434AA69509}"/>
+    <hyperlink ref="H121" r:id="rId99" xr:uid="{8C46FC61-B774-184E-A704-CA2CA188C5C6}"/>
+    <hyperlink ref="G122" r:id="rId100" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
+    <hyperlink ref="G123" r:id="rId101" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
+    <hyperlink ref="G124" r:id="rId102" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
+    <hyperlink ref="H124" r:id="rId103" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
+    <hyperlink ref="G125" r:id="rId104" xr:uid="{A01E41E2-82F2-0B4B-948C-1D6858C60992}"/>
+    <hyperlink ref="G126" r:id="rId105" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
+    <hyperlink ref="H126" r:id="rId106" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
+    <hyperlink ref="S126" r:id="rId107" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
+    <hyperlink ref="G127" r:id="rId108" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
+    <hyperlink ref="G129" r:id="rId109" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
+    <hyperlink ref="G131" r:id="rId110" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
+    <hyperlink ref="G160" r:id="rId111" xr:uid="{69428793-5044-C745-8ED1-A02D17C87A08}"/>
+    <hyperlink ref="G197" r:id="rId112" xr:uid="{EC978807-79F6-8645-BA27-5B5EA9BC25E1}"/>
+    <hyperlink ref="G200" r:id="rId113" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{8D4043E3-CB78-2740-A1B6-2580714F5D1E}"/>
+    <hyperlink ref="G34" r:id="rId114" xr:uid="{52F32864-DDFD-044B-A6E1-085054B9B200}"/>
+    <hyperlink ref="G202" r:id="rId115" xr:uid="{23D9C103-F2A2-474D-8B3B-C8B3ADAFAF09}"/>
+    <hyperlink ref="G203" r:id="rId116" xr:uid="{2401B952-575E-1D45-AF80-42C35916F8A5}"/>
+    <hyperlink ref="G205" r:id="rId117" xr:uid="{B267D8D1-4C78-B943-A2F1-AE1E77514E31}"/>
+    <hyperlink ref="G206" r:id="rId118" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
+    <hyperlink ref="G207" r:id="rId119" xr:uid="{66FDCC55-D608-A548-B0F4-23241D9AEAB3}"/>
+    <hyperlink ref="G210" r:id="rId120" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
+    <hyperlink ref="G249" r:id="rId121" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
+    <hyperlink ref="G250" r:id="rId122" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0962949-1C14-414F-BBC0-F45BC2F04A94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E658AF-A77C-B14B-A175-581759CE453C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>https://leetcode.com/problems/largest-sum-of-averages/solution/</t>
   </si>
   <si>
-    <t>fibonnaci</t>
-  </si>
-  <si>
     <t>recursion(2^n) and memoization O(n)</t>
   </si>
   <si>
@@ -5417,6 +5414,9 @@
       <t>[ suppose this is the set { 1 2 3 ... N }Now you can consider creating all its subset For each element there is 2 possibilities either keep it or leave it This way there are 2^N possible cases.
 For each of this case you can consider the binary representation of the number if(j th bit is set include it) else leave it]</t>
     </r>
+  </si>
+  <si>
+    <t>fibonnaci number</t>
   </si>
 </sst>
 </file>
@@ -6107,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="181" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="184" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -6266,7 +6266,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>44</v>
@@ -6309,13 +6309,13 @@
     </row>
     <row r="10" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
+        <v>996</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>997</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="C10" s="23" t="s">
         <v>998</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>999</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -6359,13 +6359,13 @@
     </row>
     <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -6378,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -6398,10 +6398,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>861</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>862</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>52</v>
@@ -6409,7 +6409,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>47</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
@@ -6463,12 +6463,12 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>66</v>
@@ -6489,7 +6489,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>77</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -6563,12 +6563,12 @@
       </c>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>863</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>864</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>85</v>
@@ -6597,7 +6597,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>90</v>
       </c>
@@ -6613,9 +6613,9 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>92</v>
@@ -6631,74 +6631,74 @@
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="F29" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -6709,128 +6709,128 @@
     </row>
     <row r="33" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>866</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>867</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="C35" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -6839,589 +6839,589 @@
     </row>
     <row r="40" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="E40" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B45" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>152</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>877</v>
-      </c>
       <c r="C47" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="D48" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>162</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B50" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>720</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>179</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="D54" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>183</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="C56" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>194</v>
-      </c>
       <c r="D57" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>197</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="D59" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="D61" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="23" t="s">
+      <c r="G61" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>214</v>
       </c>
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="D62" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>223</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>224</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B64" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H64" s="23"/>
     </row>
     <row r="65" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>232</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H65" s="23"/>
     </row>
     <row r="66" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="C66" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>237</v>
-      </c>
       <c r="D66" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C67" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="E67" s="23" t="s">
         <v>241</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>242</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B68" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>245</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>884</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>246</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>40</v>
@@ -7429,158 +7429,158 @@
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="C71" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="E71" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>260</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H71" s="23"/>
     </row>
     <row r="72" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>262</v>
-      </c>
       <c r="E72" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="D75" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>278</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>885</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>279</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="C78" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="D78" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
@@ -7589,759 +7589,759 @@
     </row>
     <row r="79" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B80" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="C80" s="23" t="s">
-        <v>302</v>
-      </c>
       <c r="D80" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>296</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>297</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H82" s="23"/>
     </row>
     <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>307</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C84" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="D84" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>313</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
       <c r="G84" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>322</v>
-      </c>
       <c r="C87" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D88" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H88" s="23"/>
     </row>
     <row r="89" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B89" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="D89" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="E89" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>887</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H89" s="23"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B90" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>336</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>337</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B91" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>339</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>340</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
       <c r="G91" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>342</v>
-      </c>
       <c r="C92" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
       <c r="G92" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>349</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="D94" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>353</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C95" s="23" t="s">
-        <v>356</v>
-      </c>
       <c r="D95" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H95" s="23"/>
     </row>
     <row r="96" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="C98" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="D98" s="23" t="s">
         <v>367</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>368</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H98" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>372</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
       <c r="G99" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H99" s="23"/>
     </row>
     <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B100" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C100" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="D100" s="23" t="s">
         <v>374</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>375</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="G100" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H100" s="23"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="C101" s="23" t="s">
         <v>379</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>380</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>382</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H102" s="23"/>
     </row>
     <row r="103" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B103" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>386</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
       <c r="G103" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H103" s="23"/>
     </row>
     <row r="104" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23"/>
       <c r="G104" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H104" s="23"/>
     </row>
     <row r="105" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="23"/>
       <c r="G105" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H105" s="23"/>
     </row>
     <row r="106" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C106" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D106" s="23" t="s">
         <v>391</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>392</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
       <c r="G106" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H106" s="23"/>
     </row>
     <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H107" s="23"/>
     </row>
     <row r="108" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
       <c r="F109" s="23"/>
       <c r="G109" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H109" s="23"/>
     </row>
     <row r="110" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B110" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="D110" s="23" t="s">
         <v>401</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="23"/>
       <c r="G110" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H110" s="23"/>
     </row>
     <row r="111" spans="1:8" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B111" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>404</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>405</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
       <c r="F111" s="23"/>
       <c r="G111" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H111" s="23"/>
     </row>
     <row r="112" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B112" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="D112" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
       <c r="G112" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H112" s="23"/>
     </row>
     <row r="113" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B113" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="D113" s="23" t="s">
         <v>414</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>415</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="23"/>
       <c r="G113" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H113" s="23"/>
     </row>
     <row r="114" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H114" s="23"/>
     </row>
     <row r="115" spans="1:19" ht="84" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B115" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>420</v>
-      </c>
       <c r="D115" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H115" s="23"/>
     </row>
     <row r="116" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B116" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>423</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>424</v>
       </c>
       <c r="D116" s="32"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H116" s="23"/>
     </row>
     <row r="117" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B117" s="22" t="s">
         <v>426</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>427</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H117" s="23"/>
     </row>
     <row r="118" spans="1:19" ht="42" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B118" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="C118" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>431</v>
-      </c>
       <c r="E118" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H118" s="23"/>
     </row>
     <row r="119" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B119" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="C119" s="23" t="s">
-        <v>435</v>
-      </c>
       <c r="D119" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="3"/>
@@ -8352,21 +8352,21 @@
     </row>
     <row r="120" spans="1:19" ht="98" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B120" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>439</v>
-      </c>
       <c r="D120" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="23"/>
       <c r="G120" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="3"/>
@@ -8377,1182 +8377,1182 @@
     </row>
     <row r="121" spans="1:19" ht="56" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B121" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="C121" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="D121" s="23" t="s">
         <v>444</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>445</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H121" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="3" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
       <c r="G122" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H122" s="23"/>
     </row>
     <row r="123" spans="1:19" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
       <c r="G123" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H123" s="23"/>
     </row>
     <row r="124" spans="1:19" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B124" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>454</v>
-      </c>
       <c r="D124" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E124" s="23" t="s">
         <v>456</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>457</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H125" s="23"/>
     </row>
     <row r="126" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>463</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>464</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="H126" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="H126" s="24" t="s">
-        <v>466</v>
-      </c>
       <c r="S126" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
       <c r="G127" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H127" s="23"/>
     </row>
     <row r="128" spans="1:19" ht="70" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B128" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C128" s="23" t="s">
         <v>473</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>474</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
       <c r="F128" s="34"/>
       <c r="G128" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H128" s="23"/>
     </row>
     <row r="129" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>477</v>
-      </c>
       <c r="D129" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
       <c r="G129" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
       <c r="G130" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" s="22" t="s">
         <v>481</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>482</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="G131" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H131" s="23"/>
     </row>
     <row r="132" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E132" s="23"/>
       <c r="F132" s="23"/>
       <c r="G132" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H132" s="23"/>
     </row>
     <row r="133" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H133" s="23"/>
     </row>
     <row r="134" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B134" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>491</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H134" s="23"/>
     </row>
     <row r="135" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B135" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="C135" s="23" t="s">
         <v>495</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>496</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H135" s="23"/>
     </row>
     <row r="136" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C136" s="23" t="s">
         <v>497</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>498</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
       <c r="F136" s="23"/>
       <c r="G136" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H136" s="23"/>
     </row>
     <row r="137" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B137" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B137" s="22" t="s">
-        <v>502</v>
-      </c>
       <c r="C137" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
       <c r="F137" s="23"/>
       <c r="G137" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H137" s="23"/>
     </row>
     <row r="138" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="C138" s="23" t="s">
         <v>507</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>508</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
       <c r="F138" s="23"/>
       <c r="G138" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C139" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="B139" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="C139" s="23" t="s">
+      <c r="D139" s="23" t="s">
         <v>513</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>514</v>
       </c>
       <c r="E139" s="23"/>
       <c r="F139" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G139" s="23" t="s">
         <v>510</v>
-      </c>
-      <c r="G139" s="23" t="s">
-        <v>511</v>
       </c>
       <c r="H139" s="23"/>
     </row>
     <row r="140" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="D140" s="23" t="s">
         <v>515</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>516</v>
       </c>
       <c r="E140" s="23"/>
       <c r="F140" s="23"/>
       <c r="G140" s="23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H140" s="23"/>
     </row>
     <row r="141" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B141" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>520</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>521</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="23"/>
       <c r="G141" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H141" s="23"/>
     </row>
     <row r="142" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="B142" s="22" t="s">
-        <v>523</v>
-      </c>
       <c r="C142" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
       <c r="F142" s="23"/>
       <c r="G142" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H142" s="23"/>
     </row>
     <row r="143" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B143" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D143" s="23" t="s">
         <v>527</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>528</v>
       </c>
       <c r="E143" s="23"/>
       <c r="F143" s="23"/>
       <c r="G143" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H143" s="23"/>
     </row>
     <row r="144" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="B144" s="22" t="s">
         <v>529</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>530</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="23"/>
       <c r="G144" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H144" s="23"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B145" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="C145" s="23" t="s">
         <v>534</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>535</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
       <c r="F145" s="23"/>
       <c r="G145" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H145" s="23"/>
     </row>
     <row r="146" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B146" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="C146" s="23" t="s">
         <v>538</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>539</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
       <c r="F146" s="23"/>
       <c r="G146" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H146" s="23"/>
     </row>
     <row r="147" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
       <c r="F147" s="23"/>
       <c r="G147" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B148" s="32" t="s">
         <v>543</v>
-      </c>
-      <c r="B148" s="32" t="s">
-        <v>544</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H148" s="23"/>
     </row>
     <row r="149" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B149" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>546</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>547</v>
       </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
       <c r="F149" s="23"/>
       <c r="G149" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H149" s="23"/>
     </row>
     <row r="150" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B150" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
       <c r="G150" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C151" s="23" t="s">
         <v>552</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>553</v>
       </c>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H151" s="23"/>
     </row>
     <row r="152" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H152" s="23"/>
     </row>
     <row r="153" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
       <c r="F153" s="23"/>
       <c r="G153" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H153" s="23"/>
     </row>
     <row r="154" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B154" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E154" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="C154" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="E154" s="23" t="s">
+      <c r="F154" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F154" s="23" t="s">
+      <c r="G154" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="H154" s="23" t="s">
         <v>563</v>
-      </c>
-      <c r="G154" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="H154" s="23" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C155" s="32"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H155" s="23"/>
     </row>
     <row r="156" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A156" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="B156" s="22" t="s">
         <v>568</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>569</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
       <c r="F156" s="23"/>
       <c r="G156" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H156" s="23"/>
     </row>
     <row r="157" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
       <c r="F157" s="23"/>
       <c r="G157" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H157" s="23"/>
     </row>
     <row r="158" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B158" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C158" s="23" t="s">
         <v>573</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>574</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
       <c r="F158" s="23"/>
       <c r="G158" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H158" s="23"/>
     </row>
     <row r="159" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B159" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C159" s="23" t="s">
         <v>576</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>577</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="23"/>
       <c r="G159" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H159" s="23"/>
     </row>
     <row r="160" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B160" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="C160" s="23" t="s">
         <v>580</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>581</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="23"/>
       <c r="G160" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H160" s="23"/>
     </row>
     <row r="161" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B161" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C161" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C161" s="23" t="s">
-        <v>583</v>
-      </c>
       <c r="D161" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E161" s="34" t="s">
         <v>585</v>
-      </c>
-      <c r="E161" s="34" t="s">
-        <v>586</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H161" s="23"/>
     </row>
     <row r="162" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B162" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="C162" s="23" t="s">
         <v>589</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>590</v>
       </c>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="23"/>
       <c r="G162" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H162" s="23"/>
     </row>
     <row r="163" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B163" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="C163" s="22" t="s">
         <v>593</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>594</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
       <c r="F163" s="23"/>
       <c r="G163" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H163" s="23"/>
     </row>
     <row r="164" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B164" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="D164" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="C164" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>598</v>
-      </c>
       <c r="E164" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H164" s="23"/>
     </row>
     <row r="165" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B165" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="D165" s="32" t="s">
         <v>600</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D165" s="32" t="s">
-        <v>601</v>
       </c>
       <c r="E165" s="23"/>
       <c r="F165" s="23"/>
       <c r="G165" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H165" s="23"/>
     </row>
     <row r="166" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C166" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="D166" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="E166" s="23" t="s">
         <v>606</v>
-      </c>
-      <c r="E166" s="23" t="s">
-        <v>607</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H166" s="23"/>
     </row>
     <row r="167" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B167" s="22" t="s">
         <v>609</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>610</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="38"/>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
       <c r="G167" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H167" s="23"/>
     </row>
     <row r="168" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="32"/>
       <c r="E168" s="23"/>
       <c r="F168" s="23"/>
       <c r="G168" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H168" s="23"/>
     </row>
     <row r="169" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B169" s="22" t="s">
         <v>614</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>615</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
       <c r="F169" s="23"/>
       <c r="G169" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H169" s="23"/>
     </row>
     <row r="170" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B170" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C170" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="D170" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="D170" s="23" t="s">
-        <v>619</v>
-      </c>
       <c r="E170" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H170" s="23"/>
     </row>
     <row r="171" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A171" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="B171" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="B171" s="22" t="s">
-        <v>621</v>
-      </c>
       <c r="C171" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
       <c r="G171" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H171" s="23"/>
     </row>
     <row r="172" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B172" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="C172" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="D172" s="23" t="s">
         <v>625</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>626</v>
       </c>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
       <c r="G172" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H172" s="23"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B173" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>630</v>
-      </c>
       <c r="C173" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
       <c r="G173" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H173" s="23"/>
     </row>
     <row r="174" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C174" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="D174" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="E174" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="G174" s="23" t="s">
         <v>634</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="F174" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="G174" s="23" t="s">
-        <v>635</v>
       </c>
       <c r="H174" s="23"/>
     </row>
     <row r="175" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
       <c r="G175" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H175" s="23"/>
     </row>
     <row r="176" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
       <c r="G176" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="H176" s="23" t="s">
         <v>643</v>
-      </c>
-      <c r="H176" s="23" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B177" s="23" t="s">
         <v>646</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>647</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H177" s="23"/>
     </row>
     <row r="178" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C178" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="D178" s="23" t="s">
         <v>650</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>651</v>
       </c>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H178" s="23"/>
     </row>
     <row r="179" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
       <c r="F179" s="23"/>
       <c r="G179" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H179" s="23"/>
     </row>
     <row r="180" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="C180" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="D180" s="23" t="s">
         <v>654</v>
-      </c>
-      <c r="C180" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="D180" s="23" t="s">
-        <v>655</v>
       </c>
       <c r="E180" s="23"/>
       <c r="F180" s="23"/>
       <c r="G180" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H180" s="23"/>
     </row>
     <row r="181" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
       <c r="F181" s="23"/>
       <c r="G181" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H181" s="23"/>
     </row>
     <row r="182" spans="1:8" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E182" s="23"/>
       <c r="F182" s="23"/>
       <c r="G182" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H182" s="23"/>
     </row>
     <row r="183" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B183" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="C183" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="D183" s="23" t="s">
         <v>672</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>673</v>
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="23"/>
       <c r="G183" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H183" s="23"/>
     </row>
     <row r="184" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
@@ -9560,58 +9560,58 @@
       <c r="E184" s="23"/>
       <c r="F184" s="23"/>
       <c r="G184" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H184" s="23"/>
     </row>
     <row r="185" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B185" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="C185" s="23" t="s">
         <v>678</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>679</v>
       </c>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
       <c r="F185" s="23"/>
       <c r="G185" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H185" s="23"/>
     </row>
     <row r="186" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="C186" s="23" t="s">
         <v>681</v>
-      </c>
-      <c r="B186" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>682</v>
       </c>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
       <c r="G186" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H186" s="23"/>
     </row>
     <row r="187" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="D187" s="23" t="s">
         <v>686</v>
-      </c>
-      <c r="B187" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>685</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>687</v>
       </c>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
@@ -9620,104 +9620,104 @@
     </row>
     <row r="188" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="B188" s="39" t="s">
         <v>690</v>
-      </c>
-      <c r="B188" s="39" t="s">
-        <v>691</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
       <c r="E188" s="40"/>
       <c r="F188" s="40"/>
       <c r="G188" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H188" s="40"/>
     </row>
     <row r="189" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B189" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="C189" s="41" t="s">
         <v>693</v>
-      </c>
-      <c r="C189" s="41" t="s">
-        <v>694</v>
       </c>
       <c r="D189" s="40"/>
       <c r="E189" s="40"/>
       <c r="F189" s="40"/>
       <c r="G189" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H189" s="40"/>
     </row>
     <row r="190" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C190" s="40"/>
       <c r="D190" s="40"/>
       <c r="E190" s="40"/>
       <c r="F190" s="40"/>
       <c r="G190" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H190" s="40"/>
     </row>
     <row r="191" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B191" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C191" s="23" t="s">
         <v>699</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>700</v>
       </c>
       <c r="D191" s="40"/>
       <c r="E191" s="40"/>
       <c r="F191" s="40"/>
       <c r="G191" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H191" s="40"/>
     </row>
     <row r="192" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="C192" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>844</v>
-      </c>
-      <c r="C192" s="23" t="s">
+      <c r="D192" s="23" t="s">
         <v>941</v>
-      </c>
-      <c r="D192" s="23" t="s">
-        <v>942</v>
       </c>
       <c r="E192" s="40"/>
       <c r="F192" s="40"/>
       <c r="G192" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H192" s="40"/>
     </row>
     <row r="193" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B193" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="D193" s="23" t="s">
         <v>706</v>
-      </c>
-      <c r="C193" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="D193" s="23" t="s">
-        <v>707</v>
       </c>
       <c r="E193" s="40"/>
       <c r="F193" s="40"/>
@@ -9726,30 +9726,30 @@
     </row>
     <row r="194" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E194" s="40"/>
       <c r="F194" s="40"/>
       <c r="G194" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H194" s="40"/>
     </row>
     <row r="195" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -9760,58 +9760,58 @@
     </row>
     <row r="196" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C196" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="D196" s="23" t="s">
         <v>718</v>
-      </c>
-      <c r="D196" s="23" t="s">
-        <v>719</v>
       </c>
       <c r="E196" s="40"/>
       <c r="F196" s="40"/>
       <c r="G196" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H196" s="40"/>
     </row>
     <row r="197" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="B197" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="D197" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="B197" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="C197" s="22" t="s">
+      <c r="E197" s="23" t="s">
         <v>727</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>945</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>728</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H197" s="23"/>
     </row>
     <row r="198" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="B198" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="C198" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="D198" s="41" t="s">
         <v>723</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>725</v>
-      </c>
-      <c r="D198" s="41" t="s">
-        <v>724</v>
       </c>
       <c r="E198" s="40"/>
       <c r="F198" s="40"/>
@@ -9820,13 +9820,13 @@
     </row>
     <row r="199" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B199" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C199" s="23" t="s">
         <v>729</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>730</v>
       </c>
       <c r="D199" s="23"/>
       <c r="E199" s="23"/>
@@ -9836,25 +9836,25 @@
     </row>
     <row r="200" spans="1:8" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B200" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="C200" s="41" t="s">
         <v>733</v>
-      </c>
-      <c r="C200" s="41" t="s">
-        <v>734</v>
       </c>
       <c r="D200" s="43"/>
       <c r="E200" s="43"/>
       <c r="F200" s="43"/>
       <c r="G200" s="44" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H200" s="43"/>
     </row>
     <row r="201" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -9862,56 +9862,56 @@
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
       <c r="G201" s="23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H201" s="23"/>
     </row>
     <row r="202" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C202" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="D202" s="23" t="s">
         <v>744</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>745</v>
       </c>
       <c r="E202" s="40"/>
       <c r="F202" s="40"/>
       <c r="G202" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H202" s="40"/>
     </row>
     <row r="203" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="D203" s="23" t="s">
         <v>949</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="D203" s="23" t="s">
-        <v>950</v>
       </c>
       <c r="E203" s="40"/>
       <c r="F203" s="40"/>
       <c r="G203" s="24" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H203" s="40"/>
     </row>
     <row r="204" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -9922,23 +9922,23 @@
     </row>
     <row r="205" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C205" s="40"/>
       <c r="D205" s="40"/>
       <c r="E205" s="40"/>
       <c r="F205" s="40"/>
       <c r="G205" s="44" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H205" s="40"/>
     </row>
     <row r="206" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B206" s="45"/>
       <c r="C206" s="40"/>
@@ -9946,13 +9946,13 @@
       <c r="E206" s="40"/>
       <c r="F206" s="40"/>
       <c r="G206" s="24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H206" s="40"/>
     </row>
     <row r="207" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B207" s="45"/>
       <c r="C207" s="40"/>
@@ -9960,13 +9960,13 @@
       <c r="E207" s="40"/>
       <c r="F207" s="40"/>
       <c r="G207" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H207" s="40"/>
     </row>
     <row r="208" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B208" s="45"/>
       <c r="C208" s="40"/>
@@ -9974,33 +9974,33 @@
       <c r="E208" s="40"/>
       <c r="F208" s="40"/>
       <c r="G208" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H208" s="40"/>
     </row>
     <row r="209" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C209" s="23" t="s">
         <v>954</v>
       </c>
-      <c r="B209" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>955</v>
-      </c>
       <c r="D209" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
       <c r="G209" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H209" s="23"/>
     </row>
     <row r="210" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B210" s="39"/>
       <c r="C210" s="40"/>
@@ -10008,13 +10008,13 @@
       <c r="E210" s="40"/>
       <c r="F210" s="40"/>
       <c r="G210" s="44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H210" s="40"/>
     </row>
     <row r="211" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B211" s="45"/>
       <c r="C211" s="40"/>
@@ -10022,49 +10022,49 @@
       <c r="E211" s="40"/>
       <c r="F211" s="40"/>
       <c r="G211" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H211" s="40"/>
     </row>
     <row r="212" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B212" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>758</v>
+      </c>
+      <c r="D212" s="41" t="s">
         <v>757</v>
-      </c>
-      <c r="C212" s="41" t="s">
-        <v>759</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>758</v>
       </c>
       <c r="E212" s="40"/>
       <c r="F212" s="40"/>
       <c r="G212" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H212" s="40"/>
     </row>
     <row r="213" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
       <c r="E213" s="40"/>
       <c r="F213" s="40"/>
       <c r="G213" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H213" s="40"/>
     </row>
     <row r="214" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B214" s="45"/>
       <c r="C214" s="40"/>
@@ -10072,33 +10072,33 @@
       <c r="E214" s="40"/>
       <c r="F214" s="40"/>
       <c r="G214" s="41" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H214" s="40"/>
     </row>
     <row r="215" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="B215" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="B215" s="22" t="s">
-        <v>962</v>
-      </c>
       <c r="C215" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D215" s="40"/>
       <c r="E215" s="40"/>
       <c r="F215" s="40"/>
       <c r="G215" s="23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H215" s="41" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B216" s="45"/>
       <c r="C216" s="40"/>
@@ -10106,13 +10106,13 @@
       <c r="E216" s="40"/>
       <c r="F216" s="40"/>
       <c r="G216" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H216" s="40"/>
     </row>
     <row r="217" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B217" s="45"/>
       <c r="C217" s="40"/>
@@ -10120,29 +10120,29 @@
       <c r="E217" s="40"/>
       <c r="F217" s="40"/>
       <c r="G217" s="41" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H217" s="40"/>
     </row>
     <row r="218" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
       <c r="E218" s="40"/>
       <c r="F218" s="40"/>
       <c r="G218" s="41" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H218" s="40"/>
     </row>
     <row r="219" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B219" s="45"/>
       <c r="C219" s="40"/>
@@ -10150,13 +10150,13 @@
       <c r="E219" s="40"/>
       <c r="F219" s="40"/>
       <c r="G219" s="41" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H219" s="40"/>
     </row>
     <row r="220" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B220" s="45"/>
       <c r="C220" s="40"/>
@@ -10164,13 +10164,13 @@
       <c r="E220" s="40"/>
       <c r="F220" s="40"/>
       <c r="G220" s="41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H220" s="40"/>
     </row>
     <row r="221" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B221" s="45"/>
       <c r="C221" s="40"/>
@@ -10178,13 +10178,13 @@
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="41" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H221" s="40"/>
     </row>
     <row r="222" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B222" s="45"/>
       <c r="C222" s="40"/>
@@ -10192,13 +10192,13 @@
       <c r="E222" s="40"/>
       <c r="F222" s="40"/>
       <c r="G222" s="41" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H222" s="40"/>
     </row>
     <row r="223" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B223" s="45"/>
       <c r="C223" s="40"/>
@@ -10206,13 +10206,13 @@
       <c r="E223" s="40"/>
       <c r="F223" s="40"/>
       <c r="G223" s="41" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H223" s="40"/>
     </row>
     <row r="224" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B224" s="45"/>
       <c r="C224" s="40"/>
@@ -10220,13 +10220,13 @@
       <c r="E224" s="40"/>
       <c r="F224" s="40"/>
       <c r="G224" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H224" s="40"/>
     </row>
     <row r="225" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B225" s="45"/>
       <c r="C225" s="40"/>
@@ -10234,29 +10234,29 @@
       <c r="E225" s="40"/>
       <c r="F225" s="40"/>
       <c r="G225" s="41" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H225" s="40"/>
     </row>
     <row r="226" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C226" s="40"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40"/>
       <c r="F226" s="40"/>
       <c r="G226" s="41" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H226" s="40"/>
     </row>
     <row r="227" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B227" s="45"/>
       <c r="C227" s="40"/>
@@ -10264,29 +10264,29 @@
       <c r="E227" s="40"/>
       <c r="F227" s="40"/>
       <c r="G227" s="41" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H227" s="40"/>
     </row>
     <row r="228" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C228" s="40"/>
       <c r="D228" s="40"/>
       <c r="E228" s="40"/>
       <c r="F228" s="40"/>
       <c r="G228" s="41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H228" s="40"/>
     </row>
     <row r="229" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="47" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B229" s="45"/>
       <c r="C229" s="40"/>
@@ -10294,13 +10294,13 @@
       <c r="E229" s="40"/>
       <c r="F229" s="40"/>
       <c r="G229" s="41" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H229" s="40"/>
     </row>
     <row r="230" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B230" s="45"/>
       <c r="C230" s="40"/>
@@ -10308,31 +10308,31 @@
       <c r="E230" s="40"/>
       <c r="F230" s="40"/>
       <c r="G230" s="41" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H230" s="40"/>
     </row>
     <row r="231" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B231" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="C231" s="41" t="s">
         <v>789</v>
-      </c>
-      <c r="C231" s="41" t="s">
-        <v>790</v>
       </c>
       <c r="D231" s="40"/>
       <c r="E231" s="40"/>
       <c r="F231" s="40"/>
       <c r="G231" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H231" s="40"/>
     </row>
     <row r="232" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B232" s="45"/>
       <c r="C232" s="40"/>
@@ -10340,13 +10340,13 @@
       <c r="E232" s="40"/>
       <c r="F232" s="40"/>
       <c r="G232" s="41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H232" s="40"/>
     </row>
     <row r="233" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B233" s="45"/>
       <c r="C233" s="40"/>
@@ -10354,13 +10354,13 @@
       <c r="E233" s="40"/>
       <c r="F233" s="40"/>
       <c r="G233" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H233" s="40"/>
     </row>
     <row r="234" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B234" s="45"/>
       <c r="C234" s="40"/>
@@ -10368,13 +10368,13 @@
       <c r="E234" s="40"/>
       <c r="F234" s="40"/>
       <c r="G234" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H234" s="40"/>
     </row>
     <row r="235" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B235" s="45"/>
       <c r="C235" s="40"/>
@@ -10382,29 +10382,29 @@
       <c r="E235" s="40"/>
       <c r="F235" s="40"/>
       <c r="G235" s="41" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H235" s="40"/>
     </row>
     <row r="236" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C236" s="40"/>
       <c r="D236" s="40"/>
       <c r="E236" s="40"/>
       <c r="F236" s="40"/>
       <c r="G236" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H236" s="40"/>
     </row>
     <row r="237" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B237" s="45"/>
       <c r="C237" s="40"/>
@@ -10412,13 +10412,13 @@
       <c r="E237" s="40"/>
       <c r="F237" s="40"/>
       <c r="G237" s="41" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H237" s="40"/>
     </row>
     <row r="238" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B238" s="45"/>
       <c r="C238" s="40"/>
@@ -10426,13 +10426,13 @@
       <c r="E238" s="40"/>
       <c r="F238" s="40"/>
       <c r="G238" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H238" s="40"/>
     </row>
     <row r="239" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B239" s="45"/>
       <c r="C239" s="40"/>
@@ -10440,13 +10440,13 @@
       <c r="E239" s="40"/>
       <c r="F239" s="40"/>
       <c r="G239" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H239" s="40"/>
     </row>
     <row r="240" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B240" s="45"/>
       <c r="C240" s="40"/>
@@ -10458,285 +10458,285 @@
     </row>
     <row r="241" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C241" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="D241" s="50" t="s">
         <v>807</v>
-      </c>
-      <c r="D241" s="50" t="s">
-        <v>808</v>
       </c>
       <c r="E241" s="51"/>
       <c r="F241" s="51"/>
       <c r="G241" s="51" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H241" s="51"/>
     </row>
     <row r="242" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="49" t="s">
+        <v>980</v>
+      </c>
+      <c r="B242" s="22" t="s">
         <v>981</v>
-      </c>
-      <c r="B242" s="22" t="s">
-        <v>982</v>
       </c>
       <c r="C242" s="40"/>
       <c r="D242" s="51"/>
       <c r="E242" s="51"/>
       <c r="F242" s="50" t="s">
+        <v>810</v>
+      </c>
+      <c r="G242" s="50" t="s">
         <v>811</v>
-      </c>
-      <c r="G242" s="50" t="s">
-        <v>812</v>
       </c>
       <c r="H242" s="51"/>
     </row>
     <row r="243" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B243" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C243" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="D243" s="52" t="s">
         <v>814</v>
-      </c>
-      <c r="D243" s="52" t="s">
-        <v>815</v>
       </c>
       <c r="E243" s="51"/>
       <c r="F243" s="51"/>
       <c r="G243" s="52" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H243" s="51"/>
     </row>
     <row r="244" spans="1:8" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="49" t="s">
+        <v>818</v>
+      </c>
+      <c r="B244" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="B244" s="39" t="s">
+      <c r="C244" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="C244" s="23" t="s">
-        <v>821</v>
-      </c>
       <c r="D244" s="52" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E244" s="51"/>
       <c r="F244" s="51"/>
       <c r="G244" s="52" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H244" s="51"/>
     </row>
     <row r="245" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="B245" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="C245" s="23" t="s">
         <v>984</v>
-      </c>
-      <c r="B245" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="C245" s="23" t="s">
-        <v>985</v>
       </c>
       <c r="D245" s="51"/>
       <c r="E245" s="51"/>
       <c r="F245" s="51"/>
       <c r="G245" s="52" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H245" s="51"/>
     </row>
     <row r="246" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C246" s="41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D246" s="51"/>
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
       <c r="G246" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H246" s="51"/>
     </row>
     <row r="247" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B247" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="C247" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C247" s="23" t="s">
+      <c r="D247" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E247" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="D247" s="23" t="s">
+      <c r="F247" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="E247" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="F247" s="23" t="s">
-        <v>834</v>
-      </c>
       <c r="G247" s="50" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H247" s="51"/>
     </row>
     <row r="248" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B248" s="39" t="s">
+        <v>835</v>
+      </c>
+      <c r="C248" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="C248" s="23" t="s">
+      <c r="D248" s="23" t="s">
         <v>837</v>
-      </c>
-      <c r="D248" s="23" t="s">
-        <v>838</v>
       </c>
       <c r="E248" s="51"/>
       <c r="F248" s="51"/>
       <c r="G248" s="52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H248" s="51"/>
     </row>
     <row r="249" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B249" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="C249" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="C249" s="23" t="s">
-        <v>840</v>
-      </c>
       <c r="D249" s="50" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E249" s="50"/>
       <c r="F249" s="50" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G249" s="53" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H249" s="50"/>
     </row>
     <row r="250" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D250" s="50"/>
       <c r="E250" s="50"/>
       <c r="F250" s="50"/>
       <c r="G250" s="53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H250" s="50"/>
     </row>
     <row r="251" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C251" s="40"/>
       <c r="D251" s="51"/>
       <c r="E251" s="51"/>
       <c r="F251" s="51"/>
       <c r="G251" s="52" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H251" s="51"/>
     </row>
     <row r="252" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C252" s="23"/>
       <c r="D252" s="50"/>
       <c r="E252" s="50"/>
       <c r="F252" s="50"/>
       <c r="G252" s="50" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H252" s="50"/>
     </row>
     <row r="253" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C253" s="41"/>
       <c r="D253" s="52"/>
       <c r="E253" s="52"/>
       <c r="F253" s="52"/>
       <c r="G253" s="52" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H253" s="52"/>
     </row>
     <row r="254" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D254" s="40"/>
       <c r="E254" s="40"/>
       <c r="F254" s="40"/>
       <c r="G254" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H254" s="40"/>
     </row>
     <row r="255" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B255" s="22" t="s">
+        <v>990</v>
+      </c>
+      <c r="C255" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="C255" s="23" t="s">
+      <c r="D255" s="50" t="s">
         <v>992</v>
-      </c>
-      <c r="D255" s="50" t="s">
-        <v>993</v>
       </c>
       <c r="E255" s="50"/>
       <c r="F255" s="50"/>
       <c r="G255" s="50" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H255" s="50"/>
     </row>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C818BA5-B7FB-024F-97BC-B9622F88842F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70AC16B-B002-AC4A-9347-BDEA3380CCA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1106">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -5939,12 +5939,69 @@
   <si>
     <t>complexity -&gt; O(V^2) using adjacency matrix and O(ElogV) using adjacency List</t>
   </si>
+  <si>
+    <t>https://leetcode.com/discuss/general-discussion/937307/iterative-recursive-dfs-bfs-tree-traversal-inorder-preorder-postorder-levelorder</t>
+  </si>
+  <si>
+    <t>WHILE(stack NOTEMPTY or root NOTNULL)[
+WHILE{pushToStack(root.left) until root NOTNULL}
+print(topOfStack) 
+root -&gt; topOfStack.right]</t>
+  </si>
+  <si>
+    <t>WHILE(root NOTNULL){
+print(topOfStack)
+pushToStack(topOfStack.right) if not null
+pushToStack(topOfStack.left) if not null</t>
+  </si>
+  <si>
+    <t>WHILE(stack NOTEMPTY or root NOTNULL)[
+WHILE{
+    print(root) 
+    pushToStack(root.left) until root NOTNULL
+}
+root -&gt; topOfStack.right]</t>
+  </si>
+  <si>
+    <t>[Using 2 stacks]
+1. Push root to PROCESS_STACK.
+2. Loop while PROCESS_STACK is not empty
+   2.1 Pop a node from PROCESS_STACK and push it to VISITED_STACK
+   2.2 Push left and right children of the popped node to PROCESS_STACK.
+3. Print contents by popping from VISITED_STACK</t>
+  </si>
+  <si>
+    <t>n-ary tree postorder traversal (iterative)</t>
+  </si>
+  <si>
+    <t>morris inorder traversal</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/iterative-postorder-traversal-using-stack</t>
+  </si>
+  <si>
+    <t>iterative Pre,post,inorder in one program</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12aMTS0L6WI</t>
+  </si>
+  <si>
+    <t>using 3 states to remember the visits (ist time visit, 2nd time and 3rd time) [1 for pre, 2 fro inorder, 3 for postorder] simulation</t>
+  </si>
+  <si>
+    <t>if(state == 1) top.state++ &amp; addtoPreorderList(top) &amp; Push(top.left) if NOTNULL
+if(state == 2) top.state++ &amp; addtoInorderList(top) &amp; push(top.right) if NOTNULL
+if(state == 3) addtoPostorderList(top) &amp; pop(top)</t>
+  </si>
+  <si>
+    <t>[using 1 stack (V.IMP)] refer gfg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6143,6 +6200,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6206,7 +6282,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -6369,6 +6445,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6654,17 +6748,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S388"/>
+  <dimension ref="A1:S391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="186" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52" style="61" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="48.1640625" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" customWidth="1"/>
     <col min="6" max="6" width="43.1640625" customWidth="1"/>
@@ -6672,7 +6766,7 @@
     <col min="8" max="8" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
@@ -6696,7 +6790,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6714,7 +6808,7 @@
       </c>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28">
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
@@ -6740,7 +6834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="38" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>921</v>
       </c>
@@ -6760,7 +6854,7 @@
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
@@ -6780,7 +6874,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28">
       <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
@@ -6804,7 +6898,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="67" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>72</v>
       </c>
@@ -6822,7 +6916,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
@@ -6842,7 +6936,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>923</v>
       </c>
@@ -6856,7 +6950,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="58" customHeight="1">
       <c r="A10" s="48" t="s">
         <v>924</v>
       </c>
@@ -6872,7 +6966,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="28">
       <c r="A11" s="23" t="s">
         <v>38</v>
       </c>
@@ -6890,7 +6984,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="25" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -6906,7 +7000,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="29" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>616</v>
       </c>
@@ -6922,7 +7016,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>46</v>
       </c>
@@ -6936,7 +7030,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="60" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6958,7 +7052,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="22" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -6974,7 +7068,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="22" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>54</v>
       </c>
@@ -6994,7 +7088,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
         <v>59</v>
       </c>
@@ -7012,7 +7106,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="46" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>1085</v>
       </c>
@@ -7028,7 +7122,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>1084</v>
       </c>
@@ -7044,7 +7138,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>1083</v>
       </c>
@@ -7060,7 +7154,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>1052</v>
       </c>
@@ -7072,7 +7166,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="32" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>1087</v>
       </c>
@@ -7084,7 +7178,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="25" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>1086</v>
       </c>
@@ -7096,7 +7190,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="19" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>1053</v>
       </c>
@@ -7108,7 +7202,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>1054</v>
       </c>
@@ -7120,7 +7214,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="19" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>1055</v>
       </c>
@@ -7132,7 +7226,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>1056</v>
       </c>
@@ -7144,7 +7238,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="23" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>65</v>
       </c>
@@ -7162,7 +7256,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="42">
       <c r="A30" s="13" t="s">
         <v>68</v>
       </c>
@@ -7178,7 +7272,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="28">
       <c r="A31" s="23" t="s">
         <v>69</v>
       </c>
@@ -7192,7 +7286,7 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28">
       <c r="A32" s="13" t="s">
         <v>73</v>
       </c>
@@ -7210,7 +7304,7 @@
       </c>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="36" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>77</v>
       </c>
@@ -7228,7 +7322,7 @@
       </c>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
         <v>81</v>
       </c>
@@ -7244,7 +7338,7 @@
       </c>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="58" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>809</v>
       </c>
@@ -7262,7 +7356,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="28">
       <c r="A36" s="13" t="s">
         <v>86</v>
       </c>
@@ -7278,7 +7372,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="29" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>90</v>
       </c>
@@ -7294,7 +7388,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>811</v>
       </c>
@@ -7312,7 +7406,7 @@
       </c>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="25" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>930</v>
       </c>
@@ -7336,7 +7430,7 @@
       </c>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="23" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>101</v>
       </c>
@@ -7354,7 +7448,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="68" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>108</v>
       </c>
@@ -7374,7 +7468,7 @@
       </c>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="28">
       <c r="A42" s="13" t="s">
         <v>109</v>
       </c>
@@ -7388,7 +7482,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="56">
       <c r="A43" s="13" t="s">
         <v>670</v>
       </c>
@@ -7410,7 +7504,7 @@
       </c>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="29" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>685</v>
       </c>
@@ -7426,7 +7520,7 @@
       </c>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="56">
       <c r="A45" s="13" t="s">
         <v>113</v>
       </c>
@@ -7444,7 +7538,7 @@
       </c>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="56">
       <c r="A46" s="13" t="s">
         <v>814</v>
       </c>
@@ -7462,7 +7556,7 @@
       </c>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="86" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>815</v>
       </c>
@@ -7480,7 +7574,7 @@
       </c>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="43" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>122</v>
       </c>
@@ -7500,7 +7594,7 @@
       </c>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="50" customHeight="1">
       <c r="A49" s="23" t="s">
         <v>816</v>
       </c>
@@ -7518,7 +7612,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="46" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>817</v>
       </c>
@@ -7540,7 +7634,7 @@
       </c>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="42">
       <c r="A51" s="13" t="s">
         <v>935</v>
       </c>
@@ -7562,7 +7656,7 @@
       </c>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="51" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>141</v>
       </c>
@@ -7578,7 +7672,7 @@
       </c>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="60" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>818</v>
       </c>
@@ -7594,7 +7688,7 @@
       </c>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="45" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>145</v>
       </c>
@@ -7610,7 +7704,7 @@
       </c>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="29" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>819</v>
       </c>
@@ -7630,7 +7724,7 @@
       </c>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>820</v>
       </c>
@@ -7650,7 +7744,7 @@
       </c>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="71" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>821</v>
       </c>
@@ -7668,7 +7762,7 @@
       </c>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="38" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>936</v>
       </c>
@@ -7688,7 +7782,7 @@
       </c>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="28">
       <c r="A59" s="13" t="s">
         <v>159</v>
       </c>
@@ -7704,7 +7798,7 @@
       </c>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>823</v>
       </c>
@@ -7724,7 +7818,7 @@
       </c>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="53" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>824</v>
       </c>
@@ -7742,7 +7836,7 @@
       </c>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="24" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>168</v>
       </c>
@@ -7762,7 +7856,7 @@
       </c>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="24" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>172</v>
       </c>
@@ -7782,7 +7876,7 @@
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="75" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>938</v>
       </c>
@@ -7798,7 +7892,7 @@
       </c>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="31" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>180</v>
       </c>
@@ -7818,7 +7912,7 @@
       </c>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="41" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>825</v>
       </c>
@@ -7840,7 +7934,7 @@
       </c>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="36" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>191</v>
       </c>
@@ -7856,7 +7950,7 @@
       </c>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="19" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>196</v>
       </c>
@@ -7876,7 +7970,7 @@
       </c>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="26" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>197</v>
       </c>
@@ -7896,7 +7990,7 @@
       </c>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="48" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>939</v>
       </c>
@@ -7920,7 +8014,7 @@
       </c>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="22" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>207</v>
       </c>
@@ -7940,7 +8034,7 @@
       </c>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="38" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>940</v>
       </c>
@@ -7958,7 +8052,7 @@
       </c>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="46" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>941</v>
       </c>
@@ -7976,7 +8070,7 @@
       </c>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="28" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>826</v>
       </c>
@@ -7998,7 +8092,7 @@
       </c>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="29" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>224</v>
       </c>
@@ -8018,7 +8112,7 @@
       </c>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>942</v>
       </c>
@@ -8040,7 +8134,7 @@
       </c>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="42">
       <c r="A77" s="13" t="s">
         <v>237</v>
       </c>
@@ -8060,7 +8154,7 @@
       </c>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="27" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>238</v>
       </c>
@@ -8076,7 +8170,7 @@
       </c>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="26" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>241</v>
       </c>
@@ -8096,7 +8190,7 @@
       </c>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="125" customHeight="1">
       <c r="A80" s="32" t="s">
         <v>244</v>
       </c>
@@ -8118,7 +8212,7 @@
       </c>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="84" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>248</v>
       </c>
@@ -8142,7 +8236,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="53" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>611</v>
       </c>
@@ -8158,7 +8252,7 @@
       </c>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="29" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>256</v>
       </c>
@@ -8174,7 +8268,7 @@
       </c>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="47" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>260</v>
       </c>
@@ -8194,7 +8288,7 @@
       </c>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="76" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>264</v>
       </c>
@@ -8212,7 +8306,7 @@
       </c>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="129" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>267</v>
       </c>
@@ -8232,7 +8326,7 @@
       </c>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="36" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>946</v>
       </c>
@@ -8250,7 +8344,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="28">
       <c r="A88" s="13" t="s">
         <v>274</v>
       </c>
@@ -8268,7 +8362,7 @@
       </c>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="28">
       <c r="A89" s="13" t="s">
         <v>278</v>
       </c>
@@ -8290,7 +8384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="42" customHeight="1">
       <c r="A90" s="13" t="s">
         <v>281</v>
       </c>
@@ -8308,7 +8402,7 @@
       </c>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="40" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>288</v>
       </c>
@@ -8324,7 +8418,7 @@
       </c>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="28" customHeight="1">
       <c r="A92" s="13" t="s">
         <v>292</v>
       </c>
@@ -8344,7 +8438,7 @@
       </c>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="37" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>296</v>
       </c>
@@ -8364,7 +8458,7 @@
       </c>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="70">
       <c r="A94" s="13" t="s">
         <v>829</v>
       </c>
@@ -8382,7 +8476,7 @@
       </c>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="31" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>303</v>
       </c>
@@ -8400,7 +8494,7 @@
       </c>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="112">
       <c r="A96" s="13" t="s">
         <v>307</v>
       </c>
@@ -8420,7 +8514,7 @@
       </c>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="96" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>311</v>
       </c>
@@ -8442,7 +8536,7 @@
       </c>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="57" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>831</v>
       </c>
@@ -8460,7 +8554,7 @@
       </c>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="60" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>832</v>
       </c>
@@ -8478,7 +8572,7 @@
       </c>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="99" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>322</v>
       </c>
@@ -8496,7 +8590,7 @@
       </c>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="28">
       <c r="A101" s="13" t="s">
         <v>326</v>
       </c>
@@ -8518,7 +8612,7 @@
       </c>
       <c r="H101" s="19"/>
     </row>
-    <row r="102" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="53" customHeight="1">
       <c r="A102" s="13" t="s">
         <v>833</v>
       </c>
@@ -8538,7 +8632,7 @@
       </c>
       <c r="H102" s="19"/>
     </row>
-    <row r="103" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="38" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>834</v>
       </c>
@@ -8558,7 +8652,7 @@
       </c>
       <c r="H103" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="70">
       <c r="A104" s="13" t="s">
         <v>835</v>
       </c>
@@ -8576,7 +8670,7 @@
       </c>
       <c r="H104" s="19"/>
     </row>
-    <row r="105" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="22" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>343</v>
       </c>
@@ -8594,7 +8688,7 @@
       </c>
       <c r="H105" s="19"/>
     </row>
-    <row r="106" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="20" customHeight="1">
       <c r="A106" s="13" t="s">
         <v>346</v>
       </c>
@@ -8614,7 +8708,7 @@
       </c>
       <c r="H106" s="19"/>
     </row>
-    <row r="107" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="19" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>352</v>
       </c>
@@ -8630,7 +8724,7 @@
       </c>
       <c r="H107" s="19"/>
     </row>
-    <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="28">
       <c r="A108" s="13" t="s">
         <v>836</v>
       </c>
@@ -8650,7 +8744,7 @@
       </c>
       <c r="H108" s="19"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="13" t="s">
         <v>359</v>
       </c>
@@ -8668,7 +8762,7 @@
       </c>
       <c r="H109" s="19"/>
     </row>
-    <row r="110" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="27" customHeight="1">
       <c r="A110" s="13" t="s">
         <v>362</v>
       </c>
@@ -8684,7 +8778,7 @@
       </c>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="84">
       <c r="A111" s="13" t="s">
         <v>837</v>
       </c>
@@ -8702,7 +8796,7 @@
       </c>
       <c r="H111" s="19"/>
     </row>
-    <row r="112" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="39" customHeight="1">
       <c r="A112" s="13" t="s">
         <v>838</v>
       </c>
@@ -8718,7 +8812,7 @@
       </c>
       <c r="H112" s="19"/>
     </row>
-    <row r="113" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="65" customHeight="1">
       <c r="A113" s="13" t="s">
         <v>839</v>
       </c>
@@ -8734,7 +8828,7 @@
       </c>
       <c r="H113" s="19"/>
     </row>
-    <row r="114" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="37" customHeight="1">
       <c r="A114" s="13" t="s">
         <v>840</v>
       </c>
@@ -8754,7 +8848,7 @@
       </c>
       <c r="H114" s="19"/>
     </row>
-    <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="30" customHeight="1">
       <c r="A115" s="13" t="s">
         <v>841</v>
       </c>
@@ -8770,7 +8864,7 @@
       </c>
       <c r="H115" s="19"/>
     </row>
-    <row r="116" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="54" customHeight="1">
       <c r="A116" s="13" t="s">
         <v>842</v>
       </c>
@@ -8786,7 +8880,7 @@
       </c>
       <c r="H116" s="19"/>
     </row>
-    <row r="117" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="51" customHeight="1">
       <c r="A117" s="13" t="s">
         <v>949</v>
       </c>
@@ -8802,7 +8896,7 @@
       </c>
       <c r="H117" s="19"/>
     </row>
-    <row r="118" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A118" s="13" t="s">
         <v>843</v>
       </c>
@@ -8822,7 +8916,7 @@
       </c>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1">
       <c r="A119" s="13" t="s">
         <v>844</v>
       </c>
@@ -8840,7 +8934,7 @@
       </c>
       <c r="H119" s="19"/>
     </row>
-    <row r="120" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="28">
       <c r="A120" s="13" t="s">
         <v>612</v>
       </c>
@@ -8860,7 +8954,7 @@
       </c>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="28">
       <c r="A121" s="13" t="s">
         <v>392</v>
       </c>
@@ -8880,7 +8974,7 @@
       </c>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="28">
       <c r="A122" s="13" t="s">
         <v>397</v>
       </c>
@@ -8896,7 +8990,7 @@
       </c>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="84">
       <c r="A123" s="13" t="s">
         <v>845</v>
       </c>
@@ -8916,7 +9010,7 @@
       </c>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="69" customHeight="1">
       <c r="A124" s="13" t="s">
         <v>846</v>
       </c>
@@ -8934,7 +9028,7 @@
       </c>
       <c r="H124" s="19"/>
     </row>
-    <row r="125" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="42">
       <c r="A125" s="13" t="s">
         <v>405</v>
       </c>
@@ -8956,7 +9050,7 @@
       </c>
       <c r="H125" s="19"/>
     </row>
-    <row r="126" spans="1:13" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="83" customHeight="1">
       <c r="A126" s="13" t="s">
         <v>951</v>
       </c>
@@ -8981,7 +9075,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="98">
       <c r="A127" s="51" t="s">
         <v>954</v>
       </c>
@@ -9006,7 +9100,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" s="3" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A128" s="13" t="s">
         <v>847</v>
       </c>
@@ -9024,7 +9118,7 @@
       </c>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:19" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" s="3" customFormat="1" ht="84">
       <c r="A129" s="13" t="s">
         <v>848</v>
       </c>
@@ -9040,7 +9134,7 @@
       </c>
       <c r="H129" s="19"/>
     </row>
-    <row r="130" spans="1:19" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="49" customHeight="1">
       <c r="A130" s="13" t="s">
         <v>849</v>
       </c>
@@ -9064,7 +9158,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="28">
       <c r="A131" s="13" t="s">
         <v>428</v>
       </c>
@@ -9082,7 +9176,7 @@
       </c>
       <c r="H131" s="19"/>
     </row>
-    <row r="132" spans="1:19" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="37" customHeight="1">
       <c r="A132" s="32" t="s">
         <v>432</v>
       </c>
@@ -9105,7 +9199,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="51" customHeight="1">
       <c r="A133" s="13" t="s">
         <v>955</v>
       </c>
@@ -9123,7 +9217,7 @@
       </c>
       <c r="H133" s="19"/>
     </row>
-    <row r="134" spans="1:19" ht="70" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="70">
       <c r="A134" s="13" t="s">
         <v>850</v>
       </c>
@@ -9141,7 +9235,7 @@
       </c>
       <c r="H134" s="19"/>
     </row>
-    <row r="135" spans="1:19" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="59" customHeight="1">
       <c r="A135" s="13" t="s">
         <v>957</v>
       </c>
@@ -9161,7 +9255,7 @@
       </c>
       <c r="H135" s="19"/>
     </row>
-    <row r="136" spans="1:19" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="47" customHeight="1">
       <c r="A136" s="13" t="s">
         <v>851</v>
       </c>
@@ -9177,7 +9271,7 @@
       </c>
       <c r="H136" s="19"/>
     </row>
-    <row r="137" spans="1:19" ht="42" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="42">
       <c r="A137" s="13" t="s">
         <v>449</v>
       </c>
@@ -9193,7 +9287,7 @@
       </c>
       <c r="H137" s="19"/>
     </row>
-    <row r="138" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="66" customHeight="1">
       <c r="A138" s="13" t="s">
         <v>852</v>
       </c>
@@ -9213,7 +9307,7 @@
       </c>
       <c r="H138" s="19"/>
     </row>
-    <row r="139" spans="1:19" ht="56" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="56">
       <c r="A139" s="32" t="s">
         <v>455</v>
       </c>
@@ -9229,7 +9323,7 @@
       </c>
       <c r="H139" s="19"/>
     </row>
-    <row r="140" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="40" customHeight="1">
       <c r="A140" s="13" t="s">
         <v>959</v>
       </c>
@@ -9245,7 +9339,7 @@
       </c>
       <c r="H140" s="19"/>
     </row>
-    <row r="141" spans="1:19" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="55" customHeight="1">
       <c r="A141" s="13" t="s">
         <v>960</v>
       </c>
@@ -9265,7 +9359,7 @@
       </c>
       <c r="H141" s="19"/>
     </row>
-    <row r="142" spans="1:19" ht="56" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="56">
       <c r="A142" s="13" t="s">
         <v>461</v>
       </c>
@@ -9283,7 +9377,7 @@
       </c>
       <c r="H142" s="19"/>
     </row>
-    <row r="143" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="36" customHeight="1">
       <c r="A143" s="13" t="s">
         <v>465</v>
       </c>
@@ -9301,7 +9395,7 @@
       </c>
       <c r="H143" s="19"/>
     </row>
-    <row r="144" spans="1:19" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="46" customHeight="1">
       <c r="A144" s="13" t="s">
         <v>471</v>
       </c>
@@ -9323,7 +9417,7 @@
       </c>
       <c r="H144" s="19"/>
     </row>
-    <row r="145" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="41" customHeight="1">
       <c r="A145" s="13" t="s">
         <v>474</v>
       </c>
@@ -9343,7 +9437,7 @@
       </c>
       <c r="H145" s="19"/>
     </row>
-    <row r="146" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="64" customHeight="1">
       <c r="A146" s="13" t="s">
         <v>853</v>
       </c>
@@ -9361,7 +9455,7 @@
       </c>
       <c r="H146" s="19"/>
     </row>
-    <row r="147" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="48" customHeight="1">
       <c r="A147" s="13" t="s">
         <v>481</v>
       </c>
@@ -9379,7 +9473,7 @@
       </c>
       <c r="H147" s="19"/>
     </row>
-    <row r="148" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="71" customHeight="1">
       <c r="A148" s="13" t="s">
         <v>854</v>
       </c>
@@ -9399,7 +9493,7 @@
       </c>
       <c r="H148" s="19"/>
     </row>
-    <row r="149" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="22" customHeight="1">
       <c r="A149" s="33" t="s">
         <v>488</v>
       </c>
@@ -9415,7 +9509,7 @@
       </c>
       <c r="H149" s="19"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="13" t="s">
         <v>492</v>
       </c>
@@ -9433,7 +9527,7 @@
       </c>
       <c r="H150" s="19"/>
     </row>
-    <row r="151" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="43" customHeight="1">
       <c r="A151" s="13" t="s">
         <v>964</v>
       </c>
@@ -9451,7 +9545,7 @@
       </c>
       <c r="H151" s="19"/>
     </row>
-    <row r="152" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="79" customHeight="1">
       <c r="A152" s="13" t="s">
         <v>855</v>
       </c>
@@ -9467,7 +9561,7 @@
       </c>
       <c r="H152" s="19"/>
     </row>
-    <row r="153" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="32" customHeight="1">
       <c r="A153" s="13" t="s">
         <v>501</v>
       </c>
@@ -9483,7 +9577,7 @@
       </c>
       <c r="H153" s="19"/>
     </row>
-    <row r="154" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="45" customHeight="1">
       <c r="A154" s="13" t="s">
         <v>856</v>
       </c>
@@ -9501,7 +9595,7 @@
       </c>
       <c r="H154" s="19"/>
     </row>
-    <row r="155" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="28">
       <c r="A155" s="13" t="s">
         <v>505</v>
       </c>
@@ -9517,7 +9611,7 @@
       </c>
       <c r="H155" s="19"/>
     </row>
-    <row r="156" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="28">
       <c r="A156" s="13" t="s">
         <v>509</v>
       </c>
@@ -9535,7 +9629,7 @@
       </c>
       <c r="H156" s="19"/>
     </row>
-    <row r="157" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="54" customHeight="1">
       <c r="A157" s="13" t="s">
         <v>857</v>
       </c>
@@ -9551,7 +9645,7 @@
       </c>
       <c r="H157" s="19"/>
     </row>
-    <row r="158" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="56">
       <c r="A158" s="13" t="s">
         <v>513</v>
       </c>
@@ -9569,7 +9663,7 @@
       </c>
       <c r="H158" s="19"/>
     </row>
-    <row r="159" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="43" customHeight="1">
       <c r="A159" s="13" t="s">
         <v>858</v>
       </c>
@@ -9595,7 +9689,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="60" customHeight="1">
       <c r="A160" s="13" t="s">
         <v>859</v>
       </c>
@@ -9611,7 +9705,7 @@
       </c>
       <c r="H160" s="19"/>
     </row>
-    <row r="161" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="42">
       <c r="A161" s="33" t="s">
         <v>525</v>
       </c>
@@ -9627,7 +9721,7 @@
       </c>
       <c r="H161" s="19"/>
     </row>
-    <row r="162" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="28">
       <c r="A162" s="33" t="s">
         <v>613</v>
       </c>
@@ -9645,7 +9739,7 @@
       </c>
       <c r="H162" s="19"/>
     </row>
-    <row r="163" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="51" customHeight="1">
       <c r="A163" s="13" t="s">
         <v>860</v>
       </c>
@@ -9663,7 +9757,7 @@
       </c>
       <c r="H163" s="19"/>
     </row>
-    <row r="164" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="84" customHeight="1">
       <c r="A164" s="13" t="s">
         <v>861</v>
       </c>
@@ -9681,7 +9775,7 @@
       </c>
       <c r="H164" s="19"/>
     </row>
-    <row r="165" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="53" customHeight="1">
       <c r="A165" s="13" t="s">
         <v>966</v>
       </c>
@@ -9699,7 +9793,7 @@
       </c>
       <c r="H165" s="19"/>
     </row>
-    <row r="166" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
       <c r="A166" s="13" t="s">
         <v>862</v>
       </c>
@@ -9721,7 +9815,7 @@
       </c>
       <c r="H166" s="19"/>
     </row>
-    <row r="167" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="26" customHeight="1">
       <c r="A167" s="13" t="s">
         <v>545</v>
       </c>
@@ -9739,7 +9833,7 @@
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="42">
       <c r="A168" s="13" t="s">
         <v>548</v>
       </c>
@@ -9757,7 +9851,7 @@
       </c>
       <c r="H168" s="19"/>
     </row>
-    <row r="169" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="51" customHeight="1">
       <c r="A169" s="13" t="s">
         <v>863</v>
       </c>
@@ -9779,7 +9873,7 @@
       </c>
       <c r="H169" s="19"/>
     </row>
-    <row r="170" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="98">
       <c r="A170" s="13" t="s">
         <v>864</v>
       </c>
@@ -9799,7 +9893,7 @@
       </c>
       <c r="H170" s="19"/>
     </row>
-    <row r="171" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A171" s="13" t="s">
         <v>865</v>
       </c>
@@ -9821,7 +9915,7 @@
       </c>
       <c r="H171" s="19"/>
     </row>
-    <row r="172" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="34" customHeight="1">
       <c r="A172" s="13" t="s">
         <v>566</v>
       </c>
@@ -9837,7 +9931,7 @@
       </c>
       <c r="H172" s="19"/>
     </row>
-    <row r="173" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="51" customHeight="1">
       <c r="A173" s="13" t="s">
         <v>866</v>
       </c>
@@ -9853,7 +9947,7 @@
       </c>
       <c r="H173" s="19"/>
     </row>
-    <row r="174" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="28">
       <c r="A174" s="13" t="s">
         <v>570</v>
       </c>
@@ -9869,7 +9963,7 @@
       </c>
       <c r="H174" s="19"/>
     </row>
-    <row r="175" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="56">
       <c r="A175" s="13" t="s">
         <v>867</v>
       </c>
@@ -9891,7 +9985,7 @@
       </c>
       <c r="H175" s="19"/>
     </row>
-    <row r="176" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="35" customHeight="1">
       <c r="A176" s="33" t="s">
         <v>968</v>
       </c>
@@ -9909,7 +10003,7 @@
       </c>
       <c r="H176" s="19"/>
     </row>
-    <row r="177" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="40" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>579</v>
       </c>
@@ -9929,7 +10023,7 @@
       </c>
       <c r="H177" s="19"/>
     </row>
-    <row r="178" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="22" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>583</v>
       </c>
@@ -9949,7 +10043,7 @@
       </c>
       <c r="H178" s="19"/>
     </row>
-    <row r="179" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="70">
       <c r="A179" s="13" t="s">
         <v>868</v>
       </c>
@@ -9975,7 +10069,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="36" customHeight="1">
       <c r="A180" s="13" t="s">
         <v>974</v>
       </c>
@@ -9995,7 +10089,7 @@
       </c>
       <c r="H180" s="19"/>
     </row>
-    <row r="181" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="33" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>869</v>
       </c>
@@ -10017,7 +10111,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="22" customHeight="1">
       <c r="A182" s="13" t="s">
         <v>597</v>
       </c>
@@ -10033,7 +10127,7 @@
       </c>
       <c r="H182" s="19"/>
     </row>
-    <row r="183" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="28">
       <c r="A183" s="13" t="s">
         <v>870</v>
       </c>
@@ -10053,7 +10147,7 @@
       </c>
       <c r="H183" s="19"/>
     </row>
-    <row r="184" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="28">
       <c r="A184" s="13" t="s">
         <v>871</v>
       </c>
@@ -10069,7 +10163,7 @@
       </c>
       <c r="H184" s="19"/>
     </row>
-    <row r="185" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="84">
       <c r="A185" s="13" t="s">
         <v>975</v>
       </c>
@@ -10089,7 +10183,7 @@
       </c>
       <c r="H185" s="19"/>
     </row>
-    <row r="186" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="56">
       <c r="A186" s="13" t="s">
         <v>872</v>
       </c>
@@ -10105,7 +10199,7 @@
       </c>
       <c r="H186" s="19"/>
     </row>
-    <row r="187" spans="1:8" s="10" customFormat="1" ht="140" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" s="10" customFormat="1" ht="140">
       <c r="A187" s="13" t="s">
         <v>873</v>
       </c>
@@ -10125,7 +10219,7 @@
       </c>
       <c r="H187" s="19"/>
     </row>
-    <row r="188" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="84">
       <c r="A188" s="13" t="s">
         <v>624</v>
       </c>
@@ -10145,7 +10239,7 @@
       </c>
       <c r="H188" s="19"/>
     </row>
-    <row r="189" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="38" customHeight="1">
       <c r="A189" s="23" t="s">
         <v>626</v>
       </c>
@@ -10159,7 +10253,7 @@
       </c>
       <c r="H189" s="19"/>
     </row>
-    <row r="190" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="27" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>627</v>
       </c>
@@ -10177,7 +10271,7 @@
       </c>
       <c r="H190" s="19"/>
     </row>
-    <row r="191" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="50" customHeight="1">
       <c r="A191" s="13" t="s">
         <v>631</v>
       </c>
@@ -10195,7 +10289,7 @@
       </c>
       <c r="H191" s="19"/>
     </row>
-    <row r="192" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="37" customHeight="1">
       <c r="A192" s="13" t="s">
         <v>636</v>
       </c>
@@ -10213,7 +10307,7 @@
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
     </row>
-    <row r="193" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="36" customHeight="1">
       <c r="A193" s="13" t="s">
         <v>640</v>
       </c>
@@ -10229,7 +10323,7 @@
       </c>
       <c r="H193" s="36"/>
     </row>
-    <row r="194" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="144" customHeight="1">
       <c r="A194" s="13" t="s">
         <v>874</v>
       </c>
@@ -10247,7 +10341,7 @@
       </c>
       <c r="H194" s="36"/>
     </row>
-    <row r="195" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="70" customHeight="1">
       <c r="A195" s="13" t="s">
         <v>875</v>
       </c>
@@ -10263,7 +10357,7 @@
       </c>
       <c r="H195" s="36"/>
     </row>
-    <row r="196" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="65" customHeight="1">
       <c r="A196" s="13" t="s">
         <v>876</v>
       </c>
@@ -10281,7 +10375,7 @@
       </c>
       <c r="H196" s="36"/>
     </row>
-    <row r="197" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="90" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>877</v>
       </c>
@@ -10301,7 +10395,7 @@
       </c>
       <c r="H197" s="36"/>
     </row>
-    <row r="198" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="45" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>653</v>
       </c>
@@ -10319,7 +10413,7 @@
       <c r="G198" s="36"/>
       <c r="H198" s="36"/>
     </row>
-    <row r="199" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="54" customHeight="1">
       <c r="A199" s="13" t="s">
         <v>880</v>
       </c>
@@ -10339,7 +10433,7 @@
       </c>
       <c r="H199" s="36"/>
     </row>
-    <row r="200" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="57" customHeight="1">
       <c r="A200" s="13" t="s">
         <v>662</v>
       </c>
@@ -10353,7 +10447,7 @@
       <c r="G200" s="36"/>
       <c r="H200" s="36"/>
     </row>
-    <row r="201" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="63" customHeight="1">
       <c r="A201" s="14" t="s">
         <v>663</v>
       </c>
@@ -10373,7 +10467,7 @@
       </c>
       <c r="H201" s="36"/>
     </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1">
       <c r="A202" s="13" t="s">
         <v>881</v>
       </c>
@@ -10395,7 +10489,7 @@
       </c>
       <c r="H202" s="19"/>
     </row>
-    <row r="203" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="45" customHeight="1">
       <c r="A203" s="13" t="s">
         <v>671</v>
       </c>
@@ -10413,7 +10507,7 @@
       <c r="G203" s="36"/>
       <c r="H203" s="36"/>
     </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A204" s="13" t="s">
         <v>882</v>
       </c>
@@ -10429,7 +10523,7 @@
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
     </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" s="12" customFormat="1" ht="47" customHeight="1">
       <c r="A205" s="13" t="s">
         <v>883</v>
       </c>
@@ -10447,7 +10541,7 @@
       </c>
       <c r="H205" s="39"/>
     </row>
-    <row r="206" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="63" customHeight="1">
       <c r="A206" s="13" t="s">
         <v>884</v>
       </c>
@@ -10467,7 +10561,7 @@
       </c>
       <c r="H206" s="36"/>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1">
       <c r="A207" s="13" t="s">
         <v>885</v>
       </c>
@@ -10487,7 +10581,7 @@
       </c>
       <c r="H207" s="36"/>
     </row>
-    <row r="208" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="61" customHeight="1">
       <c r="A208" s="13" t="s">
         <v>979</v>
       </c>
@@ -10507,7 +10601,7 @@
       </c>
       <c r="H208" s="19"/>
     </row>
-    <row r="209" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="76" customHeight="1">
       <c r="A209" s="13" t="s">
         <v>891</v>
       </c>
@@ -10521,7 +10615,7 @@
       </c>
       <c r="H209" s="36"/>
     </row>
-    <row r="210" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="79" customHeight="1">
       <c r="A210" s="13" t="s">
         <v>893</v>
       </c>
@@ -10541,7 +10635,7 @@
       </c>
       <c r="H210" s="36"/>
     </row>
-    <row r="211" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="43" customHeight="1">
       <c r="A211" s="14" t="s">
         <v>894</v>
       </c>
@@ -10557,7 +10651,7 @@
       </c>
       <c r="H211" s="36"/>
     </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A212" s="13" t="s">
         <v>887</v>
       </c>
@@ -10571,7 +10665,7 @@
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
     </row>
-    <row r="213" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="95" customHeight="1">
       <c r="A213" s="13" t="s">
         <v>888</v>
       </c>
@@ -10587,7 +10681,7 @@
       </c>
       <c r="H213" s="36"/>
     </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A214" s="13" t="s">
         <v>683</v>
       </c>
@@ -10601,7 +10695,7 @@
       </c>
       <c r="H214" s="19"/>
     </row>
-    <row r="215" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="63" customHeight="1">
       <c r="A215" s="13" t="s">
         <v>889</v>
       </c>
@@ -10615,7 +10709,7 @@
       </c>
       <c r="H215" s="36"/>
     </row>
-    <row r="216" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="38" customHeight="1">
       <c r="A216" s="14" t="s">
         <v>698</v>
       </c>
@@ -10629,7 +10723,7 @@
       </c>
       <c r="H216" s="36"/>
     </row>
-    <row r="217" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="38" customHeight="1">
       <c r="A217" s="14" t="s">
         <v>699</v>
       </c>
@@ -10643,7 +10737,7 @@
       </c>
       <c r="H217" s="36"/>
     </row>
-    <row r="218" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="44" customHeight="1">
       <c r="A218" s="13" t="s">
         <v>892</v>
       </c>
@@ -10657,7 +10751,7 @@
       </c>
       <c r="H218" s="36"/>
     </row>
-    <row r="219" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="70" customHeight="1">
       <c r="A219" s="13" t="s">
         <v>895</v>
       </c>
@@ -10671,7 +10765,7 @@
       </c>
       <c r="H219" s="36"/>
     </row>
-    <row r="220" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="71" customHeight="1">
       <c r="A220" s="13" t="s">
         <v>896</v>
       </c>
@@ -10691,7 +10785,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="76" customHeight="1">
       <c r="A221" s="13" t="s">
         <v>898</v>
       </c>
@@ -10705,7 +10799,7 @@
       </c>
       <c r="H221" s="36"/>
     </row>
-    <row r="222" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="71" customHeight="1">
       <c r="A222" s="13" t="s">
         <v>899</v>
       </c>
@@ -10719,7 +10813,7 @@
       </c>
       <c r="H222" s="36"/>
     </row>
-    <row r="223" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="96" customHeight="1">
       <c r="A223" s="13" t="s">
         <v>900</v>
       </c>
@@ -10735,7 +10829,7 @@
       </c>
       <c r="H223" s="36"/>
     </row>
-    <row r="224" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="70" customHeight="1">
       <c r="A224" s="13" t="s">
         <v>901</v>
       </c>
@@ -10749,7 +10843,7 @@
       </c>
       <c r="H224" s="36"/>
     </row>
-    <row r="225" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="60" customHeight="1">
       <c r="A225" s="13" t="s">
         <v>902</v>
       </c>
@@ -10763,7 +10857,7 @@
       </c>
       <c r="H225" s="36"/>
     </row>
-    <row r="226" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="62" customHeight="1">
       <c r="A226" s="13" t="s">
         <v>720</v>
       </c>
@@ -10777,7 +10871,7 @@
       </c>
       <c r="H226" s="36"/>
     </row>
-    <row r="227" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="58" customHeight="1">
       <c r="A227" s="13" t="s">
         <v>721</v>
       </c>
@@ -10791,7 +10885,7 @@
       </c>
       <c r="H227" s="36"/>
     </row>
-    <row r="228" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="53" customHeight="1">
       <c r="A228" s="13" t="s">
         <v>722</v>
       </c>
@@ -10805,7 +10899,7 @@
       </c>
       <c r="H228" s="36"/>
     </row>
-    <row r="229" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="68" customHeight="1">
       <c r="A229" s="13" t="s">
         <v>903</v>
       </c>
@@ -10819,7 +10913,7 @@
       </c>
       <c r="H229" s="36"/>
     </row>
-    <row r="230" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="70" customHeight="1">
       <c r="A230" s="13" t="s">
         <v>904</v>
       </c>
@@ -10833,7 +10927,7 @@
       </c>
       <c r="H230" s="36"/>
     </row>
-    <row r="231" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="69" customHeight="1">
       <c r="A231" s="13" t="s">
         <v>905</v>
       </c>
@@ -10849,7 +10943,7 @@
       </c>
       <c r="H231" s="36"/>
     </row>
-    <row r="232" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="44" customHeight="1">
       <c r="A232" s="13" t="s">
         <v>906</v>
       </c>
@@ -10863,7 +10957,7 @@
       </c>
       <c r="H232" s="36"/>
     </row>
-    <row r="233" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="79" customHeight="1">
       <c r="A233" s="13" t="s">
         <v>907</v>
       </c>
@@ -10879,7 +10973,7 @@
       </c>
       <c r="H233" s="36"/>
     </row>
-    <row r="234" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="63" customHeight="1">
       <c r="A234" s="33" t="s">
         <v>1071</v>
       </c>
@@ -10895,7 +10989,7 @@
       </c>
       <c r="H234" s="36"/>
     </row>
-    <row r="235" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="56" customHeight="1">
       <c r="A235" s="33" t="s">
         <v>908</v>
       </c>
@@ -10909,7 +11003,7 @@
       </c>
       <c r="H235" s="36"/>
     </row>
-    <row r="236" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="65" customHeight="1">
       <c r="A236" s="13" t="s">
         <v>909</v>
       </c>
@@ -10927,7 +11021,7 @@
       </c>
       <c r="H236" s="36"/>
     </row>
-    <row r="237" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="84" customHeight="1">
       <c r="A237" s="13" t="s">
         <v>910</v>
       </c>
@@ -10941,7 +11035,7 @@
       </c>
       <c r="H237" s="36"/>
     </row>
-    <row r="238" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="43" customHeight="1">
       <c r="A238" s="14" t="s">
         <v>739</v>
       </c>
@@ -10955,7 +11049,7 @@
       </c>
       <c r="H238" s="36"/>
     </row>
-    <row r="239" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="79" customHeight="1">
       <c r="A239" s="13" t="s">
         <v>911</v>
       </c>
@@ -10969,7 +11063,7 @@
       </c>
       <c r="H239" s="36"/>
     </row>
-    <row r="240" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="46" customHeight="1">
       <c r="A240" s="14" t="s">
         <v>742</v>
       </c>
@@ -10983,7 +11077,7 @@
       </c>
       <c r="H240" s="36"/>
     </row>
-    <row r="241" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="93" customHeight="1">
       <c r="A241" s="13" t="s">
         <v>912</v>
       </c>
@@ -10999,7 +11093,7 @@
       </c>
       <c r="H241" s="36"/>
     </row>
-    <row r="242" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="57" customHeight="1">
       <c r="A242" s="13" t="s">
         <v>913</v>
       </c>
@@ -11013,7 +11107,7 @@
       </c>
       <c r="H242" s="36"/>
     </row>
-    <row r="243" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="74" customHeight="1">
       <c r="A243" s="13" t="s">
         <v>914</v>
       </c>
@@ -11027,7 +11121,7 @@
       </c>
       <c r="H243" s="36"/>
     </row>
-    <row r="244" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="38" customHeight="1">
       <c r="A244" s="43" t="s">
         <v>748</v>
       </c>
@@ -11041,7 +11135,7 @@
       </c>
       <c r="H244" s="36"/>
     </row>
-    <row r="245" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="51" customHeight="1">
       <c r="A245" s="14" t="s">
         <v>750</v>
       </c>
@@ -11055,7 +11149,7 @@
       <c r="G245" s="36"/>
       <c r="H245" s="36"/>
     </row>
-    <row r="246" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="55" customHeight="1">
       <c r="A246" s="13" t="s">
         <v>1063</v>
       </c>
@@ -11075,7 +11169,7 @@
       </c>
       <c r="H246" s="45"/>
     </row>
-    <row r="247" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="71" customHeight="1">
       <c r="A247" s="13" t="s">
         <v>1064</v>
       </c>
@@ -11093,7 +11187,7 @@
       </c>
       <c r="H247" s="45"/>
     </row>
-    <row r="248" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="43" customHeight="1">
       <c r="A248" s="13" t="s">
         <v>1065</v>
       </c>
@@ -11113,7 +11207,7 @@
       </c>
       <c r="H248" s="45"/>
     </row>
-    <row r="249" spans="1:8" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="97" customHeight="1">
       <c r="A249" s="13" t="s">
         <v>765</v>
       </c>
@@ -11133,7 +11227,7 @@
       </c>
       <c r="H249" s="45"/>
     </row>
-    <row r="250" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="63" customHeight="1">
       <c r="A250" s="13" t="s">
         <v>1066</v>
       </c>
@@ -11151,7 +11245,7 @@
       </c>
       <c r="H250" s="45"/>
     </row>
-    <row r="251" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="57" customHeight="1">
       <c r="A251" s="13" t="s">
         <v>1067</v>
       </c>
@@ -11169,7 +11263,7 @@
       </c>
       <c r="H251" s="45"/>
     </row>
-    <row r="252" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="69" customHeight="1">
       <c r="A252" s="13" t="s">
         <v>917</v>
       </c>
@@ -11193,7 +11287,7 @@
       </c>
       <c r="H252" s="45"/>
     </row>
-    <row r="253" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="101" customHeight="1">
       <c r="A253" s="13" t="s">
         <v>1068</v>
       </c>
@@ -11213,7 +11307,7 @@
       </c>
       <c r="H253" s="45"/>
     </row>
-    <row r="254" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1">
       <c r="A254" s="13" t="s">
         <v>1069</v>
       </c>
@@ -11235,7 +11329,7 @@
       </c>
       <c r="H254" s="44"/>
     </row>
-    <row r="255" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
       <c r="A255" s="13" t="s">
         <v>1070</v>
       </c>
@@ -11253,7 +11347,7 @@
       </c>
       <c r="H255" s="44"/>
     </row>
-    <row r="256" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="75" customHeight="1">
       <c r="A256" s="13" t="s">
         <v>802</v>
       </c>
@@ -11269,7 +11363,7 @@
       </c>
       <c r="H256" s="45"/>
     </row>
-    <row r="257" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1">
       <c r="A257" s="13" t="s">
         <v>803</v>
       </c>
@@ -11285,7 +11379,7 @@
       </c>
       <c r="H257" s="44"/>
     </row>
-    <row r="258" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A258" s="14" t="s">
         <v>804</v>
       </c>
@@ -11301,7 +11395,7 @@
       </c>
       <c r="H258" s="46"/>
     </row>
-    <row r="259" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="48" customHeight="1">
       <c r="A259" s="13" t="s">
         <v>805</v>
       </c>
@@ -11319,7 +11413,7 @@
       </c>
       <c r="H259" s="36"/>
     </row>
-    <row r="260" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1">
       <c r="A260" s="13" t="s">
         <v>806</v>
       </c>
@@ -11339,7 +11433,7 @@
       </c>
       <c r="H260" s="44"/>
     </row>
-    <row r="261" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1">
       <c r="A261" s="13" t="s">
         <v>1073</v>
       </c>
@@ -11357,7 +11451,7 @@
       </c>
       <c r="H261" s="50"/>
     </row>
-    <row r="262" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="43" customHeight="1">
       <c r="A262" s="13" t="s">
         <v>982</v>
       </c>
@@ -11369,7 +11463,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="36" customHeight="1">
       <c r="A263" s="13" t="s">
         <v>980</v>
       </c>
@@ -11381,7 +11475,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="46" customHeight="1">
       <c r="A264" s="13" t="s">
         <v>981</v>
       </c>
@@ -11393,7 +11487,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="30" customHeight="1">
       <c r="A265" s="13" t="s">
         <v>983</v>
       </c>
@@ -11405,7 +11499,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="25" customHeight="1">
       <c r="A266" s="14" t="s">
         <v>984</v>
       </c>
@@ -11417,7 +11511,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="39" customHeight="1">
       <c r="A267" s="13" t="s">
         <v>985</v>
       </c>
@@ -11429,7 +11523,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="29" customHeight="1">
       <c r="A268" s="14" t="s">
         <v>986</v>
       </c>
@@ -11441,7 +11535,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="23" customHeight="1">
       <c r="A269" s="14" t="s">
         <v>987</v>
       </c>
@@ -11453,7 +11547,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="22" customHeight="1">
       <c r="A270" s="14" t="s">
         <v>988</v>
       </c>
@@ -11465,7 +11559,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A271" s="14" t="s">
         <v>989</v>
       </c>
@@ -11477,7 +11571,7 @@
       <c r="G271" s="50"/>
       <c r="H271" s="50"/>
     </row>
-    <row r="272" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A272" s="14" t="s">
         <v>990</v>
       </c>
@@ -11489,7 +11583,7 @@
       <c r="G272" s="50"/>
       <c r="H272" s="50"/>
     </row>
-    <row r="273" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A273" s="14" t="s">
         <v>991</v>
       </c>
@@ -11501,7 +11595,7 @@
       <c r="G273" s="50"/>
       <c r="H273" s="50"/>
     </row>
-    <row r="274" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A274" s="14" t="s">
         <v>992</v>
       </c>
@@ -11515,7 +11609,7 @@
       <c r="G274" s="50"/>
       <c r="H274" s="50"/>
     </row>
-    <row r="275" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A275" s="14" t="s">
         <v>994</v>
       </c>
@@ -11527,7 +11621,7 @@
       <c r="G275" s="50"/>
       <c r="H275" s="50"/>
     </row>
-    <row r="276" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A276" s="14" t="s">
         <v>995</v>
       </c>
@@ -11539,7 +11633,7 @@
       <c r="G276" s="50"/>
       <c r="H276" s="50"/>
     </row>
-    <row r="277" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A277" s="14" t="s">
         <v>996</v>
       </c>
@@ -11551,7 +11645,7 @@
       <c r="G277" s="50"/>
       <c r="H277" s="50"/>
     </row>
-    <row r="278" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A278" s="14" t="s">
         <v>997</v>
       </c>
@@ -11565,7 +11659,7 @@
       <c r="G278" s="50"/>
       <c r="H278" s="50"/>
     </row>
-    <row r="279" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A279" s="14" t="s">
         <v>999</v>
       </c>
@@ -11577,7 +11671,7 @@
       <c r="G279" s="50"/>
       <c r="H279" s="50"/>
     </row>
-    <row r="280" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A280" s="14" t="s">
         <v>1000</v>
       </c>
@@ -11589,7 +11683,7 @@
       <c r="G280" s="50"/>
       <c r="H280" s="50"/>
     </row>
-    <row r="281" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
       <c r="A281" s="14" t="s">
         <v>1001</v>
       </c>
@@ -11601,7 +11695,7 @@
       <c r="G281" s="50"/>
       <c r="H281" s="50"/>
     </row>
-    <row r="282" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A282" s="14" t="s">
         <v>1002</v>
       </c>
@@ -11613,7 +11707,7 @@
       <c r="G282" s="50"/>
       <c r="H282" s="50"/>
     </row>
-    <row r="283" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A283" s="14" t="s">
         <v>1003</v>
       </c>
@@ -11625,7 +11719,7 @@
       <c r="G283" s="50"/>
       <c r="H283" s="50"/>
     </row>
-    <row r="284" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A284" s="14" t="s">
         <v>1004</v>
       </c>
@@ -11637,7 +11731,7 @@
       <c r="G284" s="50"/>
       <c r="H284" s="50"/>
     </row>
-    <row r="285" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A285" s="14" t="s">
         <v>1005</v>
       </c>
@@ -11649,7 +11743,7 @@
       <c r="G285" s="50"/>
       <c r="H285" s="50"/>
     </row>
-    <row r="286" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A286" s="14" t="s">
         <v>1006</v>
       </c>
@@ -11661,7 +11755,7 @@
       <c r="G286" s="50"/>
       <c r="H286" s="50"/>
     </row>
-    <row r="287" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A287" s="14" t="s">
         <v>1007</v>
       </c>
@@ -11673,7 +11767,7 @@
       <c r="G287" s="50"/>
       <c r="H287" s="50"/>
     </row>
-    <row r="288" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A288" s="14" t="s">
         <v>1008</v>
       </c>
@@ -11685,7 +11779,7 @@
       <c r="G288" s="50"/>
       <c r="H288" s="50"/>
     </row>
-    <row r="289" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A289" s="14" t="s">
         <v>1009</v>
       </c>
@@ -11697,59 +11791,79 @@
       <c r="G289" s="50"/>
       <c r="H289" s="50"/>
     </row>
-    <row r="290" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" s="59" customFormat="1" ht="53" customHeight="1">
       <c r="A290" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B290" s="58"/>
-      <c r="C290" s="50"/>
+        <v>1011</v>
+      </c>
+      <c r="B290" s="64" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C290" s="65"/>
       <c r="D290" s="50"/>
       <c r="E290" s="50"/>
       <c r="F290" s="50"/>
-      <c r="G290" s="50"/>
+      <c r="G290" s="6" t="s">
+        <v>1093</v>
+      </c>
       <c r="H290" s="50"/>
     </row>
-    <row r="291" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" s="59" customFormat="1" ht="71" customHeight="1">
       <c r="A291" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B291" s="58"/>
-      <c r="C291" s="50"/>
+        <v>1012</v>
+      </c>
+      <c r="B291" s="64" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C291" s="66" t="s">
+        <v>1095</v>
+      </c>
       <c r="D291" s="50"/>
       <c r="E291" s="50"/>
       <c r="F291" s="50"/>
       <c r="G291" s="50"/>
       <c r="H291" s="50"/>
     </row>
-    <row r="292" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" s="59" customFormat="1" ht="74" customHeight="1">
       <c r="A292" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B292" s="58"/>
-      <c r="C292" s="50"/>
+        <v>1010</v>
+      </c>
+      <c r="B292" s="64" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C292" s="67" t="s">
+        <v>1105</v>
+      </c>
       <c r="D292" s="50"/>
       <c r="E292" s="50"/>
       <c r="F292" s="50"/>
-      <c r="G292" s="50"/>
+      <c r="G292" s="50" t="s">
+        <v>1100</v>
+      </c>
       <c r="H292" s="50"/>
     </row>
-    <row r="293" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B293" s="58"/>
-      <c r="C293" s="50"/>
+    <row r="293" spans="1:8" s="59" customFormat="1" ht="74" customHeight="1">
+      <c r="A293" s="68" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C293" s="69" t="s">
+        <v>1104</v>
+      </c>
       <c r="D293" s="50"/>
       <c r="E293" s="50"/>
       <c r="F293" s="50"/>
-      <c r="G293" s="50"/>
+      <c r="G293" s="56" t="s">
+        <v>1102</v>
+      </c>
       <c r="H293" s="50"/>
     </row>
-    <row r="294" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" s="59" customFormat="1" ht="34" customHeight="1">
       <c r="A294" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B294" s="58"/>
+        <v>1099</v>
+      </c>
+      <c r="B294" s="64"/>
       <c r="C294" s="50"/>
       <c r="D294" s="50"/>
       <c r="E294" s="50"/>
@@ -11757,11 +11871,11 @@
       <c r="G294" s="50"/>
       <c r="H294" s="50"/>
     </row>
-    <row r="295" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" s="59" customFormat="1" ht="43" customHeight="1">
       <c r="A295" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B295" s="58"/>
+        <v>1098</v>
+      </c>
+      <c r="B295" s="64"/>
       <c r="C295" s="50"/>
       <c r="D295" s="50"/>
       <c r="E295" s="50"/>
@@ -11769,9 +11883,9 @@
       <c r="G295" s="50"/>
       <c r="H295" s="50"/>
     </row>
-    <row r="296" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A296" s="14" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B296" s="58"/>
       <c r="C296" s="50"/>
@@ -11781,9 +11895,9 @@
       <c r="G296" s="50"/>
       <c r="H296" s="50"/>
     </row>
-    <row r="297" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A297" s="14" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B297" s="58"/>
       <c r="C297" s="50"/>
@@ -11793,9 +11907,9 @@
       <c r="G297" s="50"/>
       <c r="H297" s="50"/>
     </row>
-    <row r="298" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A298" s="14" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B298" s="58"/>
       <c r="C298" s="50"/>
@@ -11805,9 +11919,9 @@
       <c r="G298" s="50"/>
       <c r="H298" s="50"/>
     </row>
-    <row r="299" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A299" s="14" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B299" s="58"/>
       <c r="C299" s="50"/>
@@ -11817,9 +11931,9 @@
       <c r="G299" s="50"/>
       <c r="H299" s="50"/>
     </row>
-    <row r="300" spans="1:8" s="59" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="13" t="s">
-        <v>1020</v>
+    <row r="300" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
+      <c r="A300" s="14" t="s">
+        <v>1017</v>
       </c>
       <c r="B300" s="58"/>
       <c r="C300" s="50"/>
@@ -11829,9 +11943,9 @@
       <c r="G300" s="50"/>
       <c r="H300" s="50"/>
     </row>
-    <row r="301" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A301" s="14" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B301" s="58"/>
       <c r="C301" s="50"/>
@@ -11841,9 +11955,9 @@
       <c r="G301" s="50"/>
       <c r="H301" s="50"/>
     </row>
-    <row r="302" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A302" s="14" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B302" s="58"/>
       <c r="C302" s="50"/>
@@ -11853,9 +11967,9 @@
       <c r="G302" s="50"/>
       <c r="H302" s="50"/>
     </row>
-    <row r="303" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="14" t="s">
-        <v>1023</v>
+    <row r="303" spans="1:8" s="59" customFormat="1" ht="47" customHeight="1">
+      <c r="A303" s="13" t="s">
+        <v>1020</v>
       </c>
       <c r="B303" s="58"/>
       <c r="C303" s="50"/>
@@ -11865,9 +11979,9 @@
       <c r="G303" s="50"/>
       <c r="H303" s="50"/>
     </row>
-    <row r="304" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A304" s="14" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B304" s="58"/>
       <c r="C304" s="50"/>
@@ -11877,9 +11991,9 @@
       <c r="G304" s="50"/>
       <c r="H304" s="50"/>
     </row>
-    <row r="305" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A305" s="14" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B305" s="58"/>
       <c r="C305" s="50"/>
@@ -11889,9 +12003,9 @@
       <c r="G305" s="50"/>
       <c r="H305" s="50"/>
     </row>
-    <row r="306" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A306" s="14" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B306" s="58"/>
       <c r="C306" s="50"/>
@@ -11901,9 +12015,9 @@
       <c r="G306" s="50"/>
       <c r="H306" s="50"/>
     </row>
-    <row r="307" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A307" s="14" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B307" s="58"/>
       <c r="C307" s="50"/>
@@ -11913,9 +12027,9 @@
       <c r="G307" s="50"/>
       <c r="H307" s="50"/>
     </row>
-    <row r="308" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A308" s="14" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B308" s="58"/>
       <c r="C308" s="50"/>
@@ -11925,9 +12039,9 @@
       <c r="G308" s="50"/>
       <c r="H308" s="50"/>
     </row>
-    <row r="309" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A309" s="14" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B309" s="58"/>
       <c r="C309" s="50"/>
@@ -11937,9 +12051,9 @@
       <c r="G309" s="50"/>
       <c r="H309" s="50"/>
     </row>
-    <row r="310" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A310" s="14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B310" s="58"/>
       <c r="C310" s="50"/>
@@ -11949,9 +12063,9 @@
       <c r="G310" s="50"/>
       <c r="H310" s="50"/>
     </row>
-    <row r="311" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
       <c r="A311" s="14" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B311" s="58"/>
       <c r="C311" s="50"/>
@@ -11961,9 +12075,9 @@
       <c r="G311" s="50"/>
       <c r="H311" s="50"/>
     </row>
-    <row r="312" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="14" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B312" s="58"/>
       <c r="C312" s="50"/>
@@ -11973,9 +12087,9 @@
       <c r="G312" s="50"/>
       <c r="H312" s="50"/>
     </row>
-    <row r="313" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="14" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B313" s="58"/>
       <c r="C313" s="50"/>
@@ -11985,9 +12099,9 @@
       <c r="G313" s="50"/>
       <c r="H313" s="50"/>
     </row>
-    <row r="314" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="14" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B314" s="58"/>
       <c r="C314" s="50"/>
@@ -11997,9 +12111,9 @@
       <c r="G314" s="50"/>
       <c r="H314" s="50"/>
     </row>
-    <row r="315" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="14" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B315" s="58"/>
       <c r="C315" s="50"/>
@@ -12009,9 +12123,9 @@
       <c r="G315" s="50"/>
       <c r="H315" s="50"/>
     </row>
-    <row r="316" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="14" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B316" s="58"/>
       <c r="C316" s="50"/>
@@ -12021,9 +12135,9 @@
       <c r="G316" s="50"/>
       <c r="H316" s="50"/>
     </row>
-    <row r="317" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B317" s="58"/>
       <c r="C317" s="50"/>
@@ -12033,9 +12147,9 @@
       <c r="G317" s="50"/>
       <c r="H317" s="50"/>
     </row>
-    <row r="318" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B318" s="58"/>
       <c r="C318" s="50"/>
@@ -12045,9 +12159,9 @@
       <c r="G318" s="50"/>
       <c r="H318" s="50"/>
     </row>
-    <row r="319" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="14" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B319" s="58"/>
       <c r="C319" s="50"/>
@@ -12057,9 +12171,9 @@
       <c r="G319" s="50"/>
       <c r="H319" s="50"/>
     </row>
-    <row r="320" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="14" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B320" s="58"/>
       <c r="C320" s="50"/>
@@ -12069,9 +12183,9 @@
       <c r="G320" s="50"/>
       <c r="H320" s="50"/>
     </row>
-    <row r="321" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B321" s="58"/>
       <c r="C321" s="50"/>
@@ -12081,9 +12195,9 @@
       <c r="G321" s="50"/>
       <c r="H321" s="50"/>
     </row>
-    <row r="322" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B322" s="58"/>
       <c r="C322" s="50"/>
@@ -12093,9 +12207,9 @@
       <c r="G322" s="50"/>
       <c r="H322" s="50"/>
     </row>
-    <row r="323" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="14" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B323" s="58"/>
       <c r="C323" s="50"/>
@@ -12105,9 +12219,9 @@
       <c r="G323" s="50"/>
       <c r="H323" s="50"/>
     </row>
-    <row r="324" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="14" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B324" s="58"/>
       <c r="C324" s="50"/>
@@ -12117,9 +12231,9 @@
       <c r="G324" s="50"/>
       <c r="H324" s="50"/>
     </row>
-    <row r="325" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="14" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B325" s="58"/>
       <c r="C325" s="50"/>
@@ -12129,9 +12243,9 @@
       <c r="G325" s="50"/>
       <c r="H325" s="50"/>
     </row>
-    <row r="326" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="14" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B326" s="58"/>
       <c r="C326" s="50"/>
@@ -12141,9 +12255,9 @@
       <c r="G326" s="50"/>
       <c r="H326" s="50"/>
     </row>
-    <row r="327" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="14" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B327" s="58"/>
       <c r="C327" s="50"/>
@@ -12153,9 +12267,9 @@
       <c r="G327" s="50"/>
       <c r="H327" s="50"/>
     </row>
-    <row r="328" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="14" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B328" s="58"/>
       <c r="C328" s="50"/>
@@ -12165,9 +12279,9 @@
       <c r="G328" s="50"/>
       <c r="H328" s="50"/>
     </row>
-    <row r="329" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="14" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B329" s="58"/>
       <c r="C329" s="50"/>
@@ -12177,9 +12291,9 @@
       <c r="G329" s="50"/>
       <c r="H329" s="50"/>
     </row>
-    <row r="330" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="14" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B330" s="58"/>
       <c r="C330" s="50"/>
@@ -12189,9 +12303,9 @@
       <c r="G330" s="50"/>
       <c r="H330" s="50"/>
     </row>
-    <row r="331" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="14" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B331" s="58"/>
       <c r="C331" s="50"/>
@@ -12201,9 +12315,9 @@
       <c r="G331" s="50"/>
       <c r="H331" s="50"/>
     </row>
-    <row r="332" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="14" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B332" s="58"/>
       <c r="C332" s="50"/>
@@ -12213,9 +12327,9 @@
       <c r="G332" s="50"/>
       <c r="H332" s="50"/>
     </row>
-    <row r="333" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="14" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="B333" s="58"/>
       <c r="C333" s="50"/>
@@ -12225,45 +12339,45 @@
       <c r="G333" s="50"/>
       <c r="H333" s="50"/>
     </row>
-    <row r="334" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A334" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B334" s="58"/>
+      <c r="C334" s="50"/>
+      <c r="D334" s="50"/>
+      <c r="E334" s="50"/>
+      <c r="F334" s="50"/>
+      <c r="G334" s="50"/>
+      <c r="H334" s="50"/>
+    </row>
+    <row r="335" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
+      <c r="A335" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B335" s="58"/>
+      <c r="C335" s="50"/>
+      <c r="D335" s="50"/>
+      <c r="E335" s="50"/>
+      <c r="F335" s="50"/>
+      <c r="G335" s="50"/>
+      <c r="H335" s="50"/>
+    </row>
+    <row r="336" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
+      <c r="A336" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B336" s="58"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="50"/>
+      <c r="E336" s="50"/>
+      <c r="F336" s="50"/>
+      <c r="G336" s="50"/>
+      <c r="H336" s="50"/>
+    </row>
+    <row r="337" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+      <c r="A337" s="14" t="s">
         <v>1059</v>
-      </c>
-      <c r="B334" s="35"/>
-      <c r="C334" s="37"/>
-      <c r="D334" s="37"/>
-      <c r="E334" s="37"/>
-      <c r="F334" s="37"/>
-      <c r="G334" s="37"/>
-      <c r="H334" s="37"/>
-    </row>
-    <row r="335" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="14" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B335" s="35"/>
-      <c r="C335" s="37"/>
-      <c r="D335" s="37"/>
-      <c r="E335" s="37"/>
-      <c r="F335" s="37"/>
-      <c r="G335" s="37"/>
-      <c r="H335" s="37"/>
-    </row>
-    <row r="336" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B336" s="35"/>
-      <c r="C336" s="37"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="37"/>
-      <c r="G336" s="37"/>
-      <c r="H336" s="37"/>
-    </row>
-    <row r="337" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="14" t="s">
-        <v>1062</v>
       </c>
       <c r="B337" s="35"/>
       <c r="C337" s="37"/>
@@ -12273,45 +12387,45 @@
       <c r="G337" s="37"/>
       <c r="H337" s="37"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="57" t="s">
+    <row r="338" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+      <c r="A338" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B338" s="35"/>
+      <c r="C338" s="37"/>
+      <c r="D338" s="37"/>
+      <c r="E338" s="37"/>
+      <c r="F338" s="37"/>
+      <c r="G338" s="37"/>
+      <c r="H338" s="37"/>
+    </row>
+    <row r="339" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+      <c r="A339" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B339" s="35"/>
+      <c r="C339" s="37"/>
+      <c r="D339" s="37"/>
+      <c r="E339" s="37"/>
+      <c r="F339" s="37"/>
+      <c r="G339" s="37"/>
+      <c r="H339" s="37"/>
+    </row>
+    <row r="340" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+      <c r="A340" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B340" s="35"/>
+      <c r="C340" s="37"/>
+      <c r="D340" s="37"/>
+      <c r="E340" s="37"/>
+      <c r="F340" s="37"/>
+      <c r="G340" s="37"/>
+      <c r="H340" s="37"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="57" t="s">
         <v>1074</v>
-      </c>
-      <c r="B338" s="8"/>
-      <c r="C338" s="5"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="5"/>
-      <c r="H338" s="1"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="57" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B339" s="8"/>
-      <c r="C339" s="5"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="5"/>
-      <c r="H339" s="1"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="57" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B340" s="8"/>
-      <c r="C340" s="5"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="5"/>
-      <c r="H340" s="1"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="57" t="s">
-        <v>1077</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="5"/>
@@ -12321,9 +12435,9 @@
       <c r="G341" s="5"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="A342" s="57" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="5"/>
@@ -12333,9 +12447,9 @@
       <c r="G342" s="5"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8">
       <c r="A343" s="57" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="5"/>
@@ -12345,9 +12459,9 @@
       <c r="G343" s="5"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344" s="57" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="5"/>
@@ -12357,9 +12471,9 @@
       <c r="G344" s="5"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="A345" s="57" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="5"/>
@@ -12369,8 +12483,10 @@
       <c r="G345" s="5"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="57"/>
+    <row r="346" spans="1:8">
+      <c r="A346" s="57" t="s">
+        <v>1079</v>
+      </c>
       <c r="B346" s="8"/>
       <c r="C346" s="5"/>
       <c r="D346" s="1"/>
@@ -12379,8 +12495,10 @@
       <c r="G346" s="5"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="57"/>
+    <row r="347" spans="1:8">
+      <c r="A347" s="57" t="s">
+        <v>1080</v>
+      </c>
       <c r="B347" s="8"/>
       <c r="C347" s="5"/>
       <c r="D347" s="1"/>
@@ -12389,8 +12507,10 @@
       <c r="G347" s="5"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="57"/>
+    <row r="348" spans="1:8">
+      <c r="A348" s="57" t="s">
+        <v>1081</v>
+      </c>
       <c r="B348" s="8"/>
       <c r="C348" s="5"/>
       <c r="D348" s="1"/>
@@ -12399,7 +12519,7 @@
       <c r="G348" s="5"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="A349" s="57"/>
       <c r="B349" s="8"/>
       <c r="C349" s="5"/>
@@ -12409,7 +12529,7 @@
       <c r="G349" s="5"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="A350" s="57"/>
       <c r="B350" s="8"/>
       <c r="C350" s="5"/>
@@ -12419,7 +12539,7 @@
       <c r="G350" s="5"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="A351" s="57"/>
       <c r="B351" s="8"/>
       <c r="C351" s="5"/>
@@ -12429,7 +12549,7 @@
       <c r="G351" s="5"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="A352" s="57"/>
       <c r="B352" s="8"/>
       <c r="C352" s="5"/>
@@ -12439,7 +12559,7 @@
       <c r="G352" s="5"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="A353" s="57"/>
       <c r="B353" s="8"/>
       <c r="C353" s="5"/>
@@ -12449,7 +12569,7 @@
       <c r="G353" s="5"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="A354" s="57"/>
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
@@ -12459,7 +12579,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="A355" s="57"/>
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
@@ -12469,7 +12589,7 @@
       <c r="G355" s="5"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="A356" s="57"/>
       <c r="B356" s="8"/>
       <c r="C356" s="5"/>
@@ -12479,7 +12599,7 @@
       <c r="G356" s="5"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="A357" s="57"/>
       <c r="B357" s="8"/>
       <c r="C357" s="5"/>
@@ -12489,7 +12609,7 @@
       <c r="G357" s="5"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="A358" s="57"/>
       <c r="B358" s="8"/>
       <c r="C358" s="5"/>
@@ -12499,7 +12619,7 @@
       <c r="G358" s="5"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8">
       <c r="A359" s="57"/>
       <c r="B359" s="8"/>
       <c r="C359" s="5"/>
@@ -12509,7 +12629,7 @@
       <c r="G359" s="5"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360" s="57"/>
       <c r="B360" s="8"/>
       <c r="C360" s="5"/>
@@ -12519,7 +12639,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="A361" s="57"/>
       <c r="B361" s="8"/>
       <c r="C361" s="5"/>
@@ -12529,7 +12649,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="A362" s="57"/>
       <c r="B362" s="8"/>
       <c r="C362" s="5"/>
@@ -12539,7 +12659,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="A363" s="57"/>
       <c r="B363" s="8"/>
       <c r="C363" s="5"/>
@@ -12549,7 +12669,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="A364" s="57"/>
       <c r="B364" s="8"/>
       <c r="C364" s="5"/>
@@ -12559,7 +12679,7 @@
       <c r="G364" s="5"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="A365" s="57"/>
       <c r="B365" s="8"/>
       <c r="C365" s="5"/>
@@ -12569,7 +12689,7 @@
       <c r="G365" s="5"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="A366" s="57"/>
       <c r="B366" s="8"/>
       <c r="C366" s="5"/>
@@ -12579,7 +12699,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="A367" s="57"/>
       <c r="B367" s="8"/>
       <c r="C367" s="5"/>
@@ -12589,7 +12709,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="A368" s="57"/>
       <c r="B368" s="8"/>
       <c r="C368" s="5"/>
@@ -12599,7 +12719,7 @@
       <c r="G368" s="5"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="A369" s="57"/>
       <c r="B369" s="8"/>
       <c r="C369" s="5"/>
@@ -12609,7 +12729,7 @@
       <c r="G369" s="5"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="A370" s="57"/>
       <c r="B370" s="8"/>
       <c r="C370" s="5"/>
@@ -12619,7 +12739,7 @@
       <c r="G370" s="5"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="A371" s="57"/>
       <c r="B371" s="8"/>
       <c r="C371" s="5"/>
@@ -12629,7 +12749,7 @@
       <c r="G371" s="5"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="A372" s="57"/>
       <c r="B372" s="8"/>
       <c r="C372" s="5"/>
@@ -12639,7 +12759,7 @@
       <c r="G372" s="5"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="A373" s="57"/>
       <c r="B373" s="8"/>
       <c r="C373" s="5"/>
@@ -12649,7 +12769,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374" s="57"/>
       <c r="B374" s="8"/>
       <c r="C374" s="5"/>
@@ -12659,7 +12779,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375" s="57"/>
       <c r="B375" s="8"/>
       <c r="C375" s="5"/>
@@ -12669,7 +12789,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376" s="57"/>
       <c r="B376" s="8"/>
       <c r="C376" s="5"/>
@@ -12679,7 +12799,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377" s="57"/>
       <c r="B377" s="8"/>
       <c r="C377" s="5"/>
@@ -12689,7 +12809,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378" s="57"/>
       <c r="B378" s="8"/>
       <c r="C378" s="5"/>
@@ -12699,7 +12819,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379" s="57"/>
       <c r="B379" s="8"/>
       <c r="C379" s="5"/>
@@ -12709,7 +12829,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380" s="57"/>
       <c r="B380" s="8"/>
       <c r="C380" s="5"/>
@@ -12719,7 +12839,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381" s="57"/>
       <c r="B381" s="8"/>
       <c r="C381" s="5"/>
@@ -12729,7 +12849,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382" s="57"/>
       <c r="B382" s="8"/>
       <c r="C382" s="5"/>
@@ -12739,7 +12859,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383" s="57"/>
       <c r="B383" s="8"/>
       <c r="C383" s="5"/>
@@ -12749,7 +12869,7 @@
       <c r="G383" s="5"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384" s="57"/>
       <c r="B384" s="8"/>
       <c r="C384" s="5"/>
@@ -12759,7 +12879,7 @@
       <c r="G384" s="5"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385" s="57"/>
       <c r="B385" s="8"/>
       <c r="C385" s="5"/>
@@ -12769,7 +12889,7 @@
       <c r="G385" s="5"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386" s="57"/>
       <c r="B386" s="8"/>
       <c r="C386" s="5"/>
@@ -12779,7 +12899,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387" s="57"/>
       <c r="B387" s="8"/>
       <c r="C387" s="5"/>
@@ -12789,7 +12909,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388" s="57"/>
       <c r="B388" s="8"/>
       <c r="C388" s="5"/>
@@ -12798,6 +12918,36 @@
       <c r="F388" s="1"/>
       <c r="G388" s="5"/>
       <c r="H388" s="1"/>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" s="57"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390" s="57"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" s="57"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12931,8 +13081,9 @@
     <hyperlink ref="G187" r:id="rId128" xr:uid="{37331509-B7B8-7548-B5C6-857F36A7E109}"/>
     <hyperlink ref="G188" r:id="rId129" xr:uid="{31FA25FC-46C7-D74A-99A5-1140E96809B5}"/>
     <hyperlink ref="G196" r:id="rId130" xr:uid="{5CC18E71-C5D0-6A4D-AD79-B547613CD77D}"/>
+    <hyperlink ref="G293" r:id="rId131" xr:uid="{754094CD-003E-114E-B66D-2DEF0C37F04E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId131"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70AC16B-B002-AC4A-9347-BDEA3380CCA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D9737-1633-8741-8085-5F7B6498F3DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5994,7 +5994,7 @@
 if(state == 3) addtoPostorderList(top) &amp; pop(top)</t>
   </si>
   <si>
-    <t>[using 1 stack (V.IMP)] refer gfg</t>
+    <t>[using 1 stack (V.IMP)]  [Push directly root node two times while traversing to the left. While poping if you find stack top() is same as root then go for root-&gt;right else print root.]</t>
   </si>
 </sst>
 </file>
@@ -6282,7 +6282,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -6455,9 +6455,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6750,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11830,7 +11827,7 @@
       <c r="B292" s="64" t="s">
         <v>1097</v>
       </c>
-      <c r="C292" s="67" t="s">
+      <c r="C292" s="68" t="s">
         <v>1105</v>
       </c>
       <c r="D292" s="50"/>
@@ -11842,13 +11839,13 @@
       <c r="H292" s="50"/>
     </row>
     <row r="293" spans="1:8" s="59" customFormat="1" ht="74" customHeight="1">
-      <c r="A293" s="68" t="s">
+      <c r="A293" s="67" t="s">
         <v>1101</v>
       </c>
       <c r="B293" s="18" t="s">
         <v>1103</v>
       </c>
-      <c r="C293" s="69" t="s">
+      <c r="C293" s="68" t="s">
         <v>1104</v>
       </c>
       <c r="D293" s="50"/>

--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D9737-1633-8741-8085-5F7B6498F3DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ACA7C0-3460-544A-B62E-F756931658ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1116">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2142,18 +2142,6 @@
     <t>https://leetcode.com/problems/counting-bits/</t>
   </si>
   <si>
-    <t>union and intersection of two unsorted arrays</t>
-  </si>
-  <si>
-    <t>union and intersection of two sorted arrays</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/union-and-intersection-of-two-sorted-arrays-2/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-union-and-intersection-of-two-unsorted-arrays</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/intersection-of-two-arrays/</t>
   </si>
   <si>
@@ -4263,27 +4251,6 @@
         <family val="1"/>
       </rPr>
       <t>loop i&lt;n1 &amp;&amp; j&lt;n2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>intersection of two arrays</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [Each element in the result must be unique.
-The result can be in any order.]</t>
     </r>
   </si>
   <si>
@@ -5995,6 +5962,164 @@
   </si>
   <si>
     <t>[using 1 stack (V.IMP)]  [Push directly root node two times while traversing to the left. While poping if you find stack top() is same as root then go for root-&gt;right else print root.]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>intersection of two unsorted arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [Each element in the result must be unique.
+The result can be in any order. Input can contain duplicates]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>intersection of two sorted arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [Each element in the result must be unique.
+The result can be in any order. Input can contain duplicates]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n-tbHHR_ApQ</t>
+  </si>
+  <si>
+    <t>take two pointers (skip duplicate for both (i and j) compare two values if match then add it to the answer and increment both else increment the index which has a smaller value O(m+n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>sort the array and solve like above approach  O(mLogm + nLogn)</t>
+  </si>
+  <si>
+    <t>Take hashet and iterate the first array and add elements to hashset, later iterate to second array if element already present then add it to the answer and remove the element from the hashset to avoid duplicates O(m+n) time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">union of two sorted arrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[input can contains duplicates]</t>
+    </r>
+  </si>
+  <si>
+    <t>take two pointers (skip duplicate for both (i and j) compare two values if match then add_to_answer and increment both else add_to_answer and increment the index which has a smaller value O(m+n) time and O(1) space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">union of two unsorted arrays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[input can contains duplicates]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C2IpK2cgULw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF8YOMN_T38</t>
+  </si>
+  <si>
+    <t>take hashset and put values from both array1 and array2 O(m+n) time</t>
+  </si>
+  <si>
+    <t>sort and solve like above approach O(nlogn+mlogm) time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>if array doesn’t contain duplicates,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;Initialize union U as empty.
+&gt;Find smaller of m and n and sort the smaller array.
+&gt;Copy the smaller array to U.
+&gt;For every element x of larger array, do following
+&gt;Binary Search x in smaller array. If x is not present, then copy it to U.
+Return U. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>if array doesn’t contain duplicates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;Initialize intersection I as empty.
+&gt;Find smaller of m and n and sort the smaller array.
+&gt;For every element x of larger array, do following
+&gt;Binary Search x in smaller array. If x is present, then copy it to I.
+Return I. O(min(mLongm + nlogn))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6282,7 +6407,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -6391,7 +6516,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6745,21 +6869,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S391"/>
+  <dimension ref="A1:S392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C292" sqref="C292"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52" style="61" customWidth="1"/>
+    <col min="1" max="1" width="52" style="60" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="48.1640625" customWidth="1"/>
     <col min="5" max="5" width="51.1640625" customWidth="1"/>
     <col min="6" max="6" width="43.1640625" customWidth="1"/>
-    <col min="7" max="7" width="61.6640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="61.6640625" style="53" customWidth="1"/>
     <col min="8" max="8" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6782,7 +6906,7 @@
       <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="17"/>
@@ -6833,13 +6957,13 @@
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -6905,8 +7029,8 @@
       <c r="C7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>929</v>
+      <c r="D7" s="48" t="s">
+        <v>924</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -6935,7 +7059,7 @@
     </row>
     <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>44</v>
@@ -6948,14 +7072,14 @@
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="58" customHeight="1">
-      <c r="A10" s="48" t="s">
-        <v>924</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>925</v>
+      <c r="A10" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>920</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -7005,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -7018,7 +7142,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -7038,10 +7162,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>52</v>
@@ -7105,13 +7229,13 @@
     </row>
     <row r="19" spans="1:8" ht="46" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>1089</v>
+        <v>1080</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>1084</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7121,13 +7245,13 @@
     </row>
     <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>1088</v>
+        <v>1079</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>1083</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7137,13 +7261,13 @@
     </row>
     <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>1091</v>
+        <v>1078</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>1086</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7153,7 +7277,7 @@
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
@@ -7165,7 +7289,7 @@
     </row>
     <row r="23" spans="1:8" ht="32" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
@@ -7177,7 +7301,7 @@
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
@@ -7189,7 +7313,7 @@
     </row>
     <row r="25" spans="1:8" ht="19" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
@@ -7201,7 +7325,7 @@
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
@@ -7213,7 +7337,7 @@
     </row>
     <row r="27" spans="1:8" ht="19" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
@@ -7225,7 +7349,7 @@
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
@@ -7240,7 +7364,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>66</v>
@@ -7337,10 +7461,10 @@
     </row>
     <row r="35" spans="1:8" ht="58" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>85</v>
@@ -7387,7 +7511,7 @@
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>92</v>
@@ -7405,7 +7529,7 @@
     </row>
     <row r="39" spans="1:8" ht="25" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>95</v>
@@ -7490,10 +7614,10 @@
         <v>111</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
@@ -7517,7 +7641,7 @@
       </c>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" ht="56">
+    <row r="45" spans="1:8" ht="42">
       <c r="A45" s="13" t="s">
         <v>113</v>
       </c>
@@ -7537,7 +7661,7 @@
     </row>
     <row r="46" spans="1:8" ht="56">
       <c r="A46" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>118</v>
@@ -7555,13 +7679,13 @@
     </row>
     <row r="47" spans="1:8" ht="86" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -7593,7 +7717,7 @@
     </row>
     <row r="49" spans="1:8" ht="50" customHeight="1">
       <c r="A49" s="23" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>127</v>
@@ -7611,7 +7735,7 @@
     </row>
     <row r="50" spans="1:8" ht="46" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>131</v>
@@ -7633,7 +7757,7 @@
     </row>
     <row r="51" spans="1:8" ht="42">
       <c r="A51" s="13" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>136</v>
@@ -7671,7 +7795,7 @@
     </row>
     <row r="53" spans="1:8" ht="60" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>142</v>
@@ -7703,7 +7827,7 @@
     </row>
     <row r="55" spans="1:8" ht="29" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>148</v>
@@ -7723,7 +7847,7 @@
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>19</v>
@@ -7743,13 +7867,13 @@
     </row>
     <row r="57" spans="1:8" ht="71" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
@@ -7761,10 +7885,10 @@
     </row>
     <row r="58" spans="1:8" ht="38" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>156</v>
@@ -7797,7 +7921,7 @@
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>162</v>
@@ -7817,7 +7941,7 @@
     </row>
     <row r="61" spans="1:8" ht="53" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>165</v>
@@ -7875,7 +7999,7 @@
     </row>
     <row r="64" spans="1:8" ht="75" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>177</v>
@@ -7911,7 +8035,7 @@
     </row>
     <row r="66" spans="1:8" ht="41" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>184</v>
@@ -7989,7 +8113,7 @@
     </row>
     <row r="70" spans="1:8" ht="48" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>201</v>
@@ -8033,7 +8157,7 @@
     </row>
     <row r="72" spans="1:8" ht="38" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>212</v>
@@ -8051,7 +8175,7 @@
     </row>
     <row r="73" spans="1:8" ht="46" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>216</v>
@@ -8069,7 +8193,7 @@
     </row>
     <row r="74" spans="1:8" ht="28" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>218</v>
@@ -8111,7 +8235,7 @@
     </row>
     <row r="76" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>233</v>
@@ -8131,7 +8255,7 @@
       </c>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" ht="42">
+    <row r="77" spans="1:8" ht="28">
       <c r="A77" s="13" t="s">
         <v>237</v>
       </c>
@@ -8139,7 +8263,7 @@
         <v>234</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>235</v>
@@ -8195,10 +8319,10 @@
         <v>245</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>247</v>
@@ -8217,7 +8341,7 @@
         <v>251</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>249</v>
@@ -8290,7 +8414,7 @@
         <v>264</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>265</v>
@@ -8325,7 +8449,7 @@
     </row>
     <row r="87" spans="1:8" ht="36" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>271</v>
@@ -8341,7 +8465,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" ht="28">
+    <row r="88" spans="1:8">
       <c r="A88" s="13" t="s">
         <v>274</v>
       </c>
@@ -8457,7 +8581,7 @@
     </row>
     <row r="94" spans="1:8" s="3" customFormat="1" ht="70">
       <c r="A94" s="13" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>300</v>
@@ -8499,7 +8623,7 @@
         <v>309</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>310</v>
@@ -8522,7 +8646,7 @@
         <v>314</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>315</v>
@@ -8535,7 +8659,7 @@
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>317</v>
@@ -8553,7 +8677,7 @@
     </row>
     <row r="99" spans="1:8" ht="60" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>320</v>
@@ -8611,7 +8735,7 @@
     </row>
     <row r="102" spans="1:8" ht="53" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>332</v>
@@ -8631,7 +8755,7 @@
     </row>
     <row r="103" spans="1:8" ht="38" customHeight="1">
       <c r="A103" s="13" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>336</v>
@@ -8651,7 +8775,7 @@
     </row>
     <row r="104" spans="1:8" ht="70">
       <c r="A104" s="13" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>342</v>
@@ -8723,7 +8847,7 @@
     </row>
     <row r="108" spans="1:8" ht="28">
       <c r="A108" s="13" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>354</v>
@@ -8775,9 +8899,9 @@
       </c>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" ht="84">
+    <row r="111" spans="1:8" ht="70">
       <c r="A111" s="13" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>366</v>
@@ -8795,7 +8919,7 @@
     </row>
     <row r="112" spans="1:8" ht="39" customHeight="1">
       <c r="A112" s="13" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>368</v>
@@ -8811,7 +8935,7 @@
     </row>
     <row r="113" spans="1:13" ht="65" customHeight="1">
       <c r="A113" s="13" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>370</v>
@@ -8827,10 +8951,10 @@
     </row>
     <row r="114" spans="1:13" ht="37" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>372</v>
@@ -8847,7 +8971,7 @@
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>376</v>
@@ -8863,7 +8987,7 @@
     </row>
     <row r="116" spans="1:13" ht="54" customHeight="1">
       <c r="A116" s="13" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>377</v>
@@ -8879,7 +9003,7 @@
     </row>
     <row r="117" spans="1:13" ht="51" customHeight="1">
       <c r="A117" s="13" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>380</v>
@@ -8895,7 +9019,7 @@
     </row>
     <row r="118" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A118" s="13" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>381</v>
@@ -8915,7 +9039,7 @@
     </row>
     <row r="119" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1">
       <c r="A119" s="13" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>385</v>
@@ -8989,7 +9113,7 @@
     </row>
     <row r="123" spans="1:13" ht="84">
       <c r="A123" s="13" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>400</v>
@@ -9009,13 +9133,13 @@
     </row>
     <row r="124" spans="1:13" ht="69" customHeight="1">
       <c r="A124" s="13" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="19"/>
@@ -9049,13 +9173,13 @@
     </row>
     <row r="126" spans="1:13" ht="83" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>411</v>
@@ -9073,8 +9197,8 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13" ht="98">
-      <c r="A127" s="51" t="s">
-        <v>954</v>
+      <c r="A127" s="50" t="s">
+        <v>949</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>412</v>
@@ -9099,7 +9223,7 @@
     </row>
     <row r="128" spans="1:13" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>417</v>
@@ -9117,7 +9241,7 @@
     </row>
     <row r="129" spans="1:19" s="3" customFormat="1" ht="84">
       <c r="A129" s="13" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>421</v>
@@ -9133,7 +9257,7 @@
     </row>
     <row r="130" spans="1:19" ht="49" customHeight="1">
       <c r="A130" s="13" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>422</v>
@@ -9198,7 +9322,7 @@
     </row>
     <row r="133" spans="1:19" ht="51" customHeight="1">
       <c r="A133" s="13" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>438</v>
@@ -9216,7 +9340,7 @@
     </row>
     <row r="134" spans="1:19" ht="70">
       <c r="A134" s="13" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>442</v>
@@ -9234,7 +9358,7 @@
     </row>
     <row r="135" spans="1:19" ht="59" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
@@ -9243,7 +9367,7 @@
         <v>445</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
@@ -9254,7 +9378,7 @@
     </row>
     <row r="136" spans="1:19" ht="47" customHeight="1">
       <c r="A136" s="13" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>448</v>
@@ -9286,7 +9410,7 @@
     </row>
     <row r="138" spans="1:19" ht="66" customHeight="1">
       <c r="A138" s="13" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>454</v>
@@ -9322,26 +9446,26 @@
     </row>
     <row r="140" spans="1:19" ht="40" customHeight="1">
       <c r="A140" s="13" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="53" t="s">
+      <c r="G140" s="52" t="s">
         <v>458</v>
       </c>
       <c r="H140" s="19"/>
     </row>
     <row r="141" spans="1:19" ht="55" customHeight="1">
       <c r="A141" s="13" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>460</v>
@@ -9349,7 +9473,7 @@
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>459</v>
@@ -9361,7 +9485,7 @@
         <v>461</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C142" s="28" t="s">
         <v>463</v>
@@ -9436,7 +9560,7 @@
     </row>
     <row r="146" spans="1:8" ht="64" customHeight="1">
       <c r="A146" s="13" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>479</v>
@@ -9447,7 +9571,7 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="53" t="s">
+      <c r="G146" s="52" t="s">
         <v>478</v>
       </c>
       <c r="H146" s="19"/>
@@ -9472,7 +9596,7 @@
     </row>
     <row r="148" spans="1:8" ht="71" customHeight="1">
       <c r="A148" s="13" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>486</v>
@@ -9526,7 +9650,7 @@
     </row>
     <row r="151" spans="1:8" ht="43" customHeight="1">
       <c r="A151" s="13" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>496</v>
@@ -9544,7 +9668,7 @@
     </row>
     <row r="152" spans="1:8" ht="79" customHeight="1">
       <c r="A152" s="13" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>499</v>
@@ -9576,13 +9700,13 @@
     </row>
     <row r="154" spans="1:8" ht="45" customHeight="1">
       <c r="A154" s="13" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B154" s="28" t="s">
         <v>504</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
@@ -9628,10 +9752,10 @@
     </row>
     <row r="157" spans="1:8" ht="54" customHeight="1">
       <c r="A157" s="13" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
@@ -9655,14 +9779,14 @@
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
-      <c r="G158" s="53" t="s">
+      <c r="G158" s="52" t="s">
         <v>514</v>
       </c>
       <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:8" ht="43" customHeight="1">
       <c r="A159" s="13" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>518</v>
@@ -9679,7 +9803,7 @@
       <c r="F159" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="G159" s="53" t="s">
+      <c r="G159" s="52" t="s">
         <v>515</v>
       </c>
       <c r="H159" s="19" t="s">
@@ -9688,7 +9812,7 @@
     </row>
     <row r="160" spans="1:8" ht="60" customHeight="1">
       <c r="A160" s="13" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>523</v>
@@ -9697,12 +9821,12 @@
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
-      <c r="G160" s="53" t="s">
+      <c r="G160" s="52" t="s">
         <v>522</v>
       </c>
       <c r="H160" s="19"/>
     </row>
-    <row r="161" spans="1:8" ht="42">
+    <row r="161" spans="1:8" ht="56">
       <c r="A161" s="33" t="s">
         <v>525</v>
       </c>
@@ -9713,7 +9837,7 @@
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
-      <c r="G161" s="53" t="s">
+      <c r="G161" s="52" t="s">
         <v>524</v>
       </c>
       <c r="H161" s="19"/>
@@ -9731,14 +9855,14 @@
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
-      <c r="G162" s="53" t="s">
+      <c r="G162" s="52" t="s">
         <v>528</v>
       </c>
       <c r="H162" s="19"/>
     </row>
     <row r="163" spans="1:8" ht="51" customHeight="1">
       <c r="A163" s="13" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>530</v>
@@ -9749,14 +9873,14 @@
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
-      <c r="G163" s="53" t="s">
+      <c r="G163" s="52" t="s">
         <v>532</v>
       </c>
       <c r="H163" s="19"/>
     </row>
     <row r="164" spans="1:8" ht="84" customHeight="1">
       <c r="A164" s="13" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>533</v>
@@ -9767,14 +9891,14 @@
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
-      <c r="G164" s="53" t="s">
+      <c r="G164" s="52" t="s">
         <v>535</v>
       </c>
       <c r="H164" s="19"/>
     </row>
     <row r="165" spans="1:8" ht="53" customHeight="1">
       <c r="A165" s="13" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>537</v>
@@ -9792,7 +9916,7 @@
     </row>
     <row r="166" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
       <c r="A166" s="13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>539</v>
@@ -9830,7 +9954,7 @@
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:8" ht="42">
+    <row r="168" spans="1:8" ht="28">
       <c r="A168" s="13" t="s">
         <v>548</v>
       </c>
@@ -9850,7 +9974,7 @@
     </row>
     <row r="169" spans="1:8" ht="51" customHeight="1">
       <c r="A169" s="13" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>554</v>
@@ -9872,7 +9996,7 @@
     </row>
     <row r="170" spans="1:8" ht="98">
       <c r="A170" s="13" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>557</v>
@@ -9892,7 +10016,7 @@
     </row>
     <row r="171" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>614</v>
@@ -9917,7 +10041,7 @@
         <v>566</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="34"/>
@@ -9930,7 +10054,7 @@
     </row>
     <row r="173" spans="1:8" ht="51" customHeight="1">
       <c r="A173" s="13" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>567</v>
@@ -9962,7 +10086,7 @@
     </row>
     <row r="175" spans="1:8" ht="56">
       <c r="A175" s="13" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>573</v>
@@ -9974,7 +10098,7 @@
         <v>575</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="19" t="s">
@@ -9984,7 +10108,7 @@
     </row>
     <row r="176" spans="1:8" ht="35" customHeight="1">
       <c r="A176" s="33" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>576</v>
@@ -10011,7 +10135,7 @@
         <v>582</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
@@ -10025,13 +10149,13 @@
         <v>583</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
@@ -10042,7 +10166,7 @@
     </row>
     <row r="179" spans="1:8" ht="70">
       <c r="A179" s="13" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>512</v>
@@ -10057,18 +10181,18 @@
         <v>588</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="G179" s="53" t="s">
+        <v>967</v>
+      </c>
+      <c r="G179" s="52" t="s">
         <v>587</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="36" customHeight="1">
       <c r="A180" s="13" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>590</v>
@@ -10088,7 +10212,7 @@
     </row>
     <row r="181" spans="1:8" ht="33" customHeight="1">
       <c r="A181" s="13" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>128</v>
@@ -10126,7 +10250,7 @@
     </row>
     <row r="183" spans="1:8" ht="28">
       <c r="A183" s="13" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>63</v>
@@ -10146,7 +10270,7 @@
     </row>
     <row r="184" spans="1:8" ht="28">
       <c r="A184" s="13" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>604</v>
@@ -10160,9 +10284,9 @@
       </c>
       <c r="H184" s="19"/>
     </row>
-    <row r="185" spans="1:8" ht="84">
+    <row r="185" spans="1:8" ht="70">
       <c r="A185" s="13" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>605</v>
@@ -10182,7 +10306,7 @@
     </row>
     <row r="186" spans="1:8" ht="56">
       <c r="A186" s="13" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>610</v>
@@ -10198,7 +10322,7 @@
     </row>
     <row r="187" spans="1:8" s="10" customFormat="1" ht="140">
       <c r="A187" s="13" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>512</v>
@@ -10211,7 +10335,7 @@
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
-      <c r="G187" s="55" t="s">
+      <c r="G187" s="54" t="s">
         <v>618</v>
       </c>
       <c r="H187" s="19"/>
@@ -10231,7 +10355,7 @@
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
-      <c r="G188" s="55" t="s">
+      <c r="G188" s="54" t="s">
         <v>620</v>
       </c>
       <c r="H188" s="19"/>
@@ -10322,7 +10446,7 @@
     </row>
     <row r="194" spans="1:8" ht="144" customHeight="1">
       <c r="A194" s="13" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B194" s="35" t="s">
         <v>643</v>
@@ -10340,7 +10464,7 @@
     </row>
     <row r="195" spans="1:8" ht="70" customHeight="1">
       <c r="A195" s="13" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>646</v>
@@ -10356,7 +10480,7 @@
     </row>
     <row r="196" spans="1:8" ht="65" customHeight="1">
       <c r="A196" s="13" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>649</v>
@@ -10367,23 +10491,23 @@
       <c r="D196" s="36"/>
       <c r="E196" s="36"/>
       <c r="F196" s="36"/>
-      <c r="G196" s="56" t="s">
+      <c r="G196" s="55" t="s">
         <v>648</v>
       </c>
       <c r="H196" s="36"/>
     </row>
     <row r="197" spans="1:8" ht="90" customHeight="1">
       <c r="A197" s="13" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E197" s="36"/>
       <c r="F197" s="36"/>
@@ -10397,7 +10521,7 @@
         <v>653</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C198" s="19" t="s">
         <v>657</v>
@@ -10412,7 +10536,7 @@
     </row>
     <row r="199" spans="1:8" ht="54" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>658</v>
@@ -10466,7 +10590,7 @@
     </row>
     <row r="202" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B202" s="38" t="s">
         <v>675</v>
@@ -10475,10 +10599,10 @@
         <v>676</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E202" s="19" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F202" s="19"/>
       <c r="G202" s="20" t="s">
@@ -10506,7 +10630,7 @@
     </row>
     <row r="204" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A204" s="13" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>677</v>
@@ -10522,7 +10646,7 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="47" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>681</v>
@@ -10540,7 +10664,7 @@
     </row>
     <row r="206" spans="1:8" ht="63" customHeight="1">
       <c r="A206" s="13" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>690</v>
@@ -10560,7 +10684,7 @@
     </row>
     <row r="207" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>690</v>
@@ -10569,7 +10693,7 @@
         <v>691</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E207" s="36"/>
       <c r="F207" s="36"/>
@@ -10580,13 +10704,13 @@
     </row>
     <row r="208" spans="1:8" ht="61" customHeight="1">
       <c r="A208" s="13" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D208" s="19" t="s">
         <v>223</v>
@@ -10598,159 +10722,173 @@
       </c>
       <c r="H208" s="19"/>
     </row>
-    <row r="209" spans="1:8" ht="76" customHeight="1">
+    <row r="209" spans="1:8" ht="61" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="B209" s="35"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="36"/>
-      <c r="G209" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="H209" s="36"/>
-    </row>
-    <row r="210" spans="1:8" ht="79" customHeight="1">
+        <v>1102</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H209" s="19"/>
+    </row>
+    <row r="210" spans="1:8" ht="78" customHeight="1">
       <c r="A210" s="13" t="s">
-        <v>893</v>
+        <v>1101</v>
       </c>
       <c r="B210" s="35" t="s">
-        <v>705</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="D210" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E210" s="36"/>
+        <v>1105</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>1106</v>
+      </c>
       <c r="F210" s="36"/>
-      <c r="G210" s="36" t="s">
-        <v>704</v>
+      <c r="G210" s="40" t="s">
+        <v>698</v>
       </c>
       <c r="H210" s="36"/>
     </row>
-    <row r="211" spans="1:8" ht="43" customHeight="1">
-      <c r="A211" s="14" t="s">
-        <v>894</v>
+    <row r="211" spans="1:8" ht="76" customHeight="1">
+      <c r="A211" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>708</v>
+        <v>1108</v>
       </c>
       <c r="C211" s="36"/>
       <c r="D211" s="36"/>
       <c r="E211" s="36"/>
       <c r="F211" s="36"/>
-      <c r="G211" s="37" t="s">
-        <v>709</v>
+      <c r="G211" s="40" t="s">
+        <v>1111</v>
       </c>
       <c r="H211" s="36"/>
     </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1">
+    <row r="212" spans="1:8" ht="83" customHeight="1">
       <c r="A212" s="13" t="s">
-        <v>887</v>
+        <v>1109</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-    </row>
-    <row r="213" spans="1:8" ht="95" customHeight="1">
+        <v>1113</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D212" s="19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F212" s="36"/>
+      <c r="G212" s="40" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H212" s="36"/>
+    </row>
+    <row r="213" spans="1:8" ht="79" customHeight="1">
       <c r="A213" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="B213" s="18" t="s">
-        <v>695</v>
-      </c>
-      <c r="C213" s="36"/>
-      <c r="D213" s="36"/>
+      <c r="B213" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="C213" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>702</v>
+      </c>
       <c r="E213" s="36"/>
       <c r="F213" s="36"/>
-      <c r="G213" s="40" t="s">
-        <v>696</v>
+      <c r="G213" s="36" t="s">
+        <v>700</v>
       </c>
       <c r="H213" s="36"/>
     </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A214" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H214" s="19"/>
-    </row>
-    <row r="215" spans="1:8" ht="63" customHeight="1">
+    <row r="214" spans="1:8" ht="43" customHeight="1">
+      <c r="A214" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="H214" s="36"/>
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A215" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="B215" s="41"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
-      <c r="E215" s="36"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="H215" s="36"/>
-    </row>
-    <row r="216" spans="1:8" ht="38" customHeight="1">
-      <c r="A216" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B216" s="41"/>
+        <v>883</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+    </row>
+    <row r="216" spans="1:8" ht="95" customHeight="1">
+      <c r="A216" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>695</v>
+      </c>
       <c r="C216" s="36"/>
       <c r="D216" s="36"/>
       <c r="E216" s="36"/>
       <c r="F216" s="36"/>
-      <c r="G216" s="42" t="s">
-        <v>701</v>
+      <c r="G216" s="40" t="s">
+        <v>696</v>
       </c>
       <c r="H216" s="36"/>
     </row>
-    <row r="217" spans="1:8" ht="38" customHeight="1">
-      <c r="A217" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B217" s="41"/>
-      <c r="C217" s="36"/>
-      <c r="D217" s="36"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="36"/>
-      <c r="G217" s="36" t="s">
-        <v>700</v>
-      </c>
-      <c r="H217" s="36"/>
-    </row>
-    <row r="218" spans="1:8" ht="44" customHeight="1">
+    <row r="217" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A217" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B217" s="18"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H217" s="19"/>
+    </row>
+    <row r="218" spans="1:8" ht="63" customHeight="1">
       <c r="A218" s="13" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B218" s="41"/>
       <c r="C218" s="36"/>
       <c r="D218" s="36"/>
       <c r="E218" s="36"/>
       <c r="F218" s="36"/>
-      <c r="G218" s="37" t="s">
-        <v>703</v>
+      <c r="G218" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="H218" s="36"/>
     </row>
-    <row r="219" spans="1:8" ht="70" customHeight="1">
+    <row r="219" spans="1:8" ht="44" customHeight="1">
       <c r="A219" s="13" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B219" s="41"/>
       <c r="C219" s="36"/>
@@ -10758,47 +10896,47 @@
       <c r="E219" s="36"/>
       <c r="F219" s="36"/>
       <c r="G219" s="37" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="H219" s="36"/>
     </row>
-    <row r="220" spans="1:8" ht="71" customHeight="1">
+    <row r="220" spans="1:8" ht="70" customHeight="1">
       <c r="A220" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="B220" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>712</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="B220" s="41"/>
+      <c r="C220" s="36"/>
       <c r="D220" s="36"/>
       <c r="E220" s="36"/>
       <c r="F220" s="36"/>
-      <c r="G220" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="H220" s="37" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="76" customHeight="1">
+      <c r="G220" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="H220" s="36"/>
+    </row>
+    <row r="221" spans="1:8" ht="71" customHeight="1">
       <c r="A221" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="B221" s="41"/>
-      <c r="C221" s="36"/>
+        <v>891</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>708</v>
+      </c>
       <c r="D221" s="36"/>
       <c r="E221" s="36"/>
       <c r="F221" s="36"/>
-      <c r="G221" s="37" t="s">
-        <v>714</v>
-      </c>
-      <c r="H221" s="36"/>
-    </row>
-    <row r="222" spans="1:8" ht="71" customHeight="1">
+      <c r="G221" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="H221" s="37" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="76" customHeight="1">
       <c r="A222" s="13" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B222" s="41"/>
       <c r="C222" s="36"/>
@@ -10806,43 +10944,43 @@
       <c r="E222" s="36"/>
       <c r="F222" s="36"/>
       <c r="G222" s="37" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H222" s="36"/>
     </row>
-    <row r="223" spans="1:8" ht="96" customHeight="1">
+    <row r="223" spans="1:8" ht="71" customHeight="1">
       <c r="A223" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="B223" s="35" t="s">
-        <v>716</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="B223" s="41"/>
       <c r="C223" s="36"/>
       <c r="D223" s="36"/>
       <c r="E223" s="36"/>
       <c r="F223" s="36"/>
       <c r="G223" s="37" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H223" s="36"/>
     </row>
-    <row r="224" spans="1:8" ht="70" customHeight="1">
+    <row r="224" spans="1:8" ht="96" customHeight="1">
       <c r="A224" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="B224" s="41"/>
+        <v>895</v>
+      </c>
+      <c r="B224" s="35" t="s">
+        <v>712</v>
+      </c>
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="36"/>
       <c r="F224" s="36"/>
       <c r="G224" s="37" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H224" s="36"/>
     </row>
-    <row r="225" spans="1:8" ht="60" customHeight="1">
+    <row r="225" spans="1:8" ht="70" customHeight="1">
       <c r="A225" s="13" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B225" s="41"/>
       <c r="C225" s="36"/>
@@ -10850,13 +10988,13 @@
       <c r="E225" s="36"/>
       <c r="F225" s="36"/>
       <c r="G225" s="37" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H225" s="36"/>
     </row>
-    <row r="226" spans="1:8" ht="62" customHeight="1">
+    <row r="226" spans="1:8" ht="60" customHeight="1">
       <c r="A226" s="13" t="s">
-        <v>720</v>
+        <v>897</v>
       </c>
       <c r="B226" s="41"/>
       <c r="C226" s="36"/>
@@ -10864,13 +11002,13 @@
       <c r="E226" s="36"/>
       <c r="F226" s="36"/>
       <c r="G226" s="37" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="H226" s="36"/>
     </row>
-    <row r="227" spans="1:8" ht="58" customHeight="1">
+    <row r="227" spans="1:8" ht="62" customHeight="1">
       <c r="A227" s="13" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B227" s="41"/>
       <c r="C227" s="36"/>
@@ -10878,13 +11016,13 @@
       <c r="E227" s="36"/>
       <c r="F227" s="36"/>
       <c r="G227" s="37" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H227" s="36"/>
     </row>
-    <row r="228" spans="1:8" ht="53" customHeight="1">
+    <row r="228" spans="1:8" ht="58" customHeight="1">
       <c r="A228" s="13" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B228" s="41"/>
       <c r="C228" s="36"/>
@@ -10892,149 +11030,149 @@
       <c r="E228" s="36"/>
       <c r="F228" s="36"/>
       <c r="G228" s="37" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H228" s="36"/>
     </row>
-    <row r="229" spans="1:8" ht="68" customHeight="1">
+    <row r="229" spans="1:8" ht="53" customHeight="1">
       <c r="A229" s="13" t="s">
-        <v>903</v>
+        <v>718</v>
       </c>
       <c r="B229" s="41"/>
       <c r="C229" s="36"/>
       <c r="D229" s="36"/>
       <c r="E229" s="36"/>
       <c r="F229" s="36"/>
-      <c r="G229" s="19" t="s">
-        <v>726</v>
+      <c r="G229" s="37" t="s">
+        <v>721</v>
       </c>
       <c r="H229" s="36"/>
     </row>
-    <row r="230" spans="1:8" ht="70" customHeight="1">
+    <row r="230" spans="1:8" ht="68" customHeight="1">
       <c r="A230" s="13" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B230" s="41"/>
       <c r="C230" s="36"/>
       <c r="D230" s="36"/>
       <c r="E230" s="36"/>
       <c r="F230" s="36"/>
-      <c r="G230" s="37" t="s">
-        <v>727</v>
+      <c r="G230" s="19" t="s">
+        <v>722</v>
       </c>
       <c r="H230" s="36"/>
     </row>
-    <row r="231" spans="1:8" ht="69" customHeight="1">
+    <row r="231" spans="1:8" ht="70" customHeight="1">
       <c r="A231" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B231" s="18" t="s">
-        <v>728</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="B231" s="41"/>
       <c r="C231" s="36"/>
       <c r="D231" s="36"/>
       <c r="E231" s="36"/>
       <c r="F231" s="36"/>
       <c r="G231" s="37" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H231" s="36"/>
     </row>
-    <row r="232" spans="1:8" ht="44" customHeight="1">
+    <row r="232" spans="1:8" ht="69" customHeight="1">
       <c r="A232" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B232" s="41"/>
+        <v>900</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>724</v>
+      </c>
       <c r="C232" s="36"/>
       <c r="D232" s="36"/>
       <c r="E232" s="36"/>
       <c r="F232" s="36"/>
       <c r="G232" s="37" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H232" s="36"/>
     </row>
-    <row r="233" spans="1:8" ht="79" customHeight="1">
+    <row r="233" spans="1:8" ht="44" customHeight="1">
       <c r="A233" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B233" s="35" t="s">
-        <v>731</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="B233" s="41"/>
       <c r="C233" s="36"/>
       <c r="D233" s="36"/>
       <c r="E233" s="36"/>
       <c r="F233" s="36"/>
       <c r="G233" s="37" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H233" s="36"/>
     </row>
-    <row r="234" spans="1:8" ht="63" customHeight="1">
-      <c r="A234" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B234" s="18" t="s">
-        <v>1072</v>
+    <row r="234" spans="1:8" ht="79" customHeight="1">
+      <c r="A234" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B234" s="35" t="s">
+        <v>727</v>
       </c>
       <c r="C234" s="36"/>
       <c r="D234" s="36"/>
       <c r="E234" s="36"/>
       <c r="F234" s="36"/>
       <c r="G234" s="37" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H234" s="36"/>
     </row>
-    <row r="235" spans="1:8" ht="56" customHeight="1">
+    <row r="235" spans="1:8" ht="63" customHeight="1">
       <c r="A235" s="33" t="s">
-        <v>908</v>
-      </c>
-      <c r="B235" s="41"/>
+        <v>1066</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>1067</v>
+      </c>
       <c r="C235" s="36"/>
       <c r="D235" s="36"/>
       <c r="E235" s="36"/>
       <c r="F235" s="36"/>
       <c r="G235" s="37" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H235" s="36"/>
     </row>
-    <row r="236" spans="1:8" ht="65" customHeight="1">
-      <c r="A236" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B236" s="35" t="s">
-        <v>736</v>
-      </c>
-      <c r="C236" s="37" t="s">
-        <v>737</v>
-      </c>
+    <row r="236" spans="1:8" ht="56" customHeight="1">
+      <c r="A236" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="B236" s="41"/>
+      <c r="C236" s="36"/>
       <c r="D236" s="36"/>
       <c r="E236" s="36"/>
       <c r="F236" s="36"/>
       <c r="G236" s="37" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H236" s="36"/>
     </row>
-    <row r="237" spans="1:8" ht="84" customHeight="1">
+    <row r="237" spans="1:8" ht="65" customHeight="1">
       <c r="A237" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="B237" s="41"/>
-      <c r="C237" s="36"/>
+        <v>904</v>
+      </c>
+      <c r="B237" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>733</v>
+      </c>
       <c r="D237" s="36"/>
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
       <c r="G237" s="37" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="H237" s="36"/>
     </row>
-    <row r="238" spans="1:8" ht="43" customHeight="1">
-      <c r="A238" s="14" t="s">
-        <v>739</v>
+    <row r="238" spans="1:8" ht="84" customHeight="1">
+      <c r="A238" s="13" t="s">
+        <v>905</v>
       </c>
       <c r="B238" s="41"/>
       <c r="C238" s="36"/>
@@ -11042,85 +11180,85 @@
       <c r="E238" s="36"/>
       <c r="F238" s="36"/>
       <c r="G238" s="37" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H238" s="36"/>
     </row>
-    <row r="239" spans="1:8" ht="79" customHeight="1">
-      <c r="A239" s="13" t="s">
-        <v>911</v>
+    <row r="239" spans="1:8" ht="43" customHeight="1">
+      <c r="A239" s="14" t="s">
+        <v>735</v>
       </c>
       <c r="B239" s="41"/>
       <c r="C239" s="36"/>
       <c r="D239" s="36"/>
       <c r="E239" s="36"/>
       <c r="F239" s="36"/>
-      <c r="G239" s="36" t="s">
-        <v>741</v>
+      <c r="G239" s="37" t="s">
+        <v>736</v>
       </c>
       <c r="H239" s="36"/>
     </row>
-    <row r="240" spans="1:8" ht="46" customHeight="1">
-      <c r="A240" s="14" t="s">
-        <v>742</v>
+    <row r="240" spans="1:8" ht="79" customHeight="1">
+      <c r="A240" s="13" t="s">
+        <v>906</v>
       </c>
       <c r="B240" s="41"/>
       <c r="C240" s="36"/>
       <c r="D240" s="36"/>
       <c r="E240" s="36"/>
       <c r="F240" s="36"/>
-      <c r="G240" s="37" t="s">
-        <v>743</v>
+      <c r="G240" s="36" t="s">
+        <v>737</v>
       </c>
       <c r="H240" s="36"/>
     </row>
-    <row r="241" spans="1:8" ht="93" customHeight="1">
-      <c r="A241" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>744</v>
-      </c>
+    <row r="241" spans="1:8" ht="46" customHeight="1">
+      <c r="A241" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="B241" s="41"/>
       <c r="C241" s="36"/>
       <c r="D241" s="36"/>
       <c r="E241" s="36"/>
       <c r="F241" s="36"/>
       <c r="G241" s="37" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H241" s="36"/>
     </row>
-    <row r="242" spans="1:8" ht="57" customHeight="1">
+    <row r="242" spans="1:8" ht="93" customHeight="1">
       <c r="A242" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="B242" s="41"/>
+        <v>907</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>740</v>
+      </c>
       <c r="C242" s="36"/>
       <c r="D242" s="36"/>
       <c r="E242" s="36"/>
       <c r="F242" s="36"/>
       <c r="G242" s="37" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H242" s="36"/>
     </row>
-    <row r="243" spans="1:8" ht="74" customHeight="1">
+    <row r="243" spans="1:8" ht="57" customHeight="1">
       <c r="A243" s="13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B243" s="41"/>
       <c r="C243" s="36"/>
       <c r="D243" s="36"/>
       <c r="E243" s="36"/>
       <c r="F243" s="36"/>
-      <c r="G243" s="36" t="s">
-        <v>747</v>
+      <c r="G243" s="37" t="s">
+        <v>742</v>
       </c>
       <c r="H243" s="36"/>
     </row>
-    <row r="244" spans="1:8" ht="38" customHeight="1">
-      <c r="A244" s="43" t="s">
-        <v>748</v>
+    <row r="244" spans="1:8" ht="74" customHeight="1">
+      <c r="A244" s="13" t="s">
+        <v>909</v>
       </c>
       <c r="B244" s="41"/>
       <c r="C244" s="36"/>
@@ -11128,341 +11266,343 @@
       <c r="E244" s="36"/>
       <c r="F244" s="36"/>
       <c r="G244" s="36" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H244" s="36"/>
     </row>
-    <row r="245" spans="1:8" ht="51" customHeight="1">
-      <c r="A245" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>1082</v>
-      </c>
+    <row r="245" spans="1:8" ht="38" customHeight="1">
+      <c r="A245" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="B245" s="41"/>
       <c r="C245" s="36"/>
       <c r="D245" s="36"/>
       <c r="E245" s="36"/>
       <c r="F245" s="36"/>
-      <c r="G245" s="36"/>
+      <c r="G245" s="36" t="s">
+        <v>745</v>
+      </c>
       <c r="H245" s="36"/>
     </row>
-    <row r="246" spans="1:8" ht="55" customHeight="1">
-      <c r="A246" s="13" t="s">
+    <row r="246" spans="1:8" ht="51" customHeight="1">
+      <c r="A246" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C246" s="36"/>
+      <c r="D246" s="36"/>
+      <c r="E246" s="36"/>
+      <c r="F246" s="36"/>
+      <c r="G246" s="36"/>
+      <c r="H246" s="36"/>
+    </row>
+    <row r="247" spans="1:8" ht="55" customHeight="1">
+      <c r="A247" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="D247" s="43" t="s">
+        <v>750</v>
+      </c>
+      <c r="E247" s="44"/>
+      <c r="F247" s="44"/>
+      <c r="G247" s="36" t="s">
+        <v>748</v>
+      </c>
+      <c r="H247" s="44"/>
+    </row>
+    <row r="248" spans="1:8" ht="71" customHeight="1">
+      <c r="A248" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C248" s="36"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44"/>
+      <c r="F248" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="G248" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="H248" s="44"/>
+    </row>
+    <row r="249" spans="1:8" ht="43" customHeight="1">
+      <c r="A249" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B249" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="D249" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E249" s="44"/>
+      <c r="F249" s="44"/>
+      <c r="G249" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="H249" s="44"/>
+    </row>
+    <row r="250" spans="1:8" ht="97" customHeight="1">
+      <c r="A250" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B250" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="D250" s="45" t="s">
+        <v>765</v>
+      </c>
+      <c r="E250" s="44"/>
+      <c r="F250" s="44"/>
+      <c r="G250" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="H250" s="44"/>
+    </row>
+    <row r="251" spans="1:8" ht="63" customHeight="1">
+      <c r="A251" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="D251" s="44"/>
+      <c r="E251" s="44"/>
+      <c r="F251" s="44"/>
+      <c r="G251" s="37" t="s">
+        <v>766</v>
+      </c>
+      <c r="H251" s="44"/>
+    </row>
+    <row r="252" spans="1:8" ht="57" customHeight="1">
+      <c r="A252" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C252" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="D252" s="44"/>
+      <c r="E252" s="44"/>
+      <c r="F252" s="44"/>
+      <c r="G252" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="H252" s="44"/>
+    </row>
+    <row r="253" spans="1:8" ht="69" customHeight="1">
+      <c r="A253" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E253" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="F253" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="G253" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="H253" s="44"/>
+    </row>
+    <row r="254" spans="1:8" ht="101" customHeight="1">
+      <c r="A254" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="B246" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="C246" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D246" s="44" t="s">
-        <v>754</v>
-      </c>
-      <c r="E246" s="45"/>
-      <c r="F246" s="45"/>
-      <c r="G246" s="36" t="s">
-        <v>752</v>
-      </c>
-      <c r="H246" s="45"/>
-    </row>
-    <row r="247" spans="1:8" ht="71" customHeight="1">
-      <c r="A247" s="13" t="s">
+      <c r="B254" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E254" s="44"/>
+      <c r="F254" s="44"/>
+      <c r="G254" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="H254" s="44"/>
+    </row>
+    <row r="255" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1">
+      <c r="A255" s="13" t="s">
         <v>1064</v>
       </c>
-      <c r="B247" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="C247" s="36"/>
-      <c r="D247" s="45"/>
-      <c r="E247" s="45"/>
-      <c r="F247" s="44" t="s">
-        <v>757</v>
-      </c>
-      <c r="G247" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="H247" s="45"/>
-    </row>
-    <row r="248" spans="1:8" ht="43" customHeight="1">
-      <c r="A248" s="13" t="s">
+      <c r="B255" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D255" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="G255" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="H255" s="43"/>
+    </row>
+    <row r="256" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
+      <c r="A256" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="B248" s="35" t="s">
-        <v>763</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="D248" s="46" t="s">
-        <v>761</v>
-      </c>
-      <c r="E248" s="45"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="37" t="s">
-        <v>762</v>
-      </c>
-      <c r="H248" s="45"/>
-    </row>
-    <row r="249" spans="1:8" ht="97" customHeight="1">
-      <c r="A249" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="B249" s="35" t="s">
-        <v>766</v>
-      </c>
-      <c r="C249" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="D249" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="E249" s="45"/>
-      <c r="F249" s="45"/>
-      <c r="G249" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="H249" s="45"/>
-    </row>
-    <row r="250" spans="1:8" ht="63" customHeight="1">
-      <c r="A250" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>916</v>
-      </c>
-      <c r="D250" s="45"/>
-      <c r="E250" s="45"/>
-      <c r="F250" s="45"/>
-      <c r="G250" s="37" t="s">
-        <v>770</v>
-      </c>
-      <c r="H250" s="45"/>
-    </row>
-    <row r="251" spans="1:8" ht="57" customHeight="1">
-      <c r="A251" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="C251" s="37" t="s">
-        <v>774</v>
-      </c>
-      <c r="D251" s="45"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="45"/>
-      <c r="G251" s="37" t="s">
-        <v>773</v>
-      </c>
-      <c r="H251" s="45"/>
-    </row>
-    <row r="252" spans="1:8" ht="69" customHeight="1">
-      <c r="A252" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>776</v>
-      </c>
-      <c r="C252" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="D252" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="E252" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="F252" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="G252" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="H252" s="45"/>
-    </row>
-    <row r="253" spans="1:8" ht="101" customHeight="1">
-      <c r="A253" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B253" s="35" t="s">
-        <v>782</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="D253" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="E253" s="45"/>
-      <c r="F253" s="45"/>
-      <c r="G253" s="37" t="s">
-        <v>781</v>
-      </c>
-      <c r="H253" s="45"/>
-    </row>
-    <row r="254" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1">
-      <c r="A254" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="D254" s="44" t="s">
+      <c r="B256" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="E254" s="44"/>
-      <c r="F254" s="44" t="s">
+      <c r="C256" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="G254" s="20" t="s">
+      <c r="D256" s="43"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="H254" s="44"/>
-    </row>
-    <row r="255" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
-      <c r="A255" s="13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B255" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="C255" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="D255" s="44"/>
-      <c r="E255" s="44"/>
-      <c r="F255" s="44"/>
-      <c r="G255" s="20" t="s">
+      <c r="H256" s="43"/>
+    </row>
+    <row r="257" spans="1:8" ht="75" customHeight="1">
+      <c r="A257" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B257" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="H255" s="44"/>
-    </row>
-    <row r="256" spans="1:8" ht="75" customHeight="1">
-      <c r="A256" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B256" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="C256" s="36"/>
-      <c r="D256" s="45"/>
-      <c r="E256" s="45"/>
-      <c r="F256" s="45"/>
-      <c r="G256" s="37" t="s">
-        <v>794</v>
-      </c>
-      <c r="H256" s="45"/>
-    </row>
-    <row r="257" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1">
-      <c r="A257" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="B257" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="C257" s="19"/>
+      <c r="C257" s="36"/>
       <c r="D257" s="44"/>
       <c r="E257" s="44"/>
       <c r="F257" s="44"/>
-      <c r="G257" s="19" t="s">
+      <c r="G257" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="H257" s="44"/>
+    </row>
+    <row r="258" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1">
+      <c r="A258" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="43"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
+      <c r="G258" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="H258" s="43"/>
+    </row>
+    <row r="259" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="A259" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="C259" s="37"/>
+      <c r="D259" s="45"/>
+      <c r="E259" s="45"/>
+      <c r="F259" s="45"/>
+      <c r="G259" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="H259" s="45"/>
+    </row>
+    <row r="260" spans="1:8" ht="48" customHeight="1">
+      <c r="A260" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="D260" s="36"/>
+      <c r="E260" s="36"/>
+      <c r="F260" s="36"/>
+      <c r="G260" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H260" s="36"/>
+    </row>
+    <row r="261" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1">
+      <c r="A261" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="C261" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="D261" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H257" s="44"/>
-    </row>
-    <row r="258" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A258" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="B258" s="18" t="s">
-        <v>799</v>
-      </c>
-      <c r="C258" s="37"/>
-      <c r="D258" s="46"/>
-      <c r="E258" s="46"/>
-      <c r="F258" s="46"/>
-      <c r="G258" s="37" t="s">
-        <v>798</v>
-      </c>
-      <c r="H258" s="46"/>
-    </row>
-    <row r="259" spans="1:8" ht="48" customHeight="1">
-      <c r="A259" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="B259" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="C259" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="D259" s="36"/>
-      <c r="E259" s="36"/>
-      <c r="F259" s="36"/>
-      <c r="G259" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="H259" s="36"/>
-    </row>
-    <row r="260" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1">
-      <c r="A260" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>919</v>
-      </c>
-      <c r="D260" s="44" t="s">
-        <v>920</v>
-      </c>
-      <c r="E260" s="44"/>
-      <c r="F260" s="44"/>
-      <c r="G260" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="H260" s="44"/>
-    </row>
-    <row r="261" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1">
-      <c r="A261" s="13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>931</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="D261" s="50"/>
-      <c r="E261" s="50"/>
-      <c r="F261" s="50"/>
-      <c r="G261" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="H261" s="50"/>
-    </row>
-    <row r="262" spans="1:8" ht="43" customHeight="1">
+      <c r="H261" s="43"/>
+    </row>
+    <row r="262" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1">
       <c r="A262" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="5"/>
-      <c r="H262" s="1"/>
-    </row>
-    <row r="263" spans="1:8" ht="36" customHeight="1">
+        <v>1068</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="H262" s="49"/>
+    </row>
+    <row r="263" spans="1:8" ht="43" customHeight="1">
       <c r="A263" s="13" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="5"/>
@@ -11472,9 +11612,9 @@
       <c r="G263" s="5"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="46" customHeight="1">
+    <row r="264" spans="1:8" ht="36" customHeight="1">
       <c r="A264" s="13" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B264" s="8"/>
       <c r="C264" s="5"/>
@@ -11484,9 +11624,9 @@
       <c r="G264" s="5"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="30" customHeight="1">
+    <row r="265" spans="1:8" ht="46" customHeight="1">
       <c r="A265" s="13" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="5"/>
@@ -11496,9 +11636,9 @@
       <c r="G265" s="5"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="25" customHeight="1">
-      <c r="A266" s="14" t="s">
-        <v>984</v>
+    <row r="266" spans="1:8" ht="30" customHeight="1">
+      <c r="A266" s="13" t="s">
+        <v>978</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="5"/>
@@ -11508,9 +11648,9 @@
       <c r="G266" s="5"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="39" customHeight="1">
-      <c r="A267" s="13" t="s">
-        <v>985</v>
+    <row r="267" spans="1:8" ht="25" customHeight="1">
+      <c r="A267" s="14" t="s">
+        <v>979</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="5"/>
@@ -11520,9 +11660,9 @@
       <c r="G267" s="5"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="29" customHeight="1">
-      <c r="A268" s="14" t="s">
-        <v>986</v>
+    <row r="268" spans="1:8" ht="39" customHeight="1">
+      <c r="A268" s="13" t="s">
+        <v>980</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="5"/>
@@ -11532,9 +11672,9 @@
       <c r="G268" s="5"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="23" customHeight="1">
+    <row r="269" spans="1:8" ht="29" customHeight="1">
       <c r="A269" s="14" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="5"/>
@@ -11544,9 +11684,9 @@
       <c r="G269" s="5"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="22" customHeight="1">
+    <row r="270" spans="1:8" ht="23" customHeight="1">
       <c r="A270" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B270" s="8"/>
       <c r="C270" s="5"/>
@@ -11556,837 +11696,837 @@
       <c r="G270" s="5"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
+    <row r="271" spans="1:8" ht="22" customHeight="1">
       <c r="A271" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A272" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="B272" s="57"/>
+      <c r="C272" s="49"/>
+      <c r="D272" s="49"/>
+      <c r="E272" s="49"/>
+      <c r="F272" s="49"/>
+      <c r="G272" s="49"/>
+      <c r="H272" s="49"/>
+    </row>
+    <row r="273" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A273" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="B273" s="57"/>
+      <c r="C273" s="49"/>
+      <c r="D273" s="49"/>
+      <c r="E273" s="49"/>
+      <c r="F273" s="49"/>
+      <c r="G273" s="49"/>
+      <c r="H273" s="49"/>
+    </row>
+    <row r="274" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A274" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B274" s="57"/>
+      <c r="C274" s="49"/>
+      <c r="D274" s="49"/>
+      <c r="E274" s="49"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="49"/>
+      <c r="H274" s="49"/>
+    </row>
+    <row r="275" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A275" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="B275" s="57" t="s">
+        <v>988</v>
+      </c>
+      <c r="C275" s="49"/>
+      <c r="D275" s="49"/>
+      <c r="E275" s="49"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="49"/>
+      <c r="H275" s="49"/>
+    </row>
+    <row r="276" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A276" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="B271" s="58"/>
-      <c r="C271" s="50"/>
-      <c r="D271" s="50"/>
-      <c r="E271" s="50"/>
-      <c r="F271" s="50"/>
-      <c r="G271" s="50"/>
-      <c r="H271" s="50"/>
-    </row>
-    <row r="272" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A272" s="14" t="s">
+      <c r="B276" s="57"/>
+      <c r="C276" s="49"/>
+      <c r="D276" s="49"/>
+      <c r="E276" s="49"/>
+      <c r="F276" s="49"/>
+      <c r="G276" s="49"/>
+      <c r="H276" s="49"/>
+    </row>
+    <row r="277" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A277" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="B272" s="58"/>
-      <c r="C272" s="50"/>
-      <c r="D272" s="50"/>
-      <c r="E272" s="50"/>
-      <c r="F272" s="50"/>
-      <c r="G272" s="50"/>
-      <c r="H272" s="50"/>
-    </row>
-    <row r="273" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A273" s="14" t="s">
+      <c r="B277" s="57"/>
+      <c r="C277" s="49"/>
+      <c r="D277" s="49"/>
+      <c r="E277" s="49"/>
+      <c r="F277" s="49"/>
+      <c r="G277" s="49"/>
+      <c r="H277" s="49"/>
+    </row>
+    <row r="278" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A278" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="B273" s="58"/>
-      <c r="C273" s="50"/>
-      <c r="D273" s="50"/>
-      <c r="E273" s="50"/>
-      <c r="F273" s="50"/>
-      <c r="G273" s="50"/>
-      <c r="H273" s="50"/>
-    </row>
-    <row r="274" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A274" s="14" t="s">
+      <c r="B278" s="57"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="49"/>
+      <c r="E278" s="49"/>
+      <c r="F278" s="49"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="49"/>
+    </row>
+    <row r="279" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A279" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="B274" s="58" t="s">
+      <c r="B279" s="57" t="s">
         <v>993</v>
       </c>
-      <c r="C274" s="50"/>
-      <c r="D274" s="50"/>
-      <c r="E274" s="50"/>
-      <c r="F274" s="50"/>
-      <c r="G274" s="50"/>
-      <c r="H274" s="50"/>
-    </row>
-    <row r="275" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A275" s="14" t="s">
+      <c r="C279" s="49"/>
+      <c r="D279" s="49"/>
+      <c r="E279" s="49"/>
+      <c r="F279" s="49"/>
+      <c r="G279" s="49"/>
+      <c r="H279" s="49"/>
+    </row>
+    <row r="280" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A280" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B275" s="58"/>
-      <c r="C275" s="50"/>
-      <c r="D275" s="50"/>
-      <c r="E275" s="50"/>
-      <c r="F275" s="50"/>
-      <c r="G275" s="50"/>
-      <c r="H275" s="50"/>
-    </row>
-    <row r="276" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A276" s="14" t="s">
+      <c r="B280" s="57"/>
+      <c r="C280" s="49"/>
+      <c r="D280" s="49"/>
+      <c r="E280" s="49"/>
+      <c r="F280" s="49"/>
+      <c r="G280" s="49"/>
+      <c r="H280" s="49"/>
+    </row>
+    <row r="281" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A281" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="B276" s="58"/>
-      <c r="C276" s="50"/>
-      <c r="D276" s="50"/>
-      <c r="E276" s="50"/>
-      <c r="F276" s="50"/>
-      <c r="G276" s="50"/>
-      <c r="H276" s="50"/>
-    </row>
-    <row r="277" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A277" s="14" t="s">
+      <c r="B281" s="57"/>
+      <c r="C281" s="49"/>
+      <c r="D281" s="49"/>
+      <c r="E281" s="49"/>
+      <c r="F281" s="49"/>
+      <c r="G281" s="49"/>
+      <c r="H281" s="49"/>
+    </row>
+    <row r="282" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A282" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="B277" s="58"/>
-      <c r="C277" s="50"/>
-      <c r="D277" s="50"/>
-      <c r="E277" s="50"/>
-      <c r="F277" s="50"/>
-      <c r="G277" s="50"/>
-      <c r="H277" s="50"/>
-    </row>
-    <row r="278" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A278" s="14" t="s">
+      <c r="B282" s="57"/>
+      <c r="C282" s="49"/>
+      <c r="D282" s="49"/>
+      <c r="E282" s="49"/>
+      <c r="F282" s="49"/>
+      <c r="G282" s="49"/>
+      <c r="H282" s="49"/>
+    </row>
+    <row r="283" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A283" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B278" s="58" t="s">
+      <c r="B283" s="57"/>
+      <c r="C283" s="49"/>
+      <c r="D283" s="49"/>
+      <c r="E283" s="49"/>
+      <c r="F283" s="49"/>
+      <c r="G283" s="49"/>
+      <c r="H283" s="49"/>
+    </row>
+    <row r="284" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A284" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="C278" s="50"/>
-      <c r="D278" s="50"/>
-      <c r="E278" s="50"/>
-      <c r="F278" s="50"/>
-      <c r="G278" s="50"/>
-      <c r="H278" s="50"/>
-    </row>
-    <row r="279" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A279" s="14" t="s">
+      <c r="B284" s="57"/>
+      <c r="C284" s="49"/>
+      <c r="D284" s="49"/>
+      <c r="E284" s="49"/>
+      <c r="F284" s="49"/>
+      <c r="G284" s="49"/>
+      <c r="H284" s="49"/>
+    </row>
+    <row r="285" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A285" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="B279" s="58"/>
-      <c r="C279" s="50"/>
-      <c r="D279" s="50"/>
-      <c r="E279" s="50"/>
-      <c r="F279" s="50"/>
-      <c r="G279" s="50"/>
-      <c r="H279" s="50"/>
-    </row>
-    <row r="280" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A280" s="14" t="s">
+      <c r="B285" s="57"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="49"/>
+      <c r="E285" s="49"/>
+      <c r="F285" s="49"/>
+      <c r="G285" s="49"/>
+      <c r="H285" s="49"/>
+    </row>
+    <row r="286" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A286" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="B280" s="58"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
-      <c r="E280" s="50"/>
-      <c r="F280" s="50"/>
-      <c r="G280" s="50"/>
-      <c r="H280" s="50"/>
-    </row>
-    <row r="281" spans="1:8" s="59" customFormat="1" ht="21" customHeight="1">
-      <c r="A281" s="14" t="s">
+      <c r="B286" s="57"/>
+      <c r="C286" s="49"/>
+      <c r="D286" s="49"/>
+      <c r="E286" s="49"/>
+      <c r="F286" s="49"/>
+      <c r="G286" s="49"/>
+      <c r="H286" s="49"/>
+    </row>
+    <row r="287" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A287" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="B281" s="58"/>
-      <c r="C281" s="50"/>
-      <c r="D281" s="50"/>
-      <c r="E281" s="50"/>
-      <c r="F281" s="50"/>
-      <c r="G281" s="50"/>
-      <c r="H281" s="50"/>
-    </row>
-    <row r="282" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A282" s="14" t="s">
+      <c r="B287" s="57"/>
+      <c r="C287" s="49"/>
+      <c r="D287" s="49"/>
+      <c r="E287" s="49"/>
+      <c r="F287" s="49"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="49"/>
+    </row>
+    <row r="288" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A288" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="B282" s="58"/>
-      <c r="C282" s="50"/>
-      <c r="D282" s="50"/>
-      <c r="E282" s="50"/>
-      <c r="F282" s="50"/>
-      <c r="G282" s="50"/>
-      <c r="H282" s="50"/>
-    </row>
-    <row r="283" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A283" s="14" t="s">
+      <c r="B288" s="57"/>
+      <c r="C288" s="49"/>
+      <c r="D288" s="49"/>
+      <c r="E288" s="49"/>
+      <c r="F288" s="49"/>
+      <c r="G288" s="49"/>
+      <c r="H288" s="49"/>
+    </row>
+    <row r="289" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A289" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="B283" s="58"/>
-      <c r="C283" s="50"/>
-      <c r="D283" s="50"/>
-      <c r="E283" s="50"/>
-      <c r="F283" s="50"/>
-      <c r="G283" s="50"/>
-      <c r="H283" s="50"/>
-    </row>
-    <row r="284" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A284" s="14" t="s">
+      <c r="B289" s="57"/>
+      <c r="C289" s="49"/>
+      <c r="D289" s="49"/>
+      <c r="E289" s="49"/>
+      <c r="F289" s="49"/>
+      <c r="G289" s="49"/>
+      <c r="H289" s="49"/>
+    </row>
+    <row r="290" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A290" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="B284" s="58"/>
-      <c r="C284" s="50"/>
-      <c r="D284" s="50"/>
-      <c r="E284" s="50"/>
-      <c r="F284" s="50"/>
-      <c r="G284" s="50"/>
-      <c r="H284" s="50"/>
-    </row>
-    <row r="285" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A285" s="14" t="s">
+      <c r="B290" s="57"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="49"/>
+      <c r="E290" s="49"/>
+      <c r="F290" s="49"/>
+      <c r="G290" s="49"/>
+      <c r="H290" s="49"/>
+    </row>
+    <row r="291" spans="1:8" s="58" customFormat="1" ht="53" customHeight="1">
+      <c r="A291" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B291" s="63" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C291" s="64"/>
+      <c r="D291" s="49"/>
+      <c r="E291" s="49"/>
+      <c r="F291" s="49"/>
+      <c r="G291" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H291" s="49"/>
+    </row>
+    <row r="292" spans="1:8" s="58" customFormat="1" ht="71" customHeight="1">
+      <c r="A292" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B292" s="63" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C292" s="65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D292" s="49"/>
+      <c r="E292" s="49"/>
+      <c r="F292" s="49"/>
+      <c r="G292" s="49"/>
+      <c r="H292" s="49"/>
+    </row>
+    <row r="293" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
+      <c r="A293" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="B285" s="58"/>
-      <c r="C285" s="50"/>
-      <c r="D285" s="50"/>
-      <c r="E285" s="50"/>
-      <c r="F285" s="50"/>
-      <c r="G285" s="50"/>
-      <c r="H285" s="50"/>
-    </row>
-    <row r="286" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A286" s="14" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B286" s="58"/>
-      <c r="C286" s="50"/>
-      <c r="D286" s="50"/>
-      <c r="E286" s="50"/>
-      <c r="F286" s="50"/>
-      <c r="G286" s="50"/>
-      <c r="H286" s="50"/>
-    </row>
-    <row r="287" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A287" s="14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B287" s="58"/>
-      <c r="C287" s="50"/>
-      <c r="D287" s="50"/>
-      <c r="E287" s="50"/>
-      <c r="F287" s="50"/>
-      <c r="G287" s="50"/>
-      <c r="H287" s="50"/>
-    </row>
-    <row r="288" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A288" s="14" t="s">
+      <c r="B293" s="63" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C293" s="67" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D293" s="49"/>
+      <c r="E293" s="49"/>
+      <c r="F293" s="49"/>
+      <c r="G293" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H293" s="49"/>
+    </row>
+    <row r="294" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
+      <c r="A294" s="66" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C294" s="67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D294" s="49"/>
+      <c r="E294" s="49"/>
+      <c r="F294" s="49"/>
+      <c r="G294" s="55" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H294" s="49"/>
+    </row>
+    <row r="295" spans="1:8" s="58" customFormat="1" ht="34" customHeight="1">
+      <c r="A295" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B295" s="63"/>
+      <c r="C295" s="49"/>
+      <c r="D295" s="49"/>
+      <c r="E295" s="49"/>
+      <c r="F295" s="49"/>
+      <c r="G295" s="49"/>
+      <c r="H295" s="49"/>
+    </row>
+    <row r="296" spans="1:8" s="58" customFormat="1" ht="43" customHeight="1">
+      <c r="A296" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B296" s="63"/>
+      <c r="C296" s="49"/>
+      <c r="D296" s="49"/>
+      <c r="E296" s="49"/>
+      <c r="F296" s="49"/>
+      <c r="G296" s="49"/>
+      <c r="H296" s="49"/>
+    </row>
+    <row r="297" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A297" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="B288" s="58"/>
-      <c r="C288" s="50"/>
-      <c r="D288" s="50"/>
-      <c r="E288" s="50"/>
-      <c r="F288" s="50"/>
-      <c r="G288" s="50"/>
-      <c r="H288" s="50"/>
-    </row>
-    <row r="289" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A289" s="14" t="s">
+      <c r="B297" s="57"/>
+      <c r="C297" s="49"/>
+      <c r="D297" s="49"/>
+      <c r="E297" s="49"/>
+      <c r="F297" s="49"/>
+      <c r="G297" s="49"/>
+      <c r="H297" s="49"/>
+    </row>
+    <row r="298" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A298" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="B289" s="58"/>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="50"/>
-      <c r="G289" s="50"/>
-      <c r="H289" s="50"/>
-    </row>
-    <row r="290" spans="1:8" s="59" customFormat="1" ht="53" customHeight="1">
-      <c r="A290" s="14" t="s">
+      <c r="B298" s="57"/>
+      <c r="C298" s="49"/>
+      <c r="D298" s="49"/>
+      <c r="E298" s="49"/>
+      <c r="F298" s="49"/>
+      <c r="G298" s="49"/>
+      <c r="H298" s="49"/>
+    </row>
+    <row r="299" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A299" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B299" s="57"/>
+      <c r="C299" s="49"/>
+      <c r="D299" s="49"/>
+      <c r="E299" s="49"/>
+      <c r="F299" s="49"/>
+      <c r="G299" s="49"/>
+      <c r="H299" s="49"/>
+    </row>
+    <row r="300" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A300" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B290" s="64" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C290" s="65"/>
-      <c r="D290" s="50"/>
-      <c r="E290" s="50"/>
-      <c r="F290" s="50"/>
-      <c r="G290" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H290" s="50"/>
-    </row>
-    <row r="291" spans="1:8" s="59" customFormat="1" ht="71" customHeight="1">
-      <c r="A291" s="14" t="s">
+      <c r="B300" s="57"/>
+      <c r="C300" s="49"/>
+      <c r="D300" s="49"/>
+      <c r="E300" s="49"/>
+      <c r="F300" s="49"/>
+      <c r="G300" s="49"/>
+      <c r="H300" s="49"/>
+    </row>
+    <row r="301" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A301" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="B291" s="64" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C291" s="66" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D291" s="50"/>
-      <c r="E291" s="50"/>
-      <c r="F291" s="50"/>
-      <c r="G291" s="50"/>
-      <c r="H291" s="50"/>
-    </row>
-    <row r="292" spans="1:8" s="59" customFormat="1" ht="74" customHeight="1">
-      <c r="A292" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B292" s="64" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C292" s="68" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D292" s="50"/>
-      <c r="E292" s="50"/>
-      <c r="F292" s="50"/>
-      <c r="G292" s="50" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H292" s="50"/>
-    </row>
-    <row r="293" spans="1:8" s="59" customFormat="1" ht="74" customHeight="1">
-      <c r="A293" s="67" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B293" s="18" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C293" s="68" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D293" s="50"/>
-      <c r="E293" s="50"/>
-      <c r="F293" s="50"/>
-      <c r="G293" s="56" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H293" s="50"/>
-    </row>
-    <row r="294" spans="1:8" s="59" customFormat="1" ht="34" customHeight="1">
-      <c r="A294" s="14" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B294" s="64"/>
-      <c r="C294" s="50"/>
-      <c r="D294" s="50"/>
-      <c r="E294" s="50"/>
-      <c r="F294" s="50"/>
-      <c r="G294" s="50"/>
-      <c r="H294" s="50"/>
-    </row>
-    <row r="295" spans="1:8" s="59" customFormat="1" ht="43" customHeight="1">
-      <c r="A295" s="14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B295" s="64"/>
-      <c r="C295" s="50"/>
-      <c r="D295" s="50"/>
-      <c r="E295" s="50"/>
-      <c r="F295" s="50"/>
-      <c r="G295" s="50"/>
-      <c r="H295" s="50"/>
-    </row>
-    <row r="296" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A296" s="14" t="s">
+      <c r="B301" s="57"/>
+      <c r="C301" s="49"/>
+      <c r="D301" s="49"/>
+      <c r="E301" s="49"/>
+      <c r="F301" s="49"/>
+      <c r="G301" s="49"/>
+      <c r="H301" s="49"/>
+    </row>
+    <row r="302" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A302" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="B296" s="58"/>
-      <c r="C296" s="50"/>
-      <c r="D296" s="50"/>
-      <c r="E296" s="50"/>
-      <c r="F296" s="50"/>
-      <c r="G296" s="50"/>
-      <c r="H296" s="50"/>
-    </row>
-    <row r="297" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A297" s="14" t="s">
+      <c r="B302" s="57"/>
+      <c r="C302" s="49"/>
+      <c r="D302" s="49"/>
+      <c r="E302" s="49"/>
+      <c r="F302" s="49"/>
+      <c r="G302" s="49"/>
+      <c r="H302" s="49"/>
+    </row>
+    <row r="303" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A303" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B297" s="58"/>
-      <c r="C297" s="50"/>
-      <c r="D297" s="50"/>
-      <c r="E297" s="50"/>
-      <c r="F297" s="50"/>
-      <c r="G297" s="50"/>
-      <c r="H297" s="50"/>
-    </row>
-    <row r="298" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A298" s="14" t="s">
+      <c r="B303" s="57"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="49"/>
+      <c r="E303" s="49"/>
+      <c r="F303" s="49"/>
+      <c r="G303" s="49"/>
+      <c r="H303" s="49"/>
+    </row>
+    <row r="304" spans="1:8" s="58" customFormat="1" ht="47" customHeight="1">
+      <c r="A304" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="B298" s="58"/>
-      <c r="C298" s="50"/>
-      <c r="D298" s="50"/>
-      <c r="E298" s="50"/>
-      <c r="F298" s="50"/>
-      <c r="G298" s="50"/>
-      <c r="H298" s="50"/>
-    </row>
-    <row r="299" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A299" s="14" t="s">
+      <c r="B304" s="57"/>
+      <c r="C304" s="49"/>
+      <c r="D304" s="49"/>
+      <c r="E304" s="49"/>
+      <c r="F304" s="49"/>
+      <c r="G304" s="49"/>
+      <c r="H304" s="49"/>
+    </row>
+    <row r="305" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A305" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B299" s="58"/>
-      <c r="C299" s="50"/>
-      <c r="D299" s="50"/>
-      <c r="E299" s="50"/>
-      <c r="F299" s="50"/>
-      <c r="G299" s="50"/>
-      <c r="H299" s="50"/>
-    </row>
-    <row r="300" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A300" s="14" t="s">
+      <c r="B305" s="57"/>
+      <c r="C305" s="49"/>
+      <c r="D305" s="49"/>
+      <c r="E305" s="49"/>
+      <c r="F305" s="49"/>
+      <c r="G305" s="49"/>
+      <c r="H305" s="49"/>
+    </row>
+    <row r="306" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A306" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B300" s="58"/>
-      <c r="C300" s="50"/>
-      <c r="D300" s="50"/>
-      <c r="E300" s="50"/>
-      <c r="F300" s="50"/>
-      <c r="G300" s="50"/>
-      <c r="H300" s="50"/>
-    </row>
-    <row r="301" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A301" s="14" t="s">
+      <c r="B306" s="57"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="49"/>
+      <c r="E306" s="49"/>
+      <c r="F306" s="49"/>
+      <c r="G306" s="49"/>
+      <c r="H306" s="49"/>
+    </row>
+    <row r="307" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A307" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="B301" s="58"/>
-      <c r="C301" s="50"/>
-      <c r="D301" s="50"/>
-      <c r="E301" s="50"/>
-      <c r="F301" s="50"/>
-      <c r="G301" s="50"/>
-      <c r="H301" s="50"/>
-    </row>
-    <row r="302" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A302" s="14" t="s">
+      <c r="B307" s="57"/>
+      <c r="C307" s="49"/>
+      <c r="D307" s="49"/>
+      <c r="E307" s="49"/>
+      <c r="F307" s="49"/>
+      <c r="G307" s="49"/>
+      <c r="H307" s="49"/>
+    </row>
+    <row r="308" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A308" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B302" s="58"/>
-      <c r="C302" s="50"/>
-      <c r="D302" s="50"/>
-      <c r="E302" s="50"/>
-      <c r="F302" s="50"/>
-      <c r="G302" s="50"/>
-      <c r="H302" s="50"/>
-    </row>
-    <row r="303" spans="1:8" s="59" customFormat="1" ht="47" customHeight="1">
-      <c r="A303" s="13" t="s">
+      <c r="B308" s="57"/>
+      <c r="C308" s="49"/>
+      <c r="D308" s="49"/>
+      <c r="E308" s="49"/>
+      <c r="F308" s="49"/>
+      <c r="G308" s="49"/>
+      <c r="H308" s="49"/>
+    </row>
+    <row r="309" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A309" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="B303" s="58"/>
-      <c r="C303" s="50"/>
-      <c r="D303" s="50"/>
-      <c r="E303" s="50"/>
-      <c r="F303" s="50"/>
-      <c r="G303" s="50"/>
-      <c r="H303" s="50"/>
-    </row>
-    <row r="304" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A304" s="14" t="s">
+      <c r="B309" s="57"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="49"/>
+      <c r="E309" s="49"/>
+      <c r="F309" s="49"/>
+      <c r="G309" s="49"/>
+      <c r="H309" s="49"/>
+    </row>
+    <row r="310" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A310" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="B304" s="58"/>
-      <c r="C304" s="50"/>
-      <c r="D304" s="50"/>
-      <c r="E304" s="50"/>
-      <c r="F304" s="50"/>
-      <c r="G304" s="50"/>
-      <c r="H304" s="50"/>
-    </row>
-    <row r="305" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A305" s="14" t="s">
+      <c r="B310" s="57"/>
+      <c r="C310" s="49"/>
+      <c r="D310" s="49"/>
+      <c r="E310" s="49"/>
+      <c r="F310" s="49"/>
+      <c r="G310" s="49"/>
+      <c r="H310" s="49"/>
+    </row>
+    <row r="311" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A311" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="B305" s="58"/>
-      <c r="C305" s="50"/>
-      <c r="D305" s="50"/>
-      <c r="E305" s="50"/>
-      <c r="F305" s="50"/>
-      <c r="G305" s="50"/>
-      <c r="H305" s="50"/>
-    </row>
-    <row r="306" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A306" s="14" t="s">
+      <c r="B311" s="57"/>
+      <c r="C311" s="49"/>
+      <c r="D311" s="49"/>
+      <c r="E311" s="49"/>
+      <c r="F311" s="49"/>
+      <c r="G311" s="49"/>
+      <c r="H311" s="49"/>
+    </row>
+    <row r="312" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A312" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B306" s="58"/>
-      <c r="C306" s="50"/>
-      <c r="D306" s="50"/>
-      <c r="E306" s="50"/>
-      <c r="F306" s="50"/>
-      <c r="G306" s="50"/>
-      <c r="H306" s="50"/>
-    </row>
-    <row r="307" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A307" s="14" t="s">
+      <c r="B312" s="57"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="49"/>
+      <c r="E312" s="49"/>
+      <c r="F312" s="49"/>
+      <c r="G312" s="49"/>
+      <c r="H312" s="49"/>
+    </row>
+    <row r="313" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A313" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="B307" s="58"/>
-      <c r="C307" s="50"/>
-      <c r="D307" s="50"/>
-      <c r="E307" s="50"/>
-      <c r="F307" s="50"/>
-      <c r="G307" s="50"/>
-      <c r="H307" s="50"/>
-    </row>
-    <row r="308" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A308" s="14" t="s">
+      <c r="B313" s="57"/>
+      <c r="C313" s="49"/>
+      <c r="D313" s="49"/>
+      <c r="E313" s="49"/>
+      <c r="F313" s="49"/>
+      <c r="G313" s="49"/>
+      <c r="H313" s="49"/>
+    </row>
+    <row r="314" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A314" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="B308" s="58"/>
-      <c r="C308" s="50"/>
-      <c r="D308" s="50"/>
-      <c r="E308" s="50"/>
-      <c r="F308" s="50"/>
-      <c r="G308" s="50"/>
-      <c r="H308" s="50"/>
-    </row>
-    <row r="309" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A309" s="14" t="s">
+      <c r="B314" s="57"/>
+      <c r="C314" s="49"/>
+      <c r="D314" s="49"/>
+      <c r="E314" s="49"/>
+      <c r="F314" s="49"/>
+      <c r="G314" s="49"/>
+      <c r="H314" s="49"/>
+    </row>
+    <row r="315" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A315" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="B309" s="58"/>
-      <c r="C309" s="50"/>
-      <c r="D309" s="50"/>
-      <c r="E309" s="50"/>
-      <c r="F309" s="50"/>
-      <c r="G309" s="50"/>
-      <c r="H309" s="50"/>
-    </row>
-    <row r="310" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A310" s="14" t="s">
+      <c r="B315" s="57"/>
+      <c r="C315" s="49"/>
+      <c r="D315" s="49"/>
+      <c r="E315" s="49"/>
+      <c r="F315" s="49"/>
+      <c r="G315" s="49"/>
+      <c r="H315" s="49"/>
+    </row>
+    <row r="316" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A316" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="B310" s="58"/>
-      <c r="C310" s="50"/>
-      <c r="D310" s="50"/>
-      <c r="E310" s="50"/>
-      <c r="F310" s="50"/>
-      <c r="G310" s="50"/>
-      <c r="H310" s="50"/>
-    </row>
-    <row r="311" spans="1:8" s="59" customFormat="1" ht="23" customHeight="1">
-      <c r="A311" s="14" t="s">
+      <c r="B316" s="57"/>
+      <c r="C316" s="49"/>
+      <c r="D316" s="49"/>
+      <c r="E316" s="49"/>
+      <c r="F316" s="49"/>
+      <c r="G316" s="49"/>
+      <c r="H316" s="49"/>
+    </row>
+    <row r="317" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A317" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="B311" s="58"/>
-      <c r="C311" s="50"/>
-      <c r="D311" s="50"/>
-      <c r="E311" s="50"/>
-      <c r="F311" s="50"/>
-      <c r="G311" s="50"/>
-      <c r="H311" s="50"/>
-    </row>
-    <row r="312" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A312" s="14" t="s">
+      <c r="B317" s="57"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="49"/>
+      <c r="E317" s="49"/>
+      <c r="F317" s="49"/>
+      <c r="G317" s="49"/>
+      <c r="H317" s="49"/>
+    </row>
+    <row r="318" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A318" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="B312" s="58"/>
-      <c r="C312" s="50"/>
-      <c r="D312" s="50"/>
-      <c r="E312" s="50"/>
-      <c r="F312" s="50"/>
-      <c r="G312" s="50"/>
-      <c r="H312" s="50"/>
-    </row>
-    <row r="313" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A313" s="14" t="s">
+      <c r="B318" s="57"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="49"/>
+      <c r="E318" s="49"/>
+      <c r="F318" s="49"/>
+      <c r="G318" s="49"/>
+      <c r="H318" s="49"/>
+    </row>
+    <row r="319" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A319" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="B313" s="58"/>
-      <c r="C313" s="50"/>
-      <c r="D313" s="50"/>
-      <c r="E313" s="50"/>
-      <c r="F313" s="50"/>
-      <c r="G313" s="50"/>
-      <c r="H313" s="50"/>
-    </row>
-    <row r="314" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A314" s="14" t="s">
+      <c r="B319" s="57"/>
+      <c r="C319" s="49"/>
+      <c r="D319" s="49"/>
+      <c r="E319" s="49"/>
+      <c r="F319" s="49"/>
+      <c r="G319" s="49"/>
+      <c r="H319" s="49"/>
+    </row>
+    <row r="320" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A320" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="B314" s="58"/>
-      <c r="C314" s="50"/>
-      <c r="D314" s="50"/>
-      <c r="E314" s="50"/>
-      <c r="F314" s="50"/>
-      <c r="G314" s="50"/>
-      <c r="H314" s="50"/>
-    </row>
-    <row r="315" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A315" s="14" t="s">
+      <c r="B320" s="57"/>
+      <c r="C320" s="49"/>
+      <c r="D320" s="49"/>
+      <c r="E320" s="49"/>
+      <c r="F320" s="49"/>
+      <c r="G320" s="49"/>
+      <c r="H320" s="49"/>
+    </row>
+    <row r="321" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A321" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="B315" s="58"/>
-      <c r="C315" s="50"/>
-      <c r="D315" s="50"/>
-      <c r="E315" s="50"/>
-      <c r="F315" s="50"/>
-      <c r="G315" s="50"/>
-      <c r="H315" s="50"/>
-    </row>
-    <row r="316" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A316" s="14" t="s">
+      <c r="B321" s="57"/>
+      <c r="C321" s="49"/>
+      <c r="D321" s="49"/>
+      <c r="E321" s="49"/>
+      <c r="F321" s="49"/>
+      <c r="G321" s="49"/>
+      <c r="H321" s="49"/>
+    </row>
+    <row r="322" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A322" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="B316" s="58"/>
-      <c r="C316" s="50"/>
-      <c r="D316" s="50"/>
-      <c r="E316" s="50"/>
-      <c r="F316" s="50"/>
-      <c r="G316" s="50"/>
-      <c r="H316" s="50"/>
-    </row>
-    <row r="317" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A317" s="14" t="s">
+      <c r="B322" s="57"/>
+      <c r="C322" s="49"/>
+      <c r="D322" s="49"/>
+      <c r="E322" s="49"/>
+      <c r="F322" s="49"/>
+      <c r="G322" s="49"/>
+      <c r="H322" s="49"/>
+    </row>
+    <row r="323" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A323" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="B317" s="58"/>
-      <c r="C317" s="50"/>
-      <c r="D317" s="50"/>
-      <c r="E317" s="50"/>
-      <c r="F317" s="50"/>
-      <c r="G317" s="50"/>
-      <c r="H317" s="50"/>
-    </row>
-    <row r="318" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A318" s="14" t="s">
+      <c r="B323" s="57"/>
+      <c r="C323" s="49"/>
+      <c r="D323" s="49"/>
+      <c r="E323" s="49"/>
+      <c r="F323" s="49"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="49"/>
+    </row>
+    <row r="324" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A324" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="B318" s="58"/>
-      <c r="C318" s="50"/>
-      <c r="D318" s="50"/>
-      <c r="E318" s="50"/>
-      <c r="F318" s="50"/>
-      <c r="G318" s="50"/>
-      <c r="H318" s="50"/>
-    </row>
-    <row r="319" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A319" s="14" t="s">
+      <c r="B324" s="57"/>
+      <c r="C324" s="49"/>
+      <c r="D324" s="49"/>
+      <c r="E324" s="49"/>
+      <c r="F324" s="49"/>
+      <c r="G324" s="49"/>
+      <c r="H324" s="49"/>
+    </row>
+    <row r="325" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A325" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="B319" s="58"/>
-      <c r="C319" s="50"/>
-      <c r="D319" s="50"/>
-      <c r="E319" s="50"/>
-      <c r="F319" s="50"/>
-      <c r="G319" s="50"/>
-      <c r="H319" s="50"/>
-    </row>
-    <row r="320" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A320" s="14" t="s">
+      <c r="B325" s="57"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="49"/>
+      <c r="E325" s="49"/>
+      <c r="F325" s="49"/>
+      <c r="G325" s="49"/>
+      <c r="H325" s="49"/>
+    </row>
+    <row r="326" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A326" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="B320" s="58"/>
-      <c r="C320" s="50"/>
-      <c r="D320" s="50"/>
-      <c r="E320" s="50"/>
-      <c r="F320" s="50"/>
-      <c r="G320" s="50"/>
-      <c r="H320" s="50"/>
-    </row>
-    <row r="321" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A321" s="14" t="s">
+      <c r="B326" s="57"/>
+      <c r="C326" s="49"/>
+      <c r="D326" s="49"/>
+      <c r="E326" s="49"/>
+      <c r="F326" s="49"/>
+      <c r="G326" s="49"/>
+      <c r="H326" s="49"/>
+    </row>
+    <row r="327" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A327" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="B321" s="58"/>
-      <c r="C321" s="50"/>
-      <c r="D321" s="50"/>
-      <c r="E321" s="50"/>
-      <c r="F321" s="50"/>
-      <c r="G321" s="50"/>
-      <c r="H321" s="50"/>
-    </row>
-    <row r="322" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A322" s="14" t="s">
+      <c r="B327" s="57"/>
+      <c r="C327" s="49"/>
+      <c r="D327" s="49"/>
+      <c r="E327" s="49"/>
+      <c r="F327" s="49"/>
+      <c r="G327" s="49"/>
+      <c r="H327" s="49"/>
+    </row>
+    <row r="328" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A328" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="B322" s="58"/>
-      <c r="C322" s="50"/>
-      <c r="D322" s="50"/>
-      <c r="E322" s="50"/>
-      <c r="F322" s="50"/>
-      <c r="G322" s="50"/>
-      <c r="H322" s="50"/>
-    </row>
-    <row r="323" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A323" s="14" t="s">
+      <c r="B328" s="57"/>
+      <c r="C328" s="49"/>
+      <c r="D328" s="49"/>
+      <c r="E328" s="49"/>
+      <c r="F328" s="49"/>
+      <c r="G328" s="49"/>
+      <c r="H328" s="49"/>
+    </row>
+    <row r="329" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A329" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="B323" s="58"/>
-      <c r="C323" s="50"/>
-      <c r="D323" s="50"/>
-      <c r="E323" s="50"/>
-      <c r="F323" s="50"/>
-      <c r="G323" s="50"/>
-      <c r="H323" s="50"/>
-    </row>
-    <row r="324" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A324" s="14" t="s">
+      <c r="B329" s="57"/>
+      <c r="C329" s="49"/>
+      <c r="D329" s="49"/>
+      <c r="E329" s="49"/>
+      <c r="F329" s="49"/>
+      <c r="G329" s="49"/>
+      <c r="H329" s="49"/>
+    </row>
+    <row r="330" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A330" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="B324" s="58"/>
-      <c r="C324" s="50"/>
-      <c r="D324" s="50"/>
-      <c r="E324" s="50"/>
-      <c r="F324" s="50"/>
-      <c r="G324" s="50"/>
-      <c r="H324" s="50"/>
-    </row>
-    <row r="325" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A325" s="14" t="s">
+      <c r="B330" s="57"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="49"/>
+      <c r="E330" s="49"/>
+      <c r="F330" s="49"/>
+      <c r="G330" s="49"/>
+      <c r="H330" s="49"/>
+    </row>
+    <row r="331" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A331" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="B325" s="58"/>
-      <c r="C325" s="50"/>
-      <c r="D325" s="50"/>
-      <c r="E325" s="50"/>
-      <c r="F325" s="50"/>
-      <c r="G325" s="50"/>
-      <c r="H325" s="50"/>
-    </row>
-    <row r="326" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A326" s="14" t="s">
+      <c r="B331" s="57"/>
+      <c r="C331" s="49"/>
+      <c r="D331" s="49"/>
+      <c r="E331" s="49"/>
+      <c r="F331" s="49"/>
+      <c r="G331" s="49"/>
+      <c r="H331" s="49"/>
+    </row>
+    <row r="332" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A332" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="B326" s="58"/>
-      <c r="C326" s="50"/>
-      <c r="D326" s="50"/>
-      <c r="E326" s="50"/>
-      <c r="F326" s="50"/>
-      <c r="G326" s="50"/>
-      <c r="H326" s="50"/>
-    </row>
-    <row r="327" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A327" s="14" t="s">
+      <c r="B332" s="57"/>
+      <c r="C332" s="49"/>
+      <c r="D332" s="49"/>
+      <c r="E332" s="49"/>
+      <c r="F332" s="49"/>
+      <c r="G332" s="49"/>
+      <c r="H332" s="49"/>
+    </row>
+    <row r="333" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A333" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="B327" s="58"/>
-      <c r="C327" s="50"/>
-      <c r="D327" s="50"/>
-      <c r="E327" s="50"/>
-      <c r="F327" s="50"/>
-      <c r="G327" s="50"/>
-      <c r="H327" s="50"/>
-    </row>
-    <row r="328" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A328" s="14" t="s">
+      <c r="B333" s="57"/>
+      <c r="C333" s="49"/>
+      <c r="D333" s="49"/>
+      <c r="E333" s="49"/>
+      <c r="F333" s="49"/>
+      <c r="G333" s="49"/>
+      <c r="H333" s="49"/>
+    </row>
+    <row r="334" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A334" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="B328" s="58"/>
-      <c r="C328" s="50"/>
-      <c r="D328" s="50"/>
-      <c r="E328" s="50"/>
-      <c r="F328" s="50"/>
-      <c r="G328" s="50"/>
-      <c r="H328" s="50"/>
-    </row>
-    <row r="329" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A329" s="14" t="s">
+      <c r="B334" s="57"/>
+      <c r="C334" s="49"/>
+      <c r="D334" s="49"/>
+      <c r="E334" s="49"/>
+      <c r="F334" s="49"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="49"/>
+    </row>
+    <row r="335" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+      <c r="A335" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="B329" s="58"/>
-      <c r="C329" s="50"/>
-      <c r="D329" s="50"/>
-      <c r="E329" s="50"/>
-      <c r="F329" s="50"/>
-      <c r="G329" s="50"/>
-      <c r="H329" s="50"/>
-    </row>
-    <row r="330" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A330" s="14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B330" s="58"/>
-      <c r="C330" s="50"/>
-      <c r="D330" s="50"/>
-      <c r="E330" s="50"/>
-      <c r="F330" s="50"/>
-      <c r="G330" s="50"/>
-      <c r="H330" s="50"/>
-    </row>
-    <row r="331" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A331" s="14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B331" s="58"/>
-      <c r="C331" s="50"/>
-      <c r="D331" s="50"/>
-      <c r="E331" s="50"/>
-      <c r="F331" s="50"/>
-      <c r="G331" s="50"/>
-      <c r="H331" s="50"/>
-    </row>
-    <row r="332" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A332" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B332" s="58"/>
-      <c r="C332" s="50"/>
-      <c r="D332" s="50"/>
-      <c r="E332" s="50"/>
-      <c r="F332" s="50"/>
-      <c r="G332" s="50"/>
-      <c r="H332" s="50"/>
-    </row>
-    <row r="333" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A333" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B333" s="58"/>
-      <c r="C333" s="50"/>
-      <c r="D333" s="50"/>
-      <c r="E333" s="50"/>
-      <c r="F333" s="50"/>
-      <c r="G333" s="50"/>
-      <c r="H333" s="50"/>
-    </row>
-    <row r="334" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A334" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B334" s="58"/>
-      <c r="C334" s="50"/>
-      <c r="D334" s="50"/>
-      <c r="E334" s="50"/>
-      <c r="F334" s="50"/>
-      <c r="G334" s="50"/>
-      <c r="H334" s="50"/>
-    </row>
-    <row r="335" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A335" s="14" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B335" s="58"/>
-      <c r="C335" s="50"/>
-      <c r="D335" s="50"/>
-      <c r="E335" s="50"/>
-      <c r="F335" s="50"/>
-      <c r="G335" s="50"/>
-      <c r="H335" s="50"/>
-    </row>
-    <row r="336" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
+      <c r="B335" s="57"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="49"/>
+      <c r="E335" s="49"/>
+      <c r="F335" s="49"/>
+      <c r="G335" s="49"/>
+      <c r="H335" s="49"/>
+    </row>
+    <row r="336" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B336" s="58"/>
-      <c r="C336" s="50"/>
-      <c r="D336" s="50"/>
-      <c r="E336" s="50"/>
-      <c r="F336" s="50"/>
-      <c r="G336" s="50"/>
-      <c r="H336" s="50"/>
-    </row>
-    <row r="337" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+        <v>1053</v>
+      </c>
+      <c r="B336" s="57"/>
+      <c r="C336" s="49"/>
+      <c r="D336" s="49"/>
+      <c r="E336" s="49"/>
+      <c r="F336" s="49"/>
+      <c r="G336" s="49"/>
+      <c r="H336" s="49"/>
+    </row>
+    <row r="337" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B337" s="35"/>
-      <c r="C337" s="37"/>
-      <c r="D337" s="37"/>
-      <c r="E337" s="37"/>
-      <c r="F337" s="37"/>
-      <c r="G337" s="37"/>
-      <c r="H337" s="37"/>
-    </row>
-    <row r="338" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+        <v>1052</v>
+      </c>
+      <c r="B337" s="57"/>
+      <c r="C337" s="49"/>
+      <c r="D337" s="49"/>
+      <c r="E337" s="49"/>
+      <c r="F337" s="49"/>
+      <c r="G337" s="49"/>
+      <c r="H337" s="49"/>
+    </row>
+    <row r="338" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="14" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B338" s="35"/>
       <c r="C338" s="37"/>
@@ -12396,9 +12536,9 @@
       <c r="G338" s="37"/>
       <c r="H338" s="37"/>
     </row>
-    <row r="339" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+    <row r="339" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="14" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B339" s="35"/>
       <c r="C339" s="37"/>
@@ -12408,9 +12548,9 @@
       <c r="G339" s="37"/>
       <c r="H339" s="37"/>
     </row>
-    <row r="340" spans="1:8" s="60" customFormat="1" ht="22" customHeight="1">
+    <row r="340" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A340" s="14" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B340" s="35"/>
       <c r="C340" s="37"/>
@@ -12420,21 +12560,21 @@
       <c r="G340" s="37"/>
       <c r="H340" s="37"/>
     </row>
-    <row r="341" spans="1:8">
-      <c r="A341" s="57" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B341" s="8"/>
-      <c r="C341" s="5"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="5"/>
-      <c r="H341" s="1"/>
+    <row r="341" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
+      <c r="A341" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B341" s="35"/>
+      <c r="C341" s="37"/>
+      <c r="D341" s="37"/>
+      <c r="E341" s="37"/>
+      <c r="F341" s="37"/>
+      <c r="G341" s="37"/>
+      <c r="H341" s="37"/>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="57" t="s">
-        <v>1075</v>
+      <c r="A342" s="56" t="s">
+        <v>1069</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="5"/>
@@ -12445,8 +12585,8 @@
       <c r="H342" s="1"/>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" s="57" t="s">
-        <v>1076</v>
+      <c r="A343" s="56" t="s">
+        <v>1070</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="5"/>
@@ -12457,8 +12597,8 @@
       <c r="H343" s="1"/>
     </row>
     <row r="344" spans="1:8">
-      <c r="A344" s="57" t="s">
-        <v>1077</v>
+      <c r="A344" s="56" t="s">
+        <v>1071</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="5"/>
@@ -12469,8 +12609,8 @@
       <c r="H344" s="1"/>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="57" t="s">
-        <v>1078</v>
+      <c r="A345" s="56" t="s">
+        <v>1072</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="5"/>
@@ -12481,8 +12621,8 @@
       <c r="H345" s="1"/>
     </row>
     <row r="346" spans="1:8">
-      <c r="A346" s="57" t="s">
-        <v>1079</v>
+      <c r="A346" s="56" t="s">
+        <v>1073</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="5"/>
@@ -12493,8 +12633,8 @@
       <c r="H346" s="1"/>
     </row>
     <row r="347" spans="1:8">
-      <c r="A347" s="57" t="s">
-        <v>1080</v>
+      <c r="A347" s="56" t="s">
+        <v>1074</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="5"/>
@@ -12505,8 +12645,8 @@
       <c r="H347" s="1"/>
     </row>
     <row r="348" spans="1:8">
-      <c r="A348" s="57" t="s">
-        <v>1081</v>
+      <c r="A348" s="56" t="s">
+        <v>1075</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="5"/>
@@ -12517,7 +12657,9 @@
       <c r="H348" s="1"/>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" s="57"/>
+      <c r="A349" s="56" t="s">
+        <v>1076</v>
+      </c>
       <c r="B349" s="8"/>
       <c r="C349" s="5"/>
       <c r="D349" s="1"/>
@@ -12527,7 +12669,7 @@
       <c r="H349" s="1"/>
     </row>
     <row r="350" spans="1:8">
-      <c r="A350" s="57"/>
+      <c r="A350" s="56"/>
       <c r="B350" s="8"/>
       <c r="C350" s="5"/>
       <c r="D350" s="1"/>
@@ -12537,7 +12679,7 @@
       <c r="H350" s="1"/>
     </row>
     <row r="351" spans="1:8">
-      <c r="A351" s="57"/>
+      <c r="A351" s="56"/>
       <c r="B351" s="8"/>
       <c r="C351" s="5"/>
       <c r="D351" s="1"/>
@@ -12547,7 +12689,7 @@
       <c r="H351" s="1"/>
     </row>
     <row r="352" spans="1:8">
-      <c r="A352" s="57"/>
+      <c r="A352" s="56"/>
       <c r="B352" s="8"/>
       <c r="C352" s="5"/>
       <c r="D352" s="1"/>
@@ -12557,7 +12699,7 @@
       <c r="H352" s="1"/>
     </row>
     <row r="353" spans="1:8">
-      <c r="A353" s="57"/>
+      <c r="A353" s="56"/>
       <c r="B353" s="8"/>
       <c r="C353" s="5"/>
       <c r="D353" s="1"/>
@@ -12567,7 +12709,7 @@
       <c r="H353" s="1"/>
     </row>
     <row r="354" spans="1:8">
-      <c r="A354" s="57"/>
+      <c r="A354" s="56"/>
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
       <c r="D354" s="1"/>
@@ -12577,7 +12719,7 @@
       <c r="H354" s="1"/>
     </row>
     <row r="355" spans="1:8">
-      <c r="A355" s="57"/>
+      <c r="A355" s="56"/>
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
       <c r="D355" s="1"/>
@@ -12587,7 +12729,7 @@
       <c r="H355" s="1"/>
     </row>
     <row r="356" spans="1:8">
-      <c r="A356" s="57"/>
+      <c r="A356" s="56"/>
       <c r="B356" s="8"/>
       <c r="C356" s="5"/>
       <c r="D356" s="1"/>
@@ -12597,7 +12739,7 @@
       <c r="H356" s="1"/>
     </row>
     <row r="357" spans="1:8">
-      <c r="A357" s="57"/>
+      <c r="A357" s="56"/>
       <c r="B357" s="8"/>
       <c r="C357" s="5"/>
       <c r="D357" s="1"/>
@@ -12607,7 +12749,7 @@
       <c r="H357" s="1"/>
     </row>
     <row r="358" spans="1:8">
-      <c r="A358" s="57"/>
+      <c r="A358" s="56"/>
       <c r="B358" s="8"/>
       <c r="C358" s="5"/>
       <c r="D358" s="1"/>
@@ -12617,7 +12759,7 @@
       <c r="H358" s="1"/>
     </row>
     <row r="359" spans="1:8">
-      <c r="A359" s="57"/>
+      <c r="A359" s="56"/>
       <c r="B359" s="8"/>
       <c r="C359" s="5"/>
       <c r="D359" s="1"/>
@@ -12627,7 +12769,7 @@
       <c r="H359" s="1"/>
     </row>
     <row r="360" spans="1:8">
-      <c r="A360" s="57"/>
+      <c r="A360" s="56"/>
       <c r="B360" s="8"/>
       <c r="C360" s="5"/>
       <c r="D360" s="1"/>
@@ -12637,7 +12779,7 @@
       <c r="H360" s="1"/>
     </row>
     <row r="361" spans="1:8">
-      <c r="A361" s="57"/>
+      <c r="A361" s="56"/>
       <c r="B361" s="8"/>
       <c r="C361" s="5"/>
       <c r="D361" s="1"/>
@@ -12647,7 +12789,7 @@
       <c r="H361" s="1"/>
     </row>
     <row r="362" spans="1:8">
-      <c r="A362" s="57"/>
+      <c r="A362" s="56"/>
       <c r="B362" s="8"/>
       <c r="C362" s="5"/>
       <c r="D362" s="1"/>
@@ -12657,7 +12799,7 @@
       <c r="H362" s="1"/>
     </row>
     <row r="363" spans="1:8">
-      <c r="A363" s="57"/>
+      <c r="A363" s="56"/>
       <c r="B363" s="8"/>
       <c r="C363" s="5"/>
       <c r="D363" s="1"/>
@@ -12667,7 +12809,7 @@
       <c r="H363" s="1"/>
     </row>
     <row r="364" spans="1:8">
-      <c r="A364" s="57"/>
+      <c r="A364" s="56"/>
       <c r="B364" s="8"/>
       <c r="C364" s="5"/>
       <c r="D364" s="1"/>
@@ -12677,7 +12819,7 @@
       <c r="H364" s="1"/>
     </row>
     <row r="365" spans="1:8">
-      <c r="A365" s="57"/>
+      <c r="A365" s="56"/>
       <c r="B365" s="8"/>
       <c r="C365" s="5"/>
       <c r="D365" s="1"/>
@@ -12687,7 +12829,7 @@
       <c r="H365" s="1"/>
     </row>
     <row r="366" spans="1:8">
-      <c r="A366" s="57"/>
+      <c r="A366" s="56"/>
       <c r="B366" s="8"/>
       <c r="C366" s="5"/>
       <c r="D366" s="1"/>
@@ -12697,7 +12839,7 @@
       <c r="H366" s="1"/>
     </row>
     <row r="367" spans="1:8">
-      <c r="A367" s="57"/>
+      <c r="A367" s="56"/>
       <c r="B367" s="8"/>
       <c r="C367" s="5"/>
       <c r="D367" s="1"/>
@@ -12707,7 +12849,7 @@
       <c r="H367" s="1"/>
     </row>
     <row r="368" spans="1:8">
-      <c r="A368" s="57"/>
+      <c r="A368" s="56"/>
       <c r="B368" s="8"/>
       <c r="C368" s="5"/>
       <c r="D368" s="1"/>
@@ -12717,7 +12859,7 @@
       <c r="H368" s="1"/>
     </row>
     <row r="369" spans="1:8">
-      <c r="A369" s="57"/>
+      <c r="A369" s="56"/>
       <c r="B369" s="8"/>
       <c r="C369" s="5"/>
       <c r="D369" s="1"/>
@@ -12727,7 +12869,7 @@
       <c r="H369" s="1"/>
     </row>
     <row r="370" spans="1:8">
-      <c r="A370" s="57"/>
+      <c r="A370" s="56"/>
       <c r="B370" s="8"/>
       <c r="C370" s="5"/>
       <c r="D370" s="1"/>
@@ -12737,7 +12879,7 @@
       <c r="H370" s="1"/>
     </row>
     <row r="371" spans="1:8">
-      <c r="A371" s="57"/>
+      <c r="A371" s="56"/>
       <c r="B371" s="8"/>
       <c r="C371" s="5"/>
       <c r="D371" s="1"/>
@@ -12747,7 +12889,7 @@
       <c r="H371" s="1"/>
     </row>
     <row r="372" spans="1:8">
-      <c r="A372" s="57"/>
+      <c r="A372" s="56"/>
       <c r="B372" s="8"/>
       <c r="C372" s="5"/>
       <c r="D372" s="1"/>
@@ -12757,7 +12899,7 @@
       <c r="H372" s="1"/>
     </row>
     <row r="373" spans="1:8">
-      <c r="A373" s="57"/>
+      <c r="A373" s="56"/>
       <c r="B373" s="8"/>
       <c r="C373" s="5"/>
       <c r="D373" s="1"/>
@@ -12767,7 +12909,7 @@
       <c r="H373" s="1"/>
     </row>
     <row r="374" spans="1:8">
-      <c r="A374" s="57"/>
+      <c r="A374" s="56"/>
       <c r="B374" s="8"/>
       <c r="C374" s="5"/>
       <c r="D374" s="1"/>
@@ -12777,7 +12919,7 @@
       <c r="H374" s="1"/>
     </row>
     <row r="375" spans="1:8">
-      <c r="A375" s="57"/>
+      <c r="A375" s="56"/>
       <c r="B375" s="8"/>
       <c r="C375" s="5"/>
       <c r="D375" s="1"/>
@@ -12787,7 +12929,7 @@
       <c r="H375" s="1"/>
     </row>
     <row r="376" spans="1:8">
-      <c r="A376" s="57"/>
+      <c r="A376" s="56"/>
       <c r="B376" s="8"/>
       <c r="C376" s="5"/>
       <c r="D376" s="1"/>
@@ -12797,7 +12939,7 @@
       <c r="H376" s="1"/>
     </row>
     <row r="377" spans="1:8">
-      <c r="A377" s="57"/>
+      <c r="A377" s="56"/>
       <c r="B377" s="8"/>
       <c r="C377" s="5"/>
       <c r="D377" s="1"/>
@@ -12807,7 +12949,7 @@
       <c r="H377" s="1"/>
     </row>
     <row r="378" spans="1:8">
-      <c r="A378" s="57"/>
+      <c r="A378" s="56"/>
       <c r="B378" s="8"/>
       <c r="C378" s="5"/>
       <c r="D378" s="1"/>
@@ -12817,7 +12959,7 @@
       <c r="H378" s="1"/>
     </row>
     <row r="379" spans="1:8">
-      <c r="A379" s="57"/>
+      <c r="A379" s="56"/>
       <c r="B379" s="8"/>
       <c r="C379" s="5"/>
       <c r="D379" s="1"/>
@@ -12827,7 +12969,7 @@
       <c r="H379" s="1"/>
     </row>
     <row r="380" spans="1:8">
-      <c r="A380" s="57"/>
+      <c r="A380" s="56"/>
       <c r="B380" s="8"/>
       <c r="C380" s="5"/>
       <c r="D380" s="1"/>
@@ -12837,7 +12979,7 @@
       <c r="H380" s="1"/>
     </row>
     <row r="381" spans="1:8">
-      <c r="A381" s="57"/>
+      <c r="A381" s="56"/>
       <c r="B381" s="8"/>
       <c r="C381" s="5"/>
       <c r="D381" s="1"/>
@@ -12847,7 +12989,7 @@
       <c r="H381" s="1"/>
     </row>
     <row r="382" spans="1:8">
-      <c r="A382" s="57"/>
+      <c r="A382" s="56"/>
       <c r="B382" s="8"/>
       <c r="C382" s="5"/>
       <c r="D382" s="1"/>
@@ -12857,7 +12999,7 @@
       <c r="H382" s="1"/>
     </row>
     <row r="383" spans="1:8">
-      <c r="A383" s="57"/>
+      <c r="A383" s="56"/>
       <c r="B383" s="8"/>
       <c r="C383" s="5"/>
       <c r="D383" s="1"/>
@@ -12867,7 +13009,7 @@
       <c r="H383" s="1"/>
     </row>
     <row r="384" spans="1:8">
-      <c r="A384" s="57"/>
+      <c r="A384" s="56"/>
       <c r="B384" s="8"/>
       <c r="C384" s="5"/>
       <c r="D384" s="1"/>
@@ -12877,7 +13019,7 @@
       <c r="H384" s="1"/>
     </row>
     <row r="385" spans="1:8">
-      <c r="A385" s="57"/>
+      <c r="A385" s="56"/>
       <c r="B385" s="8"/>
       <c r="C385" s="5"/>
       <c r="D385" s="1"/>
@@ -12887,7 +13029,7 @@
       <c r="H385" s="1"/>
     </row>
     <row r="386" spans="1:8">
-      <c r="A386" s="57"/>
+      <c r="A386" s="56"/>
       <c r="B386" s="8"/>
       <c r="C386" s="5"/>
       <c r="D386" s="1"/>
@@ -12897,7 +13039,7 @@
       <c r="H386" s="1"/>
     </row>
     <row r="387" spans="1:8">
-      <c r="A387" s="57"/>
+      <c r="A387" s="56"/>
       <c r="B387" s="8"/>
       <c r="C387" s="5"/>
       <c r="D387" s="1"/>
@@ -12907,7 +13049,7 @@
       <c r="H387" s="1"/>
     </row>
     <row r="388" spans="1:8">
-      <c r="A388" s="57"/>
+      <c r="A388" s="56"/>
       <c r="B388" s="8"/>
       <c r="C388" s="5"/>
       <c r="D388" s="1"/>
@@ -12917,7 +13059,7 @@
       <c r="H388" s="1"/>
     </row>
     <row r="389" spans="1:8">
-      <c r="A389" s="57"/>
+      <c r="A389" s="56"/>
       <c r="B389" s="8"/>
       <c r="C389" s="5"/>
       <c r="D389" s="1"/>
@@ -12927,7 +13069,7 @@
       <c r="H389" s="1"/>
     </row>
     <row r="390" spans="1:8">
-      <c r="A390" s="57"/>
+      <c r="A390" s="56"/>
       <c r="B390" s="8"/>
       <c r="C390" s="5"/>
       <c r="D390" s="1"/>
@@ -12937,7 +13079,7 @@
       <c r="H390" s="1"/>
     </row>
     <row r="391" spans="1:8">
-      <c r="A391" s="57"/>
+      <c r="A391" s="56"/>
       <c r="B391" s="8"/>
       <c r="C391" s="5"/>
       <c r="D391" s="1"/>
@@ -12945,6 +13087,16 @@
       <c r="F391" s="1"/>
       <c r="G391" s="5"/>
       <c r="H391" s="1"/>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" s="56"/>
+      <c r="B392" s="8"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13059,28 +13211,27 @@
     <hyperlink ref="G44" r:id="rId109" xr:uid="{52F32864-DDFD-044B-A6E1-085054B9B200}"/>
     <hyperlink ref="G206" r:id="rId110" xr:uid="{23D9C103-F2A2-474D-8B3B-C8B3ADAFAF09}"/>
     <hyperlink ref="G207" r:id="rId111" xr:uid="{2401B952-575E-1D45-AF80-42C35916F8A5}"/>
-    <hyperlink ref="G213" r:id="rId112" xr:uid="{B267D8D1-4C78-B943-A2F1-AE1E77514E31}"/>
-    <hyperlink ref="G215" r:id="rId113" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
-    <hyperlink ref="G216" r:id="rId114" xr:uid="{66FDCC55-D608-A548-B0F4-23241D9AEAB3}"/>
-    <hyperlink ref="G209" r:id="rId115" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
-    <hyperlink ref="G254" r:id="rId116" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
-    <hyperlink ref="G255" r:id="rId117" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
-    <hyperlink ref="G140" r:id="rId118" xr:uid="{E5B20948-57A8-2E48-9191-175A672155C6}"/>
-    <hyperlink ref="G146" r:id="rId119" xr:uid="{08B7E248-E2F5-4A4A-BAC3-ABDA6CE1A484}"/>
-    <hyperlink ref="G159" r:id="rId120" xr:uid="{E597C9B9-B49B-E748-9679-4D7E6A09DF83}"/>
-    <hyperlink ref="G158" r:id="rId121" xr:uid="{E5F509BA-2BB8-D149-AA35-7BDB432E18AF}"/>
-    <hyperlink ref="G160" r:id="rId122" xr:uid="{4FC031CC-93DC-9244-9042-8DD1D67AC6F9}"/>
-    <hyperlink ref="G161" r:id="rId123" xr:uid="{C62E4B96-B936-B44E-8C2F-3864E9CFE4CC}"/>
-    <hyperlink ref="G162" r:id="rId124" xr:uid="{1BA81E42-D0F9-0044-8ED4-7FEE90A1B0AA}"/>
-    <hyperlink ref="G163" r:id="rId125" xr:uid="{A8CD9D15-E8C0-344E-A762-C25892E3B26A}"/>
-    <hyperlink ref="G164" r:id="rId126" xr:uid="{798B478D-29D7-E04E-8FB6-1E725649CEDE}"/>
-    <hyperlink ref="G179" r:id="rId127" xr:uid="{128F6ED5-8C9A-E146-83DF-187B87ED530F}"/>
-    <hyperlink ref="G187" r:id="rId128" xr:uid="{37331509-B7B8-7548-B5C6-857F36A7E109}"/>
-    <hyperlink ref="G188" r:id="rId129" xr:uid="{31FA25FC-46C7-D74A-99A5-1140E96809B5}"/>
-    <hyperlink ref="G196" r:id="rId130" xr:uid="{5CC18E71-C5D0-6A4D-AD79-B547613CD77D}"/>
-    <hyperlink ref="G293" r:id="rId131" xr:uid="{754094CD-003E-114E-B66D-2DEF0C37F04E}"/>
+    <hyperlink ref="G216" r:id="rId112" xr:uid="{B267D8D1-4C78-B943-A2F1-AE1E77514E31}"/>
+    <hyperlink ref="G218" r:id="rId113" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
+    <hyperlink ref="G210" r:id="rId114" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
+    <hyperlink ref="G255" r:id="rId115" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
+    <hyperlink ref="G256" r:id="rId116" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
+    <hyperlink ref="G140" r:id="rId117" xr:uid="{E5B20948-57A8-2E48-9191-175A672155C6}"/>
+    <hyperlink ref="G146" r:id="rId118" xr:uid="{08B7E248-E2F5-4A4A-BAC3-ABDA6CE1A484}"/>
+    <hyperlink ref="G159" r:id="rId119" xr:uid="{E597C9B9-B49B-E748-9679-4D7E6A09DF83}"/>
+    <hyperlink ref="G158" r:id="rId120" xr:uid="{E5F509BA-2BB8-D149-AA35-7BDB432E18AF}"/>
+    <hyperlink ref="G160" r:id="rId121" xr:uid="{4FC031CC-93DC-9244-9042-8DD1D67AC6F9}"/>
+    <hyperlink ref="G161" r:id="rId122" xr:uid="{C62E4B96-B936-B44E-8C2F-3864E9CFE4CC}"/>
+    <hyperlink ref="G162" r:id="rId123" xr:uid="{1BA81E42-D0F9-0044-8ED4-7FEE90A1B0AA}"/>
+    <hyperlink ref="G163" r:id="rId124" xr:uid="{A8CD9D15-E8C0-344E-A762-C25892E3B26A}"/>
+    <hyperlink ref="G164" r:id="rId125" xr:uid="{798B478D-29D7-E04E-8FB6-1E725649CEDE}"/>
+    <hyperlink ref="G179" r:id="rId126" xr:uid="{128F6ED5-8C9A-E146-83DF-187B87ED530F}"/>
+    <hyperlink ref="G187" r:id="rId127" xr:uid="{37331509-B7B8-7548-B5C6-857F36A7E109}"/>
+    <hyperlink ref="G188" r:id="rId128" xr:uid="{31FA25FC-46C7-D74A-99A5-1140E96809B5}"/>
+    <hyperlink ref="G196" r:id="rId129" xr:uid="{5CC18E71-C5D0-6A4D-AD79-B547613CD77D}"/>
+    <hyperlink ref="G294" r:id="rId130" xr:uid="{754094CD-003E-114E-B66D-2DEF0C37F04E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId132"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId131"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ACA7C0-3460-544A-B62E-F756931658ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033312B-3D07-1143-8A30-6C86FB1EAF25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1122">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -2130,15 +2130,6 @@
 Minimize the total number of operations</t>
   </si>
   <si>
-    <t>How can we prove that at least one duplicate number must exist in nums? 
-Can you solve the problem without modifying the array nums?
-Can you solve the problem using only constant, O(1) extra space?
-Can you solve the problem with runtime complexity less than O(n2)?</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/counting-bits/</t>
   </si>
   <si>
@@ -2182,9 +2173,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/sort-characters-by-frequency/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Follow up: Your solution should run in O(log n) time and O(1) space]</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/single-element-in-a-sorted-array/</t>
@@ -2405,9 +2393,6 @@
     <t>https://www.geeksforgeeks.org/find-any-one-of-the-multiple-repeating-elements-in-read-only-array-set-2/</t>
   </si>
   <si>
-    <t>interviewbit.com/problems/find-duplicate-in-array/</t>
-  </si>
-  <si>
     <t>note that since numbers are always [1,n] and size is [n+1] so there will be atleast 1 repeating element present, o(n) time and O(1) space, floyd cycle detection, same as finding the starting node of the cycle in linkedlist</t>
   </si>
   <si>
@@ -4186,47 +4171,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>moves zeroes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [Given an array nums, move all 0's to the end of it while maintaining the relative order of the non-zero elements]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>find the duplicate number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [array of integers nums containing n + 1 integers where each integer is in the range [1, n] inclusive.
-There is only one duplicate number in nums, return this duplicate number]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>counting bits</t>
     </r>
     <r>
@@ -4406,26 +4350,6 @@
         <family val="1"/>
       </rPr>
       <t>y [Given a string, sort it in decreasing order based on the frequency of characters]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>single element in sorted array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [You are given a sorted array consisting of only integers where every element appears exactly twice, except for one element which appears exactly once. Find this single element that appears only once.</t>
     </r>
   </si>
   <si>
@@ -5594,9 +5518,6 @@
   </si>
   <si>
     <t>topological sort</t>
-  </si>
-  <si>
-    <t>graph is bipartite or not</t>
   </si>
   <si>
     <t>detect negative cycle in a graph</t>
@@ -6121,12 +6042,137 @@
 Return I. O(min(mLongm + nlogn))</t>
     </r>
   </si>
+  <si>
+    <t>&gt;similar to bubble sort
+&gt;if you encounter 0, swap it with the rest of the elements and take it to the last
+&gt;each time a zero will be placed to the last, so reduce the last index by 1
+&gt;repeat this step n-1 times (you can break early if swapping doesnt occure atleast once in an iteration)
+O(n^2) time</t>
+  </si>
+  <si>
+    <t>using extra array O(n) time and O(n) space</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/solution/</t>
+  </si>
+  <si>
+    <r>
+      <t>moves zeroes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [Given an array nums, move all 0's to the end of it while maintaining the relative order of the non-zero elements]</t>
+    </r>
+  </si>
+  <si>
+    <t>[TWO Traversal] Iterate over non-zero elements, keeptrack of lastNonZeroFound(init 0)
+nums[lastNonZeroFoundAt++] = nums[i]; We just need to fill remaining array with 0's, Complexity: O(n). However, the total number of operations are still sub-optimal. The total operations (array writes) that code does is n (Total number of elements). space O(1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Single Traversal] when we encounter a non-zero element, we need to swap elements pointed by current and slow pointer, then advance both pointers. If it's zero element, we just advance current pointer. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Complexity: O(n) and O(1).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> However, the total number of operations are optimal. The total operations (array writes) that code does is Number of non-0 elements.This gives us a much better best-case (when most of the elements are 0) complexity than last solution. However, the worst-case (when all elements are non-0) complexity for both the algorithms is same.</t>
+    </r>
+  </si>
+  <si>
+    <t>using bit manipulation</t>
+  </si>
+  <si>
+    <t>leetcode.com/problems/find-the-duplicate-number/
+interviewbit.com/problems/find-duplicate-in-array/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>single element in sorted array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [You are given a sorted array consisting of only integers where every element appears exactly twice, except for one element which appears exactly once. Find this single element that appears only once. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Follow up:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Your solution should run in O(log n) time and O(1) space]</t>
+    </r>
+  </si>
+  <si>
+    <t>take XOR of all the elements to get the answer [O(n) time and O(1) space]</t>
+  </si>
+  <si>
+    <t>a single for loop can also determine the SINGLE_ELEMENT as array is sorted O(n) time O(1) space</t>
+  </si>
+  <si>
+    <t>[handle corner cases of answer separately [idx (0,1) and (n-1,n-2)]
+1) if (A[i-1] != A[i] != A[i+1]) return A[i]
+2) if(mid IS_ODD &amp;&amp; A[mid-1]==A[mid]) start = mid+1
+3) else if(mid IS_EVEN &amp;&amp; A[mid+1 == A[mid]]) start = mid+1
+4) else end = mid-1
+step 2 &amp; 3 denotes correct position of elements upto mid , so ans must be on the right side</t>
+  </si>
+  <si>
+    <t>since the array is sorted we can make use of this fact, each time you can discard half of the part of the array by observing the correct position of the element and its duplicate, what is the reason if they are not at the correct position and which side should you go left or right? -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corner cases(when answer lies at the end corners]
+if(n==1) return A[0]
+if(A[0] != A[1]) return A[0]
+if(A[n-1] != A[n-2]) return A[n-1]
+        </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6344,6 +6390,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6407,7 +6467,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -6585,6 +6645,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6869,10 +6932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S392"/>
+  <dimension ref="A1:S390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="163" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="158" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6957,13 +7020,13 @@
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -7030,7 +7093,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -7059,7 +7122,7 @@
     </row>
     <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>44</v>
@@ -7073,13 +7136,13 @@
     </row>
     <row r="10" spans="1:8" ht="58" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -7129,7 +7192,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -7142,7 +7205,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -7162,10 +7225,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>52</v>
@@ -7229,13 +7292,13 @@
     </row>
     <row r="19" spans="1:8" ht="46" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7245,13 +7308,13 @@
     </row>
     <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>1079</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1087</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7261,13 +7324,13 @@
     </row>
     <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>1078</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>1086</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7275,9 +7338,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1">
+    <row r="22" spans="1:8" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
@@ -7289,7 +7352,7 @@
     </row>
     <row r="23" spans="1:8" ht="32" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
@@ -7299,9 +7362,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1">
+    <row r="24" spans="1:8" ht="33" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
@@ -7311,9 +7374,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="19" customHeight="1">
+    <row r="25" spans="1:8" ht="33" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
@@ -7323,9 +7386,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1">
+    <row r="26" spans="1:8" ht="33" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
@@ -7335,9 +7398,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="19" customHeight="1">
+    <row r="27" spans="1:8" ht="29" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
@@ -7347,3640 +7410,3660 @@
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="23" customHeight="1">
+    <row r="28" spans="1:8" ht="46" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="43" customHeight="1">
       <c r="A29" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="45" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="23" customHeight="1">
+      <c r="A31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B31" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="42">
-      <c r="A30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="28">
-      <c r="A31" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="28">
+    <row r="32" spans="1:8" ht="42">
       <c r="A32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="1:8" ht="36" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>77</v>
+    <row r="33" spans="1:8" ht="28">
+      <c r="A33" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="28">
       <c r="A34" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
-        <v>83</v>
+      <c r="G34" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" ht="58" customHeight="1">
+    <row r="35" spans="1:8" ht="36" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>805</v>
+        <v>77</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>806</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" ht="28">
+    <row r="36" spans="1:8">
       <c r="A36" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>88</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" ht="29" customHeight="1">
+    <row r="37" spans="1:8" ht="58" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>90</v>
+        <v>801</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>89</v>
+        <v>802</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
+    <row r="38" spans="1:8" ht="28">
       <c r="A38" s="13" t="s">
-        <v>807</v>
+        <v>86</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1">
+    <row r="39" spans="1:8" ht="29" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>925</v>
+        <v>90</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" ht="23" customHeight="1">
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>101</v>
+        <v>803</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8" ht="68" customHeight="1">
+    <row r="41" spans="1:8" ht="25" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>108</v>
+        <v>918</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" ht="28">
+    <row r="42" spans="1:8" ht="23" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" ht="56">
+    <row r="43" spans="1:8" ht="68" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>670</v>
+        <v>108</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>809</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" ht="29" customHeight="1">
+    <row r="44" spans="1:8" ht="28">
       <c r="A44" s="13" t="s">
-        <v>685</v>
+        <v>109</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>687</v>
+        <v>110</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="20" t="s">
-        <v>686</v>
-      </c>
+      <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" ht="42">
+    <row r="45" spans="1:8" ht="56">
       <c r="A45" s="13" t="s">
-        <v>113</v>
+        <v>670</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>805</v>
+      </c>
       <c r="F45" s="19"/>
       <c r="G45" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" ht="56">
+    <row r="46" spans="1:8" ht="29" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>810</v>
+        <v>685</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>119</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
-        <v>117</v>
+        <v>686</v>
       </c>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" ht="86" customHeight="1">
+    <row r="47" spans="1:8" ht="42">
       <c r="A47" s="13" t="s">
-        <v>811</v>
+        <v>113</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>929</v>
+        <v>116</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" ht="43" customHeight="1">
+    <row r="48" spans="1:8" ht="56">
       <c r="A48" s="13" t="s">
-        <v>122</v>
+        <v>806</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" ht="50" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>812</v>
+    <row r="49" spans="1:8" ht="86" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>807</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>129</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8" ht="46" customHeight="1">
+    <row r="50" spans="1:8" ht="43" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>813</v>
+        <v>122</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" ht="42">
-      <c r="A51" s="13" t="s">
-        <v>930</v>
+    <row r="51" spans="1:8" ht="50" customHeight="1">
+      <c r="A51" s="23" t="s">
+        <v>808</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>615</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" ht="51" customHeight="1">
+    <row r="52" spans="1:8" ht="46" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>141</v>
+        <v>809</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" ht="60" customHeight="1">
+    <row r="53" spans="1:8" ht="42">
       <c r="A53" s="13" t="s">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>615</v>
+      </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1">
+    <row r="54" spans="1:8" ht="51" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="1:8" ht="29" customHeight="1">
+    <row r="55" spans="1:8" ht="60" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>150</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="56" spans="1:8" ht="45" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>816</v>
+        <v>145</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>153</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8" ht="71" customHeight="1">
+    <row r="57" spans="1:8" ht="29" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>818</v>
+        <v>148</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="D57" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="1:8" ht="38" customHeight="1">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>931</v>
+        <v>812</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>932</v>
+        <v>19</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" ht="28">
+    <row r="59" spans="1:8" ht="71" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>159</v>
+        <v>813</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="19"/>
+        <v>814</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>749</v>
+      </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
+    <row r="60" spans="1:8" ht="38" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>819</v>
+        <v>924</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>162</v>
+        <v>925</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" ht="53" customHeight="1">
+    <row r="61" spans="1:8" ht="28">
       <c r="A61" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" ht="24" customHeight="1">
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>170</v>
+        <v>815</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>669</v>
+        <v>156</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" ht="24" customHeight="1">
+    <row r="63" spans="1:8" ht="53" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>173</v>
+        <v>816</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" ht="75" customHeight="1">
+    <row r="64" spans="1:8" ht="24" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" ht="31" customHeight="1">
+    <row r="65" spans="1:8" ht="24" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="19" t="s">
-        <v>179</v>
+      <c r="G65" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" ht="41" customHeight="1">
+    <row r="66" spans="1:8" ht="75" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>821</v>
+        <v>926</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" ht="36" customHeight="1">
+    <row r="67" spans="1:8" ht="31" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+        <v>181</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="20" t="s">
-        <v>190</v>
+      <c r="G67" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" ht="19" customHeight="1">
+    <row r="68" spans="1:8" ht="41" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>196</v>
+        <v>817</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" s="19"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" ht="26" customHeight="1">
+    <row r="69" spans="1:8" ht="36" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" ht="48" customHeight="1">
+    <row r="70" spans="1:8" ht="19" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>934</v>
+        <v>196</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" ht="22" customHeight="1">
+    <row r="71" spans="1:8" ht="26" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" ht="38" customHeight="1">
+    <row r="72" spans="1:8" ht="48" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="G72" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" ht="46" customHeight="1">
+    <row r="73" spans="1:8" ht="22" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>936</v>
+        <v>207</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>209</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>210</v>
+      </c>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" ht="28" customHeight="1">
+    <row r="74" spans="1:8" ht="38" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>822</v>
+        <v>928</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>221</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" ht="29" customHeight="1">
+    <row r="75" spans="1:8" ht="46" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>224</v>
+        <v>929</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="20" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1">
+    <row r="76" spans="1:8" ht="28" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>937</v>
+        <v>818</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" ht="28">
+    <row r="77" spans="1:8" ht="29" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>823</v>
+        <v>226</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" ht="27" customHeight="1">
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>238</v>
+        <v>930</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="F78" s="19"/>
       <c r="G78" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" ht="26" customHeight="1">
+    <row r="79" spans="1:8" ht="28">
       <c r="A79" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>242</v>
+        <v>819</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" ht="125" customHeight="1">
-      <c r="A80" s="32" t="s">
-        <v>244</v>
+    <row r="80" spans="1:8" ht="27" customHeight="1">
+      <c r="A80" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>938</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>939</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>247</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" ht="84" customHeight="1">
-      <c r="A81" s="32" t="s">
-        <v>248</v>
+    <row r="81" spans="1:8" ht="26" customHeight="1">
+      <c r="A81" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>940</v>
+        <v>242</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>253</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="53" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
+        <v>243</v>
+      </c>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:8" ht="125" customHeight="1">
+      <c r="A82" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="F82" s="19"/>
       <c r="G82" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" ht="29" customHeight="1">
-      <c r="A83" s="13" t="s">
-        <v>256</v>
+    <row r="83" spans="1:8" ht="84" customHeight="1">
+      <c r="A83" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
+        <v>251</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="F83" s="19"/>
       <c r="G83" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:8" ht="47" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="53" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>263</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" ht="76" customHeight="1">
+    <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" ht="129" customHeight="1">
+    <row r="86" spans="1:8" ht="47" customHeight="1">
       <c r="A86" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" ht="36" customHeight="1">
+    <row r="87" spans="1:8" ht="76" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>941</v>
+        <v>264</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>271</v>
+        <v>820</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>273</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="G87" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="129" customHeight="1">
       <c r="A88" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" ht="28">
+    <row r="89" spans="1:8" ht="36" customHeight="1">
       <c r="A89" s="13" t="s">
-        <v>278</v>
+        <v>934</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="42" customHeight="1">
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" ht="40" customHeight="1">
+    <row r="91" spans="1:8" ht="28">
       <c r="A91" s="13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+        <v>286</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" spans="1:8" ht="28" customHeight="1">
+        <v>279</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="42" customHeight="1">
       <c r="A92" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>295</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="20" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" ht="37" customHeight="1">
+    <row r="93" spans="1:8" ht="40" customHeight="1">
       <c r="A93" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>297</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="70">
+    <row r="94" spans="1:8" ht="28" customHeight="1">
       <c r="A94" s="13" t="s">
-        <v>825</v>
+        <v>292</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D94" s="19"/>
+        <v>294</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>295</v>
+      </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="20" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" ht="31" customHeight="1">
+    <row r="95" spans="1:8" ht="37" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D95" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
       <c r="G95" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" ht="112">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="70">
       <c r="A96" s="13" t="s">
-        <v>307</v>
+        <v>821</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>942</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>310</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" ht="96" customHeight="1">
+    <row r="97" spans="1:8" ht="31" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>315</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:8" ht="57" customHeight="1">
+    <row r="98" spans="1:8" ht="112">
       <c r="A98" s="13" t="s">
-        <v>827</v>
+        <v>307</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D98" s="19"/>
+        <v>935</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" ht="60" customHeight="1">
+    <row r="99" spans="1:8" ht="96" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>828</v>
+        <v>311</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+        <v>313</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="F99" s="19"/>
       <c r="G99" s="20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" ht="99" customHeight="1">
+    <row r="100" spans="1:8" ht="57" customHeight="1">
       <c r="A100" s="13" t="s">
-        <v>322</v>
+        <v>823</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="20" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" ht="28">
+    <row r="101" spans="1:8" ht="60" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>326</v>
+        <v>824</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>330</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H101" s="19"/>
     </row>
-    <row r="102" spans="1:8" ht="53" customHeight="1">
+    <row r="102" spans="1:8" ht="99" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>829</v>
+        <v>322</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="20" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H102" s="19"/>
     </row>
-    <row r="103" spans="1:8" ht="38" customHeight="1">
+    <row r="103" spans="1:8" ht="28">
       <c r="A103" s="13" t="s">
-        <v>830</v>
+        <v>326</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="E103" s="19"/>
+        <v>331</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="F103" s="19"/>
       <c r="G103" s="20" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H103" s="19"/>
     </row>
-    <row r="104" spans="1:8" ht="70">
+    <row r="104" spans="1:8" ht="53" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="D104" s="19"/>
+        <v>332</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H104" s="19"/>
     </row>
-    <row r="105" spans="1:8" ht="22" customHeight="1">
+    <row r="105" spans="1:8" ht="38" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>343</v>
+        <v>826</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D105" s="19"/>
+        <v>337</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>339</v>
+      </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H105" s="19"/>
     </row>
-    <row r="106" spans="1:8" ht="20" customHeight="1">
+    <row r="106" spans="1:8" ht="70">
       <c r="A106" s="13" t="s">
-        <v>346</v>
+        <v>827</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>349</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="20" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H106" s="19"/>
     </row>
-    <row r="107" spans="1:8" ht="19" customHeight="1">
+    <row r="107" spans="1:8" ht="22" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C107" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>344</v>
+      </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H107" s="19"/>
     </row>
-    <row r="108" spans="1:8" ht="28">
+    <row r="108" spans="1:8" ht="20" customHeight="1">
       <c r="A108" s="13" t="s">
-        <v>832</v>
+        <v>346</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H108" s="19"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="19" customHeight="1">
       <c r="A109" s="13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>361</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H109" s="19"/>
     </row>
-    <row r="110" spans="1:8" ht="27" customHeight="1">
+    <row r="110" spans="1:8" ht="28">
       <c r="A110" s="13" t="s">
-        <v>362</v>
+        <v>828</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+        <v>354</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" ht="70">
+    <row r="111" spans="1:8">
       <c r="A111" s="13" t="s">
-        <v>833</v>
+        <v>359</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
       <c r="G111" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H111" s="19"/>
     </row>
-    <row r="112" spans="1:8" ht="39" customHeight="1">
+    <row r="112" spans="1:8" ht="27" customHeight="1">
       <c r="A112" s="13" t="s">
-        <v>834</v>
+        <v>362</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H112" s="19"/>
     </row>
-    <row r="113" spans="1:13" ht="65" customHeight="1">
+    <row r="113" spans="1:13" ht="70">
       <c r="A113" s="13" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C113" s="19"/>
+        <v>366</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
       <c r="G113" s="20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H113" s="19"/>
     </row>
-    <row r="114" spans="1:13" ht="37" customHeight="1">
+    <row r="114" spans="1:13" ht="39" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>943</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>373</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H114" s="19"/>
     </row>
-    <row r="115" spans="1:13" ht="30" customHeight="1">
+    <row r="115" spans="1:13" ht="65" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="20" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H115" s="19"/>
     </row>
-    <row r="116" spans="1:13" ht="54" customHeight="1">
+    <row r="116" spans="1:13" ht="37" customHeight="1">
       <c r="A116" s="13" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+        <v>936</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>373</v>
+      </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="19" t="s">
-        <v>375</v>
+      <c r="G116" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="H116" s="19"/>
     </row>
-    <row r="117" spans="1:13" ht="51" customHeight="1">
+    <row r="117" spans="1:13" ht="30" customHeight="1">
       <c r="A117" s="13" t="s">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H117" s="19"/>
     </row>
-    <row r="118" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1">
+    <row r="118" spans="1:13" ht="54" customHeight="1">
       <c r="A118" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="20" t="s">
-        <v>384</v>
+      <c r="G118" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1">
+    <row r="119" spans="1:13" ht="51" customHeight="1">
       <c r="A119" s="13" t="s">
-        <v>840</v>
+        <v>937</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H119" s="19"/>
     </row>
-    <row r="120" spans="1:13" ht="28">
+    <row r="120" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A120" s="13" t="s">
-        <v>612</v>
+        <v>835</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:13" ht="28">
+    <row r="121" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1">
       <c r="A121" s="13" t="s">
-        <v>392</v>
+        <v>836</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>396</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H121" s="19"/>
     </row>
     <row r="122" spans="1:13" ht="28">
       <c r="A122" s="13" t="s">
-        <v>397</v>
+        <v>612</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
+        <v>389</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
       <c r="G122" s="20" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:13" ht="84">
+    <row r="123" spans="1:13" ht="28">
       <c r="A123" s="13" t="s">
-        <v>841</v>
+        <v>392</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="1:13" ht="69" customHeight="1">
+    <row r="124" spans="1:13" ht="28">
       <c r="A124" s="13" t="s">
-        <v>842</v>
+        <v>397</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>945</v>
-      </c>
-      <c r="D124" s="28"/>
+        <v>399</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="20" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H124" s="19"/>
     </row>
-    <row r="125" spans="1:13" ht="42">
+    <row r="125" spans="1:13" ht="84">
       <c r="A125" s="13" t="s">
-        <v>405</v>
+        <v>837</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>409</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H125" s="19"/>
     </row>
-    <row r="126" spans="1:13" ht="83" customHeight="1">
+    <row r="126" spans="1:13" ht="69" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>946</v>
+        <v>838</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>947</v>
+        <v>19</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>411</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="D126" s="28"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
       <c r="G126" s="20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H126" s="19"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" ht="98">
-      <c r="A127" s="50" t="s">
-        <v>949</v>
+    </row>
+    <row r="127" spans="1:13" ht="42">
+      <c r="A127" s="13" t="s">
+        <v>405</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="E127" s="19"/>
+        <v>407</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="F127" s="19"/>
       <c r="G127" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H127" s="19"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" s="3" customFormat="1" ht="62" customHeight="1">
+    </row>
+    <row r="128" spans="1:13" ht="83" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>843</v>
+        <v>939</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>417</v>
+        <v>940</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="D128" s="19"/>
+        <v>941</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H128" s="19"/>
-    </row>
-    <row r="129" spans="1:19" s="3" customFormat="1" ht="84">
-      <c r="A129" s="13" t="s">
-        <v>844</v>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:19" ht="98">
+      <c r="A129" s="50" t="s">
+        <v>942</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+        <v>412</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="20" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H129" s="19"/>
-    </row>
-    <row r="130" spans="1:19" ht="49" customHeight="1">
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="1:19" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A130" s="13" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>426</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="28">
+        <v>418</v>
+      </c>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" spans="1:19" s="3" customFormat="1" ht="84">
       <c r="A131" s="13" t="s">
-        <v>428</v>
+        <v>840</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>430</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="20" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H131" s="19"/>
     </row>
-    <row r="132" spans="1:19" ht="37" customHeight="1">
-      <c r="A132" s="32" t="s">
-        <v>432</v>
+    <row r="132" spans="1:19" ht="49" customHeight="1">
+      <c r="A132" s="13" t="s">
+        <v>841</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
+        <v>423</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>426</v>
+      </c>
       <c r="F132" s="19"/>
       <c r="G132" s="20" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="51" customHeight="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="28">
       <c r="A133" s="13" t="s">
-        <v>950</v>
+        <v>428</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="20" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H133" s="19"/>
     </row>
-    <row r="134" spans="1:19" ht="70">
-      <c r="A134" s="13" t="s">
-        <v>846</v>
+    <row r="134" spans="1:19" ht="37" customHeight="1">
+      <c r="A134" s="32" t="s">
+        <v>432</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="H134" s="19"/>
-    </row>
-    <row r="135" spans="1:19" ht="59" customHeight="1">
+      <c r="F134" s="19"/>
+      <c r="G134" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="51" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>951</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H135" s="19"/>
     </row>
-    <row r="136" spans="1:19" ht="47" customHeight="1">
+    <row r="136" spans="1:19" ht="70">
       <c r="A136" s="13" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C136" s="19"/>
+        <v>442</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>443</v>
+      </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19" t="s">
-        <v>447</v>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30" t="s">
+        <v>441</v>
       </c>
       <c r="H136" s="19"/>
     </row>
-    <row r="137" spans="1:19" ht="42">
+    <row r="137" spans="1:19" ht="59" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>449</v>
+        <v>945</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+        <v>446</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>944</v>
+      </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H137" s="19"/>
     </row>
-    <row r="138" spans="1:19" ht="66" customHeight="1">
+    <row r="138" spans="1:19" ht="47" customHeight="1">
       <c r="A138" s="13" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>440</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H138" s="19"/>
     </row>
-    <row r="139" spans="1:19" ht="56">
-      <c r="A139" s="32" t="s">
-        <v>455</v>
+    <row r="139" spans="1:19" ht="42">
+      <c r="A139" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="19" t="s">
-        <v>456</v>
+      <c r="G139" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="H139" s="19"/>
     </row>
-    <row r="140" spans="1:19" ht="40" customHeight="1">
+    <row r="140" spans="1:19" ht="66" customHeight="1">
       <c r="A140" s="13" t="s">
-        <v>954</v>
+        <v>844</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
+        <v>454</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>440</v>
+      </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="52" t="s">
-        <v>458</v>
+      <c r="G140" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="H140" s="19"/>
     </row>
-    <row r="141" spans="1:19" ht="55" customHeight="1">
-      <c r="A141" s="13" t="s">
-        <v>955</v>
+    <row r="141" spans="1:19" ht="56">
+      <c r="A141" s="32" t="s">
+        <v>455</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>957</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>460</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="19" t="s">
-        <v>956</v>
-      </c>
+      <c r="F141" s="19"/>
       <c r="G141" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H141" s="19"/>
     </row>
-    <row r="142" spans="1:19" ht="56">
+    <row r="142" spans="1:19" ht="40" customHeight="1">
       <c r="A142" s="13" t="s">
-        <v>461</v>
+        <v>947</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>463</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
-      <c r="G142" s="19" t="s">
-        <v>462</v>
+      <c r="G142" s="52" t="s">
+        <v>458</v>
       </c>
       <c r="H142" s="19"/>
     </row>
-    <row r="143" spans="1:19" ht="36" customHeight="1">
+    <row r="143" spans="1:19" ht="55" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>465</v>
+        <v>948</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>466</v>
+        <v>950</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
+      <c r="F143" s="19" t="s">
+        <v>949</v>
+      </c>
       <c r="G143" s="19" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H143" s="19"/>
     </row>
-    <row r="144" spans="1:19" ht="46" customHeight="1">
+    <row r="144" spans="1:19" ht="56">
       <c r="A144" s="13" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>473</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D144" s="19"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="19" t="s">
-        <v>469</v>
-      </c>
+      <c r="F144" s="19"/>
       <c r="G144" s="19" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H144" s="19"/>
     </row>
-    <row r="145" spans="1:8" ht="41" customHeight="1">
+    <row r="145" spans="1:8" ht="36" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>475</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="H145" s="19"/>
     </row>
-    <row r="146" spans="1:8" ht="64" customHeight="1">
+    <row r="146" spans="1:8" ht="46" customHeight="1">
       <c r="A146" s="13" t="s">
-        <v>849</v>
+        <v>471</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="D146" s="19"/>
+        <v>472</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>473</v>
+      </c>
       <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="52" t="s">
-        <v>478</v>
+      <c r="F146" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>470</v>
       </c>
       <c r="H146" s="19"/>
     </row>
-    <row r="147" spans="1:8" ht="48" customHeight="1">
+    <row r="147" spans="1:8" ht="41" customHeight="1">
       <c r="A147" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="D147" s="19"/>
+        <v>468</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>475</v>
+      </c>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H147" s="19"/>
     </row>
-    <row r="148" spans="1:8" ht="71" customHeight="1">
+    <row r="148" spans="1:8" ht="64" customHeight="1">
       <c r="A148" s="13" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>487</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
-      <c r="G148" s="19" t="s">
-        <v>485</v>
+      <c r="G148" s="52" t="s">
+        <v>478</v>
       </c>
       <c r="H148" s="19"/>
     </row>
-    <row r="149" spans="1:8" ht="22" customHeight="1">
-      <c r="A149" s="33" t="s">
-        <v>488</v>
+    <row r="149" spans="1:8" ht="48" customHeight="1">
+      <c r="A149" s="13" t="s">
+        <v>481</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="C149" s="19"/>
+        <v>482</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>484</v>
+      </c>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H149" s="19"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" ht="71" customHeight="1">
       <c r="A150" s="13" t="s">
-        <v>492</v>
+        <v>846</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="D150" s="19"/>
+        <v>416</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H150" s="19"/>
     </row>
-    <row r="151" spans="1:8" ht="43" customHeight="1">
-      <c r="A151" s="13" t="s">
-        <v>959</v>
+    <row r="151" spans="1:8" ht="22" customHeight="1">
+      <c r="A151" s="33" t="s">
+        <v>488</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>497</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H151" s="19"/>
     </row>
-    <row r="152" spans="1:8" ht="79" customHeight="1">
+    <row r="152" spans="1:8">
       <c r="A152" s="13" t="s">
-        <v>851</v>
+        <v>492</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="C152" s="19"/>
+        <v>493</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H152" s="19"/>
     </row>
-    <row r="153" spans="1:8" ht="32" customHeight="1">
+    <row r="153" spans="1:8" ht="43" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B153" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="C153" s="19"/>
+        <v>952</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H153" s="19"/>
     </row>
-    <row r="154" spans="1:8" ht="45" customHeight="1">
+    <row r="154" spans="1:8" ht="79" customHeight="1">
       <c r="A154" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="B154" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>960</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H154" s="19"/>
     </row>
-    <row r="155" spans="1:8" ht="28">
+    <row r="155" spans="1:8" ht="32" customHeight="1">
       <c r="A155" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B155" s="18" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>502</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H155" s="19"/>
     </row>
-    <row r="156" spans="1:8" ht="28">
+    <row r="156" spans="1:8" ht="45" customHeight="1">
       <c r="A156" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>347</v>
+        <v>848</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>504</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>510</v>
+        <v>953</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H156" s="19"/>
     </row>
-    <row r="157" spans="1:8" ht="54" customHeight="1">
+    <row r="157" spans="1:8" ht="28">
       <c r="A157" s="13" t="s">
-        <v>853</v>
+        <v>505</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>755</v>
+        <v>506</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H157" s="19"/>
     </row>
-    <row r="158" spans="1:8" ht="56">
+    <row r="158" spans="1:8" ht="28">
       <c r="A158" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>639</v>
+        <v>347</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
-      <c r="G158" s="52" t="s">
-        <v>514</v>
+      <c r="G158" s="19" t="s">
+        <v>508</v>
       </c>
       <c r="H158" s="19"/>
     </row>
-    <row r="159" spans="1:8" ht="43" customHeight="1">
+    <row r="159" spans="1:8" ht="54" customHeight="1">
       <c r="A159" s="13" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="F159" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="G159" s="52" t="s">
-        <v>515</v>
-      </c>
-      <c r="H159" s="19" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="60" customHeight="1">
+        <v>752</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H159" s="19"/>
+    </row>
+    <row r="160" spans="1:8" ht="56">
       <c r="A160" s="13" t="s">
-        <v>855</v>
+        <v>513</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="C160" s="28"/>
+        <v>512</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>639</v>
+      </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="52" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H160" s="19"/>
     </row>
-    <row r="161" spans="1:8" ht="56">
-      <c r="A161" s="33" t="s">
-        <v>525</v>
+    <row r="161" spans="1:8" ht="43" customHeight="1">
+      <c r="A161" s="13" t="s">
+        <v>850</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
+        <v>518</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>520</v>
+      </c>
       <c r="G161" s="52" t="s">
-        <v>524</v>
-      </c>
-      <c r="H161" s="19"/>
-    </row>
-    <row r="162" spans="1:8" ht="28">
-      <c r="A162" s="33" t="s">
-        <v>613</v>
+        <v>515</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="60" customHeight="1">
+      <c r="A162" s="13" t="s">
+        <v>851</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>529</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C162" s="28"/>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="52" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H162" s="19"/>
     </row>
-    <row r="163" spans="1:8" ht="51" customHeight="1">
-      <c r="A163" s="13" t="s">
-        <v>856</v>
+    <row r="163" spans="1:8" ht="56">
+      <c r="A163" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>531</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C163" s="19"/>
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="52" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H163" s="19"/>
     </row>
-    <row r="164" spans="1:8" ht="84" customHeight="1">
-      <c r="A164" s="13" t="s">
-        <v>857</v>
+    <row r="164" spans="1:8" ht="28">
+      <c r="A164" s="33" t="s">
+        <v>613</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="52" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H164" s="19"/>
     </row>
-    <row r="165" spans="1:8" ht="53" customHeight="1">
+    <row r="165" spans="1:8" ht="51" customHeight="1">
       <c r="A165" s="13" t="s">
-        <v>961</v>
+        <v>852</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
-      <c r="G165" s="20" t="s">
-        <v>536</v>
+      <c r="G165" s="52" t="s">
+        <v>532</v>
       </c>
       <c r="H165" s="19"/>
     </row>
-    <row r="166" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
+    <row r="166" spans="1:8" ht="84" customHeight="1">
       <c r="A166" s="13" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E166" s="30" t="s">
-        <v>543</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
       <c r="F166" s="19"/>
-      <c r="G166" s="19" t="s">
-        <v>541</v>
+      <c r="G166" s="52" t="s">
+        <v>535</v>
       </c>
       <c r="H166" s="19"/>
     </row>
-    <row r="167" spans="1:8" ht="26" customHeight="1">
+    <row r="167" spans="1:8" ht="53" customHeight="1">
       <c r="A167" s="13" t="s">
-        <v>545</v>
+        <v>954</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
-      <c r="G167" s="19" t="s">
-        <v>544</v>
+      <c r="G167" s="20" t="s">
+        <v>536</v>
       </c>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:8" ht="28">
+    <row r="168" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
       <c r="A168" s="13" t="s">
-        <v>548</v>
+        <v>854</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
+        <v>539</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>543</v>
+      </c>
       <c r="F168" s="19"/>
       <c r="G168" s="19" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H168" s="19"/>
     </row>
-    <row r="169" spans="1:8" ht="51" customHeight="1">
+    <row r="169" spans="1:8" ht="26" customHeight="1">
       <c r="A169" s="13" t="s">
-        <v>859</v>
+        <v>545</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>553</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H169" s="19"/>
     </row>
-    <row r="170" spans="1:8" ht="98">
+    <row r="170" spans="1:8" ht="28">
       <c r="A170" s="13" t="s">
-        <v>860</v>
+        <v>548</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>558</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H170" s="19"/>
     </row>
-    <row r="171" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
+    <row r="171" spans="1:8" ht="51" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>563</v>
+        <v>556</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>555</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F171" s="19"/>
       <c r="G171" s="19" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="H171" s="19"/>
     </row>
-    <row r="172" spans="1:8" ht="34" customHeight="1">
+    <row r="172" spans="1:8" ht="98">
       <c r="A172" s="13" t="s">
-        <v>566</v>
+        <v>856</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>962</v>
-      </c>
-      <c r="C172" s="19"/>
-      <c r="D172" s="34"/>
+        <v>557</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>558</v>
+      </c>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H172" s="19"/>
     </row>
-    <row r="173" spans="1:8" ht="51" customHeight="1">
+    <row r="173" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A173" s="13" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="C173" s="19"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="19"/>
+        <v>614</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>564</v>
+      </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H173" s="19"/>
     </row>
-    <row r="174" spans="1:8" ht="28">
+    <row r="174" spans="1:8" ht="34" customHeight="1">
       <c r="A174" s="13" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>571</v>
+        <v>955</v>
       </c>
       <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H174" s="19"/>
     </row>
-    <row r="175" spans="1:8" ht="56">
+    <row r="175" spans="1:8" ht="51" customHeight="1">
       <c r="A175" s="13" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>760</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="19"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H175" s="19"/>
     </row>
-    <row r="176" spans="1:8" ht="35" customHeight="1">
-      <c r="A176" s="33" t="s">
-        <v>963</v>
+    <row r="176" spans="1:8" ht="28">
+      <c r="A176" s="13" t="s">
+        <v>570</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>578</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H176" s="19"/>
     </row>
-    <row r="177" spans="1:8" ht="40" customHeight="1">
+    <row r="177" spans="1:8" ht="56">
       <c r="A177" s="13" t="s">
-        <v>579</v>
+        <v>859</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>964</v>
-      </c>
-      <c r="E177" s="19"/>
+        <v>575</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>757</v>
+      </c>
       <c r="F177" s="19"/>
       <c r="G177" s="19" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H177" s="19"/>
     </row>
-    <row r="178" spans="1:8" ht="22" customHeight="1">
-      <c r="A178" s="13" t="s">
-        <v>583</v>
+    <row r="178" spans="1:8" ht="35" customHeight="1">
+      <c r="A178" s="33" t="s">
+        <v>956</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>965</v>
+        <v>576</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>966</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H178" s="19"/>
     </row>
-    <row r="179" spans="1:8" ht="70">
+    <row r="179" spans="1:8" ht="40" customHeight="1">
       <c r="A179" s="13" t="s">
-        <v>864</v>
+        <v>579</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="F179" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="G179" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="H179" s="19" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="36" customHeight="1">
+        <v>957</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="H179" s="19"/>
+    </row>
+    <row r="180" spans="1:8" ht="22" customHeight="1">
       <c r="A180" s="13" t="s">
-        <v>969</v>
+        <v>583</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>590</v>
+        <v>958</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>589</v>
+        <v>156</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>592</v>
+        <v>959</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H180" s="19"/>
     </row>
-    <row r="181" spans="1:8" ht="33" customHeight="1">
+    <row r="181" spans="1:8" ht="70">
       <c r="A181" s="13" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19" t="s">
-        <v>594</v>
+        <v>586</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F181" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="G181" s="52" t="s">
+        <v>587</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="22" customHeight="1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="36" customHeight="1">
       <c r="A182" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
+        <v>962</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>592</v>
+      </c>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H182" s="19"/>
     </row>
-    <row r="183" spans="1:8" ht="28">
+    <row r="183" spans="1:8" ht="33" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="H183" s="19"/>
-    </row>
-    <row r="184" spans="1:8" ht="28">
+        <v>594</v>
+      </c>
+      <c r="H183" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="22" customHeight="1">
       <c r="A184" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>604</v>
+        <v>597</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>598</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H184" s="19"/>
     </row>
-    <row r="185" spans="1:8" ht="70">
+    <row r="185" spans="1:8" ht="28">
       <c r="A185" s="13" t="s">
-        <v>970</v>
+        <v>862</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>605</v>
+        <v>63</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H185" s="19"/>
     </row>
-    <row r="186" spans="1:8" ht="56">
+    <row r="186" spans="1:8" ht="28">
       <c r="A186" s="13" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H186" s="19"/>
     </row>
-    <row r="187" spans="1:8" s="10" customFormat="1" ht="140">
+    <row r="187" spans="1:8" ht="70">
       <c r="A187" s="13" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>512</v>
+        <v>605</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
-      <c r="G187" s="54" t="s">
-        <v>618</v>
+      <c r="G187" s="19" t="s">
+        <v>607</v>
       </c>
       <c r="H187" s="19"/>
     </row>
-    <row r="188" spans="1:8" ht="84">
+    <row r="188" spans="1:8" ht="56">
       <c r="A188" s="13" t="s">
-        <v>624</v>
+        <v>864</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>623</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
-      <c r="G188" s="54" t="s">
-        <v>620</v>
+      <c r="G188" s="19" t="s">
+        <v>609</v>
       </c>
       <c r="H188" s="19"/>
     </row>
-    <row r="189" spans="1:8" ht="38" customHeight="1">
-      <c r="A189" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
+    <row r="189" spans="1:8" s="10" customFormat="1" ht="140">
+      <c r="A189" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>619</v>
+      </c>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
-      <c r="G189" s="19" t="s">
-        <v>625</v>
+      <c r="G189" s="54" t="s">
+        <v>618</v>
       </c>
       <c r="H189" s="19"/>
     </row>
-    <row r="190" spans="1:8" ht="27" customHeight="1">
+    <row r="190" spans="1:8" ht="84">
       <c r="A190" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="D190" s="19"/>
+        <v>622</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>623</v>
+      </c>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
-      <c r="G190" s="19" t="s">
-        <v>630</v>
+      <c r="G190" s="54" t="s">
+        <v>620</v>
       </c>
       <c r="H190" s="19"/>
     </row>
-    <row r="191" spans="1:8" ht="50" customHeight="1">
-      <c r="A191" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>632</v>
-      </c>
+    <row r="191" spans="1:8" ht="38" customHeight="1">
+      <c r="A191" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="B191" s="18"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="H191" s="19"/>
     </row>
-    <row r="192" spans="1:8" ht="37" customHeight="1">
+    <row r="192" spans="1:8" ht="27" customHeight="1">
       <c r="A192" s="13" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="D192" s="19" t="s">
-        <v>637</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
+      <c r="G192" s="19" t="s">
+        <v>630</v>
+      </c>
       <c r="H192" s="19"/>
     </row>
-    <row r="193" spans="1:8" ht="36" customHeight="1">
+    <row r="193" spans="1:8" ht="50" customHeight="1">
       <c r="A193" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="H193" s="19"/>
+    </row>
+    <row r="194" spans="1:8" ht="37" customHeight="1">
+      <c r="A194" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+    </row>
+    <row r="195" spans="1:8" ht="36" customHeight="1">
+      <c r="A195" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="B193" s="35" t="s">
+      <c r="B195" s="35" t="s">
         <v>641</v>
-      </c>
-      <c r="C193" s="36"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="36"/>
-      <c r="G193" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="H193" s="36"/>
-    </row>
-    <row r="194" spans="1:8" ht="144" customHeight="1">
-      <c r="A194" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="B194" s="35" t="s">
-        <v>643</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="H194" s="36"/>
-    </row>
-    <row r="195" spans="1:8" ht="70" customHeight="1">
-      <c r="A195" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>646</v>
       </c>
       <c r="C195" s="36"/>
       <c r="D195" s="36"/>
       <c r="E195" s="36"/>
       <c r="F195" s="36"/>
-      <c r="G195" s="37" t="s">
-        <v>647</v>
+      <c r="G195" s="19" t="s">
+        <v>642</v>
       </c>
       <c r="H195" s="36"/>
     </row>
-    <row r="196" spans="1:8" ht="65" customHeight="1">
+    <row r="196" spans="1:8" ht="144" customHeight="1">
       <c r="A196" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>650</v>
+        <v>866</v>
+      </c>
+      <c r="B196" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>644</v>
       </c>
       <c r="D196" s="36"/>
       <c r="E196" s="36"/>
       <c r="F196" s="36"/>
-      <c r="G196" s="55" t="s">
-        <v>648</v>
+      <c r="G196" s="37" t="s">
+        <v>645</v>
       </c>
       <c r="H196" s="36"/>
     </row>
-    <row r="197" spans="1:8" ht="90" customHeight="1">
+    <row r="197" spans="1:8" ht="70" customHeight="1">
       <c r="A197" s="13" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>875</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
       <c r="E197" s="36"/>
       <c r="F197" s="36"/>
       <c r="G197" s="37" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H197" s="36"/>
     </row>
-    <row r="198" spans="1:8" ht="45" customHeight="1">
-      <c r="A198" s="32" t="s">
-        <v>653</v>
+    <row r="198" spans="1:8" ht="65" customHeight="1">
+      <c r="A198" s="13" t="s">
+        <v>868</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>971</v>
+        <v>649</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="D198" s="19" t="s">
-        <v>656</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D198" s="36"/>
       <c r="E198" s="36"/>
       <c r="F198" s="36"/>
-      <c r="G198" s="36"/>
+      <c r="G198" s="55" t="s">
+        <v>648</v>
+      </c>
       <c r="H198" s="36"/>
     </row>
-    <row r="199" spans="1:8" ht="54" customHeight="1">
+    <row r="199" spans="1:8" ht="90" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>658</v>
+        <v>782</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>661</v>
+        <v>870</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>660</v>
+        <v>871</v>
       </c>
       <c r="E199" s="36"/>
       <c r="F199" s="36"/>
-      <c r="G199" s="19" t="s">
-        <v>659</v>
+      <c r="G199" s="37" t="s">
+        <v>651</v>
       </c>
       <c r="H199" s="36"/>
     </row>
-    <row r="200" spans="1:8" ht="57" customHeight="1">
-      <c r="A200" s="13" t="s">
-        <v>662</v>
+    <row r="200" spans="1:8" ht="45" customHeight="1">
+      <c r="A200" s="32" t="s">
+        <v>653</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
+        <v>964</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>656</v>
+      </c>
       <c r="E200" s="36"/>
       <c r="F200" s="36"/>
       <c r="G200" s="36"/>
       <c r="H200" s="36"/>
     </row>
-    <row r="201" spans="1:8" ht="63" customHeight="1">
-      <c r="A201" s="14" t="s">
-        <v>663</v>
+    <row r="201" spans="1:8" ht="54" customHeight="1">
+      <c r="A201" s="13" t="s">
+        <v>872</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
-      <c r="G201" s="37" t="s">
-        <v>666</v>
+      <c r="G201" s="19" t="s">
+        <v>659</v>
       </c>
       <c r="H201" s="36"/>
     </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1">
+    <row r="202" spans="1:8" ht="57" customHeight="1">
       <c r="A202" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="B202" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>973</v>
-      </c>
-      <c r="F202" s="19"/>
-      <c r="G202" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="H202" s="19"/>
-    </row>
-    <row r="203" spans="1:8" ht="45" customHeight="1">
-      <c r="A203" s="13" t="s">
-        <v>671</v>
+        <v>662</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="36"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+    </row>
+    <row r="203" spans="1:8" ht="63" customHeight="1">
+      <c r="A203" s="14" t="s">
+        <v>663</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="D203" s="37" t="s">
-        <v>673</v>
+        <v>667</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>668</v>
       </c>
       <c r="E203" s="36"/>
       <c r="F203" s="36"/>
-      <c r="G203" s="36"/>
+      <c r="G203" s="37" t="s">
+        <v>666</v>
+      </c>
       <c r="H203" s="36"/>
     </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
+    <row r="204" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1">
       <c r="A204" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="F204" s="19"/>
+      <c r="G204" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="H204" s="19"/>
+    </row>
+    <row r="205" spans="1:8" ht="45" customHeight="1">
+      <c r="A205" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+    </row>
+    <row r="206" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
+      <c r="A206" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+    </row>
+    <row r="207" spans="1:8" s="12" customFormat="1" ht="47" customHeight="1">
+      <c r="A207" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
+      <c r="F207" s="39"/>
+      <c r="G207" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="H207" s="39"/>
+    </row>
+    <row r="208" spans="1:8" ht="63" customHeight="1">
+      <c r="A208" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="D208" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="E208" s="36"/>
+      <c r="F208" s="36"/>
+      <c r="G208" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="H208" s="36"/>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1">
+      <c r="A209" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D209" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="B204" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-    </row>
-    <row r="205" spans="1:8" s="12" customFormat="1" ht="47" customHeight="1">
-      <c r="A205" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>682</v>
-      </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="H205" s="39"/>
-    </row>
-    <row r="206" spans="1:8" ht="63" customHeight="1">
-      <c r="A206" s="13" t="s">
+      <c r="E209" s="36"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="H209" s="36"/>
+    </row>
+    <row r="210" spans="1:8" ht="61" customHeight="1">
+      <c r="A210" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C210" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="B206" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="C206" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="D206" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="E206" s="36"/>
-      <c r="F206" s="36"/>
-      <c r="G206" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="H206" s="36"/>
-    </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" ht="79" customHeight="1">
-      <c r="A207" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="B207" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="D207" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="E207" s="36"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="H207" s="36"/>
-    </row>
-    <row r="208" spans="1:8" ht="61" customHeight="1">
-      <c r="A208" s="13" t="s">
-        <v>974</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>886</v>
-      </c>
-      <c r="D208" s="19" t="s">
+      <c r="D210" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="20" t="s">
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="H208" s="19"/>
-    </row>
-    <row r="209" spans="1:8" ht="61" customHeight="1">
-      <c r="A209" s="13" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B209" s="18" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="20" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H209" s="19"/>
-    </row>
-    <row r="210" spans="1:8" ht="78" customHeight="1">
-      <c r="A210" s="13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B210" s="35" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D210" s="19" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F210" s="36"/>
-      <c r="G210" s="40" t="s">
-        <v>698</v>
-      </c>
-      <c r="H210" s="36"/>
-    </row>
-    <row r="211" spans="1:8" ht="76" customHeight="1">
+      <c r="H210" s="19"/>
+    </row>
+    <row r="211" spans="1:8" ht="61" customHeight="1">
       <c r="A211" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H211" s="19"/>
+    </row>
+    <row r="212" spans="1:8" ht="78" customHeight="1">
+      <c r="A212" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B212" s="35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C212" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="B211" s="18" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C211" s="36"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="36"/>
-      <c r="G211" s="40" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H211" s="36"/>
-    </row>
-    <row r="212" spans="1:8" ht="83" customHeight="1">
-      <c r="A212" s="13" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B212" s="18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C212" s="39" t="s">
-        <v>1114</v>
-      </c>
       <c r="D212" s="19" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="F212" s="36"/>
       <c r="G212" s="40" t="s">
-        <v>1110</v>
+        <v>696</v>
       </c>
       <c r="H212" s="36"/>
     </row>
-    <row r="213" spans="1:8" ht="79" customHeight="1">
+    <row r="213" spans="1:8" ht="76" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="B213" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>703</v>
-      </c>
-      <c r="D213" s="37" t="s">
-        <v>702</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C213" s="36"/>
+      <c r="D213" s="36"/>
       <c r="E213" s="36"/>
       <c r="F213" s="36"/>
-      <c r="G213" s="36" t="s">
+      <c r="G213" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H213" s="36"/>
+    </row>
+    <row r="214" spans="1:8" ht="83" customHeight="1">
+      <c r="A214" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F214" s="36"/>
+      <c r="G214" s="40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H214" s="36"/>
+    </row>
+    <row r="215" spans="1:8" ht="79" customHeight="1">
+      <c r="A215" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B215" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="D215" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="H213" s="36"/>
-    </row>
-    <row r="214" spans="1:8" ht="43" customHeight="1">
-      <c r="A214" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="B214" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
-      <c r="E214" s="36"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="H214" s="36"/>
-    </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" ht="68" customHeight="1">
-      <c r="A215" s="13" t="s">
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="H215" s="36"/>
+    </row>
+    <row r="216" spans="1:8" ht="43" customHeight="1">
+      <c r="A216" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="B215" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19"/>
-    </row>
-    <row r="216" spans="1:8" ht="95" customHeight="1">
-      <c r="A216" s="13" t="s">
-        <v>884</v>
-      </c>
       <c r="B216" s="18" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C216" s="36"/>
-      <c r="D216" s="36"/>
+      <c r="D216" s="19"/>
       <c r="E216" s="36"/>
       <c r="F216" s="36"/>
-      <c r="G216" s="40" t="s">
-        <v>696</v>
+      <c r="G216" s="37" t="s">
+        <v>703</v>
       </c>
       <c r="H216" s="36"/>
     </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A217" s="13" t="s">
+    <row r="217" spans="1:8" s="4" customFormat="1" ht="104" customHeight="1">
+      <c r="A217" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C217" s="67" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E217" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F217" s="62" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H217" s="19"/>
+    </row>
+    <row r="218" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A218" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19" t="s">
+      <c r="B218" s="18"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="H217" s="19"/>
-    </row>
-    <row r="218" spans="1:8" ht="63" customHeight="1">
-      <c r="A218" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="B218" s="41"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="36"/>
-      <c r="E218" s="36"/>
-      <c r="F218" s="36"/>
-      <c r="G218" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="H218" s="36"/>
-    </row>
-    <row r="219" spans="1:8" ht="44" customHeight="1">
+      <c r="H218" s="19"/>
+    </row>
+    <row r="219" spans="1:8" ht="63" customHeight="1">
       <c r="A219" s="13" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B219" s="41"/>
       <c r="C219" s="36"/>
       <c r="D219" s="36"/>
       <c r="E219" s="36"/>
       <c r="F219" s="36"/>
-      <c r="G219" s="37" t="s">
-        <v>699</v>
+      <c r="G219" s="20" t="s">
+        <v>695</v>
       </c>
       <c r="H219" s="36"/>
     </row>
-    <row r="220" spans="1:8" ht="70" customHeight="1">
+    <row r="220" spans="1:8" ht="44" customHeight="1">
       <c r="A220" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="B220" s="41"/>
+        <v>881</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>1114</v>
+      </c>
       <c r="C220" s="36"/>
       <c r="D220" s="36"/>
       <c r="E220" s="36"/>
       <c r="F220" s="36"/>
       <c r="G220" s="37" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H220" s="36"/>
     </row>
-    <row r="221" spans="1:8" ht="71" customHeight="1">
+    <row r="221" spans="1:8" ht="70" customHeight="1">
       <c r="A221" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="B221" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="C221" s="19" t="s">
-        <v>708</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="B221" s="41"/>
+      <c r="C221" s="36"/>
       <c r="D221" s="36"/>
       <c r="E221" s="36"/>
       <c r="F221" s="36"/>
-      <c r="G221" s="19" t="s">
-        <v>707</v>
-      </c>
-      <c r="H221" s="37" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="76" customHeight="1">
+      <c r="G221" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="H221" s="36"/>
+    </row>
+    <row r="222" spans="1:8" ht="71" customHeight="1">
       <c r="A222" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="B222" s="41"/>
-      <c r="C222" s="36"/>
+        <v>885</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>706</v>
+      </c>
       <c r="D222" s="36"/>
       <c r="E222" s="36"/>
       <c r="F222" s="36"/>
-      <c r="G222" s="37" t="s">
-        <v>710</v>
-      </c>
-      <c r="H222" s="36"/>
-    </row>
-    <row r="223" spans="1:8" ht="71" customHeight="1">
+      <c r="G222" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="H222" s="37" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="76" customHeight="1">
       <c r="A223" s="13" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B223" s="41"/>
       <c r="C223" s="36"/>
       <c r="D223" s="36"/>
       <c r="E223" s="36"/>
       <c r="F223" s="36"/>
-      <c r="G223" s="37" t="s">
-        <v>711</v>
+      <c r="G223" s="68" t="s">
+        <v>708</v>
       </c>
       <c r="H223" s="36"/>
     </row>
     <row r="224" spans="1:8" ht="96" customHeight="1">
       <c r="A224" s="13" t="s">
-        <v>895</v>
+        <v>1116</v>
       </c>
       <c r="B224" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="C224" s="36"/>
-      <c r="D224" s="36"/>
-      <c r="E224" s="36"/>
-      <c r="F224" s="36"/>
-      <c r="G224" s="37" t="s">
-        <v>713</v>
+        <v>1117</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E224" s="39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F224" s="19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G224" s="68" t="s">
+        <v>710</v>
       </c>
       <c r="H224" s="36"/>
     </row>
-    <row r="225" spans="1:8" ht="70" customHeight="1">
+    <row r="225" spans="1:8" ht="71" customHeight="1">
       <c r="A225" s="13" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B225" s="41"/>
       <c r="C225" s="36"/>
@@ -10988,13 +11071,13 @@
       <c r="E225" s="36"/>
       <c r="F225" s="36"/>
       <c r="G225" s="37" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H225" s="36"/>
     </row>
-    <row r="226" spans="1:8" ht="60" customHeight="1">
+    <row r="226" spans="1:8" ht="70" customHeight="1">
       <c r="A226" s="13" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B226" s="41"/>
       <c r="C226" s="36"/>
@@ -11002,13 +11085,13 @@
       <c r="E226" s="36"/>
       <c r="F226" s="36"/>
       <c r="G226" s="37" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H226" s="36"/>
     </row>
-    <row r="227" spans="1:8" ht="62" customHeight="1">
+    <row r="227" spans="1:8" ht="60" customHeight="1">
       <c r="A227" s="13" t="s">
-        <v>716</v>
+        <v>890</v>
       </c>
       <c r="B227" s="41"/>
       <c r="C227" s="36"/>
@@ -11016,27 +11099,27 @@
       <c r="E227" s="36"/>
       <c r="F227" s="36"/>
       <c r="G227" s="37" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="H227" s="36"/>
     </row>
-    <row r="228" spans="1:8" ht="58" customHeight="1">
+    <row r="228" spans="1:8" ht="68" customHeight="1">
       <c r="A228" s="13" t="s">
-        <v>717</v>
+        <v>891</v>
       </c>
       <c r="B228" s="41"/>
       <c r="C228" s="36"/>
       <c r="D228" s="36"/>
       <c r="E228" s="36"/>
       <c r="F228" s="36"/>
-      <c r="G228" s="37" t="s">
-        <v>720</v>
+      <c r="G228" s="19" t="s">
+        <v>719</v>
       </c>
       <c r="H228" s="36"/>
     </row>
-    <row r="229" spans="1:8" ht="53" customHeight="1">
+    <row r="229" spans="1:8" ht="70" customHeight="1">
       <c r="A229" s="13" t="s">
-        <v>718</v>
+        <v>892</v>
       </c>
       <c r="B229" s="41"/>
       <c r="C229" s="36"/>
@@ -11044,27 +11127,29 @@
       <c r="E229" s="36"/>
       <c r="F229" s="36"/>
       <c r="G229" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="H229" s="36"/>
+    </row>
+    <row r="230" spans="1:8" ht="69" customHeight="1">
+      <c r="A230" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B230" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="H229" s="36"/>
-    </row>
-    <row r="230" spans="1:8" ht="68" customHeight="1">
-      <c r="A230" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="B230" s="41"/>
       <c r="C230" s="36"/>
       <c r="D230" s="36"/>
       <c r="E230" s="36"/>
       <c r="F230" s="36"/>
-      <c r="G230" s="19" t="s">
+      <c r="G230" s="37" t="s">
         <v>722</v>
       </c>
       <c r="H230" s="36"/>
     </row>
-    <row r="231" spans="1:8" ht="70" customHeight="1">
+    <row r="231" spans="1:8" ht="44" customHeight="1">
       <c r="A231" s="13" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B231" s="41"/>
       <c r="C231" s="36"/>
@@ -11076,11 +11161,11 @@
       </c>
       <c r="H231" s="36"/>
     </row>
-    <row r="232" spans="1:8" ht="69" customHeight="1">
+    <row r="232" spans="1:8" ht="79" customHeight="1">
       <c r="A232" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="B232" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="B232" s="35" t="s">
         <v>724</v>
       </c>
       <c r="C232" s="36"/>
@@ -11092,11 +11177,13 @@
       </c>
       <c r="H232" s="36"/>
     </row>
-    <row r="233" spans="1:8" ht="44" customHeight="1">
-      <c r="A233" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="B233" s="41"/>
+    <row r="233" spans="1:8" ht="63" customHeight="1">
+      <c r="A233" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>1059</v>
+      </c>
       <c r="C233" s="36"/>
       <c r="D233" s="36"/>
       <c r="E233" s="36"/>
@@ -11106,41 +11193,41 @@
       </c>
       <c r="H233" s="36"/>
     </row>
-    <row r="234" spans="1:8" ht="79" customHeight="1">
-      <c r="A234" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="B234" s="35" t="s">
-        <v>727</v>
-      </c>
+    <row r="234" spans="1:8" ht="56" customHeight="1">
+      <c r="A234" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="B234" s="41"/>
       <c r="C234" s="36"/>
       <c r="D234" s="36"/>
       <c r="E234" s="36"/>
       <c r="F234" s="36"/>
       <c r="G234" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H234" s="36"/>
     </row>
-    <row r="235" spans="1:8" ht="63" customHeight="1">
-      <c r="A235" s="33" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B235" s="18" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C235" s="36"/>
+    <row r="235" spans="1:8" ht="65" customHeight="1">
+      <c r="A235" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B235" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="C235" s="37" t="s">
+        <v>730</v>
+      </c>
       <c r="D235" s="36"/>
       <c r="E235" s="36"/>
       <c r="F235" s="36"/>
       <c r="G235" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H235" s="36"/>
     </row>
-    <row r="236" spans="1:8" ht="56" customHeight="1">
-      <c r="A236" s="33" t="s">
-        <v>903</v>
+    <row r="236" spans="1:8" ht="84" customHeight="1">
+      <c r="A236" s="13" t="s">
+        <v>898</v>
       </c>
       <c r="B236" s="41"/>
       <c r="C236" s="36"/>
@@ -11148,43 +11235,39 @@
       <c r="E236" s="36"/>
       <c r="F236" s="36"/>
       <c r="G236" s="37" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H236" s="36"/>
     </row>
-    <row r="237" spans="1:8" ht="65" customHeight="1">
-      <c r="A237" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="B237" s="35" t="s">
+    <row r="237" spans="1:8" ht="43" customHeight="1">
+      <c r="A237" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="C237" s="37" t="s">
-        <v>733</v>
-      </c>
+      <c r="B237" s="41"/>
+      <c r="C237" s="36"/>
       <c r="D237" s="36"/>
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
       <c r="G237" s="37" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H237" s="36"/>
     </row>
-    <row r="238" spans="1:8" ht="84" customHeight="1">
+    <row r="238" spans="1:8" ht="79" customHeight="1">
       <c r="A238" s="13" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B238" s="41"/>
       <c r="C238" s="36"/>
       <c r="D238" s="36"/>
       <c r="E238" s="36"/>
       <c r="F238" s="36"/>
-      <c r="G238" s="37" t="s">
+      <c r="G238" s="36" t="s">
         <v>734</v>
       </c>
       <c r="H238" s="36"/>
     </row>
-    <row r="239" spans="1:8" ht="43" customHeight="1">
+    <row r="239" spans="1:8" ht="46" customHeight="1">
       <c r="A239" s="14" t="s">
         <v>735</v>
       </c>
@@ -11198,23 +11281,25 @@
       </c>
       <c r="H239" s="36"/>
     </row>
-    <row r="240" spans="1:8" ht="79" customHeight="1">
+    <row r="240" spans="1:8" ht="93" customHeight="1">
       <c r="A240" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B240" s="41"/>
+        <v>900</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>737</v>
+      </c>
       <c r="C240" s="36"/>
       <c r="D240" s="36"/>
       <c r="E240" s="36"/>
       <c r="F240" s="36"/>
-      <c r="G240" s="36" t="s">
-        <v>737</v>
+      <c r="G240" s="37" t="s">
+        <v>738</v>
       </c>
       <c r="H240" s="36"/>
     </row>
-    <row r="241" spans="1:8" ht="46" customHeight="1">
-      <c r="A241" s="14" t="s">
-        <v>738</v>
+    <row r="241" spans="1:8" ht="57" customHeight="1">
+      <c r="A241" s="13" t="s">
+        <v>901</v>
       </c>
       <c r="B241" s="41"/>
       <c r="C241" s="36"/>
@@ -11226,383 +11311,377 @@
       </c>
       <c r="H241" s="36"/>
     </row>
-    <row r="242" spans="1:8" ht="93" customHeight="1">
+    <row r="242" spans="1:8" ht="74" customHeight="1">
       <c r="A242" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>740</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="B242" s="41"/>
       <c r="C242" s="36"/>
       <c r="D242" s="36"/>
       <c r="E242" s="36"/>
       <c r="F242" s="36"/>
-      <c r="G242" s="37" t="s">
+      <c r="G242" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="H242" s="36"/>
+    </row>
+    <row r="243" spans="1:8" ht="38" customHeight="1">
+      <c r="A243" s="42" t="s">
         <v>741</v>
-      </c>
-      <c r="H242" s="36"/>
-    </row>
-    <row r="243" spans="1:8" ht="57" customHeight="1">
-      <c r="A243" s="13" t="s">
-        <v>908</v>
       </c>
       <c r="B243" s="41"/>
       <c r="C243" s="36"/>
       <c r="D243" s="36"/>
       <c r="E243" s="36"/>
       <c r="F243" s="36"/>
-      <c r="G243" s="37" t="s">
+      <c r="G243" s="36" t="s">
         <v>742</v>
       </c>
       <c r="H243" s="36"/>
     </row>
-    <row r="244" spans="1:8" ht="74" customHeight="1">
-      <c r="A244" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B244" s="41"/>
+    <row r="244" spans="1:8" ht="51" customHeight="1">
+      <c r="A244" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>1069</v>
+      </c>
       <c r="C244" s="36"/>
       <c r="D244" s="36"/>
       <c r="E244" s="36"/>
       <c r="F244" s="36"/>
-      <c r="G244" s="36" t="s">
-        <v>743</v>
-      </c>
+      <c r="G244" s="36"/>
       <c r="H244" s="36"/>
     </row>
-    <row r="245" spans="1:8" ht="38" customHeight="1">
-      <c r="A245" s="42" t="s">
-        <v>744</v>
-      </c>
-      <c r="B245" s="41"/>
-      <c r="C245" s="36"/>
-      <c r="D245" s="36"/>
-      <c r="E245" s="36"/>
-      <c r="F245" s="36"/>
+    <row r="245" spans="1:8" ht="55" customHeight="1">
+      <c r="A245" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="D245" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="E245" s="44"/>
+      <c r="F245" s="44"/>
       <c r="G245" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="H245" s="36"/>
-    </row>
-    <row r="246" spans="1:8" ht="51" customHeight="1">
-      <c r="A246" s="14" t="s">
-        <v>746</v>
+      <c r="H245" s="44"/>
+    </row>
+    <row r="246" spans="1:8" ht="71" customHeight="1">
+      <c r="A246" s="13" t="s">
+        <v>1051</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>1077</v>
+        <v>903</v>
       </c>
       <c r="C246" s="36"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="36"/>
-      <c r="F246" s="36"/>
-      <c r="G246" s="36"/>
-      <c r="H246" s="36"/>
-    </row>
-    <row r="247" spans="1:8" ht="55" customHeight="1">
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="43" t="s">
+        <v>750</v>
+      </c>
+      <c r="G246" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="H246" s="44"/>
+    </row>
+    <row r="247" spans="1:8" ht="43" customHeight="1">
       <c r="A247" s="13" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B247" s="18" t="s">
-        <v>751</v>
+        <v>1052</v>
+      </c>
+      <c r="B247" s="35" t="s">
+        <v>756</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="D247" s="43" t="s">
-        <v>750</v>
+        <v>753</v>
+      </c>
+      <c r="D247" s="45" t="s">
+        <v>754</v>
       </c>
       <c r="E247" s="44"/>
       <c r="F247" s="44"/>
-      <c r="G247" s="36" t="s">
-        <v>748</v>
+      <c r="G247" s="37" t="s">
+        <v>755</v>
       </c>
       <c r="H247" s="44"/>
     </row>
-    <row r="248" spans="1:8" ht="71" customHeight="1">
+    <row r="248" spans="1:8" ht="97" customHeight="1">
       <c r="A248" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B248" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="C248" s="36"/>
-      <c r="D248" s="44"/>
+        <v>758</v>
+      </c>
+      <c r="B248" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="D248" s="45" t="s">
+        <v>762</v>
+      </c>
       <c r="E248" s="44"/>
-      <c r="F248" s="43" t="s">
-        <v>753</v>
-      </c>
-      <c r="G248" s="19" t="s">
-        <v>754</v>
+      <c r="F248" s="44"/>
+      <c r="G248" s="37" t="s">
+        <v>761</v>
       </c>
       <c r="H248" s="44"/>
     </row>
-    <row r="249" spans="1:8" ht="43" customHeight="1">
+    <row r="249" spans="1:8" ht="63" customHeight="1">
       <c r="A249" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B249" s="35" t="s">
-        <v>759</v>
+        <v>1053</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>764</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="D249" s="45" t="s">
-        <v>757</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="D249" s="44"/>
       <c r="E249" s="44"/>
       <c r="F249" s="44"/>
       <c r="G249" s="37" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H249" s="44"/>
     </row>
-    <row r="250" spans="1:8" ht="97" customHeight="1">
+    <row r="250" spans="1:8" ht="57" customHeight="1">
       <c r="A250" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="B250" s="35" t="s">
-        <v>762</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>763</v>
-      </c>
-      <c r="D250" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B250" s="18" t="s">
         <v>765</v>
       </c>
+      <c r="C250" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="D250" s="44"/>
       <c r="E250" s="44"/>
       <c r="F250" s="44"/>
       <c r="G250" s="37" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H250" s="44"/>
     </row>
-    <row r="251" spans="1:8" ht="63" customHeight="1">
+    <row r="251" spans="1:8" ht="69" customHeight="1">
       <c r="A251" s="13" t="s">
-        <v>1061</v>
+        <v>905</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>911</v>
-      </c>
-      <c r="D251" s="44"/>
-      <c r="E251" s="44"/>
-      <c r="F251" s="44"/>
-      <c r="G251" s="37" t="s">
-        <v>766</v>
+        <v>770</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="F251" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G251" s="19" t="s">
+        <v>768</v>
       </c>
       <c r="H251" s="44"/>
     </row>
-    <row r="252" spans="1:8" ht="57" customHeight="1">
+    <row r="252" spans="1:8" ht="101" customHeight="1">
       <c r="A252" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="C252" s="37" t="s">
-        <v>770</v>
-      </c>
-      <c r="D252" s="44"/>
+        <v>1055</v>
+      </c>
+      <c r="B252" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>777</v>
+      </c>
       <c r="E252" s="44"/>
       <c r="F252" s="44"/>
       <c r="G252" s="37" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="H252" s="44"/>
     </row>
-    <row r="253" spans="1:8" ht="69" customHeight="1">
+    <row r="253" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1">
       <c r="A253" s="13" t="s">
-        <v>912</v>
+        <v>1056</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>773</v>
-      </c>
-      <c r="D253" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="F253" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="G253" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="H253" s="44"/>
-    </row>
-    <row r="254" spans="1:8" ht="101" customHeight="1">
+        <v>779</v>
+      </c>
+      <c r="D253" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G253" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="H253" s="43"/>
+    </row>
+    <row r="254" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
       <c r="A254" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B254" s="35" t="s">
-        <v>778</v>
+        <v>1057</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>785</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="D254" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="E254" s="44"/>
-      <c r="F254" s="44"/>
-      <c r="G254" s="37" t="s">
-        <v>777</v>
-      </c>
-      <c r="H254" s="44"/>
-    </row>
-    <row r="255" spans="1:8" s="4" customFormat="1" ht="72" customHeight="1">
+        <v>784</v>
+      </c>
+      <c r="D254" s="43"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="H254" s="43"/>
+    </row>
+    <row r="255" spans="1:8" ht="75" customHeight="1">
       <c r="A255" s="13" t="s">
-        <v>1064</v>
+        <v>794</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="C255" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="D255" s="43" t="s">
-        <v>785</v>
-      </c>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43" t="s">
-        <v>784</v>
-      </c>
-      <c r="G255" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="H255" s="43"/>
-    </row>
-    <row r="256" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1">
+        <v>787</v>
+      </c>
+      <c r="C255" s="36"/>
+      <c r="D255" s="44"/>
+      <c r="E255" s="44"/>
+      <c r="F255" s="44"/>
+      <c r="G255" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="H255" s="44"/>
+    </row>
+    <row r="256" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1">
       <c r="A256" s="13" t="s">
-        <v>1065</v>
+        <v>795</v>
       </c>
       <c r="B256" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="C256" s="19" t="s">
-        <v>788</v>
-      </c>
+      <c r="C256" s="19"/>
       <c r="D256" s="43"/>
       <c r="E256" s="43"/>
       <c r="F256" s="43"/>
-      <c r="G256" s="20" t="s">
-        <v>787</v>
+      <c r="G256" s="19" t="s">
+        <v>788</v>
       </c>
       <c r="H256" s="43"/>
     </row>
-    <row r="257" spans="1:8" ht="75" customHeight="1">
-      <c r="A257" s="13" t="s">
-        <v>798</v>
+    <row r="257" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="A257" s="14" t="s">
+        <v>796</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="C257" s="36"/>
-      <c r="D257" s="44"/>
-      <c r="E257" s="44"/>
-      <c r="F257" s="44"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="45"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="45"/>
       <c r="G257" s="37" t="s">
         <v>790</v>
       </c>
-      <c r="H257" s="44"/>
-    </row>
-    <row r="258" spans="1:8" s="4" customFormat="1" ht="66" customHeight="1">
+      <c r="H257" s="45"/>
+    </row>
+    <row r="258" spans="1:8" ht="48" customHeight="1">
       <c r="A258" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B258" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C258" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="C258" s="19"/>
-      <c r="D258" s="43"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
+      <c r="D258" s="36"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="36"/>
       <c r="G258" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H258" s="36"/>
+    </row>
+    <row r="259" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1">
+      <c r="A259" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C259" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D259" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="H258" s="43"/>
-    </row>
-    <row r="259" spans="1:8" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A259" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="B259" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="C259" s="37"/>
-      <c r="D259" s="45"/>
-      <c r="E259" s="45"/>
-      <c r="F259" s="45"/>
-      <c r="G259" s="37" t="s">
-        <v>794</v>
-      </c>
-      <c r="H259" s="45"/>
-    </row>
-    <row r="260" spans="1:8" ht="48" customHeight="1">
+      <c r="H259" s="43"/>
+    </row>
+    <row r="260" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1">
       <c r="A260" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="D260" s="36"/>
-      <c r="E260" s="36"/>
-      <c r="F260" s="36"/>
-      <c r="G260" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="H260" s="36"/>
-    </row>
-    <row r="261" spans="1:8" s="4" customFormat="1" ht="89" customHeight="1">
+        <v>1060</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="D260" s="49"/>
+      <c r="E260" s="49"/>
+      <c r="F260" s="49"/>
+      <c r="G260" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="H260" s="49"/>
+    </row>
+    <row r="261" spans="1:8" ht="43" customHeight="1">
       <c r="A261" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="B261" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="C261" s="19" t="s">
-        <v>914</v>
-      </c>
-      <c r="D261" s="43" t="s">
-        <v>915</v>
-      </c>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="H261" s="43"/>
-    </row>
-    <row r="262" spans="1:8" s="3" customFormat="1" ht="64" customHeight="1">
+        <v>970</v>
+      </c>
+      <c r="B261" s="8"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8" ht="36" customHeight="1">
       <c r="A262" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="D262" s="49"/>
-      <c r="E262" s="49"/>
-      <c r="F262" s="49"/>
-      <c r="G262" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="H262" s="49"/>
-    </row>
-    <row r="263" spans="1:8" ht="43" customHeight="1">
+        <v>968</v>
+      </c>
+      <c r="B262" s="8"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" ht="46" customHeight="1">
       <c r="A263" s="13" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="5"/>
@@ -11612,9 +11691,9 @@
       <c r="G263" s="5"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="36" customHeight="1">
+    <row r="264" spans="1:8" ht="30" customHeight="1">
       <c r="A264" s="13" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B264" s="8"/>
       <c r="C264" s="5"/>
@@ -11624,9 +11703,9 @@
       <c r="G264" s="5"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="46" customHeight="1">
-      <c r="A265" s="13" t="s">
-        <v>976</v>
+    <row r="265" spans="1:8" ht="25" customHeight="1">
+      <c r="A265" s="14" t="s">
+        <v>972</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="5"/>
@@ -11636,9 +11715,9 @@
       <c r="G265" s="5"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="30" customHeight="1">
+    <row r="266" spans="1:8" ht="39" customHeight="1">
       <c r="A266" s="13" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="5"/>
@@ -11648,9 +11727,9 @@
       <c r="G266" s="5"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="25" customHeight="1">
+    <row r="267" spans="1:8" ht="29" customHeight="1">
       <c r="A267" s="14" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="5"/>
@@ -11660,9 +11739,9 @@
       <c r="G267" s="5"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="39" customHeight="1">
-      <c r="A268" s="13" t="s">
-        <v>980</v>
+    <row r="268" spans="1:8" ht="23" customHeight="1">
+      <c r="A268" s="14" t="s">
+        <v>975</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="5"/>
@@ -11672,9 +11751,9 @@
       <c r="G268" s="5"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="29" customHeight="1">
+    <row r="269" spans="1:8" ht="22" customHeight="1">
       <c r="A269" s="14" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="5"/>
@@ -11684,33 +11763,33 @@
       <c r="G269" s="5"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="23" customHeight="1">
+    <row r="270" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A270" s="14" t="s">
-        <v>982</v>
-      </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="5"/>
-      <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" ht="22" customHeight="1">
+        <v>977</v>
+      </c>
+      <c r="B270" s="57"/>
+      <c r="C270" s="49"/>
+      <c r="D270" s="49"/>
+      <c r="E270" s="49"/>
+      <c r="F270" s="49"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="49"/>
+    </row>
+    <row r="271" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A271" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="1"/>
+        <v>978</v>
+      </c>
+      <c r="B271" s="57"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
+      <c r="E271" s="49"/>
+      <c r="F271" s="49"/>
+      <c r="G271" s="49"/>
+      <c r="H271" s="49"/>
     </row>
     <row r="272" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A272" s="14" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B272" s="57"/>
       <c r="C272" s="49"/>
@@ -11722,9 +11801,11 @@
     </row>
     <row r="273" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A273" s="14" t="s">
-        <v>985</v>
-      </c>
-      <c r="B273" s="57"/>
+        <v>980</v>
+      </c>
+      <c r="B273" s="57" t="s">
+        <v>981</v>
+      </c>
       <c r="C273" s="49"/>
       <c r="D273" s="49"/>
       <c r="E273" s="49"/>
@@ -11734,7 +11815,7 @@
     </row>
     <row r="274" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B274" s="57"/>
       <c r="C274" s="49"/>
@@ -11746,11 +11827,9 @@
     </row>
     <row r="275" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A275" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="B275" s="57" t="s">
-        <v>988</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="B275" s="57"/>
       <c r="C275" s="49"/>
       <c r="D275" s="49"/>
       <c r="E275" s="49"/>
@@ -11760,7 +11839,7 @@
     </row>
     <row r="276" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A276" s="14" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B276" s="57"/>
       <c r="C276" s="49"/>
@@ -11772,9 +11851,11 @@
     </row>
     <row r="277" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A277" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="B277" s="57"/>
+        <v>985</v>
+      </c>
+      <c r="B277" s="57" t="s">
+        <v>986</v>
+      </c>
       <c r="C277" s="49"/>
       <c r="D277" s="49"/>
       <c r="E277" s="49"/>
@@ -11784,7 +11865,7 @@
     </row>
     <row r="278" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A278" s="14" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B278" s="57"/>
       <c r="C278" s="49"/>
@@ -11796,11 +11877,9 @@
     </row>
     <row r="279" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A279" s="14" t="s">
-        <v>992</v>
-      </c>
-      <c r="B279" s="57" t="s">
-        <v>993</v>
-      </c>
+        <v>988</v>
+      </c>
+      <c r="B279" s="57"/>
       <c r="C279" s="49"/>
       <c r="D279" s="49"/>
       <c r="E279" s="49"/>
@@ -11810,7 +11889,7 @@
     </row>
     <row r="280" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A280" s="14" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B280" s="57"/>
       <c r="C280" s="49"/>
@@ -11820,9 +11899,9 @@
       <c r="G280" s="49"/>
       <c r="H280" s="49"/>
     </row>
-    <row r="281" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+    <row r="281" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A281" s="14" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B281" s="57"/>
       <c r="C281" s="49"/>
@@ -11832,9 +11911,9 @@
       <c r="G281" s="49"/>
       <c r="H281" s="49"/>
     </row>
-    <row r="282" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1">
+    <row r="282" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A282" s="14" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B282" s="57"/>
       <c r="C282" s="49"/>
@@ -11846,7 +11925,7 @@
     </row>
     <row r="283" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A283" s="14" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B283" s="57"/>
       <c r="C283" s="49"/>
@@ -11858,7 +11937,7 @@
     </row>
     <row r="284" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A284" s="14" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B284" s="57"/>
       <c r="C284" s="49"/>
@@ -11870,7 +11949,7 @@
     </row>
     <row r="285" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A285" s="14" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B285" s="57"/>
       <c r="C285" s="49"/>
@@ -11882,7 +11961,7 @@
     </row>
     <row r="286" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A286" s="14" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B286" s="57"/>
       <c r="C286" s="49"/>
@@ -11894,7 +11973,7 @@
     </row>
     <row r="287" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A287" s="14" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B287" s="57"/>
       <c r="C287" s="49"/>
@@ -11906,7 +11985,7 @@
     </row>
     <row r="288" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A288" s="14" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B288" s="57"/>
       <c r="C288" s="49"/>
@@ -11916,103 +11995,103 @@
       <c r="G288" s="49"/>
       <c r="H288" s="49"/>
     </row>
-    <row r="289" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+    <row r="289" spans="1:8" s="58" customFormat="1" ht="53" customHeight="1">
       <c r="A289" s="14" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B289" s="57"/>
-      <c r="C289" s="49"/>
+        <v>999</v>
+      </c>
+      <c r="B289" s="63" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C289" s="64"/>
       <c r="D289" s="49"/>
       <c r="E289" s="49"/>
       <c r="F289" s="49"/>
-      <c r="G289" s="49"/>
+      <c r="G289" s="6" t="s">
+        <v>1080</v>
+      </c>
       <c r="H289" s="49"/>
     </row>
-    <row r="290" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+    <row r="290" spans="1:8" s="58" customFormat="1" ht="71" customHeight="1">
       <c r="A290" s="14" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B290" s="57"/>
-      <c r="C290" s="49"/>
+        <v>1000</v>
+      </c>
+      <c r="B290" s="63" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C290" s="65" t="s">
+        <v>1082</v>
+      </c>
       <c r="D290" s="49"/>
       <c r="E290" s="49"/>
       <c r="F290" s="49"/>
       <c r="G290" s="49"/>
       <c r="H290" s="49"/>
     </row>
-    <row r="291" spans="1:8" s="58" customFormat="1" ht="53" customHeight="1">
+    <row r="291" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
       <c r="A291" s="14" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B291" s="63" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C291" s="64"/>
+        <v>1084</v>
+      </c>
+      <c r="C291" s="67" t="s">
+        <v>1092</v>
+      </c>
       <c r="D291" s="49"/>
       <c r="E291" s="49"/>
       <c r="F291" s="49"/>
-      <c r="G291" s="6" t="s">
+      <c r="G291" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H291" s="49"/>
+    </row>
+    <row r="292" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
+      <c r="A292" s="66" t="s">
         <v>1088</v>
       </c>
-      <c r="H291" s="49"/>
-    </row>
-    <row r="292" spans="1:8" s="58" customFormat="1" ht="71" customHeight="1">
-      <c r="A292" s="14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B292" s="63" t="s">
+      <c r="B292" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C292" s="67" t="s">
         <v>1091</v>
-      </c>
-      <c r="C292" s="65" t="s">
-        <v>1090</v>
       </c>
       <c r="D292" s="49"/>
       <c r="E292" s="49"/>
       <c r="F292" s="49"/>
-      <c r="G292" s="49"/>
+      <c r="G292" s="55" t="s">
+        <v>1089</v>
+      </c>
       <c r="H292" s="49"/>
     </row>
-    <row r="293" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
+    <row r="293" spans="1:8" s="58" customFormat="1" ht="34" customHeight="1">
       <c r="A293" s="14" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B293" s="63" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C293" s="67" t="s">
-        <v>1100</v>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="B293" s="63"/>
+      <c r="C293" s="49"/>
       <c r="D293" s="49"/>
       <c r="E293" s="49"/>
       <c r="F293" s="49"/>
-      <c r="G293" s="49" t="s">
-        <v>1095</v>
-      </c>
+      <c r="G293" s="49"/>
       <c r="H293" s="49"/>
     </row>
-    <row r="294" spans="1:8" s="58" customFormat="1" ht="74" customHeight="1">
-      <c r="A294" s="66" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B294" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C294" s="67" t="s">
-        <v>1099</v>
-      </c>
+    <row r="294" spans="1:8" s="58" customFormat="1" ht="43" customHeight="1">
+      <c r="A294" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B294" s="63"/>
+      <c r="C294" s="49"/>
       <c r="D294" s="49"/>
       <c r="E294" s="49"/>
       <c r="F294" s="49"/>
-      <c r="G294" s="55" t="s">
-        <v>1097</v>
-      </c>
+      <c r="G294" s="49"/>
       <c r="H294" s="49"/>
     </row>
-    <row r="295" spans="1:8" s="58" customFormat="1" ht="34" customHeight="1">
+    <row r="295" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A295" s="14" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B295" s="63"/>
+        <v>1001</v>
+      </c>
+      <c r="B295" s="57"/>
       <c r="C295" s="49"/>
       <c r="D295" s="49"/>
       <c r="E295" s="49"/>
@@ -12020,11 +12099,11 @@
       <c r="G295" s="49"/>
       <c r="H295" s="49"/>
     </row>
-    <row r="296" spans="1:8" s="58" customFormat="1" ht="43" customHeight="1">
+    <row r="296" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A296" s="14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B296" s="63"/>
+        <v>1002</v>
+      </c>
+      <c r="B296" s="57"/>
       <c r="C296" s="49"/>
       <c r="D296" s="49"/>
       <c r="E296" s="49"/>
@@ -12034,7 +12113,7 @@
     </row>
     <row r="297" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A297" s="14" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B297" s="57"/>
       <c r="C297" s="49"/>
@@ -12046,7 +12125,7 @@
     </row>
     <row r="298" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A298" s="14" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B298" s="57"/>
       <c r="C298" s="49"/>
@@ -12058,7 +12137,7 @@
     </row>
     <row r="299" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A299" s="14" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B299" s="57"/>
       <c r="C299" s="49"/>
@@ -12070,7 +12149,7 @@
     </row>
     <row r="300" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A300" s="14" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B300" s="57"/>
       <c r="C300" s="49"/>
@@ -12082,7 +12161,7 @@
     </row>
     <row r="301" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A301" s="14" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B301" s="57"/>
       <c r="C301" s="49"/>
@@ -12092,9 +12171,9 @@
       <c r="G301" s="49"/>
       <c r="H301" s="49"/>
     </row>
-    <row r="302" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
-      <c r="A302" s="14" t="s">
-        <v>1013</v>
+    <row r="302" spans="1:8" s="58" customFormat="1" ht="47" customHeight="1">
+      <c r="A302" s="13" t="s">
+        <v>1008</v>
       </c>
       <c r="B302" s="57"/>
       <c r="C302" s="49"/>
@@ -12106,7 +12185,7 @@
     </row>
     <row r="303" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A303" s="14" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B303" s="57"/>
       <c r="C303" s="49"/>
@@ -12116,9 +12195,9 @@
       <c r="G303" s="49"/>
       <c r="H303" s="49"/>
     </row>
-    <row r="304" spans="1:8" s="58" customFormat="1" ht="47" customHeight="1">
-      <c r="A304" s="13" t="s">
-        <v>1015</v>
+    <row r="304" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+      <c r="A304" s="14" t="s">
+        <v>1010</v>
       </c>
       <c r="B304" s="57"/>
       <c r="C304" s="49"/>
@@ -12130,7 +12209,7 @@
     </row>
     <row r="305" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A305" s="14" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B305" s="57"/>
       <c r="C305" s="49"/>
@@ -12142,7 +12221,7 @@
     </row>
     <row r="306" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A306" s="14" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B306" s="57"/>
       <c r="C306" s="49"/>
@@ -12154,7 +12233,7 @@
     </row>
     <row r="307" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A307" s="14" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B307" s="57"/>
       <c r="C307" s="49"/>
@@ -12166,7 +12245,7 @@
     </row>
     <row r="308" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A308" s="14" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B308" s="57"/>
       <c r="C308" s="49"/>
@@ -12178,7 +12257,7 @@
     </row>
     <row r="309" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A309" s="14" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B309" s="57"/>
       <c r="C309" s="49"/>
@@ -12190,7 +12269,7 @@
     </row>
     <row r="310" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
       <c r="A310" s="14" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B310" s="57"/>
       <c r="C310" s="49"/>
@@ -12200,9 +12279,9 @@
       <c r="G310" s="49"/>
       <c r="H310" s="49"/>
     </row>
-    <row r="311" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+    <row r="311" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A311" s="14" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B311" s="57"/>
       <c r="C311" s="49"/>
@@ -12212,9 +12291,9 @@
       <c r="G311" s="49"/>
       <c r="H311" s="49"/>
     </row>
-    <row r="312" spans="1:8" s="58" customFormat="1" ht="23" customHeight="1">
+    <row r="312" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A312" s="14" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B312" s="57"/>
       <c r="C312" s="49"/>
@@ -12226,7 +12305,7 @@
     </row>
     <row r="313" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A313" s="14" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B313" s="57"/>
       <c r="C313" s="49"/>
@@ -12238,7 +12317,7 @@
     </row>
     <row r="314" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A314" s="14" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B314" s="57"/>
       <c r="C314" s="49"/>
@@ -12250,7 +12329,7 @@
     </row>
     <row r="315" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A315" s="14" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B315" s="57"/>
       <c r="C315" s="49"/>
@@ -12262,7 +12341,7 @@
     </row>
     <row r="316" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A316" s="14" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B316" s="57"/>
       <c r="C316" s="49"/>
@@ -12274,7 +12353,7 @@
     </row>
     <row r="317" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A317" s="14" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B317" s="57"/>
       <c r="C317" s="49"/>
@@ -12286,7 +12365,7 @@
     </row>
     <row r="318" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A318" s="14" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B318" s="57"/>
       <c r="C318" s="49"/>
@@ -12298,7 +12377,7 @@
     </row>
     <row r="319" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A319" s="14" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B319" s="57"/>
       <c r="C319" s="49"/>
@@ -12310,7 +12389,7 @@
     </row>
     <row r="320" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A320" s="14" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B320" s="57"/>
       <c r="C320" s="49"/>
@@ -12322,7 +12401,7 @@
     </row>
     <row r="321" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A321" s="14" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B321" s="57"/>
       <c r="C321" s="49"/>
@@ -12334,7 +12413,7 @@
     </row>
     <row r="322" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A322" s="14" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B322" s="57"/>
       <c r="C322" s="49"/>
@@ -12346,7 +12425,7 @@
     </row>
     <row r="323" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A323" s="14" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B323" s="57"/>
       <c r="C323" s="49"/>
@@ -12358,7 +12437,7 @@
     </row>
     <row r="324" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A324" s="14" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B324" s="57"/>
       <c r="C324" s="49"/>
@@ -12370,7 +12449,7 @@
     </row>
     <row r="325" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A325" s="14" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B325" s="57"/>
       <c r="C325" s="49"/>
@@ -12382,7 +12461,7 @@
     </row>
     <row r="326" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A326" s="14" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B326" s="57"/>
       <c r="C326" s="49"/>
@@ -12394,7 +12473,7 @@
     </row>
     <row r="327" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A327" s="14" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B327" s="57"/>
       <c r="C327" s="49"/>
@@ -12406,7 +12485,7 @@
     </row>
     <row r="328" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A328" s="14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B328" s="57"/>
       <c r="C328" s="49"/>
@@ -12418,7 +12497,7 @@
     </row>
     <row r="329" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A329" s="14" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B329" s="57"/>
       <c r="C329" s="49"/>
@@ -12430,7 +12509,7 @@
     </row>
     <row r="330" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A330" s="14" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B330" s="57"/>
       <c r="C330" s="49"/>
@@ -12442,7 +12521,7 @@
     </row>
     <row r="331" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A331" s="14" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B331" s="57"/>
       <c r="C331" s="49"/>
@@ -12454,7 +12533,7 @@
     </row>
     <row r="332" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A332" s="14" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B332" s="57"/>
       <c r="C332" s="49"/>
@@ -12466,7 +12545,7 @@
     </row>
     <row r="333" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A333" s="14" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B333" s="57"/>
       <c r="C333" s="49"/>
@@ -12490,7 +12569,7 @@
     </row>
     <row r="335" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
       <c r="A335" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B335" s="57"/>
       <c r="C335" s="49"/>
@@ -12500,33 +12579,33 @@
       <c r="G335" s="49"/>
       <c r="H335" s="49"/>
     </row>
-    <row r="336" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+    <row r="336" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A336" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B336" s="57"/>
-      <c r="C336" s="49"/>
-      <c r="D336" s="49"/>
-      <c r="E336" s="49"/>
-      <c r="F336" s="49"/>
-      <c r="G336" s="49"/>
-      <c r="H336" s="49"/>
-    </row>
-    <row r="337" spans="1:8" s="58" customFormat="1" ht="22" customHeight="1">
+        <v>1046</v>
+      </c>
+      <c r="B336" s="35"/>
+      <c r="C336" s="37"/>
+      <c r="D336" s="37"/>
+      <c r="E336" s="37"/>
+      <c r="F336" s="37"/>
+      <c r="G336" s="37"/>
+      <c r="H336" s="37"/>
+    </row>
+    <row r="337" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A337" s="14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B337" s="57"/>
-      <c r="C337" s="49"/>
-      <c r="D337" s="49"/>
-      <c r="E337" s="49"/>
-      <c r="F337" s="49"/>
-      <c r="G337" s="49"/>
-      <c r="H337" s="49"/>
+        <v>1047</v>
+      </c>
+      <c r="B337" s="35"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="37"/>
+      <c r="F337" s="37"/>
+      <c r="G337" s="37"/>
+      <c r="H337" s="37"/>
     </row>
     <row r="338" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A338" s="14" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B338" s="35"/>
       <c r="C338" s="37"/>
@@ -12538,7 +12617,7 @@
     </row>
     <row r="339" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
       <c r="A339" s="14" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B339" s="35"/>
       <c r="C339" s="37"/>
@@ -12548,33 +12627,33 @@
       <c r="G339" s="37"/>
       <c r="H339" s="37"/>
     </row>
-    <row r="340" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A340" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B340" s="35"/>
-      <c r="C340" s="37"/>
-      <c r="D340" s="37"/>
-      <c r="E340" s="37"/>
-      <c r="F340" s="37"/>
-      <c r="G340" s="37"/>
-      <c r="H340" s="37"/>
-    </row>
-    <row r="341" spans="1:8" s="59" customFormat="1" ht="22" customHeight="1">
-      <c r="A341" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B341" s="35"/>
-      <c r="C341" s="37"/>
-      <c r="D341" s="37"/>
-      <c r="E341" s="37"/>
-      <c r="F341" s="37"/>
-      <c r="G341" s="37"/>
-      <c r="H341" s="37"/>
+    <row r="340" spans="1:8">
+      <c r="A340" s="56" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B340" s="8"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="1"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="56" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B341" s="8"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="1"/>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="56" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="5"/>
@@ -12586,7 +12665,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="56" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="5"/>
@@ -12598,7 +12677,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="56" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="5"/>
@@ -12610,7 +12689,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="56" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="5"/>
@@ -12622,7 +12701,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="56" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="5"/>
@@ -12634,7 +12713,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="56" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="5"/>
@@ -12645,9 +12724,7 @@
       <c r="H347" s="1"/>
     </row>
     <row r="348" spans="1:8">
-      <c r="A348" s="56" t="s">
-        <v>1075</v>
-      </c>
+      <c r="A348" s="56"/>
       <c r="B348" s="8"/>
       <c r="C348" s="5"/>
       <c r="D348" s="1"/>
@@ -12657,9 +12734,7 @@
       <c r="H348" s="1"/>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" s="56" t="s">
-        <v>1076</v>
-      </c>
+      <c r="A349" s="56"/>
       <c r="B349" s="8"/>
       <c r="C349" s="5"/>
       <c r="D349" s="1"/>
@@ -13078,160 +13153,141 @@
       <c r="G390" s="5"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8">
-      <c r="A391" s="56"/>
-      <c r="B391" s="8"/>
-      <c r="C391" s="5"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="5"/>
-      <c r="H391" s="1"/>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="A392" s="56"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="5"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
-      <c r="G392" s="5"/>
-      <c r="H392" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G35" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G43" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G47" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G52" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G56" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G57" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G58" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G61" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G63" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G64" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G67" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G68" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G69" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G70" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G71" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G73" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G74" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G208" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G75" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G76" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G77" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G78" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G79" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G80" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G81" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H81" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G82" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G83" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G84" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G85" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G86" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G88" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G89" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G90" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H89" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G91" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G92" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G93" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G96" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G97" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G98" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G99" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G100" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G101" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G102" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G103" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G104" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G105" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G106" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G107" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G108" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G109" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G110" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G111" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="G112" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G113" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G114" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G115" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G117" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G118" r:id="rId85" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
-    <hyperlink ref="G119" r:id="rId86" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
-    <hyperlink ref="G120" r:id="rId87" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
-    <hyperlink ref="G121" r:id="rId88" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
-    <hyperlink ref="G122" r:id="rId89" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
-    <hyperlink ref="G123" r:id="rId90" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
-    <hyperlink ref="G124" r:id="rId91" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
-    <hyperlink ref="G125" r:id="rId92" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
-    <hyperlink ref="G126" r:id="rId93" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
-    <hyperlink ref="G127" r:id="rId94" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
-    <hyperlink ref="G128" r:id="rId95" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
-    <hyperlink ref="G129" r:id="rId96" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
-    <hyperlink ref="G130" r:id="rId97" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
-    <hyperlink ref="H130" r:id="rId98" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
-    <hyperlink ref="G131" r:id="rId99" xr:uid="{A01E41E2-82F2-0B4B-948C-1D6858C60992}"/>
-    <hyperlink ref="G132" r:id="rId100" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
-    <hyperlink ref="H132" r:id="rId101" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
-    <hyperlink ref="S132" r:id="rId102" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
-    <hyperlink ref="G133" r:id="rId103" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
-    <hyperlink ref="G135" r:id="rId104" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
-    <hyperlink ref="G137" r:id="rId105" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
-    <hyperlink ref="G165" r:id="rId106" xr:uid="{69428793-5044-C745-8ED1-A02D17C87A08}"/>
-    <hyperlink ref="G202" r:id="rId107" xr:uid="{EC978807-79F6-8645-BA27-5B5EA9BC25E1}"/>
-    <hyperlink ref="G205" r:id="rId108" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{8D4043E3-CB78-2740-A1B6-2580714F5D1E}"/>
-    <hyperlink ref="G44" r:id="rId109" xr:uid="{52F32864-DDFD-044B-A6E1-085054B9B200}"/>
-    <hyperlink ref="G206" r:id="rId110" xr:uid="{23D9C103-F2A2-474D-8B3B-C8B3ADAFAF09}"/>
-    <hyperlink ref="G207" r:id="rId111" xr:uid="{2401B952-575E-1D45-AF80-42C35916F8A5}"/>
-    <hyperlink ref="G216" r:id="rId112" xr:uid="{B267D8D1-4C78-B943-A2F1-AE1E77514E31}"/>
-    <hyperlink ref="G218" r:id="rId113" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
-    <hyperlink ref="G210" r:id="rId114" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
-    <hyperlink ref="G255" r:id="rId115" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
-    <hyperlink ref="G256" r:id="rId116" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
-    <hyperlink ref="G140" r:id="rId117" xr:uid="{E5B20948-57A8-2E48-9191-175A672155C6}"/>
-    <hyperlink ref="G146" r:id="rId118" xr:uid="{08B7E248-E2F5-4A4A-BAC3-ABDA6CE1A484}"/>
-    <hyperlink ref="G159" r:id="rId119" xr:uid="{E597C9B9-B49B-E748-9679-4D7E6A09DF83}"/>
-    <hyperlink ref="G158" r:id="rId120" xr:uid="{E5F509BA-2BB8-D149-AA35-7BDB432E18AF}"/>
-    <hyperlink ref="G160" r:id="rId121" xr:uid="{4FC031CC-93DC-9244-9042-8DD1D67AC6F9}"/>
-    <hyperlink ref="G161" r:id="rId122" xr:uid="{C62E4B96-B936-B44E-8C2F-3864E9CFE4CC}"/>
-    <hyperlink ref="G162" r:id="rId123" xr:uid="{1BA81E42-D0F9-0044-8ED4-7FEE90A1B0AA}"/>
-    <hyperlink ref="G163" r:id="rId124" xr:uid="{A8CD9D15-E8C0-344E-A762-C25892E3B26A}"/>
-    <hyperlink ref="G164" r:id="rId125" xr:uid="{798B478D-29D7-E04E-8FB6-1E725649CEDE}"/>
-    <hyperlink ref="G179" r:id="rId126" xr:uid="{128F6ED5-8C9A-E146-83DF-187B87ED530F}"/>
-    <hyperlink ref="G187" r:id="rId127" xr:uid="{37331509-B7B8-7548-B5C6-857F36A7E109}"/>
-    <hyperlink ref="G188" r:id="rId128" xr:uid="{31FA25FC-46C7-D74A-99A5-1140E96809B5}"/>
-    <hyperlink ref="G196" r:id="rId129" xr:uid="{5CC18E71-C5D0-6A4D-AD79-B547613CD77D}"/>
-    <hyperlink ref="G294" r:id="rId130" xr:uid="{754094CD-003E-114E-B66D-2DEF0C37F04E}"/>
+    <hyperlink ref="G31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G50" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G53" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G56" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G57" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G60" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G62" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G63" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G64" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G66" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G68" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G69" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G70" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G71" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G72" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G73" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G74" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G75" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G76" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G210" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G77" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G78" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G79" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G80" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G81" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G82" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G83" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H83" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G84" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G85" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G86" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G87" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G90" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G91" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H91" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G93" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G94" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G95" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G96" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B97" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G97" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G98" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G99" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G100" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G101" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G102" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G103" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G104" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G105" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G106" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G107" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G108" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G109" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G110" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G111" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G112" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G113" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G114" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G115" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G116" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G117" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G119" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G120" r:id="rId85" xr:uid="{15038D4C-D664-1D4A-A5C6-72B4A48FEFE2}"/>
+    <hyperlink ref="G121" r:id="rId86" xr:uid="{87982344-D806-9B40-B349-5D4B73ABCD12}"/>
+    <hyperlink ref="G122" r:id="rId87" xr:uid="{A45E58BE-0107-4548-A69B-BFE17ABDFE27}"/>
+    <hyperlink ref="G123" r:id="rId88" xr:uid="{F4D80DC8-6375-9B45-8828-60601E2A554F}"/>
+    <hyperlink ref="G124" r:id="rId89" xr:uid="{BD7E8467-85A9-9348-9003-9B5C30A655C3}"/>
+    <hyperlink ref="G125" r:id="rId90" xr:uid="{DF9286D1-51DC-C84E-9780-5D096CCF4B45}"/>
+    <hyperlink ref="G126" r:id="rId91" xr:uid="{BD88AC4D-DC40-1B49-9970-C3D3AA01F79E}"/>
+    <hyperlink ref="G127" r:id="rId92" xr:uid="{9CB138BA-0CF7-BE4A-914D-80228925C745}"/>
+    <hyperlink ref="G128" r:id="rId93" xr:uid="{0BF73B4D-CF76-994A-99EC-EA7229CEFF2D}"/>
+    <hyperlink ref="G129" r:id="rId94" xr:uid="{0B566DBD-88FA-3E4D-8D2E-02D0B7D9095B}"/>
+    <hyperlink ref="G130" r:id="rId95" xr:uid="{675E53F0-D034-C34B-B9BB-956AB2129E98}"/>
+    <hyperlink ref="G131" r:id="rId96" xr:uid="{00FD4ECF-5DD3-6F40-A114-4C40FC361346}"/>
+    <hyperlink ref="G132" r:id="rId97" xr:uid="{901C277F-5B43-8147-A8AA-8713977BEF52}"/>
+    <hyperlink ref="H132" r:id="rId98" xr:uid="{E652E960-3EBC-B64E-9A94-C11B9EE2D0BF}"/>
+    <hyperlink ref="G133" r:id="rId99" xr:uid="{A01E41E2-82F2-0B4B-948C-1D6858C60992}"/>
+    <hyperlink ref="G134" r:id="rId100" xr:uid="{E919C010-6584-6C47-A91A-2AB07E8DC6A8}"/>
+    <hyperlink ref="H134" r:id="rId101" xr:uid="{12AD0DA4-1135-784F-86AF-1B3395B8F9A9}"/>
+    <hyperlink ref="S134" r:id="rId102" xr:uid="{DC622B61-6CA6-C847-96C4-A8856C6FF2FE}"/>
+    <hyperlink ref="G135" r:id="rId103" xr:uid="{AB8C4449-68F3-B14A-93E9-8315172F5667}"/>
+    <hyperlink ref="G137" r:id="rId104" xr:uid="{603E9D44-D885-B64B-829D-7F8DD700B50C}"/>
+    <hyperlink ref="G139" r:id="rId105" xr:uid="{748B5CF5-D6CE-C142-88BC-CB200DE8D946}"/>
+    <hyperlink ref="G167" r:id="rId106" xr:uid="{69428793-5044-C745-8ED1-A02D17C87A08}"/>
+    <hyperlink ref="G204" r:id="rId107" xr:uid="{EC978807-79F6-8645-BA27-5B5EA9BC25E1}"/>
+    <hyperlink ref="G207" r:id="rId108" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{8D4043E3-CB78-2740-A1B6-2580714F5D1E}"/>
+    <hyperlink ref="G46" r:id="rId109" xr:uid="{52F32864-DDFD-044B-A6E1-085054B9B200}"/>
+    <hyperlink ref="G208" r:id="rId110" xr:uid="{23D9C103-F2A2-474D-8B3B-C8B3ADAFAF09}"/>
+    <hyperlink ref="G209" r:id="rId111" xr:uid="{2401B952-575E-1D45-AF80-42C35916F8A5}"/>
+    <hyperlink ref="G219" r:id="rId112" xr:uid="{7D0AAFC1-C690-2B49-9EB8-E3BA672C2424}"/>
+    <hyperlink ref="G212" r:id="rId113" xr:uid="{31219583-F195-ED42-A799-1B054B7D9E84}"/>
+    <hyperlink ref="G253" r:id="rId114" xr:uid="{E7446763-7D68-D94F-887C-EEC8548E4D16}"/>
+    <hyperlink ref="G254" r:id="rId115" xr:uid="{11A405A4-DF58-9545-BCDE-9414DE390A5E}"/>
+    <hyperlink ref="G142" r:id="rId116" xr:uid="{E5B20948-57A8-2E48-9191-175A672155C6}"/>
+    <hyperlink ref="G148" r:id="rId117" xr:uid="{08B7E248-E2F5-4A4A-BAC3-ABDA6CE1A484}"/>
+    <hyperlink ref="G161" r:id="rId118" xr:uid="{E597C9B9-B49B-E748-9679-4D7E6A09DF83}"/>
+    <hyperlink ref="G160" r:id="rId119" xr:uid="{E5F509BA-2BB8-D149-AA35-7BDB432E18AF}"/>
+    <hyperlink ref="G162" r:id="rId120" xr:uid="{4FC031CC-93DC-9244-9042-8DD1D67AC6F9}"/>
+    <hyperlink ref="G163" r:id="rId121" xr:uid="{C62E4B96-B936-B44E-8C2F-3864E9CFE4CC}"/>
+    <hyperlink ref="G164" r:id="rId122" xr:uid="{1BA81E42-D0F9-0044-8ED4-7FEE90A1B0AA}"/>
+    <hyperlink ref="G165" r:id="rId123" xr:uid="{A8CD9D15-E8C0-344E-A762-C25892E3B26A}"/>
+    <hyperlink ref="G166" r:id="rId124" xr:uid="{798B478D-29D7-E04E-8FB6-1E725649CEDE}"/>
+    <hyperlink ref="G181" r:id="rId125" xr:uid="{128F6ED5-8C9A-E146-83DF-187B87ED530F}"/>
+    <hyperlink ref="G189" r:id="rId126" xr:uid="{37331509-B7B8-7548-B5C6-857F36A7E109}"/>
+    <hyperlink ref="G190" r:id="rId127" xr:uid="{31FA25FC-46C7-D74A-99A5-1140E96809B5}"/>
+    <hyperlink ref="G198" r:id="rId128" xr:uid="{5CC18E71-C5D0-6A4D-AD79-B547613CD77D}"/>
+    <hyperlink ref="G292" r:id="rId129" xr:uid="{754094CD-003E-114E-B66D-2DEF0C37F04E}"/>
+    <hyperlink ref="G223" r:id="rId130" xr:uid="{88298BD6-A42F-864A-B628-C970B3D8AF36}"/>
+    <hyperlink ref="G224" r:id="rId131" xr:uid="{9D9B7F12-8E09-F14A-B4B2-B2CC263E87C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId131"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
--- a/Applications/QuestionListWithApproaches.xlsx
+++ b/Applications/QuestionListWithApproaches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033312B-3D07-1143-8A30-6C86FB1EAF25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99D76B-17E0-5642-8DC0-F7224342410B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1139">
   <si>
     <t>Convert Binary Number in a Linked List to Integer</t>
   </si>
@@ -91,18 +91,6 @@
   </si>
   <si>
     <t>leetcode.com/longest-uncommon-subsequence-i</t>
-  </si>
-  <si>
-    <t>binary tree inorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stack </t>
-  </si>
-  <si>
-    <t>morris -O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leetcode </t>
   </si>
   <si>
     <t>LRU cache</t>
@@ -2217,9 +2205,6 @@
     <t>https://leetcode.com/problems/flipping-an-image/</t>
   </si>
   <si>
-    <t>O(n) time and O(1) space</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/n-repeated-element-in-size-2n-array/</t>
   </si>
   <si>
@@ -4481,27 +4466,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>n repeated elements in size 2n array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [In a array A of size 2N, there are N+1 unique elements, and exactly one of these elements is repeated N times.
-Return the element repeated N times]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>squares of a sorted array</t>
     </r>
     <r>
@@ -4594,26 +4558,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> [Given a non-negative integer num, return the number of steps to reduce it to zero. If the current number is even, you have to divide it by 2, otherwise, you have to subtract 1 from it.]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>count negative numbers in a sorted matrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [grid which is sorted in non-increasing order both row-wise and column-wise]</t>
     </r>
   </si>
   <si>
@@ -6097,9 +6041,6 @@
     </r>
   </si>
   <si>
-    <t>using bit manipulation</t>
-  </si>
-  <si>
     <t>leetcode.com/problems/find-the-duplicate-number/
 interviewbit.com/problems/find-duplicate-in-array/</t>
   </si>
@@ -6167,12 +6108,231 @@
 if(A[n-1] != A[n-2]) return A[n-1]
         </t>
   </si>
+  <si>
+    <t>loop through 1 to n and check if it  is present or not in the array O(n^2) improve the time complexity by using hashtable O(n)</t>
+  </si>
+  <si>
+    <t>cyclic sort the array at last check if (A[i] != i+1) then addToAnswer 
+[O(n) time O(1)space] 
+break condition while swapping -&gt; nums[i] != nums[nums[i]-1]</t>
+  </si>
+  <si>
+    <t>mark the items visited by modifying the array 
+if(positive A[i]) A[A[i]-1] = -A[A[i]-1] , 
+at last addToAnswer those indices which have positive values [O(n) time O(1)space]</t>
+  </si>
+  <si>
+    <t>just return a seen number (because all the numbers are unique except 1) [use hashset] O(n) time and space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n repeated elements in size 2n array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [In a array A of size 2N, there are N+1 unique elements, and exactly one of these elements is repeated N times.
+Return the element repeated N times] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FollowUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - O(n) time and O(1) space</t>
+    </r>
+  </si>
+  <si>
+    <t>If a number is repeated N times in a list of size 2N, it is always possible for the repeated number to stay within a distance of 2.</t>
+  </si>
+  <si>
+    <t>[Pigenhole Principal] The intuition here is that the repeated numbers have to appear either next to each other (A[i] == A[i + 1]), or alternated (A[i] == A[i + 2]).
+The only exception is sequences like [2, 1, 3, 2]. In this case, the result is the last number, so we just return it in the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first reverse each row then toggle </t>
+  </si>
+  <si>
+    <t>using bit manipulation [XOR for addition without carry, AND for carry and LEFTSHIFT to apply the carry on the next digit]</t>
+  </si>
+  <si>
+    <t>while(b!=0){carry = a &amp; b; // taking carry
+  a = a ^ b;  // actual addition
+  b = carry &lt;&lt; 1; // shift carry so that we can apply it on next iteration
+} return a;</t>
+  </si>
+  <si>
+    <t>two pointer at indx (0, n-1) place max(A[0],A[n-1]) at last and advance the pointer O(n)time</t>
+  </si>
+  <si>
+    <t>convert first encountered 6 from RHS to 9</t>
+  </si>
+  <si>
+    <t>[Extra space is required]
+(1) sort the main diagonal (2) sort upper diagonals (3) sort lower diagonals</t>
+  </si>
+  <si>
+    <t>brute force O(m*n)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-negative-numbers-in-a-column-wise-row-wise-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>Since the matrix is sorted you can use this fact O(m+n)
+(1) We start from the top right corner and find the position of the last negative number in the first row. (2) Using this information, we find the position of the last negative number in the second row. (3) We keep repeating this process until we either run out of negative numbers or we get to the last row. [see gfg for digram]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">binary search to find the last index of negative number in each row and also </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>update the END point for the next row to the last index of negative number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> because matrix is sorted in NON-DECREASING order O(n+logm) time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>count negative numbers in a sorted matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [grid which is sorted in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>non-increasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> order both row-wise and column-wise]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>count negative numbers in a sorted matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [grid which is sorted in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> non-decreasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> order both row-wise and column-wise]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the matrix is sorted you can use this fact O(m+n)
+Explanation : [O(m+n)] https://www.youtube.com/watch?v=-PaWC4MU7_Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[we can start from top right corner and this time we will discard the column(by taking it to answer) once we find negative value (because all the values will be negative after the encountered value] and then move to next row diagonally(staircase i+1,j-1) </t>
+  </si>
+  <si>
+    <t>binary search to find the last index of negative number in each row and also update the END point for the next row to the last index of negative number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brute force O(m*n) </t>
+  </si>
+  <si>
+    <t>basically in this question we try to discard row(while calculating its values) for the next iteration</t>
+  </si>
+  <si>
+    <t>basically in this question we try to discard column(while calculating its values) for the next iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6404,6 +6564,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6467,7 +6634,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -6648,6 +6815,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6934,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="158" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="E226" zoomScale="158" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7020,13 +7190,13 @@
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -7038,145 +7208,141 @@
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="19" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:8" ht="28">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="28">
-      <c r="A6" s="21" t="s">
-        <v>26</v>
+    <row r="6" spans="1:8" ht="67" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>910</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="28" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="67" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>917</v>
-      </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>33</v>
+    <row r="8" spans="1:8" ht="23" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>904</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="23" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19"/>
+    <row r="9" spans="1:8" ht="58" customHeight="1">
+      <c r="A9" s="47" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>907</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" ht="58" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>912</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>913</v>
+    <row r="10" spans="1:8" ht="28">
+      <c r="A10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>914</v>
-      </c>
-      <c r="D10" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="28">
-      <c r="A11" s="23" t="s">
-        <v>38</v>
+    <row r="11" spans="1:8" ht="25" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1">
+    <row r="12" spans="1:8" ht="29" customHeight="1">
       <c r="A12" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="19" t="s">
-        <v>43</v>
+        <v>908</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -7184,106 +7350,104 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="29" customHeight="1">
+    <row r="13" spans="1:8" ht="25" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>616</v>
+        <v>42</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>915</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1">
+    <row r="14" spans="1:8" ht="60" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1">
+    <row r="15" spans="1:8" ht="22" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="22" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>54</v>
+    <row r="17" spans="1:8" ht="29" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>738</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+        <v>1062</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -7292,13 +7456,13 @@
     </row>
     <row r="19" spans="1:8" ht="46" customHeight="1">
       <c r="A19" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>1072</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>1079</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7308,13 +7472,13 @@
     </row>
     <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7324,13 +7488,13 @@
     </row>
     <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>1070</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>1077</v>
-      </c>
       <c r="C21" s="62" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7340,7 +7504,7 @@
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
@@ -7352,7 +7516,7 @@
     </row>
     <row r="23" spans="1:8" ht="32" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
@@ -7364,7 +7528,7 @@
     </row>
     <row r="24" spans="1:8" ht="33" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
@@ -7376,7 +7540,7 @@
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
@@ -7388,7 +7552,7 @@
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
@@ -7400,7 +7564,7 @@
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
@@ -7412,7 +7576,7 @@
     </row>
     <row r="28" spans="1:8" ht="46" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36"/>
@@ -7420,13 +7584,13 @@
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="43" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="36"/>
@@ -7434,13 +7598,13 @@
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="45" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="36"/>
@@ -7448,37 +7612,37 @@
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="23" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="42">
       <c r="A32" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -7488,10 +7652,10 @@
     </row>
     <row r="33" spans="1:8" ht="28">
       <c r="A33" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -7502,83 +7666,83 @@
     </row>
     <row r="34" spans="1:8" ht="28">
       <c r="A34" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="36" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="58" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="28">
       <c r="A38" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -7588,13 +7752,13 @@
     </row>
     <row r="39" spans="1:8" ht="29" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -7604,58 +7768,58 @@
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="55" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="25" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="G41" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="23" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
@@ -7664,30 +7828,30 @@
     </row>
     <row r="43" spans="1:8" ht="68" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" ht="28">
       <c r="A44" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -7698,128 +7862,128 @@
     </row>
     <row r="45" spans="1:8" ht="56">
       <c r="A45" s="13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" ht="29" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" ht="42">
       <c r="A47" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" ht="56">
       <c r="A48" s="13" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="86" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="43" customHeight="1">
       <c r="A50" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="50" customHeight="1">
       <c r="A51" s="23" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -7828,730 +7992,730 @@
     </row>
     <row r="52" spans="1:8" ht="46" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" ht="42">
       <c r="A53" s="13" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H53" s="19"/>
     </row>
     <row r="54" spans="1:8" ht="51" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:8" ht="60" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H55" s="19"/>
     </row>
     <row r="56" spans="1:8" ht="45" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H56" s="19"/>
     </row>
     <row r="57" spans="1:8" ht="29" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H57" s="19"/>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8" ht="71" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8" ht="38" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:8" ht="28">
       <c r="A61" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" ht="69" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H62" s="19"/>
     </row>
     <row r="63" spans="1:8" ht="53" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H63" s="19"/>
     </row>
     <row r="64" spans="1:8" ht="24" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" ht="24" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:8" ht="75" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" ht="31" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" ht="41" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" ht="36" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" ht="19" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" ht="26" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H71" s="19"/>
     </row>
     <row r="72" spans="1:8" ht="48" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="E72" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="F72" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H72" s="19"/>
     </row>
     <row r="73" spans="1:8" ht="22" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H73" s="19"/>
     </row>
     <row r="74" spans="1:8" ht="38" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H74" s="19"/>
     </row>
     <row r="75" spans="1:8" ht="46" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H75" s="19"/>
     </row>
     <row r="76" spans="1:8" ht="28" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H76" s="19"/>
     </row>
     <row r="77" spans="1:8" ht="29" customHeight="1">
       <c r="A77" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H77" s="19"/>
     </row>
     <row r="78" spans="1:8" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:8" ht="28">
       <c r="A79" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H79" s="19"/>
     </row>
     <row r="80" spans="1:8" ht="27" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8" ht="26" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:8" ht="125" customHeight="1">
       <c r="A82" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:8" ht="84" customHeight="1">
       <c r="A83" s="32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D83" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="53" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H85" s="19"/>
     </row>
     <row r="86" spans="1:8" ht="47" customHeight="1">
       <c r="A86" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:8" ht="76" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
       <c r="G87" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" ht="129" customHeight="1">
       <c r="A88" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H88" s="19"/>
     </row>
     <row r="89" spans="1:8" ht="36" customHeight="1">
       <c r="A89" s="13" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
@@ -8560,727 +8724,727 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H90" s="19"/>
     </row>
     <row r="91" spans="1:8" ht="28">
       <c r="A91" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="42" customHeight="1">
       <c r="A92" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H92" s="19"/>
     </row>
     <row r="93" spans="1:8" ht="40" customHeight="1">
       <c r="A93" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H93" s="19"/>
     </row>
     <row r="94" spans="1:8" ht="28" customHeight="1">
       <c r="A94" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H94" s="19"/>
     </row>
     <row r="95" spans="1:8" ht="37" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
       <c r="G95" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H95" s="19"/>
     </row>
     <row r="96" spans="1:8" s="3" customFormat="1" ht="70">
       <c r="A96" s="13" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H96" s="19"/>
     </row>
     <row r="97" spans="1:8" ht="31" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H97" s="19"/>
     </row>
     <row r="98" spans="1:8" ht="112">
       <c r="A98" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H98" s="19"/>
     </row>
     <row r="99" spans="1:8" ht="96" customHeight="1">
       <c r="A99" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="E99" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H99" s="19"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1">
       <c r="A100" s="13" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H100" s="19"/>
     </row>
     <row r="101" spans="1:8" ht="60" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H101" s="19"/>
     </row>
     <row r="102" spans="1:8" ht="99" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H102" s="19"/>
     </row>
     <row r="103" spans="1:8" ht="28">
       <c r="A103" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H103" s="19"/>
     </row>
     <row r="104" spans="1:8" ht="53" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H104" s="19"/>
     </row>
     <row r="105" spans="1:8" ht="38" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H105" s="19"/>
     </row>
     <row r="106" spans="1:8" ht="70">
       <c r="A106" s="13" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H106" s="19"/>
     </row>
     <row r="107" spans="1:8" ht="22" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H107" s="19"/>
     </row>
     <row r="108" spans="1:8" ht="20" customHeight="1">
       <c r="A108" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H108" s="19"/>
     </row>
     <row r="109" spans="1:8" ht="19" customHeight="1">
       <c r="A109" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8" ht="28">
       <c r="A110" s="13" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
       <c r="G111" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" ht="27" customHeight="1">
       <c r="A112" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:13" ht="70">
       <c r="A113" s="13" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
       <c r="G113" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H113" s="19"/>
     </row>
     <row r="114" spans="1:13" ht="39" customHeight="1">
       <c r="A114" s="13" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:13" ht="65" customHeight="1">
       <c r="A115" s="13" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H115" s="19"/>
     </row>
     <row r="116" spans="1:13" ht="37" customHeight="1">
       <c r="A116" s="13" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H116" s="19"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1">
       <c r="A117" s="13" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H117" s="19"/>
     </row>
     <row r="118" spans="1:13" ht="54" customHeight="1">
       <c r="A118" s="13" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H118" s="19"/>
     </row>
     <row r="119" spans="1:13" ht="51" customHeight="1">
       <c r="A119" s="13" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:13" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A120" s="13" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H120" s="19"/>
     </row>
     <row r="121" spans="1:13" s="3" customFormat="1" ht="80" customHeight="1">
       <c r="A121" s="13" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H121" s="19"/>
     </row>
     <row r="122" spans="1:13" ht="28">
       <c r="A122" s="13" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
       <c r="G122" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:13" ht="28">
       <c r="A123" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>396</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H123" s="19"/>
     </row>
     <row r="124" spans="1:13" ht="28">
       <c r="A124" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H124" s="19"/>
     </row>
     <row r="125" spans="1:13" ht="84">
       <c r="A125" s="13" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:13" ht="69" customHeight="1">
       <c r="A126" s="13" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
       <c r="G126" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H126" s="19"/>
     </row>
     <row r="127" spans="1:13" ht="42">
       <c r="A127" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>409</v>
       </c>
       <c r="F127" s="19"/>
       <c r="G127" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H127" s="19"/>
     </row>
     <row r="128" spans="1:13" ht="83" customHeight="1">
       <c r="A128" s="13" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="3"/>
@@ -9291,21 +9455,21 @@
     </row>
     <row r="129" spans="1:19" ht="98">
       <c r="A129" s="50" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="3"/>
@@ -9316,1146 +9480,1146 @@
     </row>
     <row r="130" spans="1:19" s="3" customFormat="1" ht="62" customHeight="1">
       <c r="A130" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:19" s="3" customFormat="1" ht="84">
       <c r="A131" s="13" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H131" s="19"/>
     </row>
     <row r="132" spans="1:19" ht="49" customHeight="1">
       <c r="A132" s="13" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B132" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>422</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="28">
       <c r="A133" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H133" s="19"/>
     </row>
     <row r="134" spans="1:19" ht="37" customHeight="1">
       <c r="A134" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B134" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B134" s="18" t="s">
-        <v>436</v>
-      </c>
       <c r="C134" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="51" customHeight="1">
       <c r="A135" s="13" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H135" s="19"/>
     </row>
     <row r="136" spans="1:19" ht="70">
       <c r="A136" s="13" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="30"/>
       <c r="G136" s="30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H136" s="19"/>
     </row>
     <row r="137" spans="1:19" ht="59" customHeight="1">
       <c r="A137" s="13" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H137" s="19"/>
     </row>
     <row r="138" spans="1:19" ht="47" customHeight="1">
       <c r="A138" s="13" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H138" s="19"/>
     </row>
     <row r="139" spans="1:19" ht="42">
       <c r="A139" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H139" s="19"/>
     </row>
     <row r="140" spans="1:19" ht="66" customHeight="1">
       <c r="A140" s="13" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H140" s="19"/>
     </row>
     <row r="141" spans="1:19" ht="56">
       <c r="A141" s="32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H141" s="19"/>
     </row>
     <row r="142" spans="1:19" ht="40" customHeight="1">
       <c r="A142" s="13" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="52" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H142" s="19"/>
     </row>
     <row r="143" spans="1:19" ht="55" customHeight="1">
       <c r="A143" s="13" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H143" s="19"/>
     </row>
     <row r="144" spans="1:19" ht="56">
       <c r="A144" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H144" s="19"/>
     </row>
     <row r="145" spans="1:8" ht="36" customHeight="1">
       <c r="A145" s="13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H145" s="19"/>
     </row>
     <row r="146" spans="1:8" ht="46" customHeight="1">
       <c r="A146" s="13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B146" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>472</v>
-      </c>
       <c r="D146" s="19" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E146" s="19"/>
       <c r="F146" s="19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H146" s="19"/>
     </row>
     <row r="147" spans="1:8" ht="41" customHeight="1">
       <c r="A147" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:8" ht="64" customHeight="1">
       <c r="A148" s="13" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="52" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H148" s="19"/>
     </row>
     <row r="149" spans="1:8" ht="48" customHeight="1">
       <c r="A149" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H149" s="19"/>
     </row>
     <row r="150" spans="1:8" ht="71" customHeight="1">
       <c r="A150" s="13" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H150" s="19"/>
     </row>
     <row r="151" spans="1:8" ht="22" customHeight="1">
       <c r="A151" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H151" s="19"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:8" ht="43" customHeight="1">
       <c r="A153" s="13" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:8" ht="79" customHeight="1">
       <c r="A154" s="13" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H154" s="19"/>
     </row>
     <row r="155" spans="1:8" ht="32" customHeight="1">
       <c r="A155" s="13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H155" s="19"/>
     </row>
     <row r="156" spans="1:8" ht="45" customHeight="1">
       <c r="A156" s="13" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H156" s="19"/>
     </row>
     <row r="157" spans="1:8" ht="28">
       <c r="A157" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H157" s="19"/>
     </row>
     <row r="158" spans="1:8" ht="28">
       <c r="A158" s="13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:8" ht="54" customHeight="1">
       <c r="A159" s="13" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H159" s="19"/>
     </row>
     <row r="160" spans="1:8" ht="56">
       <c r="A160" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="52" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H160" s="19"/>
     </row>
     <row r="161" spans="1:8" ht="43" customHeight="1">
       <c r="A161" s="13" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C161" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="F161" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="G161" s="52" t="s">
+        <v>511</v>
+      </c>
+      <c r="H161" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="F161" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="G161" s="52" t="s">
-        <v>515</v>
-      </c>
-      <c r="H161" s="19" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="60" customHeight="1">
       <c r="A162" s="13" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="52" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H162" s="19"/>
     </row>
     <row r="163" spans="1:8" ht="56">
       <c r="A163" s="33" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="52" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H163" s="19"/>
     </row>
     <row r="164" spans="1:8" ht="28">
       <c r="A164" s="33" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="52" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H164" s="19"/>
     </row>
     <row r="165" spans="1:8" ht="51" customHeight="1">
       <c r="A165" s="13" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
       <c r="G165" s="52" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H165" s="19"/>
     </row>
     <row r="166" spans="1:8" ht="84" customHeight="1">
       <c r="A166" s="13" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="52" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H166" s="19"/>
     </row>
     <row r="167" spans="1:8" ht="53" customHeight="1">
       <c r="A167" s="13" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
       <c r="G167" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H167" s="19"/>
     </row>
     <row r="168" spans="1:8" s="3" customFormat="1" ht="126" customHeight="1">
       <c r="A168" s="13" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B168" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E168" s="30" t="s">
         <v>539</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E168" s="30" t="s">
-        <v>543</v>
       </c>
       <c r="F168" s="19"/>
       <c r="G168" s="19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H168" s="19"/>
     </row>
     <row r="169" spans="1:8" ht="26" customHeight="1">
       <c r="A169" s="13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H169" s="19"/>
     </row>
     <row r="170" spans="1:8" ht="28">
       <c r="A170" s="13" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H170" s="19"/>
     </row>
     <row r="171" spans="1:8" ht="51" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F171" s="19"/>
       <c r="G171" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H171" s="19"/>
     </row>
     <row r="172" spans="1:8" ht="98">
       <c r="A172" s="13" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H172" s="19"/>
     </row>
     <row r="173" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A173" s="13" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="19" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:8" ht="34" customHeight="1">
       <c r="A174" s="13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="34"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H174" s="19"/>
     </row>
     <row r="175" spans="1:8" ht="51" customHeight="1">
       <c r="A175" s="13" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="28"/>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H175" s="19"/>
     </row>
     <row r="176" spans="1:8" ht="28">
       <c r="A176" s="13" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H176" s="19"/>
     </row>
     <row r="177" spans="1:8" ht="56">
       <c r="A177" s="13" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H177" s="19"/>
     </row>
     <row r="178" spans="1:8" ht="35" customHeight="1">
       <c r="A178" s="33" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H178" s="19"/>
     </row>
     <row r="179" spans="1:8" ht="40" customHeight="1">
       <c r="A179" s="13" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H179" s="19"/>
     </row>
     <row r="180" spans="1:8" ht="22" customHeight="1">
       <c r="A180" s="13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H180" s="19"/>
     </row>
     <row r="181" spans="1:8" ht="70">
       <c r="A181" s="13" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E181" s="19" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G181" s="52" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="36" customHeight="1">
       <c r="A182" s="13" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H182" s="19"/>
     </row>
     <row r="183" spans="1:8" ht="33" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="22" customHeight="1">
       <c r="A184" s="13" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H184" s="19"/>
     </row>
     <row r="185" spans="1:8" ht="28">
       <c r="A185" s="13" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H185" s="19"/>
     </row>
     <row r="186" spans="1:8" ht="28">
       <c r="A186" s="13" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H186" s="19"/>
     </row>
     <row r="187" spans="1:8" ht="70">
       <c r="A187" s="13" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
       <c r="G187" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H187" s="19"/>
     </row>
     <row r="188" spans="1:8" ht="56">
       <c r="A188" s="13" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H188" s="19"/>
     </row>
     <row r="189" spans="1:8" s="10" customFormat="1" ht="140">
       <c r="A189" s="13" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
       <c r="G189" s="54" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H189" s="19"/>
     </row>
     <row r="190" spans="1:8" ht="84">
       <c r="A190" s="13" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
       <c r="G190" s="54" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H190" s="19"/>
     </row>
     <row r="191" spans="1:8" ht="38" customHeight="1">
       <c r="A191" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -10463,58 +10627,58 @@
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H191" s="19"/>
     </row>
     <row r="192" spans="1:8" ht="27" customHeight="1">
       <c r="A192" s="13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H192" s="19"/>
     </row>
     <row r="193" spans="1:8" ht="50" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H193" s="19"/>
     </row>
     <row r="194" spans="1:8" ht="37" customHeight="1">
       <c r="A194" s="13" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
@@ -10523,104 +10687,104 @@
     </row>
     <row r="195" spans="1:8" ht="36" customHeight="1">
       <c r="A195" s="13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B195" s="35" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C195" s="36"/>
       <c r="D195" s="36"/>
       <c r="E195" s="36"/>
